--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D89A9F-6F9B-4CD3-99E7-EB2CAABF0002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDD41A5-48CA-4CCC-850E-914DBDD6457B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="661">
   <si>
     <t>RBS</t>
   </si>
@@ -2548,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O182" sqref="O182"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2560,7 +2560,7 @@
     <col min="11" max="11" width="9.1796875" customWidth="1"/>
     <col min="12" max="12" width="10.81640625" customWidth="1"/>
     <col min="13" max="14" width="8.81640625" customWidth="1"/>
-    <col min="15" max="15" width="23.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
     <col min="17" max="17" width="9.1796875" customWidth="1"/>
     <col min="18" max="18" width="10.54296875" customWidth="1"/>
     <col min="19" max="1025" width="9.1796875" customWidth="1"/>
@@ -12054,17 +12054,20 @@
       <c r="C180">
         <v>19.20331081932234</v>
       </c>
+      <c r="D180">
+        <v>24.453626711267411</v>
+      </c>
       <c r="I180">
         <f t="shared" ref="I180:I243" si="18">AVERAGE(C180:H180)</f>
-        <v>19.20331081932234</v>
+        <v>21.828468765294875</v>
       </c>
       <c r="J180">
         <f t="shared" ref="J180:J243" si="19">_xlfn.STDEV.P(C180:H180)</f>
-        <v>0</v>
+        <v>2.6251579459725405</v>
       </c>
       <c r="K180" s="6">
         <f t="shared" ref="K180:K243" si="20">J180/I180</f>
-        <v>0</v>
+        <v>0.12026303696328366</v>
       </c>
       <c r="L180" t="s">
         <v>660</v>
@@ -12089,17 +12092,20 @@
       <c r="C181">
         <v>17.610238008659859</v>
       </c>
+      <c r="D181">
+        <v>24.14740489760085</v>
+      </c>
       <c r="I181">
         <f t="shared" si="18"/>
-        <v>17.610238008659859</v>
+        <v>20.878821453130357</v>
       </c>
       <c r="J181">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.2685834444704827</v>
       </c>
       <c r="K181" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.15655018899452414</v>
       </c>
       <c r="L181" t="s">
         <v>660</v>
@@ -12124,17 +12130,20 @@
       <c r="C182">
         <v>19.1398619685645</v>
       </c>
+      <c r="D182">
+        <v>23.017435589334902</v>
+      </c>
       <c r="I182">
         <f t="shared" si="18"/>
-        <v>19.1398619685645</v>
+        <v>21.078648778949699</v>
       </c>
       <c r="J182">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.9387868103852011</v>
       </c>
       <c r="K182" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>9.1978704646446807E-2</v>
       </c>
       <c r="L182" t="s">
         <v>660</v>
@@ -12159,17 +12168,20 @@
       <c r="C183">
         <v>17.75236657101177</v>
       </c>
+      <c r="D183">
+        <v>18.515949336571961</v>
+      </c>
       <c r="I183">
         <f t="shared" si="18"/>
-        <v>17.75236657101177</v>
+        <v>18.134157953791863</v>
       </c>
       <c r="J183">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.38179138278009539</v>
       </c>
       <c r="K183" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.1053714418554657E-2</v>
       </c>
       <c r="L183" t="s">
         <v>660</v>
@@ -12194,17 +12206,20 @@
       <c r="C184">
         <v>17.372920501433001</v>
       </c>
+      <c r="D184">
+        <v>16.256351764188611</v>
+      </c>
       <c r="I184">
         <f t="shared" si="18"/>
-        <v>17.372920501433001</v>
+        <v>16.814636132810804</v>
       </c>
       <c r="J184">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.55828436862219455</v>
       </c>
       <c r="K184" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3.3202286639602077E-2</v>
       </c>
       <c r="L184" t="s">
         <v>660</v>
@@ -12229,17 +12244,20 @@
       <c r="C185">
         <v>16.17888348298991</v>
       </c>
+      <c r="D185">
+        <v>18.339535870145909</v>
+      </c>
       <c r="I185">
         <f t="shared" si="18"/>
-        <v>16.17888348298991</v>
+        <v>17.259209676567909</v>
       </c>
       <c r="J185">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.0803261935779993</v>
       </c>
       <c r="K185" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6.2594186745683497E-2</v>
       </c>
       <c r="L185" t="s">
         <v>660</v>
@@ -12264,17 +12282,20 @@
       <c r="C186">
         <v>17.71881140290003</v>
       </c>
+      <c r="D186">
+        <v>17.674828192863639</v>
+      </c>
       <c r="I186">
         <f t="shared" si="18"/>
-        <v>17.71881140290003</v>
+        <v>17.696819797881837</v>
       </c>
       <c r="J186">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.1991605018195415E-2</v>
       </c>
       <c r="K186" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.2426868369212658E-3</v>
       </c>
       <c r="L186" t="s">
         <v>660</v>
@@ -12299,17 +12320,20 @@
       <c r="C187">
         <v>19.652989292439042</v>
       </c>
+      <c r="D187">
+        <v>20.13079756464824</v>
+      </c>
       <c r="I187">
         <f t="shared" si="18"/>
-        <v>19.652989292439042</v>
+        <v>19.891893428543639</v>
       </c>
       <c r="J187">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.23890413610459937</v>
       </c>
       <c r="K187" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.2010125479648241E-2</v>
       </c>
       <c r="L187" t="s">
         <v>660</v>
@@ -12334,17 +12358,20 @@
       <c r="C188">
         <v>17.120631805364631</v>
       </c>
+      <c r="D188">
+        <v>16.691212955283071</v>
+      </c>
       <c r="I188">
         <f t="shared" si="18"/>
-        <v>17.120631805364631</v>
+        <v>16.905922380323851</v>
       </c>
       <c r="J188">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.21470942504078039</v>
       </c>
       <c r="K188" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.2700249073110166E-2</v>
       </c>
       <c r="L188" t="s">
         <v>660</v>
@@ -12369,17 +12396,20 @@
       <c r="C189">
         <v>16.19152959007284</v>
       </c>
+      <c r="D189">
+        <v>16.020762960507231</v>
+      </c>
       <c r="I189">
         <f t="shared" si="18"/>
-        <v>16.19152959007284</v>
+        <v>16.106146275290037</v>
       </c>
       <c r="J189">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8.5383314782804476E-2</v>
       </c>
       <c r="K189" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5.3012876775991469E-3</v>
       </c>
       <c r="L189" t="s">
         <v>660</v>
@@ -12404,17 +12434,20 @@
       <c r="C190">
         <v>16.969707070775691</v>
       </c>
+      <c r="D190">
+        <v>15.01080166188494</v>
+      </c>
       <c r="I190">
         <f t="shared" si="18"/>
-        <v>16.969707070775691</v>
+        <v>15.990254366330316</v>
       </c>
       <c r="J190">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.97945270444537513</v>
       </c>
       <c r="K190" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6.1253103422028596E-2</v>
       </c>
       <c r="L190" t="s">
         <v>660</v>
@@ -12439,17 +12472,20 @@
       <c r="C191">
         <v>19.347722394075479</v>
       </c>
+      <c r="D191">
+        <v>18.571164605712209</v>
+      </c>
       <c r="I191">
         <f t="shared" si="18"/>
-        <v>19.347722394075479</v>
+        <v>18.959443499893844</v>
       </c>
       <c r="J191">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.38827889418163508</v>
       </c>
       <c r="K191" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.0479445727603192E-2</v>
       </c>
       <c r="L191" t="s">
         <v>660</v>
@@ -12474,17 +12510,20 @@
       <c r="C192">
         <v>34.039694513566737</v>
       </c>
+      <c r="D192">
+        <v>34.920384109409589</v>
+      </c>
       <c r="I192">
         <f t="shared" si="18"/>
-        <v>34.039694513566737</v>
+        <v>34.480039311488163</v>
       </c>
       <c r="J192">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.44034479792142633</v>
       </c>
       <c r="K192" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.2771006260851649E-2</v>
       </c>
       <c r="L192" t="s">
         <v>660</v>
@@ -12509,17 +12548,20 @@
       <c r="C193">
         <v>15.225148884430441</v>
       </c>
+      <c r="D193">
+        <v>18.42129817654267</v>
+      </c>
       <c r="I193">
         <f t="shared" si="18"/>
-        <v>15.225148884430441</v>
+        <v>16.823223530486555</v>
       </c>
       <c r="J193">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.5980746460561146</v>
       </c>
       <c r="K193" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>9.4992178113791945E-2</v>
       </c>
       <c r="L193" t="s">
         <v>660</v>
@@ -12544,17 +12586,20 @@
       <c r="C194">
         <v>8.9546779243415653</v>
       </c>
+      <c r="D194">
+        <v>15.09112251057871</v>
+      </c>
       <c r="I194">
         <f t="shared" si="18"/>
-        <v>8.9546779243415653</v>
+        <v>12.022900217460137</v>
       </c>
       <c r="J194">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.0682222931185765</v>
       </c>
       <c r="K194" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.25519818326885729</v>
       </c>
       <c r="L194" t="s">
         <v>660</v>
@@ -12579,17 +12624,20 @@
       <c r="C195">
         <v>12.04222552272264</v>
       </c>
+      <c r="D195">
+        <v>14.57827132562549</v>
+      </c>
       <c r="I195">
         <f t="shared" si="18"/>
-        <v>12.04222552272264</v>
+        <v>13.310248424174066</v>
       </c>
       <c r="J195">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.2680229014514248</v>
       </c>
       <c r="K195" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>9.5266659271996929E-2</v>
       </c>
       <c r="L195" t="s">
         <v>660</v>
@@ -12614,17 +12662,20 @@
       <c r="C196">
         <v>14.8982025842705</v>
       </c>
+      <c r="D196">
+        <v>15.53046337302092</v>
+      </c>
       <c r="I196">
         <f t="shared" si="18"/>
-        <v>14.8982025842705</v>
+        <v>15.214332978645711</v>
       </c>
       <c r="J196">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.31613039437521007</v>
       </c>
       <c r="K196" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.0778459024061016E-2</v>
       </c>
       <c r="L196" t="s">
         <v>660</v>
@@ -12649,17 +12700,20 @@
       <c r="C197">
         <v>9.8111139227566984</v>
       </c>
+      <c r="D197">
+        <v>10.297011062925691</v>
+      </c>
       <c r="I197">
         <f t="shared" si="18"/>
-        <v>9.8111139227566984</v>
+        <v>10.054062492841194</v>
       </c>
       <c r="J197">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.24294857008449622</v>
       </c>
       <c r="K197" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.4164219215613906E-2</v>
       </c>
       <c r="L197" t="s">
         <v>660</v>
@@ -12684,17 +12738,20 @@
       <c r="C198">
         <v>9.5640862524991537</v>
       </c>
+      <c r="D198">
+        <v>10.7921879787532</v>
+      </c>
       <c r="I198">
         <f t="shared" si="18"/>
-        <v>9.5640862524991537</v>
+        <v>10.178137115626177</v>
       </c>
       <c r="J198">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.61405086312702295</v>
       </c>
       <c r="K198" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6.0330378354236339E-2</v>
       </c>
       <c r="L198" t="s">
         <v>660</v>
@@ -12719,17 +12776,20 @@
       <c r="C199">
         <v>7.9381651868506324</v>
       </c>
+      <c r="D199">
+        <v>8.4463036475557072</v>
+      </c>
       <c r="I199">
         <f t="shared" si="18"/>
-        <v>7.9381651868506324</v>
+        <v>8.1922344172031707</v>
       </c>
       <c r="J199">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.25406923035253737</v>
       </c>
       <c r="K199" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3.1013422884849116E-2</v>
       </c>
       <c r="L199" t="s">
         <v>660</v>
@@ -12754,17 +12814,20 @@
       <c r="C200">
         <v>12.80966436996504</v>
       </c>
+      <c r="D200">
+        <v>11.653105644297829</v>
+      </c>
       <c r="I200">
         <f t="shared" si="18"/>
-        <v>12.80966436996504</v>
+        <v>12.231385007131435</v>
       </c>
       <c r="J200">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.57827936283360515</v>
       </c>
       <c r="K200" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4.7278322323795946E-2</v>
       </c>
       <c r="L200" t="s">
         <v>660</v>
@@ -12789,17 +12852,20 @@
       <c r="C201">
         <v>14.44686016263555</v>
       </c>
+      <c r="D201">
+        <v>9.5546871914631684</v>
+      </c>
       <c r="I201">
         <f t="shared" si="18"/>
-        <v>14.44686016263555</v>
+        <v>12.000773677049359</v>
       </c>
       <c r="J201">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.4460864855861946</v>
       </c>
       <c r="K201" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.20382739908379108</v>
       </c>
       <c r="L201" t="s">
         <v>660</v>
@@ -12824,17 +12890,20 @@
       <c r="C202">
         <v>14.44908288400034</v>
       </c>
+      <c r="D202">
+        <v>9.2735077546288043</v>
+      </c>
       <c r="I202">
         <f t="shared" si="18"/>
-        <v>14.44908288400034</v>
+        <v>11.861295319314571</v>
       </c>
       <c r="J202">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.5877875646857751</v>
       </c>
       <c r="K202" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.21817073894719582</v>
       </c>
       <c r="L202" t="s">
         <v>660</v>
@@ -12859,17 +12928,20 @@
       <c r="C203">
         <v>19.522553044213691</v>
       </c>
+      <c r="D203">
+        <v>15.91659144304214</v>
+      </c>
       <c r="I203">
         <f t="shared" si="18"/>
-        <v>19.522553044213691</v>
+        <v>17.719572243627915</v>
       </c>
       <c r="J203">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.8029808005857819</v>
       </c>
       <c r="K203" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.10175080841661664</v>
       </c>
       <c r="L203" t="s">
         <v>660</v>
@@ -12894,17 +12966,20 @@
       <c r="C204">
         <v>14.942633386412631</v>
       </c>
+      <c r="D204">
+        <v>19.473140312346569</v>
+      </c>
       <c r="I204">
         <f t="shared" si="18"/>
-        <v>14.942633386412631</v>
+        <v>17.207886849379598</v>
       </c>
       <c r="J204">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.2652534629669732</v>
       </c>
       <c r="K204" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.13164042062774506</v>
       </c>
       <c r="L204" t="s">
         <v>660</v>
@@ -12929,17 +13004,20 @@
       <c r="C205">
         <v>6.5696337866293506</v>
       </c>
+      <c r="D205">
+        <v>12.68408732550512</v>
+      </c>
       <c r="I205">
         <f t="shared" si="18"/>
-        <v>6.5696337866293506</v>
+        <v>9.6268605560672356</v>
       </c>
       <c r="J205">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.0572267694378841</v>
       </c>
       <c r="K205" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.31757256185777993</v>
       </c>
       <c r="L205" t="s">
         <v>660</v>
@@ -12964,17 +13042,20 @@
       <c r="C206">
         <v>17.437438573542661</v>
       </c>
+      <c r="D206">
+        <v>19.1883242770866</v>
+      </c>
       <c r="I206">
         <f t="shared" si="18"/>
-        <v>17.437438573542661</v>
+        <v>18.312881425314629</v>
       </c>
       <c r="J206">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.8754428517719699</v>
       </c>
       <c r="K206" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4.7804757287502019E-2</v>
       </c>
       <c r="L206" t="s">
         <v>660</v>
@@ -12999,17 +13080,20 @@
       <c r="C207">
         <v>13.073256482008009</v>
       </c>
+      <c r="D207">
+        <v>9.1470579100474421</v>
+      </c>
       <c r="I207">
         <f t="shared" si="18"/>
-        <v>13.073256482008009</v>
+        <v>11.110157196027725</v>
       </c>
       <c r="J207">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.9630992859802869</v>
       </c>
       <c r="K207" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.17669410534372679</v>
       </c>
       <c r="L207" t="s">
         <v>660</v>
@@ -13034,17 +13118,20 @@
       <c r="C208">
         <v>8.3703605277557802</v>
       </c>
+      <c r="D208">
+        <v>9.3173162797921556</v>
+      </c>
       <c r="I208">
         <f t="shared" si="18"/>
-        <v>8.3703605277557802</v>
+        <v>8.8438384037739688</v>
       </c>
       <c r="J208">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.47347787601818769</v>
       </c>
       <c r="K208" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5.3537599218924946E-2</v>
       </c>
       <c r="L208" t="s">
         <v>660</v>
@@ -13069,17 +13156,20 @@
       <c r="C209">
         <v>11.70761630893251</v>
       </c>
+      <c r="D209">
+        <v>8.0191434188848998</v>
+      </c>
       <c r="I209">
         <f t="shared" si="18"/>
-        <v>11.70761630893251</v>
+        <v>9.8633798639087047</v>
       </c>
       <c r="J209">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.8442364450238038</v>
       </c>
       <c r="K209" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.18697814242885313</v>
       </c>
       <c r="L209" t="s">
         <v>660</v>
@@ -13104,17 +13194,20 @@
       <c r="C210">
         <v>8.6285580759081952</v>
       </c>
+      <c r="D210">
+        <v>7.6474175616034641</v>
+      </c>
       <c r="I210">
         <f t="shared" si="18"/>
-        <v>8.6285580759081952</v>
+        <v>8.1379878187558301</v>
       </c>
       <c r="J210">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.49057025715236557</v>
       </c>
       <c r="K210" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6.0281517750829718E-2</v>
       </c>
       <c r="L210" t="s">
         <v>660</v>
@@ -13139,17 +13232,20 @@
       <c r="C211">
         <v>10.965726308967451</v>
       </c>
+      <c r="D211">
+        <v>6.9313003325357752</v>
+      </c>
       <c r="I211">
         <f t="shared" si="18"/>
-        <v>10.965726308967451</v>
+        <v>8.9485133207516121</v>
       </c>
       <c r="J211">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.0172129882158423</v>
       </c>
       <c r="K211" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.2254243711676579</v>
       </c>
       <c r="L211" t="s">
         <v>660</v>
@@ -13174,17 +13270,20 @@
       <c r="C212">
         <v>10.37895798517688</v>
       </c>
+      <c r="D212">
+        <v>9.3094906507977733</v>
+      </c>
       <c r="I212">
         <f t="shared" si="18"/>
-        <v>10.37895798517688</v>
+        <v>9.8442243179873259</v>
       </c>
       <c r="J212">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.53473366718955351</v>
       </c>
       <c r="K212" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5.4319532948115611E-2</v>
       </c>
       <c r="L212" t="s">
         <v>660</v>
@@ -13209,17 +13308,20 @@
       <c r="C213">
         <v>12.31632351975867</v>
       </c>
+      <c r="D213">
+        <v>5.8002804003794557</v>
+      </c>
       <c r="I213">
         <f t="shared" si="18"/>
-        <v>12.31632351975867</v>
+        <v>9.0583019600690626</v>
       </c>
       <c r="J213">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.2580215596896083</v>
       </c>
       <c r="K213" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.35967243905664281</v>
       </c>
       <c r="L213" t="s">
         <v>660</v>
@@ -13244,17 +13346,20 @@
       <c r="C214">
         <v>12.016030847483901</v>
       </c>
+      <c r="D214">
+        <v>5.2805371133292018</v>
+      </c>
       <c r="I214">
         <f t="shared" si="18"/>
-        <v>12.016030847483901</v>
+        <v>8.6482839804065517</v>
       </c>
       <c r="J214">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.3677468670773472</v>
       </c>
       <c r="K214" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.38941215097784415</v>
       </c>
       <c r="L214" t="s">
         <v>660</v>
@@ -13279,17 +13384,20 @@
       <c r="C215">
         <v>19.4231503304322</v>
       </c>
+      <c r="D215">
+        <v>16.039160167671579</v>
+      </c>
       <c r="I215">
         <f t="shared" si="18"/>
-        <v>19.4231503304322</v>
+        <v>17.731155249051888</v>
       </c>
       <c r="J215">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.6919950813803106</v>
       </c>
       <c r="K215" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>9.5424976974965256E-2</v>
       </c>
       <c r="L215" t="s">
         <v>660</v>
@@ -13314,17 +13422,20 @@
       <c r="C216">
         <v>26.395147649722691</v>
       </c>
+      <c r="D216">
+        <v>26.0843625985774</v>
+      </c>
       <c r="I216">
         <f t="shared" si="18"/>
-        <v>26.395147649722691</v>
+        <v>26.239755124150044</v>
       </c>
       <c r="J216">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.15539252557264582</v>
       </c>
       <c r="K216" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5.9220265142500752E-3</v>
       </c>
       <c r="L216" t="s">
         <v>660</v>
@@ -13349,17 +13460,20 @@
       <c r="C217">
         <v>9.3910912840599234</v>
       </c>
+      <c r="D217">
+        <v>14.674130390916631</v>
+      </c>
       <c r="I217">
         <f t="shared" si="18"/>
-        <v>9.3910912840599234</v>
+        <v>12.032610837488278</v>
       </c>
       <c r="J217">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.6415195534283509</v>
       </c>
       <c r="K217" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.21953004124412864</v>
       </c>
       <c r="L217" t="s">
         <v>660</v>
@@ -13384,17 +13498,20 @@
       <c r="C218">
         <v>9.4813968060510625</v>
       </c>
+      <c r="D218">
+        <v>10.61968030298668</v>
+      </c>
       <c r="I218">
         <f t="shared" si="18"/>
-        <v>9.4813968060510625</v>
+        <v>10.050538554518871</v>
       </c>
       <c r="J218">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.56914174846780874</v>
       </c>
       <c r="K218" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5.6627985195073366E-2</v>
       </c>
       <c r="L218" t="s">
         <v>660</v>
@@ -13419,17 +13536,20 @@
       <c r="C219">
         <v>7.074900757346847</v>
       </c>
+      <c r="D219">
+        <v>10.34063893592457</v>
+      </c>
       <c r="I219">
         <f t="shared" si="18"/>
-        <v>7.074900757346847</v>
+        <v>8.7077698466357081</v>
       </c>
       <c r="J219">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.6328690892888644</v>
       </c>
       <c r="K219" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.18751863198586166</v>
       </c>
       <c r="L219" t="s">
         <v>660</v>
@@ -13454,17 +13574,20 @@
       <c r="C220">
         <v>7.7722592551717469</v>
       </c>
+      <c r="D220">
+        <v>5.7289057209809782</v>
+      </c>
       <c r="I220">
         <f t="shared" si="18"/>
-        <v>7.7722592551717469</v>
+        <v>6.750582488076363</v>
       </c>
       <c r="J220">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.021676767095381</v>
       </c>
       <c r="K220" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.15134646067950155</v>
       </c>
       <c r="L220" t="s">
         <v>660</v>
@@ -13489,17 +13612,20 @@
       <c r="C221">
         <v>4.7455167469007424</v>
       </c>
+      <c r="D221">
+        <v>7.8130307495477336</v>
+      </c>
       <c r="I221">
         <f t="shared" si="18"/>
-        <v>4.7455167469007424</v>
+        <v>6.279273748224238</v>
       </c>
       <c r="J221">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.5337570013234969</v>
       </c>
       <c r="K221" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.24425706902127645</v>
       </c>
       <c r="L221" t="s">
         <v>660</v>
@@ -13524,17 +13650,20 @@
       <c r="C222">
         <v>9.252310501261185</v>
       </c>
+      <c r="D222">
+        <v>10.3452794145442</v>
+      </c>
       <c r="I222">
         <f t="shared" si="18"/>
-        <v>9.252310501261185</v>
+        <v>9.7987949579026932</v>
       </c>
       <c r="J222">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.54648445664150724</v>
       </c>
       <c r="K222" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5.5770577809750928E-2</v>
       </c>
       <c r="L222" t="s">
         <v>660</v>
@@ -13559,17 +13688,20 @@
       <c r="C223">
         <v>9.8119613923544389</v>
       </c>
+      <c r="D223">
+        <v>10.27544101250262</v>
+      </c>
       <c r="I223">
         <f t="shared" si="18"/>
-        <v>9.8119613923544389</v>
+        <v>10.043701202428529</v>
       </c>
       <c r="J223">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.23173981007409061</v>
       </c>
       <c r="K223" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.3073148573760516E-2</v>
       </c>
       <c r="L223" t="s">
         <v>660</v>
@@ -13594,17 +13726,20 @@
       <c r="C224">
         <v>9.7355120454435546</v>
       </c>
+      <c r="D224">
+        <v>4.9385335066367304</v>
+      </c>
       <c r="I224">
         <f t="shared" si="18"/>
-        <v>9.7355120454435546</v>
+        <v>7.3370227760401425</v>
       </c>
       <c r="J224">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.398489269403413</v>
       </c>
       <c r="K224" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.32690225212819896</v>
       </c>
       <c r="L224" t="s">
         <v>660</v>
@@ -13629,17 +13764,20 @@
       <c r="C225">
         <v>10.559782435926969</v>
       </c>
+      <c r="D225">
+        <v>8.2930813172369469</v>
+      </c>
       <c r="I225">
         <f t="shared" si="18"/>
-        <v>10.559782435926969</v>
+        <v>9.4264318765819581</v>
       </c>
       <c r="J225">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.1333505593450106</v>
       </c>
       <c r="K225" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.12023113031353765</v>
       </c>
       <c r="L225" t="s">
         <v>660</v>
@@ -13664,17 +13802,20 @@
       <c r="C226">
         <v>11.201062028641291</v>
       </c>
+      <c r="D226">
+        <v>5.6389728802921812</v>
+      </c>
       <c r="I226">
         <f t="shared" si="18"/>
-        <v>11.201062028641291</v>
+        <v>8.4200174544667359</v>
       </c>
       <c r="J226">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.781044574174556</v>
       </c>
       <c r="K226" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.33028964479156031</v>
       </c>
       <c r="L226" t="s">
         <v>660</v>
@@ -13699,17 +13840,20 @@
       <c r="C227">
         <v>19.105961998307599</v>
       </c>
+      <c r="D227">
+        <v>14.183453856141499</v>
+      </c>
       <c r="I227">
         <f t="shared" si="18"/>
-        <v>19.105961998307599</v>
+        <v>16.644707927224548</v>
       </c>
       <c r="J227">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.4612540710830446</v>
       </c>
       <c r="K227" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.14787006668091476</v>
       </c>
       <c r="L227" t="s">
         <v>660</v>
@@ -13734,17 +13878,20 @@
       <c r="C228">
         <v>14.489223183503549</v>
       </c>
+      <c r="D228">
+        <v>17.756224693214339</v>
+      </c>
       <c r="I228">
         <f t="shared" si="18"/>
-        <v>14.489223183503549</v>
+        <v>16.122723938358945</v>
       </c>
       <c r="J228">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.6335007548553784</v>
       </c>
       <c r="K228" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.10131667335498921</v>
       </c>
       <c r="L228" t="s">
         <v>660</v>
@@ -13769,17 +13916,20 @@
       <c r="C229">
         <v>7.0631268894668233</v>
       </c>
+      <c r="D229">
+        <v>11.556763088733909</v>
+      </c>
       <c r="I229">
         <f t="shared" si="18"/>
-        <v>7.0631268894668233</v>
+        <v>9.3099449891003658</v>
       </c>
       <c r="J229">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.2468180996335443</v>
       </c>
       <c r="K229" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.24133527128935889</v>
       </c>
       <c r="L229" t="s">
         <v>660</v>
@@ -13804,17 +13954,20 @@
       <c r="C230">
         <v>5.4832606272799476</v>
       </c>
+      <c r="D230">
+        <v>1.976737914860593</v>
+      </c>
       <c r="I230">
         <f t="shared" si="18"/>
-        <v>5.4832606272799476</v>
+        <v>3.7299992710702705</v>
       </c>
       <c r="J230">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.753261356209677</v>
       </c>
       <c r="K230" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.47004335089497312</v>
       </c>
       <c r="L230" t="s">
         <v>660</v>
@@ -13839,17 +13992,20 @@
       <c r="C231">
         <v>9.1609659005114885</v>
       </c>
+      <c r="D231">
+        <v>6.9249517225862016</v>
+      </c>
       <c r="I231">
         <f t="shared" si="18"/>
-        <v>9.1609659005114885</v>
+        <v>8.0429588115488446</v>
       </c>
       <c r="J231">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.1180070889626477</v>
       </c>
       <c r="K231" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.13900445285848123</v>
       </c>
       <c r="L231" t="s">
         <v>660</v>
@@ -13874,17 +14030,20 @@
       <c r="C232">
         <v>8.146574943674505</v>
       </c>
+      <c r="D232">
+        <v>8.1003136442443573</v>
+      </c>
       <c r="I232">
         <f t="shared" si="18"/>
-        <v>8.146574943674505</v>
+        <v>8.1234442939594302</v>
       </c>
       <c r="J232">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.3130649715073837E-2</v>
       </c>
       <c r="K232" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.8473943906125779E-3</v>
       </c>
       <c r="L232" t="s">
         <v>660</v>
@@ -13909,17 +14068,20 @@
       <c r="C233">
         <v>20.23617447392796</v>
       </c>
+      <c r="D233">
+        <v>20.15876485798406</v>
+      </c>
       <c r="I233">
         <f t="shared" si="18"/>
-        <v>20.23617447392796</v>
+        <v>20.19746966595601</v>
       </c>
       <c r="J233">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.8704807971949862E-2</v>
       </c>
       <c r="K233" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.9163196485542458E-3</v>
       </c>
       <c r="L233" t="s">
         <v>660</v>
@@ -13944,17 +14106,20 @@
       <c r="C234">
         <v>5.5158107127912368</v>
       </c>
+      <c r="D234">
+        <v>1.7300464501596631</v>
+      </c>
       <c r="I234">
         <f t="shared" si="18"/>
-        <v>5.5158107127912368</v>
+        <v>3.6229285814754499</v>
       </c>
       <c r="J234">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.8928821313157869</v>
       </c>
       <c r="K234" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.52247293556775121</v>
       </c>
       <c r="L234" t="s">
         <v>660</v>
@@ -13979,17 +14144,20 @@
       <c r="C235">
         <v>9.5330155437996886</v>
       </c>
+      <c r="D235">
+        <v>6.6658752359786124</v>
+      </c>
       <c r="I235">
         <f t="shared" si="18"/>
-        <v>9.5330155437996886</v>
+        <v>8.0994453898891514</v>
       </c>
       <c r="J235">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.433570153910533</v>
       </c>
       <c r="K235" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.17699608860874766</v>
       </c>
       <c r="L235" t="s">
         <v>660</v>
@@ -14014,17 +14182,20 @@
       <c r="C236">
         <v>9.9467610660466352</v>
       </c>
+      <c r="D236">
+        <v>5.3987500660167722</v>
+      </c>
       <c r="I236">
         <f t="shared" si="18"/>
-        <v>9.9467610660466352</v>
+        <v>7.6727555660317037</v>
       </c>
       <c r="J236">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.2740055000149324</v>
       </c>
       <c r="K236" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.2963740315255517</v>
       </c>
       <c r="L236" t="s">
         <v>660</v>
@@ -14049,17 +14220,20 @@
       <c r="C237">
         <v>10.821015969241479</v>
       </c>
+      <c r="D237">
+        <v>9.8035298088473741</v>
+      </c>
       <c r="I237">
         <f t="shared" si="18"/>
-        <v>10.821015969241479</v>
+        <v>10.312272889044426</v>
       </c>
       <c r="J237">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.5087430801970525</v>
       </c>
       <c r="K237" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4.9333748793394715E-2</v>
       </c>
       <c r="L237" t="s">
         <v>660</v>
@@ -14084,17 +14258,20 @@
       <c r="C238">
         <v>11.535747559879031</v>
       </c>
+      <c r="D238">
+        <v>10.57359027540835</v>
+      </c>
       <c r="I238">
         <f t="shared" si="18"/>
-        <v>11.535747559879031</v>
+        <v>11.05466891764369</v>
       </c>
       <c r="J238">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.48107864223534058</v>
       </c>
       <c r="K238" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4.3518141141931442E-2</v>
       </c>
       <c r="L238" t="s">
         <v>660</v>
@@ -14119,17 +14296,20 @@
       <c r="C239">
         <v>22.933192341731448</v>
       </c>
+      <c r="D239">
+        <v>18.053515904748231</v>
+      </c>
       <c r="I239">
         <f t="shared" si="18"/>
-        <v>22.933192341731448</v>
+        <v>20.49335412323984</v>
       </c>
       <c r="J239">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.4398382184916043</v>
       </c>
       <c r="K239" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.1190550948282684</v>
       </c>
       <c r="L239" t="s">
         <v>660</v>
@@ -14154,17 +14334,20 @@
       <c r="C240">
         <v>14.677961186482911</v>
       </c>
+      <c r="D240">
+        <v>16.924663081946729</v>
+      </c>
       <c r="I240">
         <f t="shared" si="18"/>
-        <v>14.677961186482911</v>
+        <v>15.80131213421482</v>
       </c>
       <c r="J240">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.1233509477319092</v>
       </c>
       <c r="K240" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7.1092257287893229E-2</v>
       </c>
       <c r="L240" t="s">
         <v>660</v>
@@ -14189,17 +14372,20 @@
       <c r="C241">
         <v>9.7291181683601557</v>
       </c>
+      <c r="D241">
+        <v>12.714805545128421</v>
+      </c>
       <c r="I241">
         <f t="shared" si="18"/>
-        <v>9.7291181683601557</v>
+        <v>11.221961856744288</v>
       </c>
       <c r="J241">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.4928436883841349</v>
       </c>
       <c r="K241" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.13302876158743585</v>
       </c>
       <c r="L241" t="s">
         <v>660</v>
@@ -14224,17 +14410,20 @@
       <c r="C242">
         <v>2.577360826054544</v>
       </c>
+      <c r="D242">
+        <v>9.646719401160329</v>
+      </c>
       <c r="I242">
         <f t="shared" si="18"/>
-        <v>2.577360826054544</v>
+        <v>6.1120401136074367</v>
       </c>
       <c r="J242">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.5346792875528918</v>
       </c>
       <c r="K242" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.57831415073397807</v>
       </c>
       <c r="L242" t="s">
         <v>660</v>
@@ -14259,17 +14448,20 @@
       <c r="C243">
         <v>5.8232437495763367</v>
       </c>
+      <c r="D243">
+        <v>7.6761450750708926</v>
+      </c>
       <c r="I243">
         <f t="shared" si="18"/>
-        <v>5.8232437495763367</v>
+        <v>6.7496944123236151</v>
       </c>
       <c r="J243">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.92645066274727361</v>
       </c>
       <c r="K243" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.13725816402232327</v>
       </c>
       <c r="L243" t="s">
         <v>660</v>
@@ -14294,17 +14486,20 @@
       <c r="C244">
         <v>7.0199035338844364</v>
       </c>
+      <c r="D244">
+        <v>6.128280702610426</v>
+      </c>
       <c r="I244">
         <f t="shared" ref="I244:I269" si="21">AVERAGE(C244:H244)</f>
-        <v>7.0199035338844364</v>
+        <v>6.5740921182474317</v>
       </c>
       <c r="J244">
         <f t="shared" ref="J244:J269" si="22">_xlfn.STDEV.P(C244:H244)</f>
-        <v>0</v>
+        <v>0.44581141563700522</v>
       </c>
       <c r="K244" s="6">
         <f t="shared" ref="K244:K269" si="23">J244/I244</f>
-        <v>0</v>
+        <v>6.7813381318400631E-2</v>
       </c>
       <c r="L244" t="s">
         <v>660</v>
@@ -14329,17 +14524,20 @@
       <c r="C245">
         <v>4.015647607802852</v>
       </c>
+      <c r="D245">
+        <v>6.0973556318044722</v>
+      </c>
       <c r="I245">
         <f t="shared" si="21"/>
-        <v>4.015647607802852</v>
+        <v>5.0565016198036616</v>
       </c>
       <c r="J245">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.0408540120008125</v>
       </c>
       <c r="K245" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.20584469070954786</v>
       </c>
       <c r="L245" t="s">
         <v>660</v>
@@ -14364,17 +14562,20 @@
       <c r="C246">
         <v>16.296389466504959</v>
       </c>
+      <c r="D246">
+        <v>14.85781537939023</v>
+      </c>
       <c r="I246">
         <f t="shared" si="21"/>
-        <v>16.296389466504959</v>
+        <v>15.577102422947593</v>
       </c>
       <c r="J246">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.71928704355736439</v>
       </c>
       <c r="K246" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4.6175920529208186E-2</v>
       </c>
       <c r="L246" t="s">
         <v>660</v>
@@ -14399,17 +14600,20 @@
       <c r="C247">
         <v>22.92947050701051</v>
       </c>
+      <c r="D247">
+        <v>18.481838354350291</v>
+      </c>
       <c r="I247">
         <f t="shared" si="21"/>
-        <v>22.92947050701051</v>
+        <v>20.705654430680401</v>
       </c>
       <c r="J247">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.2238160763301091</v>
       </c>
       <c r="K247" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.10740139046438404</v>
       </c>
       <c r="L247" t="s">
         <v>660</v>
@@ -14434,17 +14638,20 @@
       <c r="C248">
         <v>9.8628918088564603</v>
       </c>
+      <c r="D248">
+        <v>7.4892890129898424</v>
+      </c>
       <c r="I248">
         <f t="shared" si="21"/>
-        <v>9.8628918088564603</v>
+        <v>8.6760904109231518</v>
       </c>
       <c r="J248">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.1868013979333045</v>
       </c>
       <c r="K248" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.13678988365994063</v>
       </c>
       <c r="L248" t="s">
         <v>660</v>
@@ -14469,17 +14676,20 @@
       <c r="C249">
         <v>15.087284290468199</v>
       </c>
+      <c r="D249">
+        <v>10.796011575395459</v>
+      </c>
       <c r="I249">
         <f t="shared" si="21"/>
-        <v>15.087284290468199</v>
+        <v>12.941647932931829</v>
       </c>
       <c r="J249">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.1456363575363664</v>
       </c>
       <c r="K249" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.16579313304270124</v>
       </c>
       <c r="L249" t="s">
         <v>660</v>
@@ -14501,8 +14711,11 @@
       <c r="B250" t="s">
         <v>640</v>
       </c>
-      <c r="C250" t="s">
-        <v>34</v>
+      <c r="C250">
+        <v>149.64539007092199</v>
+      </c>
+      <c r="D250">
+        <v>130.10204081632651</v>
       </c>
       <c r="I250" t="s">
         <v>34</v>
@@ -14536,17 +14749,20 @@
       <c r="C251">
         <v>20.672712687325479</v>
       </c>
+      <c r="D251">
+        <v>15.751224161658939</v>
+      </c>
       <c r="I251">
         <f t="shared" si="21"/>
-        <v>20.672712687325479</v>
+        <v>18.211968424492209</v>
       </c>
       <c r="J251">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.460744262833265</v>
       </c>
       <c r="K251" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.13511687509428988</v>
       </c>
       <c r="L251" t="s">
         <v>660</v>
@@ -14571,17 +14787,20 @@
       <c r="C252">
         <v>15.32296593744756</v>
       </c>
+      <c r="D252">
+        <v>16.905984683045901</v>
+      </c>
       <c r="I252">
         <f t="shared" si="21"/>
-        <v>15.32296593744756</v>
+        <v>16.114475310246732</v>
       </c>
       <c r="J252">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.79150937279917066</v>
       </c>
       <c r="K252" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4.9117911539811203E-2</v>
       </c>
       <c r="L252" t="s">
         <v>660</v>
@@ -14606,17 +14825,20 @@
       <c r="C253">
         <v>6.9711446662118837</v>
       </c>
+      <c r="D253">
+        <v>14.34015398398418</v>
+      </c>
       <c r="I253">
         <f t="shared" si="21"/>
-        <v>6.9711446662118837</v>
+        <v>10.655649325098032</v>
       </c>
       <c r="J253">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3.6845046588861488</v>
       </c>
       <c r="K253" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.34577945899624951</v>
       </c>
       <c r="L253" t="s">
         <v>660</v>
@@ -14641,17 +14863,20 @@
       <c r="C254">
         <v>8.4645157378005571</v>
       </c>
+      <c r="D254">
+        <v>8.6625672543966612</v>
+      </c>
       <c r="I254">
         <f t="shared" si="21"/>
-        <v>8.4645157378005571</v>
+        <v>8.5635414960986083</v>
       </c>
       <c r="J254">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>9.9025758298052047E-2</v>
       </c>
       <c r="K254" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.156364552482946E-2</v>
       </c>
       <c r="L254" t="s">
         <v>660</v>
@@ -14676,17 +14901,20 @@
       <c r="C255">
         <v>9.926844513854677</v>
       </c>
+      <c r="D255">
+        <v>10.662139386728439</v>
+      </c>
       <c r="I255">
         <f t="shared" si="21"/>
-        <v>9.926844513854677</v>
+        <v>10.294491950291558</v>
       </c>
       <c r="J255">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.36764743643688114</v>
       </c>
       <c r="K255" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3.5713023839556136E-2</v>
       </c>
       <c r="L255" t="s">
         <v>660</v>
@@ -14711,17 +14939,20 @@
       <c r="C256">
         <v>8.8544844918392407</v>
       </c>
+      <c r="D256">
+        <v>10.467766400790021</v>
+      </c>
       <c r="I256">
         <f t="shared" si="21"/>
-        <v>8.8544844918392407</v>
+        <v>9.6611254463146317</v>
       </c>
       <c r="J256">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.80664095447539008</v>
       </c>
       <c r="K256" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>8.3493476920237522E-2</v>
       </c>
       <c r="L256" t="s">
         <v>660</v>
@@ -14746,17 +14977,20 @@
       <c r="C257">
         <v>47.79599815420535</v>
       </c>
+      <c r="D257">
+        <v>44.542527907605788</v>
+      </c>
       <c r="I257">
         <f t="shared" si="21"/>
-        <v>47.79599815420535</v>
+        <v>46.169263030905569</v>
       </c>
       <c r="J257">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.6267351232997811</v>
       </c>
       <c r="K257" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3.5234158323273417E-2</v>
       </c>
       <c r="L257" t="s">
         <v>660</v>
@@ -14781,17 +15015,20 @@
       <c r="C258">
         <v>8.5762855005295542</v>
       </c>
+      <c r="D258">
+        <v>10.2709075756897</v>
+      </c>
       <c r="I258">
         <f t="shared" si="21"/>
-        <v>8.5762855005295542</v>
+        <v>9.4235965381096278</v>
       </c>
       <c r="J258">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.84731103758007276</v>
       </c>
       <c r="K258" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>8.9913764256936576E-2</v>
       </c>
       <c r="L258" t="s">
         <v>660</v>
@@ -14816,17 +15053,20 @@
       <c r="C259">
         <v>10.491138671958639</v>
       </c>
+      <c r="D259">
+        <v>12.05083057290954</v>
+      </c>
       <c r="I259">
         <f t="shared" si="21"/>
-        <v>10.491138671958639</v>
+        <v>11.270984622434089</v>
       </c>
       <c r="J259">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.77984595047545024</v>
       </c>
       <c r="K259" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>6.9190578871274708E-2</v>
       </c>
       <c r="L259" t="s">
         <v>660</v>
@@ -14851,17 +15091,20 @@
       <c r="C260">
         <v>15.37921241343753</v>
       </c>
+      <c r="D260">
+        <v>15.06758979438206</v>
+      </c>
       <c r="I260">
         <f t="shared" si="21"/>
-        <v>15.37921241343753</v>
+        <v>15.223401103909795</v>
       </c>
       <c r="J260">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.15581130952773492</v>
       </c>
       <c r="K260" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.0234986811699931E-2</v>
       </c>
       <c r="L260" t="s">
         <v>660</v>
@@ -14886,17 +15129,20 @@
       <c r="C261">
         <v>14.41135335435682</v>
       </c>
+      <c r="D261">
+        <v>10.93833821790083</v>
+      </c>
       <c r="I261">
         <f t="shared" si="21"/>
-        <v>14.41135335435682</v>
+        <v>12.674845786128824</v>
       </c>
       <c r="J261">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.7365075682280022</v>
       </c>
       <c r="K261" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.13700423638514103</v>
       </c>
       <c r="L261" t="s">
         <v>660</v>
@@ -14921,17 +15167,20 @@
       <c r="C262">
         <v>18.615068260065261</v>
       </c>
+      <c r="D262">
+        <v>13.929363070592951</v>
+      </c>
       <c r="I262">
         <f t="shared" si="21"/>
-        <v>18.615068260065261</v>
+        <v>16.272215665329107</v>
       </c>
       <c r="J262">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.3428525947361485</v>
       </c>
       <c r="K262" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.1439787084267829</v>
       </c>
       <c r="L262" t="s">
         <v>660</v>
@@ -14956,17 +15205,20 @@
       <c r="C263">
         <v>21.37029019216477</v>
       </c>
+      <c r="D263">
+        <v>17.78874989846452</v>
+      </c>
       <c r="I263">
         <f t="shared" si="21"/>
-        <v>21.37029019216477</v>
+        <v>19.579520045314645</v>
       </c>
       <c r="J263">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.7907701468501251</v>
       </c>
       <c r="K263" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>9.1461391428675709E-2</v>
       </c>
       <c r="L263" t="s">
         <v>660</v>
@@ -14991,17 +15243,20 @@
       <c r="C264">
         <v>16.354264778272231</v>
       </c>
+      <c r="D264">
+        <v>17.684737716487192</v>
+      </c>
       <c r="I264">
         <f t="shared" si="21"/>
-        <v>16.354264778272231</v>
+        <v>17.019501247379711</v>
       </c>
       <c r="J264">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.66523646910748013</v>
       </c>
       <c r="K264" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3.9086719371985039E-2</v>
       </c>
       <c r="L264" t="s">
         <v>660</v>
@@ -15023,8 +15278,11 @@
       <c r="B265" t="s">
         <v>655</v>
       </c>
-      <c r="C265" t="s">
-        <v>34</v>
+      <c r="C265">
+        <v>140.2777777777778</v>
+      </c>
+      <c r="D265">
+        <v>144.89795918367341</v>
       </c>
       <c r="I265" t="s">
         <v>34</v>
@@ -15058,17 +15316,20 @@
       <c r="C266">
         <v>18.032698675709529</v>
       </c>
+      <c r="D266">
+        <v>15.5105973010117</v>
+      </c>
       <c r="I266">
         <f t="shared" si="21"/>
-        <v>18.032698675709529</v>
+        <v>16.771647988360613</v>
       </c>
       <c r="J266">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.2610506873489147</v>
       </c>
       <c r="K266" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>7.5189432083482416E-2</v>
       </c>
       <c r="L266" t="s">
         <v>660</v>
@@ -15093,17 +15354,20 @@
       <c r="C267">
         <v>30.783890672369949</v>
       </c>
+      <c r="D267">
+        <v>29.832040883568709</v>
+      </c>
       <c r="I267">
         <f t="shared" si="21"/>
-        <v>30.783890672369949</v>
+        <v>30.307965777969329</v>
       </c>
       <c r="J267">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.47592489440062025</v>
       </c>
       <c r="K267" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5702963962911924E-2</v>
       </c>
       <c r="L267" t="s">
         <v>660</v>
@@ -15128,17 +15392,20 @@
       <c r="C268">
         <v>16.428919186466359</v>
       </c>
+      <c r="D268">
+        <v>16.141051668134089</v>
+      </c>
       <c r="I268">
         <f t="shared" si="21"/>
-        <v>16.428919186466359</v>
+        <v>16.284985427300224</v>
       </c>
       <c r="J268">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.14393375916613493</v>
       </c>
       <c r="K268" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>8.838433402884335E-3</v>
       </c>
       <c r="L268" t="s">
         <v>660</v>
@@ -15163,17 +15430,20 @@
       <c r="C269">
         <v>17.777483145106089</v>
       </c>
+      <c r="D269">
+        <v>17.799043798976768</v>
+      </c>
       <c r="I269">
         <f t="shared" si="21"/>
-        <v>17.777483145106089</v>
+        <v>17.788263472041429</v>
       </c>
       <c r="J269">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.0780326935339701E-2</v>
       </c>
       <c r="K269" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>6.0603593781279443E-4</v>
       </c>
       <c r="L269" t="s">
         <v>660</v>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDD41A5-48CA-4CCC-850E-914DBDD6457B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709ECE2-81C9-4E33-9A86-8E35182261D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-3570" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate" sheetId="1" r:id="rId1"/>
@@ -2548,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180:E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12057,17 +12057,20 @@
       <c r="D180">
         <v>24.453626711267411</v>
       </c>
+      <c r="E180">
+        <v>24.917671599122869</v>
+      </c>
       <c r="I180">
         <f t="shared" ref="I180:I243" si="18">AVERAGE(C180:H180)</f>
-        <v>21.828468765294875</v>
+        <v>22.858203043237541</v>
       </c>
       <c r="J180">
         <f t="shared" ref="J180:J243" si="19">_xlfn.STDEV.P(C180:H180)</f>
-        <v>2.6251579459725405</v>
+        <v>2.5913332849857991</v>
       </c>
       <c r="K180" s="6">
         <f t="shared" ref="K180:K243" si="20">J180/I180</f>
-        <v>0.12026303696328366</v>
+        <v>0.11336557296670043</v>
       </c>
       <c r="L180" t="s">
         <v>660</v>
@@ -12095,17 +12098,20 @@
       <c r="D181">
         <v>24.14740489760085</v>
       </c>
+      <c r="E181">
+        <v>20.685976047946951</v>
+      </c>
       <c r="I181">
         <f t="shared" si="18"/>
-        <v>20.878821453130357</v>
+        <v>20.814539651402555</v>
       </c>
       <c r="J181">
         <f t="shared" si="19"/>
-        <v>3.2685834444704827</v>
+        <v>2.6703350830394088</v>
       </c>
       <c r="K181" s="6">
         <f t="shared" si="20"/>
-        <v>0.15655018899452414</v>
+        <v>0.12829181561358588</v>
       </c>
       <c r="L181" t="s">
         <v>660</v>
@@ -12133,17 +12139,20 @@
       <c r="D182">
         <v>23.017435589334902</v>
       </c>
+      <c r="E182">
+        <v>21.094899235385839</v>
+      </c>
       <c r="I182">
         <f t="shared" si="18"/>
-        <v>21.078648778949699</v>
+        <v>21.084065597761747</v>
       </c>
       <c r="J182">
         <f t="shared" si="19"/>
-        <v>1.9387868103852011</v>
+        <v>1.5830313372138802</v>
       </c>
       <c r="K182" s="6">
         <f t="shared" si="20"/>
-        <v>9.1978704646446807E-2</v>
+        <v>7.5081882565473171E-2</v>
       </c>
       <c r="L182" t="s">
         <v>660</v>
@@ -12171,17 +12180,20 @@
       <c r="D183">
         <v>18.515949336571961</v>
       </c>
+      <c r="E183">
+        <v>18.02042927931398</v>
+      </c>
       <c r="I183">
         <f t="shared" si="18"/>
-        <v>18.134157953791863</v>
+        <v>18.096248395632568</v>
       </c>
       <c r="J183">
         <f t="shared" si="19"/>
-        <v>0.38179138278009539</v>
+        <v>0.31630793410286778</v>
       </c>
       <c r="K183" s="6">
         <f t="shared" si="20"/>
-        <v>2.1053714418554657E-2</v>
+        <v>1.7479199400203139E-2</v>
       </c>
       <c r="L183" t="s">
         <v>660</v>
@@ -12209,17 +12221,20 @@
       <c r="D184">
         <v>16.256351764188611</v>
       </c>
+      <c r="E184">
+        <v>14.49642264234447</v>
+      </c>
       <c r="I184">
         <f t="shared" si="18"/>
-        <v>16.814636132810804</v>
+        <v>16.041898302655358</v>
       </c>
       <c r="J184">
         <f t="shared" si="19"/>
-        <v>0.55828436862219455</v>
+        <v>1.1840756447423224</v>
       </c>
       <c r="K184" s="6">
         <f t="shared" si="20"/>
-        <v>3.3202286639602077E-2</v>
+        <v>7.3811441913101183E-2</v>
       </c>
       <c r="L184" t="s">
         <v>660</v>
@@ -12247,17 +12262,20 @@
       <c r="D185">
         <v>18.339535870145909</v>
       </c>
+      <c r="E185">
+        <v>17.019180686290451</v>
+      </c>
       <c r="I185">
         <f t="shared" si="18"/>
-        <v>17.259209676567909</v>
+        <v>17.17920001314209</v>
       </c>
       <c r="J185">
         <f t="shared" si="19"/>
-        <v>1.0803261935779993</v>
+        <v>0.88931034075297832</v>
       </c>
       <c r="K185" s="6">
         <f t="shared" si="20"/>
-        <v>6.2594186745683497E-2</v>
+        <v>5.1766691119065837E-2</v>
       </c>
       <c r="L185" t="s">
         <v>660</v>
@@ -12285,17 +12303,20 @@
       <c r="D186">
         <v>17.674828192863639</v>
       </c>
+      <c r="E186">
+        <v>16.533791976457799</v>
+      </c>
       <c r="I186">
         <f t="shared" si="18"/>
-        <v>17.696819797881837</v>
+        <v>17.309143857407157</v>
       </c>
       <c r="J186">
         <f t="shared" si="19"/>
-        <v>2.1991605018195415E-2</v>
+        <v>0.54855053559968747</v>
       </c>
       <c r="K186" s="6">
         <f t="shared" si="20"/>
-        <v>1.2426868369212658E-3</v>
+        <v>3.1691373075332346E-2</v>
       </c>
       <c r="L186" t="s">
         <v>660</v>
@@ -12323,17 +12344,20 @@
       <c r="D187">
         <v>20.13079756464824</v>
       </c>
+      <c r="E187">
+        <v>18.918311846844851</v>
+      </c>
       <c r="I187">
         <f t="shared" si="18"/>
-        <v>19.891893428543639</v>
+        <v>19.567366234644044</v>
       </c>
       <c r="J187">
         <f t="shared" si="19"/>
-        <v>0.23890413610459937</v>
+        <v>0.4986841919751912</v>
       </c>
       <c r="K187" s="6">
         <f t="shared" si="20"/>
-        <v>1.2010125479648241E-2</v>
+        <v>2.5485504078329675E-2</v>
       </c>
       <c r="L187" t="s">
         <v>660</v>
@@ -12361,17 +12385,20 @@
       <c r="D188">
         <v>16.691212955283071</v>
       </c>
+      <c r="E188">
+        <v>16.930029799406039</v>
+      </c>
       <c r="I188">
         <f t="shared" si="18"/>
-        <v>16.905922380323851</v>
+        <v>16.913958186684582</v>
       </c>
       <c r="J188">
         <f t="shared" si="19"/>
-        <v>0.21470942504078039</v>
+        <v>0.17567746915478172</v>
       </c>
       <c r="K188" s="6">
         <f t="shared" si="20"/>
-        <v>1.2700249073110166E-2</v>
+        <v>1.0386537983349327E-2</v>
       </c>
       <c r="L188" t="s">
         <v>660</v>
@@ -12399,17 +12426,20 @@
       <c r="D189">
         <v>16.020762960507231</v>
       </c>
+      <c r="E189">
+        <v>14.78407163922008</v>
+      </c>
       <c r="I189">
         <f t="shared" si="18"/>
-        <v>16.106146275290037</v>
+        <v>15.665454729933385</v>
       </c>
       <c r="J189">
         <f t="shared" si="19"/>
-        <v>8.5383314782804476E-2</v>
+        <v>0.62711903436258976</v>
       </c>
       <c r="K189" s="6">
         <f t="shared" si="20"/>
-        <v>5.3012876775991469E-3</v>
+        <v>4.003197131356151E-2</v>
       </c>
       <c r="L189" t="s">
         <v>660</v>
@@ -12437,17 +12467,20 @@
       <c r="D190">
         <v>15.01080166188494</v>
       </c>
+      <c r="E190">
+        <v>11.41671348360558</v>
+      </c>
       <c r="I190">
         <f t="shared" si="18"/>
-        <v>15.990254366330316</v>
+        <v>14.465740738755406</v>
       </c>
       <c r="J190">
         <f t="shared" si="19"/>
-        <v>0.97945270444537513</v>
+        <v>2.2995293724630104</v>
       </c>
       <c r="K190" s="6">
         <f t="shared" si="20"/>
-        <v>6.1253103422028596E-2</v>
+        <v>0.15896381761511205</v>
       </c>
       <c r="L190" t="s">
         <v>660</v>
@@ -12475,17 +12508,20 @@
       <c r="D191">
         <v>18.571164605712209</v>
       </c>
+      <c r="E191">
+        <v>18.2900162352562</v>
+      </c>
       <c r="I191">
         <f t="shared" si="18"/>
-        <v>18.959443499893844</v>
+        <v>18.736301078347964</v>
       </c>
       <c r="J191">
         <f t="shared" si="19"/>
-        <v>0.38827889418163508</v>
+        <v>0.44731653263059912</v>
       </c>
       <c r="K191" s="6">
         <f t="shared" si="20"/>
-        <v>2.0479445727603192E-2</v>
+        <v>2.3874324540371892E-2</v>
       </c>
       <c r="L191" t="s">
         <v>660</v>
@@ -12513,17 +12549,20 @@
       <c r="D192">
         <v>34.920384109409589</v>
       </c>
+      <c r="E192">
+        <v>39.070851487100313</v>
+      </c>
       <c r="I192">
         <f t="shared" si="18"/>
-        <v>34.480039311488163</v>
+        <v>36.010310036692211</v>
       </c>
       <c r="J192">
         <f t="shared" si="19"/>
-        <v>0.44034479792142633</v>
+        <v>2.1937926092053539</v>
       </c>
       <c r="K192" s="6">
         <f t="shared" si="20"/>
-        <v>1.2771006260851649E-2</v>
+        <v>6.0921236361753596E-2</v>
       </c>
       <c r="L192" t="s">
         <v>660</v>
@@ -12551,17 +12590,20 @@
       <c r="D193">
         <v>18.42129817654267</v>
       </c>
+      <c r="E193">
+        <v>14.15623435680526</v>
+      </c>
       <c r="I193">
         <f t="shared" si="18"/>
-        <v>16.823223530486555</v>
+        <v>15.934227139259457</v>
       </c>
       <c r="J193">
         <f t="shared" si="19"/>
-        <v>1.5980746460561146</v>
+        <v>1.8119577488105278</v>
       </c>
       <c r="K193" s="6">
         <f t="shared" si="20"/>
-        <v>9.4992178113791945E-2</v>
+        <v>0.11371481860868832</v>
       </c>
       <c r="L193" t="s">
         <v>660</v>
@@ -12589,17 +12631,20 @@
       <c r="D194">
         <v>15.09112251057871</v>
       </c>
+      <c r="E194">
+        <v>14.610860194244919</v>
+      </c>
       <c r="I194">
         <f t="shared" si="18"/>
-        <v>12.022900217460137</v>
+        <v>12.885553543055066</v>
       </c>
       <c r="J194">
         <f t="shared" si="19"/>
-        <v>3.0682222931185765</v>
+        <v>2.7864553732259636</v>
       </c>
       <c r="K194" s="6">
         <f t="shared" si="20"/>
-        <v>0.25519818326885729</v>
+        <v>0.21624646266964456</v>
       </c>
       <c r="L194" t="s">
         <v>660</v>
@@ -12627,17 +12672,20 @@
       <c r="D195">
         <v>14.57827132562549</v>
       </c>
+      <c r="E195">
+        <v>12.9029987343951</v>
+      </c>
       <c r="I195">
         <f t="shared" si="18"/>
-        <v>13.310248424174066</v>
+        <v>13.174498527581077</v>
       </c>
       <c r="J195">
         <f t="shared" si="19"/>
-        <v>1.2680229014514248</v>
+        <v>1.0529850210648175</v>
       </c>
       <c r="K195" s="6">
         <f t="shared" si="20"/>
-        <v>9.5266659271996929E-2</v>
+        <v>7.9926003927995606E-2</v>
       </c>
       <c r="L195" t="s">
         <v>660</v>
@@ -12665,17 +12713,20 @@
       <c r="D196">
         <v>15.53046337302092</v>
       </c>
+      <c r="E196">
+        <v>12.217054281911221</v>
+      </c>
       <c r="I196">
         <f t="shared" si="18"/>
-        <v>15.214332978645711</v>
+        <v>14.215240079734215</v>
       </c>
       <c r="J196">
         <f t="shared" si="19"/>
-        <v>0.31613039437521007</v>
+        <v>1.4363143314780542</v>
       </c>
       <c r="K196" s="6">
         <f t="shared" si="20"/>
-        <v>2.0778459024061016E-2</v>
+        <v>0.10104045541416626</v>
       </c>
       <c r="L196" t="s">
         <v>660</v>
@@ -12703,17 +12754,20 @@
       <c r="D197">
         <v>10.297011062925691</v>
       </c>
+      <c r="E197">
+        <v>9.7547635311864838</v>
+      </c>
       <c r="I197">
         <f t="shared" si="18"/>
-        <v>10.054062492841194</v>
+        <v>9.9542961722896237</v>
       </c>
       <c r="J197">
         <f t="shared" si="19"/>
-        <v>0.24294857008449622</v>
+        <v>0.243425503806671</v>
       </c>
       <c r="K197" s="6">
         <f t="shared" si="20"/>
-        <v>2.4164219215613906E-2</v>
+        <v>2.4454315965031188E-2</v>
       </c>
       <c r="L197" t="s">
         <v>660</v>
@@ -12741,17 +12795,20 @@
       <c r="D198">
         <v>10.7921879787532</v>
       </c>
+      <c r="E198">
+        <v>9.7662016778029734</v>
+      </c>
       <c r="I198">
         <f t="shared" si="18"/>
-        <v>10.178137115626177</v>
+        <v>10.040825303018442</v>
       </c>
       <c r="J198">
         <f t="shared" si="19"/>
-        <v>0.61405086312702295</v>
+        <v>0.53766288332120438</v>
       </c>
       <c r="K198" s="6">
         <f t="shared" si="20"/>
-        <v>6.0330378354236339E-2</v>
+        <v>5.3547678312814963E-2</v>
       </c>
       <c r="L198" t="s">
         <v>660</v>
@@ -12779,17 +12836,20 @@
       <c r="D199">
         <v>8.4463036475557072</v>
       </c>
+      <c r="E199">
+        <v>9.47317562094028</v>
+      </c>
       <c r="I199">
         <f t="shared" si="18"/>
-        <v>8.1922344172031707</v>
+        <v>8.6192148184488744</v>
       </c>
       <c r="J199">
         <f t="shared" si="19"/>
-        <v>0.25406923035253737</v>
+        <v>0.6384815126301655</v>
       </c>
       <c r="K199" s="6">
         <f t="shared" si="20"/>
-        <v>3.1013422884849116E-2</v>
+        <v>7.4076528556120555E-2</v>
       </c>
       <c r="L199" t="s">
         <v>660</v>
@@ -12817,17 +12877,20 @@
       <c r="D200">
         <v>11.653105644297829</v>
       </c>
+      <c r="E200">
+        <v>13.845493766617119</v>
+      </c>
       <c r="I200">
         <f t="shared" si="18"/>
-        <v>12.231385007131435</v>
+        <v>12.769421260293329</v>
       </c>
       <c r="J200">
         <f t="shared" si="19"/>
-        <v>0.57827936283360515</v>
+        <v>0.8954909456563338</v>
       </c>
       <c r="K200" s="6">
         <f t="shared" si="20"/>
-        <v>4.7278322323795946E-2</v>
+        <v>7.0127762832985524E-2</v>
       </c>
       <c r="L200" t="s">
         <v>660</v>
@@ -12855,17 +12918,20 @@
       <c r="D201">
         <v>9.5546871914631684</v>
       </c>
+      <c r="E201">
+        <v>6.9870010209390943</v>
+      </c>
       <c r="I201">
         <f t="shared" si="18"/>
-        <v>12.000773677049359</v>
+        <v>10.329516125012605</v>
       </c>
       <c r="J201">
         <f t="shared" si="19"/>
-        <v>2.4460864855861946</v>
+        <v>3.0943652564715221</v>
       </c>
       <c r="K201" s="6">
         <f t="shared" si="20"/>
-        <v>0.20382739908379108</v>
+        <v>0.2995653638584882</v>
       </c>
       <c r="L201" t="s">
         <v>660</v>
@@ -12893,17 +12959,20 @@
       <c r="D202">
         <v>9.2735077546288043</v>
       </c>
+      <c r="E202">
+        <v>9.609337760617878</v>
+      </c>
       <c r="I202">
         <f t="shared" si="18"/>
-        <v>11.861295319314571</v>
+        <v>11.110642799749007</v>
       </c>
       <c r="J202">
         <f t="shared" si="19"/>
-        <v>2.5877875646857751</v>
+        <v>2.3646116094520022</v>
       </c>
       <c r="K202" s="6">
         <f t="shared" si="20"/>
-        <v>0.21817073894719582</v>
+        <v>0.21282401496207037</v>
       </c>
       <c r="L202" t="s">
         <v>660</v>
@@ -12931,17 +13000,20 @@
       <c r="D203">
         <v>15.91659144304214</v>
       </c>
+      <c r="E203">
+        <v>15.11493223516835</v>
+      </c>
       <c r="I203">
         <f t="shared" si="18"/>
-        <v>17.719572243627915</v>
+        <v>16.851358907474729</v>
       </c>
       <c r="J203">
         <f t="shared" si="19"/>
-        <v>1.8029808005857819</v>
+        <v>1.9169633901048808</v>
       </c>
       <c r="K203" s="6">
         <f t="shared" si="20"/>
-        <v>0.10175080841661664</v>
+        <v>0.11375719908585986</v>
       </c>
       <c r="L203" t="s">
         <v>660</v>
@@ -12969,17 +13041,20 @@
       <c r="D204">
         <v>19.473140312346569</v>
       </c>
+      <c r="E204">
+        <v>21.4025715783552</v>
+      </c>
       <c r="I204">
         <f t="shared" si="18"/>
-        <v>17.207886849379598</v>
+        <v>18.606115092371464</v>
       </c>
       <c r="J204">
         <f t="shared" si="19"/>
-        <v>2.2652534629669732</v>
+        <v>2.7075819359697126</v>
       </c>
       <c r="K204" s="6">
         <f t="shared" si="20"/>
-        <v>0.13164042062774506</v>
+        <v>0.14552107855550273</v>
       </c>
       <c r="L204" t="s">
         <v>660</v>
@@ -13007,17 +13082,20 @@
       <c r="D205">
         <v>12.68408732550512</v>
       </c>
+      <c r="E205">
+        <v>9.5606932410429994</v>
+      </c>
       <c r="I205">
         <f t="shared" si="18"/>
-        <v>9.6268605560672356</v>
+        <v>9.6048047843924902</v>
       </c>
       <c r="J205">
         <f t="shared" si="19"/>
-        <v>3.0572267694378841</v>
+        <v>2.4964100746151612</v>
       </c>
       <c r="K205" s="6">
         <f t="shared" si="20"/>
-        <v>0.31757256185777993</v>
+        <v>0.25991263025686373</v>
       </c>
       <c r="L205" t="s">
         <v>660</v>
@@ -13045,17 +13123,20 @@
       <c r="D206">
         <v>19.1883242770866</v>
       </c>
+      <c r="E206">
+        <v>20.859877528211861</v>
+      </c>
       <c r="I206">
         <f t="shared" si="18"/>
-        <v>18.312881425314629</v>
+        <v>19.161880126280373</v>
       </c>
       <c r="J206">
         <f t="shared" si="19"/>
-        <v>0.8754428517719699</v>
+        <v>1.397329970442009</v>
       </c>
       <c r="K206" s="6">
         <f t="shared" si="20"/>
-        <v>4.7804757287502019E-2</v>
+        <v>7.2922383463070603E-2</v>
       </c>
       <c r="L206" t="s">
         <v>660</v>
@@ -13083,17 +13164,20 @@
       <c r="D207">
         <v>9.1470579100474421</v>
       </c>
+      <c r="E207">
+        <v>8.5195151983481043</v>
+      </c>
       <c r="I207">
         <f t="shared" si="18"/>
-        <v>11.110157196027725</v>
+        <v>10.246609863467851</v>
       </c>
       <c r="J207">
         <f t="shared" si="19"/>
-        <v>1.9630992859802869</v>
+        <v>2.0150931811920643</v>
       </c>
       <c r="K207" s="6">
         <f t="shared" si="20"/>
-        <v>0.17669410534372679</v>
+        <v>0.19665950085368805</v>
       </c>
       <c r="L207" t="s">
         <v>660</v>
@@ -13121,17 +13205,20 @@
       <c r="D208">
         <v>9.3173162797921556</v>
       </c>
+      <c r="E208">
+        <v>6.9307055508742694</v>
+      </c>
       <c r="I208">
         <f t="shared" si="18"/>
-        <v>8.8438384037739688</v>
+        <v>8.2061274528074026</v>
       </c>
       <c r="J208">
         <f t="shared" si="19"/>
-        <v>0.47347787601818769</v>
+        <v>0.98122612753184202</v>
       </c>
       <c r="K208" s="6">
         <f t="shared" si="20"/>
-        <v>5.3537599218924946E-2</v>
+        <v>0.11957237237354316</v>
       </c>
       <c r="L208" t="s">
         <v>660</v>
@@ -13159,17 +13246,20 @@
       <c r="D209">
         <v>8.0191434188848998</v>
       </c>
+      <c r="E209">
+        <v>7.5399409753349964</v>
+      </c>
       <c r="I209">
         <f t="shared" si="18"/>
-        <v>9.8633798639087047</v>
+        <v>9.0889002343841359</v>
       </c>
       <c r="J209">
         <f t="shared" si="19"/>
-        <v>1.8442364450238038</v>
+        <v>1.8620175714888043</v>
       </c>
       <c r="K209" s="6">
         <f t="shared" si="20"/>
-        <v>0.18697814242885313</v>
+        <v>0.20486720323374466</v>
       </c>
       <c r="L209" t="s">
         <v>660</v>
@@ -13197,17 +13287,20 @@
       <c r="D210">
         <v>7.6474175616034641</v>
       </c>
+      <c r="E210">
+        <v>8.8864196454398261</v>
+      </c>
       <c r="I210">
         <f t="shared" si="18"/>
-        <v>8.1379878187558301</v>
+        <v>8.3874650943171627</v>
       </c>
       <c r="J210">
         <f t="shared" si="19"/>
-        <v>0.49057025715236557</v>
+        <v>0.5337764265227235</v>
       </c>
       <c r="K210" s="6">
         <f t="shared" si="20"/>
-        <v>6.0281517750829718E-2</v>
+        <v>6.3639779184819265E-2</v>
       </c>
       <c r="L210" t="s">
         <v>660</v>
@@ -13235,17 +13328,20 @@
       <c r="D211">
         <v>6.9313003325357752</v>
       </c>
+      <c r="E211">
+        <v>10.318366497877809</v>
+      </c>
       <c r="I211">
         <f t="shared" si="18"/>
-        <v>8.9485133207516121</v>
+        <v>9.4051310464603457</v>
       </c>
       <c r="J211">
         <f t="shared" si="19"/>
-        <v>2.0172129882158423</v>
+        <v>1.7691141817532898</v>
       </c>
       <c r="K211" s="6">
         <f t="shared" si="20"/>
-        <v>0.2254243711676579</v>
+        <v>0.18810096031773021</v>
       </c>
       <c r="L211" t="s">
         <v>660</v>
@@ -13273,17 +13369,20 @@
       <c r="D212">
         <v>9.3094906507977733</v>
       </c>
+      <c r="E212">
+        <v>1.624557266201778</v>
+      </c>
       <c r="I212">
         <f t="shared" si="18"/>
-        <v>9.8442243179873259</v>
+        <v>7.1043353007254764</v>
       </c>
       <c r="J212">
         <f t="shared" si="19"/>
-        <v>0.53473366718955351</v>
+        <v>3.8993089623301485</v>
       </c>
       <c r="K212" s="6">
         <f t="shared" si="20"/>
-        <v>5.4319532948115611E-2</v>
+        <v>0.54886330631550584</v>
       </c>
       <c r="L212" t="s">
         <v>660</v>
@@ -13311,17 +13410,20 @@
       <c r="D213">
         <v>5.8002804003794557</v>
       </c>
+      <c r="E213">
+        <v>6.0228873246586359</v>
+      </c>
       <c r="I213">
         <f t="shared" si="18"/>
-        <v>9.0583019600690626</v>
+        <v>8.0464970815989201</v>
       </c>
       <c r="J213">
         <f t="shared" si="19"/>
-        <v>3.2580215596896083</v>
+        <v>3.0205906508154148</v>
       </c>
       <c r="K213" s="6">
         <f t="shared" si="20"/>
-        <v>0.35967243905664281</v>
+        <v>0.37539200228171749</v>
       </c>
       <c r="L213" t="s">
         <v>660</v>
@@ -13349,17 +13451,20 @@
       <c r="D214">
         <v>5.2805371133292018</v>
       </c>
+      <c r="E214">
+        <v>3.8693800222713661</v>
+      </c>
       <c r="I214">
         <f t="shared" si="18"/>
-        <v>8.6482839804065517</v>
+        <v>7.0553159943614894</v>
       </c>
       <c r="J214">
         <f t="shared" si="19"/>
-        <v>3.3677468670773472</v>
+        <v>3.5547489338819855</v>
       </c>
       <c r="K214" s="6">
         <f t="shared" si="20"/>
-        <v>0.38941215097784415</v>
+        <v>0.50383979069440565</v>
       </c>
       <c r="L214" t="s">
         <v>660</v>
@@ -13387,17 +13492,20 @@
       <c r="D215">
         <v>16.039160167671579</v>
       </c>
+      <c r="E215">
+        <v>14.417127178706091</v>
+      </c>
       <c r="I215">
         <f t="shared" si="18"/>
-        <v>17.731155249051888</v>
+        <v>16.626479225603287</v>
       </c>
       <c r="J215">
         <f t="shared" si="19"/>
-        <v>1.6919950813803106</v>
+        <v>2.0854695243936323</v>
       </c>
       <c r="K215" s="6">
         <f t="shared" si="20"/>
-        <v>9.5424976974965256E-2</v>
+        <v>0.12543061559191657</v>
       </c>
       <c r="L215" t="s">
         <v>660</v>
@@ -13425,17 +13533,20 @@
       <c r="D216">
         <v>26.0843625985774</v>
       </c>
+      <c r="E216">
+        <v>36.527916386746163</v>
+      </c>
       <c r="I216">
         <f t="shared" si="18"/>
-        <v>26.239755124150044</v>
+        <v>29.669142211682082</v>
       </c>
       <c r="J216">
         <f t="shared" si="19"/>
-        <v>0.15539252557264582</v>
+        <v>4.8515450614829012</v>
       </c>
       <c r="K216" s="6">
         <f t="shared" si="20"/>
-        <v>5.9220265142500752E-3</v>
+        <v>0.16352158167797073</v>
       </c>
       <c r="L216" t="s">
         <v>660</v>
@@ -13463,17 +13574,20 @@
       <c r="D217">
         <v>14.674130390916631</v>
       </c>
+      <c r="E217">
+        <v>9.7509341179622009</v>
+      </c>
       <c r="I217">
         <f t="shared" si="18"/>
-        <v>12.032610837488278</v>
+        <v>11.272051930979586</v>
       </c>
       <c r="J217">
         <f t="shared" si="19"/>
-        <v>2.6415195534283509</v>
+        <v>2.4101141192833446</v>
       </c>
       <c r="K217" s="6">
         <f t="shared" si="20"/>
-        <v>0.21953004124412864</v>
+        <v>0.21381325547831256</v>
       </c>
       <c r="L217" t="s">
         <v>660</v>
@@ -13501,17 +13615,20 @@
       <c r="D218">
         <v>10.61968030298668</v>
       </c>
+      <c r="E218">
+        <v>10.276745525288259</v>
+      </c>
       <c r="I218">
         <f t="shared" si="18"/>
-        <v>10.050538554518871</v>
+        <v>10.125940878108667</v>
       </c>
       <c r="J218">
         <f t="shared" si="19"/>
-        <v>0.56914174846780874</v>
+        <v>0.47678007582617193</v>
       </c>
       <c r="K218" s="6">
         <f t="shared" si="20"/>
-        <v>5.6627985195073366E-2</v>
+        <v>4.7085014772002637E-2</v>
       </c>
       <c r="L218" t="s">
         <v>660</v>
@@ -13539,17 +13656,20 @@
       <c r="D219">
         <v>10.34063893592457</v>
       </c>
+      <c r="E219">
+        <v>11.64141163292177</v>
+      </c>
       <c r="I219">
         <f t="shared" si="18"/>
-        <v>8.7077698466357081</v>
+        <v>9.6856504420643947</v>
       </c>
       <c r="J219">
         <f t="shared" si="19"/>
-        <v>1.6328690892888644</v>
+        <v>1.9209394992213158</v>
       </c>
       <c r="K219" s="6">
         <f t="shared" si="20"/>
-        <v>0.18751863198586166</v>
+        <v>0.19832839422727377</v>
       </c>
       <c r="L219" t="s">
         <v>660</v>
@@ -13577,17 +13697,20 @@
       <c r="D220">
         <v>5.7289057209809782</v>
       </c>
+      <c r="E220">
+        <v>8.6138670477354093</v>
+      </c>
       <c r="I220">
         <f t="shared" si="18"/>
-        <v>6.750582488076363</v>
+        <v>7.3716773412960448</v>
       </c>
       <c r="J220">
         <f t="shared" si="19"/>
-        <v>1.021676767095381</v>
+        <v>1.2113628321056213</v>
       </c>
       <c r="K220" s="6">
         <f t="shared" si="20"/>
-        <v>0.15134646067950155</v>
+        <v>0.16432662147589963</v>
       </c>
       <c r="L220" t="s">
         <v>660</v>
@@ -13615,17 +13738,20 @@
       <c r="D221">
         <v>7.8130307495477336</v>
       </c>
+      <c r="E221">
+        <v>8.6249867086386782</v>
+      </c>
       <c r="I221">
         <f t="shared" si="18"/>
-        <v>6.279273748224238</v>
+        <v>7.061178068362385</v>
       </c>
       <c r="J221">
         <f t="shared" si="19"/>
-        <v>1.5337570013234969</v>
+        <v>1.6706353355656676</v>
       </c>
       <c r="K221" s="6">
         <f t="shared" si="20"/>
-        <v>0.24425706902127645</v>
+        <v>0.23659442084472429</v>
       </c>
       <c r="L221" t="s">
         <v>660</v>
@@ -13653,17 +13779,20 @@
       <c r="D222">
         <v>10.3452794145442</v>
       </c>
+      <c r="E222">
+        <v>5.0711988414820377</v>
+      </c>
       <c r="I222">
         <f t="shared" si="18"/>
-        <v>9.7987949579026932</v>
+        <v>8.2229295857624738</v>
       </c>
       <c r="J222">
         <f t="shared" si="19"/>
-        <v>0.54648445664150724</v>
+        <v>2.2728396738709393</v>
       </c>
       <c r="K222" s="6">
         <f t="shared" si="20"/>
-        <v>5.5770577809750928E-2</v>
+        <v>0.27640266770692401</v>
       </c>
       <c r="L222" t="s">
         <v>660</v>
@@ -13691,17 +13820,20 @@
       <c r="D223">
         <v>10.27544101250262</v>
       </c>
+      <c r="E223">
+        <v>5.7562213389269914</v>
+      </c>
       <c r="I223">
         <f t="shared" si="18"/>
-        <v>10.043701202428529</v>
+        <v>8.6145412479280168</v>
       </c>
       <c r="J223">
         <f t="shared" si="19"/>
-        <v>0.23173981007409061</v>
+        <v>2.029975018929528</v>
       </c>
       <c r="K223" s="6">
         <f t="shared" si="20"/>
-        <v>2.3073148573760516E-2</v>
+        <v>0.23564516792090129</v>
       </c>
       <c r="L223" t="s">
         <v>660</v>
@@ -13729,17 +13861,20 @@
       <c r="D224">
         <v>4.9385335066367304</v>
       </c>
+      <c r="E224">
+        <v>6.2831098081978132</v>
+      </c>
       <c r="I224">
         <f t="shared" si="18"/>
-        <v>7.3370227760401425</v>
+        <v>6.9857184534260321</v>
       </c>
       <c r="J224">
         <f t="shared" si="19"/>
-        <v>2.398489269403413</v>
+        <v>2.0203951687240798</v>
       </c>
       <c r="K224" s="6">
         <f t="shared" si="20"/>
-        <v>0.32690225212819896</v>
+        <v>0.289217949763379</v>
       </c>
       <c r="L224" t="s">
         <v>660</v>
@@ -13767,17 +13902,20 @@
       <c r="D225">
         <v>8.2930813172369469</v>
       </c>
+      <c r="E225">
+        <v>8.7906484027711631</v>
+      </c>
       <c r="I225">
         <f t="shared" si="18"/>
-        <v>9.4264318765819581</v>
+        <v>9.2145040519783592</v>
       </c>
       <c r="J225">
         <f t="shared" si="19"/>
-        <v>1.1333505593450106</v>
+        <v>0.97270197521861779</v>
       </c>
       <c r="K225" s="6">
         <f t="shared" si="20"/>
-        <v>0.12023113031353765</v>
+        <v>0.10556205409772196</v>
       </c>
       <c r="L225" t="s">
         <v>660</v>
@@ -13805,17 +13943,20 @@
       <c r="D226">
         <v>5.6389728802921812</v>
       </c>
+      <c r="E226">
+        <v>9.2798854146546166</v>
+      </c>
       <c r="I226">
         <f t="shared" si="18"/>
-        <v>8.4200174544667359</v>
+        <v>8.7066401078626967</v>
       </c>
       <c r="J226">
         <f t="shared" si="19"/>
-        <v>2.781044574174556</v>
+        <v>2.3066088470400223</v>
       </c>
       <c r="K226" s="6">
         <f t="shared" si="20"/>
-        <v>0.33028964479156031</v>
+        <v>0.26492525457173721</v>
       </c>
       <c r="L226" t="s">
         <v>660</v>
@@ -13843,17 +13984,20 @@
       <c r="D227">
         <v>14.183453856141499</v>
       </c>
+      <c r="E227">
+        <v>14.988962018894551</v>
+      </c>
       <c r="I227">
         <f t="shared" si="18"/>
-        <v>16.644707927224548</v>
+        <v>16.092792624447881</v>
       </c>
       <c r="J227">
         <f t="shared" si="19"/>
-        <v>2.4612540710830446</v>
+        <v>2.1558607108283772</v>
       </c>
       <c r="K227" s="6">
         <f t="shared" si="20"/>
-        <v>0.14787006668091476</v>
+        <v>0.13396436287591454</v>
       </c>
       <c r="L227" t="s">
         <v>660</v>
@@ -13881,17 +14025,20 @@
       <c r="D228">
         <v>17.756224693214339</v>
       </c>
+      <c r="E228">
+        <v>20.550516294814742</v>
+      </c>
       <c r="I228">
         <f t="shared" si="18"/>
-        <v>16.122723938358945</v>
+        <v>17.598654723844209</v>
       </c>
       <c r="J228">
         <f t="shared" si="19"/>
-        <v>1.6335007548553784</v>
+        <v>2.4770196832406617</v>
       </c>
       <c r="K228" s="6">
         <f t="shared" si="20"/>
-        <v>0.10131667335498921</v>
+        <v>0.14075051315624579</v>
       </c>
       <c r="L228" t="s">
         <v>660</v>
@@ -13919,17 +14066,20 @@
       <c r="D229">
         <v>11.556763088733909</v>
       </c>
+      <c r="E229">
+        <v>7.4133908722962047</v>
+      </c>
       <c r="I229">
         <f t="shared" si="18"/>
-        <v>9.3099449891003658</v>
+        <v>8.6777602834989782</v>
       </c>
       <c r="J229">
         <f t="shared" si="19"/>
-        <v>2.2468180996335443</v>
+        <v>2.0407782957864917</v>
       </c>
       <c r="K229" s="6">
         <f t="shared" si="20"/>
-        <v>0.24133527128935889</v>
+        <v>0.23517338911367405</v>
       </c>
       <c r="L229" t="s">
         <v>660</v>
@@ -13957,17 +14107,20 @@
       <c r="D230">
         <v>1.976737914860593</v>
       </c>
+      <c r="E230">
+        <v>11.71985673719599</v>
+      </c>
       <c r="I230">
         <f t="shared" si="18"/>
-        <v>3.7299992710702705</v>
+        <v>6.3932850931121763</v>
       </c>
       <c r="J230">
         <f t="shared" si="19"/>
-        <v>1.753261356209677</v>
+        <v>4.0293257908196418</v>
       </c>
       <c r="K230" s="6">
         <f t="shared" si="20"/>
-        <v>0.47004335089497312</v>
+        <v>0.63024340884792507</v>
       </c>
       <c r="L230" t="s">
         <v>660</v>
@@ -13995,17 +14148,20 @@
       <c r="D231">
         <v>6.9249517225862016</v>
       </c>
+      <c r="E231">
+        <v>5.5868695227171354</v>
+      </c>
       <c r="I231">
         <f t="shared" si="18"/>
-        <v>8.0429588115488446</v>
+        <v>7.2242623819382743</v>
       </c>
       <c r="J231">
         <f t="shared" si="19"/>
-        <v>1.1180070889626477</v>
+        <v>1.4743883212012654</v>
       </c>
       <c r="K231" s="6">
         <f t="shared" si="20"/>
-        <v>0.13900445285848123</v>
+        <v>0.20408842359982032</v>
       </c>
       <c r="L231" t="s">
         <v>660</v>
@@ -14033,17 +14189,20 @@
       <c r="D232">
         <v>8.1003136442443573</v>
       </c>
+      <c r="E232">
+        <v>2.387663312249825</v>
+      </c>
       <c r="I232">
         <f t="shared" si="18"/>
-        <v>8.1234442939594302</v>
+        <v>6.2115173000562285</v>
       </c>
       <c r="J232">
         <f t="shared" si="19"/>
-        <v>2.3130649715073837E-2</v>
+        <v>2.7039390423360099</v>
       </c>
       <c r="K232" s="6">
         <f t="shared" si="20"/>
-        <v>2.8473943906125779E-3</v>
+        <v>0.43531055484809372</v>
       </c>
       <c r="L232" t="s">
         <v>660</v>
@@ -14071,17 +14230,20 @@
       <c r="D233">
         <v>20.15876485798406</v>
       </c>
+      <c r="E233">
+        <v>18.77200850954361</v>
+      </c>
       <c r="I233">
         <f t="shared" si="18"/>
-        <v>20.19746966595601</v>
+        <v>19.722315947151877</v>
       </c>
       <c r="J233">
         <f t="shared" si="19"/>
-        <v>3.8704807971949862E-2</v>
+        <v>0.67271154374929409</v>
       </c>
       <c r="K233" s="6">
         <f t="shared" si="20"/>
-        <v>1.9163196485542458E-3</v>
+        <v>3.4109155615998595E-2</v>
       </c>
       <c r="L233" t="s">
         <v>660</v>
@@ -14109,17 +14271,20 @@
       <c r="D234">
         <v>1.7300464501596631</v>
       </c>
+      <c r="E234">
+        <v>5.4345051475567736</v>
+      </c>
       <c r="I234">
         <f t="shared" si="18"/>
-        <v>3.6229285814754499</v>
+        <v>4.2267874368358909</v>
       </c>
       <c r="J234">
         <f t="shared" si="19"/>
-        <v>1.8928821313157869</v>
+        <v>1.7657744881772166</v>
       </c>
       <c r="K234" s="6">
         <f t="shared" si="20"/>
-        <v>0.52247293556775121</v>
+        <v>0.41775805255516912</v>
       </c>
       <c r="L234" t="s">
         <v>660</v>
@@ -14147,17 +14312,20 @@
       <c r="D235">
         <v>6.6658752359786124</v>
       </c>
+      <c r="E235">
+        <v>2.6721539586948899</v>
+      </c>
       <c r="I235">
         <f t="shared" si="18"/>
-        <v>8.0994453898891514</v>
+        <v>6.2903482461577305</v>
       </c>
       <c r="J235">
         <f t="shared" si="19"/>
-        <v>1.433570153910533</v>
+        <v>2.8134937725841422</v>
       </c>
       <c r="K235" s="6">
         <f t="shared" si="20"/>
-        <v>0.17699608860874766</v>
+        <v>0.44727154403616365</v>
       </c>
       <c r="L235" t="s">
         <v>660</v>
@@ -14185,17 +14353,20 @@
       <c r="D236">
         <v>5.3987500660167722</v>
       </c>
+      <c r="E236">
+        <v>4.4561981802670214</v>
+      </c>
       <c r="I236">
         <f t="shared" si="18"/>
-        <v>7.6727555660317037</v>
+        <v>6.6005697707768105</v>
       </c>
       <c r="J236">
         <f t="shared" si="19"/>
-        <v>2.2740055000149324</v>
+        <v>2.3971994984060423</v>
       </c>
       <c r="K236" s="6">
         <f t="shared" si="20"/>
-        <v>0.2963740315255517</v>
+        <v>0.36318069222135041</v>
       </c>
       <c r="L236" t="s">
         <v>660</v>
@@ -14223,17 +14394,20 @@
       <c r="D237">
         <v>9.8035298088473741</v>
       </c>
+      <c r="E237">
+        <v>10.72242496806337</v>
+      </c>
       <c r="I237">
         <f t="shared" si="18"/>
-        <v>10.312272889044426</v>
+        <v>10.448990248717408</v>
       </c>
       <c r="J237">
         <f t="shared" si="19"/>
-        <v>0.5087430801970525</v>
+        <v>0.45818077288063097</v>
       </c>
       <c r="K237" s="6">
         <f t="shared" si="20"/>
-        <v>4.9333748793394715E-2</v>
+        <v>4.384928705784482E-2</v>
       </c>
       <c r="L237" t="s">
         <v>660</v>
@@ -14261,17 +14435,20 @@
       <c r="D238">
         <v>10.57359027540835</v>
       </c>
+      <c r="E238">
+        <v>5.9608819316044466</v>
+      </c>
       <c r="I238">
         <f t="shared" si="18"/>
-        <v>11.05466891764369</v>
+        <v>9.356739922297276</v>
       </c>
       <c r="J238">
         <f t="shared" si="19"/>
-        <v>0.48107864223534058</v>
+        <v>2.4331495747596033</v>
       </c>
       <c r="K238" s="6">
         <f t="shared" si="20"/>
-        <v>4.3518141141931442E-2</v>
+        <v>0.26004245014455996</v>
       </c>
       <c r="L238" t="s">
         <v>660</v>
@@ -14299,17 +14476,20 @@
       <c r="D239">
         <v>18.053515904748231</v>
       </c>
+      <c r="E239">
+        <v>18.55487354351094</v>
+      </c>
       <c r="I239">
         <f t="shared" si="18"/>
-        <v>20.49335412323984</v>
+        <v>19.847193929996873</v>
       </c>
       <c r="J239">
         <f t="shared" si="19"/>
-        <v>2.4398382184916043</v>
+        <v>2.1917085448583724</v>
       </c>
       <c r="K239" s="6">
         <f t="shared" si="20"/>
-        <v>0.1190550948282684</v>
+        <v>0.11042913938306631</v>
       </c>
       <c r="L239" t="s">
         <v>660</v>
@@ -14337,17 +14517,20 @@
       <c r="D240">
         <v>16.924663081946729</v>
       </c>
+      <c r="E240">
+        <v>20.995324558040959</v>
+      </c>
       <c r="I240">
         <f t="shared" si="18"/>
-        <v>15.80131213421482</v>
+        <v>17.532649608823533</v>
       </c>
       <c r="J240">
         <f t="shared" si="19"/>
-        <v>1.1233509477319092</v>
+        <v>2.6146390069151795</v>
       </c>
       <c r="K240" s="6">
         <f t="shared" si="20"/>
-        <v>7.1092257287893229E-2</v>
+        <v>0.14912971314953608</v>
       </c>
       <c r="L240" t="s">
         <v>660</v>
@@ -14375,17 +14558,20 @@
       <c r="D241">
         <v>12.714805545128421</v>
       </c>
+      <c r="E241">
+        <v>14.948240355633979</v>
+      </c>
       <c r="I241">
         <f t="shared" si="18"/>
-        <v>11.221961856744288</v>
+        <v>12.464054689707519</v>
       </c>
       <c r="J241">
         <f t="shared" si="19"/>
-        <v>1.4928436883841349</v>
+        <v>2.1380623774879575</v>
       </c>
       <c r="K241" s="6">
         <f t="shared" si="20"/>
-        <v>0.13302876158743585</v>
+        <v>0.17153826990614154</v>
       </c>
       <c r="L241" t="s">
         <v>660</v>
@@ -14413,17 +14599,20 @@
       <c r="D242">
         <v>9.646719401160329</v>
       </c>
+      <c r="E242">
+        <v>7.2844914479493896</v>
+      </c>
       <c r="I242">
         <f t="shared" si="18"/>
-        <v>6.1120401136074367</v>
+        <v>6.5028572250547541</v>
       </c>
       <c r="J242">
         <f t="shared" si="19"/>
-        <v>3.5346792875528918</v>
+        <v>2.9384998110890415</v>
       </c>
       <c r="K242" s="6">
         <f t="shared" si="20"/>
-        <v>0.57831415073397807</v>
+        <v>0.45187826049253282</v>
       </c>
       <c r="L242" t="s">
         <v>660</v>
@@ -14451,17 +14640,20 @@
       <c r="D243">
         <v>7.6761450750708926</v>
       </c>
+      <c r="E243">
+        <v>11.231373672457369</v>
+      </c>
       <c r="I243">
         <f t="shared" si="18"/>
-        <v>6.7496944123236151</v>
+        <v>8.2435874990348665</v>
       </c>
       <c r="J243">
         <f t="shared" si="19"/>
-        <v>0.92645066274727361</v>
+        <v>2.2440232461772558</v>
       </c>
       <c r="K243" s="6">
         <f t="shared" si="20"/>
-        <v>0.13725816402232327</v>
+        <v>0.27221440258139784</v>
       </c>
       <c r="L243" t="s">
         <v>660</v>
@@ -14489,17 +14681,20 @@
       <c r="D244">
         <v>6.128280702610426</v>
       </c>
+      <c r="E244">
+        <v>8.645300489253362</v>
+      </c>
       <c r="I244">
         <f t="shared" ref="I244:I269" si="21">AVERAGE(C244:H244)</f>
-        <v>6.5740921182474317</v>
+        <v>7.2644949085827415</v>
       </c>
       <c r="J244">
         <f t="shared" ref="J244:J269" si="22">_xlfn.STDEV.P(C244:H244)</f>
-        <v>0.44581141563700522</v>
+        <v>1.0420223468558976</v>
       </c>
       <c r="K244" s="6">
         <f t="shared" ref="K244:K269" si="23">J244/I244</f>
-        <v>6.7813381318400631E-2</v>
+        <v>0.14344044010888979</v>
       </c>
       <c r="L244" t="s">
         <v>660</v>
@@ -14527,17 +14722,20 @@
       <c r="D245">
         <v>6.0973556318044722</v>
       </c>
+      <c r="E245">
+        <v>7.7179572373801459</v>
+      </c>
       <c r="I245">
         <f t="shared" si="21"/>
-        <v>5.0565016198036616</v>
+        <v>5.9436534923291573</v>
       </c>
       <c r="J245">
         <f t="shared" si="22"/>
-        <v>1.0408540120008125</v>
+        <v>1.5153640726625501</v>
       </c>
       <c r="K245" s="6">
         <f t="shared" si="23"/>
-        <v>0.20584469070954786</v>
+        <v>0.25495498259080374</v>
       </c>
       <c r="L245" t="s">
         <v>660</v>
@@ -14565,17 +14763,20 @@
       <c r="D246">
         <v>14.85781537939023</v>
       </c>
+      <c r="E246">
+        <v>16.894305437419629</v>
+      </c>
       <c r="I246">
         <f t="shared" si="21"/>
-        <v>15.577102422947593</v>
+        <v>16.016170094438269</v>
       </c>
       <c r="J246">
         <f t="shared" si="22"/>
-        <v>0.71928704355736439</v>
+        <v>0.8546793205541019</v>
       </c>
       <c r="K246" s="6">
         <f t="shared" si="23"/>
-        <v>4.6175920529208186E-2</v>
+        <v>5.3363526705482195E-2</v>
       </c>
       <c r="L246" t="s">
         <v>660</v>
@@ -14603,17 +14804,20 @@
       <c r="D247">
         <v>18.481838354350291</v>
       </c>
+      <c r="E247">
+        <v>19.60643843819561</v>
+      </c>
       <c r="I247">
         <f t="shared" si="21"/>
-        <v>20.705654430680401</v>
+        <v>20.339249099852136</v>
       </c>
       <c r="J247">
         <f t="shared" si="22"/>
-        <v>2.2238160763301091</v>
+        <v>1.8882296012795252</v>
       </c>
       <c r="K247" s="6">
         <f t="shared" si="23"/>
-        <v>0.10740139046438404</v>
+        <v>9.2836741022718106E-2</v>
       </c>
       <c r="L247" t="s">
         <v>660</v>
@@ -14641,17 +14845,20 @@
       <c r="D248">
         <v>7.4892890129898424</v>
       </c>
+      <c r="E248">
+        <v>11.040338057276809</v>
+      </c>
       <c r="I248">
         <f t="shared" si="21"/>
-        <v>8.6760904109231518</v>
+        <v>9.4641729597077049</v>
       </c>
       <c r="J248">
         <f t="shared" si="22"/>
-        <v>1.1868013979333045</v>
+        <v>1.4768705357912988</v>
       </c>
       <c r="K248" s="6">
         <f t="shared" si="23"/>
-        <v>0.13678988365994063</v>
+        <v>0.15604855723567745</v>
       </c>
       <c r="L248" t="s">
         <v>660</v>
@@ -14679,17 +14886,20 @@
       <c r="D249">
         <v>10.796011575395459</v>
       </c>
+      <c r="E249">
+        <v>10.55222611232047</v>
+      </c>
       <c r="I249">
         <f t="shared" si="21"/>
-        <v>12.941647932931829</v>
+        <v>12.145173992728042</v>
       </c>
       <c r="J249">
         <f t="shared" si="22"/>
-        <v>2.1456363575363664</v>
+        <v>2.0827654038246344</v>
       </c>
       <c r="K249" s="6">
         <f t="shared" si="23"/>
-        <v>0.16579313304270124</v>
+        <v>0.17148913676096333</v>
       </c>
       <c r="L249" t="s">
         <v>660</v>
@@ -14717,6 +14927,9 @@
       <c r="D250">
         <v>130.10204081632651</v>
       </c>
+      <c r="E250">
+        <v>127.34375</v>
+      </c>
       <c r="I250" t="s">
         <v>34</v>
       </c>
@@ -14752,17 +14965,20 @@
       <c r="D251">
         <v>15.751224161658939</v>
       </c>
+      <c r="E251">
+        <v>11.747752882813559</v>
+      </c>
       <c r="I251">
         <f t="shared" si="21"/>
-        <v>18.211968424492209</v>
+        <v>16.057229910599325</v>
       </c>
       <c r="J251">
         <f t="shared" si="22"/>
-        <v>2.460744262833265</v>
+        <v>3.6500188599354537</v>
       </c>
       <c r="K251" s="6">
         <f t="shared" si="23"/>
-        <v>0.13511687509428988</v>
+        <v>0.22731310943776722</v>
       </c>
       <c r="L251" t="s">
         <v>660</v>
@@ -14790,17 +15006,20 @@
       <c r="D252">
         <v>16.905984683045901</v>
       </c>
+      <c r="E252">
+        <v>21.863791998038241</v>
+      </c>
       <c r="I252">
         <f t="shared" si="21"/>
-        <v>16.114475310246732</v>
+        <v>18.030914206177233</v>
       </c>
       <c r="J252">
         <f t="shared" si="22"/>
-        <v>0.79150937279917066</v>
+        <v>2.7862401443205287</v>
       </c>
       <c r="K252" s="6">
         <f t="shared" si="23"/>
-        <v>4.9117911539811203E-2</v>
+        <v>0.15452572800584827</v>
       </c>
       <c r="L252" t="s">
         <v>660</v>
@@ -14828,17 +15047,20 @@
       <c r="D253">
         <v>14.34015398398418</v>
       </c>
+      <c r="E253">
+        <v>10.27968594173989</v>
+      </c>
       <c r="I253">
         <f t="shared" si="21"/>
-        <v>10.655649325098032</v>
+        <v>10.530328197311986</v>
       </c>
       <c r="J253">
         <f t="shared" si="22"/>
-        <v>3.6845046588861488</v>
+        <v>3.0136014707281595</v>
       </c>
       <c r="K253" s="6">
         <f t="shared" si="23"/>
-        <v>0.34577945899624951</v>
+        <v>0.28618305282236345</v>
       </c>
       <c r="L253" t="s">
         <v>660</v>
@@ -14866,17 +15088,20 @@
       <c r="D254">
         <v>8.6625672543966612</v>
       </c>
+      <c r="E254">
+        <v>9.9144267602328</v>
+      </c>
       <c r="I254">
         <f t="shared" si="21"/>
-        <v>8.5635414960986083</v>
+        <v>9.0138365841433394</v>
       </c>
       <c r="J254">
         <f t="shared" si="22"/>
-        <v>9.9025758298052047E-2</v>
+        <v>0.64192580036332259</v>
       </c>
       <c r="K254" s="6">
         <f t="shared" si="23"/>
-        <v>1.156364552482946E-2</v>
+        <v>7.1215602187925636E-2</v>
       </c>
       <c r="L254" t="s">
         <v>660</v>
@@ -14904,17 +15129,20 @@
       <c r="D255">
         <v>10.662139386728439</v>
       </c>
+      <c r="E255">
+        <v>9.804543044428236</v>
+      </c>
       <c r="I255">
         <f t="shared" si="21"/>
-        <v>10.294491950291558</v>
+        <v>10.131175648337118</v>
       </c>
       <c r="J255">
         <f t="shared" si="22"/>
-        <v>0.36764743643688114</v>
+        <v>0.37875346508499236</v>
       </c>
       <c r="K255" s="6">
         <f t="shared" si="23"/>
-        <v>3.5713023839556136E-2</v>
+        <v>3.738494704187259E-2</v>
       </c>
       <c r="L255" t="s">
         <v>660</v>
@@ -14942,17 +15170,20 @@
       <c r="D256">
         <v>10.467766400790021</v>
       </c>
+      <c r="E256">
+        <v>8.3837410779460466</v>
+      </c>
       <c r="I256">
         <f t="shared" si="21"/>
-        <v>9.6611254463146317</v>
+        <v>9.2353306568584372</v>
       </c>
       <c r="J256">
         <f t="shared" si="22"/>
-        <v>0.80664095447539008</v>
+        <v>0.8924024643702354</v>
       </c>
       <c r="K256" s="6">
         <f t="shared" si="23"/>
-        <v>8.3493476920237522E-2</v>
+        <v>9.6629183894732587E-2</v>
       </c>
       <c r="L256" t="s">
         <v>660</v>
@@ -14980,17 +15211,20 @@
       <c r="D257">
         <v>44.542527907605788</v>
       </c>
+      <c r="E257">
+        <v>44.352608938747231</v>
+      </c>
       <c r="I257">
         <f t="shared" si="21"/>
-        <v>46.169263030905569</v>
+        <v>45.56371166685279</v>
       </c>
       <c r="J257">
         <f t="shared" si="22"/>
-        <v>1.6267351232997811</v>
+        <v>1.580368000371158</v>
       </c>
       <c r="K257" s="6">
         <f t="shared" si="23"/>
-        <v>3.5234158323273417E-2</v>
+        <v>3.4684795038786582E-2</v>
       </c>
       <c r="L257" t="s">
         <v>660</v>
@@ -15018,17 +15252,20 @@
       <c r="D258">
         <v>10.2709075756897</v>
       </c>
+      <c r="E258">
+        <v>12.43700979586553</v>
+      </c>
       <c r="I258">
         <f t="shared" si="21"/>
-        <v>9.4235965381096278</v>
+        <v>10.428067624028261</v>
       </c>
       <c r="J258">
         <f t="shared" si="22"/>
-        <v>0.84731103758007276</v>
+        <v>1.5800469363797847</v>
       </c>
       <c r="K258" s="6">
         <f t="shared" si="23"/>
-        <v>8.9913764256936576E-2</v>
+        <v>0.15151866993450008</v>
       </c>
       <c r="L258" t="s">
         <v>660</v>
@@ -15056,17 +15293,20 @@
       <c r="D259">
         <v>12.05083057290954</v>
       </c>
+      <c r="E259">
+        <v>11.905460914811879</v>
+      </c>
       <c r="I259">
         <f t="shared" si="21"/>
-        <v>11.270984622434089</v>
+        <v>11.48247671989335</v>
       </c>
       <c r="J259">
         <f t="shared" si="22"/>
-        <v>0.77984595047545024</v>
+        <v>0.70348960112480885</v>
       </c>
       <c r="K259" s="6">
         <f t="shared" si="23"/>
-        <v>6.9190578871274708E-2</v>
+        <v>6.1266364242308073E-2</v>
       </c>
       <c r="L259" t="s">
         <v>660</v>
@@ -15094,17 +15334,20 @@
       <c r="D260">
         <v>15.06758979438206</v>
       </c>
+      <c r="E260">
+        <v>15.40931855582064</v>
+      </c>
       <c r="I260">
         <f t="shared" si="21"/>
-        <v>15.223401103909795</v>
+        <v>15.285373587880079</v>
       </c>
       <c r="J260">
         <f t="shared" si="22"/>
-        <v>0.15581130952773492</v>
+        <v>0.15448609535076402</v>
       </c>
       <c r="K260" s="6">
         <f t="shared" si="23"/>
-        <v>1.0234986811699931E-2</v>
+        <v>1.0106792252252018E-2</v>
       </c>
       <c r="L260" t="s">
         <v>660</v>
@@ -15132,17 +15375,20 @@
       <c r="D261">
         <v>10.93833821790083</v>
       </c>
+      <c r="E261">
+        <v>12.3358385574775</v>
+      </c>
       <c r="I261">
         <f t="shared" si="21"/>
-        <v>12.674845786128824</v>
+        <v>12.561843376578382</v>
       </c>
       <c r="J261">
         <f t="shared" si="22"/>
-        <v>1.7365075682280022</v>
+        <v>1.4268303258635371</v>
       </c>
       <c r="K261" s="6">
         <f t="shared" si="23"/>
-        <v>0.13700423638514103</v>
+        <v>0.11358447029548777</v>
       </c>
       <c r="L261" t="s">
         <v>660</v>
@@ -15170,17 +15416,20 @@
       <c r="D262">
         <v>13.929363070592951</v>
       </c>
+      <c r="E262">
+        <v>16.23263002197492</v>
+      </c>
       <c r="I262">
         <f t="shared" si="21"/>
-        <v>16.272215665329107</v>
+        <v>16.25902045087771</v>
       </c>
       <c r="J262">
         <f t="shared" si="22"/>
-        <v>2.3428525947361485</v>
+        <v>1.9130221503710039</v>
       </c>
       <c r="K262" s="6">
         <f t="shared" si="23"/>
-        <v>0.1439787084267829</v>
+        <v>0.11765912689209597</v>
       </c>
       <c r="L262" t="s">
         <v>660</v>
@@ -15208,17 +15457,20 @@
       <c r="D263">
         <v>17.78874989846452</v>
       </c>
+      <c r="E263">
+        <v>17.31819636005196</v>
+      </c>
       <c r="I263">
         <f t="shared" si="21"/>
-        <v>19.579520045314645</v>
+        <v>18.825745483560414</v>
       </c>
       <c r="J263">
         <f t="shared" si="22"/>
-        <v>1.7907701468501251</v>
+        <v>1.8094909023798111</v>
       </c>
       <c r="K263" s="6">
         <f t="shared" si="23"/>
-        <v>9.1461391428675709E-2</v>
+        <v>9.6117888343914423E-2</v>
       </c>
       <c r="L263" t="s">
         <v>660</v>
@@ -15246,17 +15498,20 @@
       <c r="D264">
         <v>17.684737716487192</v>
       </c>
+      <c r="E264">
+        <v>23.31041320952508</v>
+      </c>
       <c r="I264">
         <f t="shared" si="21"/>
-        <v>17.019501247379711</v>
+        <v>19.116471901428167</v>
       </c>
       <c r="J264">
         <f t="shared" si="22"/>
-        <v>0.66523646910748013</v>
+        <v>3.0148960547755483</v>
       </c>
       <c r="K264" s="6">
         <f t="shared" si="23"/>
-        <v>3.9086719371985039E-2</v>
+        <v>0.15771194969037719</v>
       </c>
       <c r="L264" t="s">
         <v>660</v>
@@ -15284,6 +15539,9 @@
       <c r="D265">
         <v>144.89795918367341</v>
       </c>
+      <c r="E265">
+        <v>149.89795918367341</v>
+      </c>
       <c r="I265" t="s">
         <v>34</v>
       </c>
@@ -15319,17 +15577,20 @@
       <c r="D266">
         <v>15.5105973010117</v>
       </c>
+      <c r="E266">
+        <v>19.025742367750571</v>
+      </c>
       <c r="I266">
         <f t="shared" si="21"/>
-        <v>16.771647988360613</v>
+        <v>17.523012781490596</v>
       </c>
       <c r="J266">
         <f t="shared" si="22"/>
-        <v>1.2610506873489147</v>
+        <v>1.4796161648952446</v>
       </c>
       <c r="K266" s="6">
         <f t="shared" si="23"/>
-        <v>7.5189432083482416E-2</v>
+        <v>8.4438457207435813E-2</v>
       </c>
       <c r="L266" t="s">
         <v>660</v>
@@ -15357,17 +15618,20 @@
       <c r="D267">
         <v>29.832040883568709</v>
       </c>
+      <c r="E267">
+        <v>29.05944476112332</v>
+      </c>
       <c r="I267">
         <f t="shared" si="21"/>
-        <v>30.307965777969329</v>
+        <v>29.891792105687326</v>
       </c>
       <c r="J267">
         <f t="shared" si="22"/>
-        <v>0.47592489440062025</v>
+        <v>0.70526878167703111</v>
       </c>
       <c r="K267" s="6">
         <f t="shared" si="23"/>
-        <v>1.5702963962911924E-2</v>
+        <v>2.3594061513054747E-2</v>
       </c>
       <c r="L267" t="s">
         <v>660</v>
@@ -15395,17 +15659,20 @@
       <c r="D268">
         <v>16.141051668134089</v>
       </c>
+      <c r="E268">
+        <v>13.84618393861496</v>
+      </c>
       <c r="I268">
         <f t="shared" si="21"/>
-        <v>16.284985427300224</v>
+        <v>15.472051597738471</v>
       </c>
       <c r="J268">
         <f t="shared" si="22"/>
-        <v>0.14393375916613493</v>
+        <v>1.1556531084962349</v>
       </c>
       <c r="K268" s="6">
         <f t="shared" si="23"/>
-        <v>8.838433402884335E-3</v>
+        <v>7.4692945612019238E-2</v>
       </c>
       <c r="L268" t="s">
         <v>660</v>
@@ -15433,17 +15700,20 @@
       <c r="D269">
         <v>17.799043798976768</v>
       </c>
+      <c r="E269">
+        <v>18.38306304790688</v>
+      </c>
       <c r="I269">
         <f t="shared" si="21"/>
-        <v>17.788263472041429</v>
+        <v>17.986529997329914</v>
       </c>
       <c r="J269">
         <f t="shared" si="22"/>
-        <v>1.0780326935339701E-2</v>
+        <v>0.28052933369939498</v>
       </c>
       <c r="K269" s="6">
         <f t="shared" si="23"/>
-        <v>6.0603593781279443E-4</v>
+        <v>1.5596634467072823E-2</v>
       </c>
       <c r="L269" t="s">
         <v>660</v>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709ECE2-81C9-4E33-9A86-8E35182261D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B5A4C-D0C3-4404-A393-E52475F65ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-3570" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="662">
   <si>
     <t>RBS</t>
   </si>
@@ -2018,6 +2018,9 @@
   </si>
   <si>
     <t>bandit2</t>
+  </si>
+  <si>
+    <t>Positive Control:</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2142,65 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2546,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P269"/>
+  <dimension ref="A1:P272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180:E269"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15728,14 +15789,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="272" spans="1:16">
+      <c r="B272" t="s">
+        <v>661</v>
+      </c>
+      <c r="C272" t="s">
+        <v>34</v>
+      </c>
+      <c r="D272">
+        <v>36.623444300495287</v>
+      </c>
+      <c r="E272">
+        <v>47.950148971120889</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E180:E269">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>$E$272</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D180:D269">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$D$272</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -22513,10 +22598,10 @@
     <mergeCell ref="C1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:L180">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038CB90-5620-4934-9577-557A72D1A978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F04DA01-5368-4AC6-B4D3-7F32BB3B52EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3350" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53652" yWindow="-4668" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate" sheetId="1" r:id="rId1"/>
     <sheet name="Flow Cytometer" sheetId="2" r:id="rId2"/>
     <sheet name="Archived Results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="665">
   <si>
     <t>RBS</t>
   </si>
@@ -2021,13 +2021,22 @@
   </si>
   <si>
     <t>01-Well-H6</t>
+  </si>
+  <si>
+    <t>Rep7</t>
+  </si>
+  <si>
+    <t>Rep8</t>
+  </si>
+  <si>
+    <t>Rep9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2057,6 +2066,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2104,7 +2120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2129,6 +2145,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2542,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P271"/>
+  <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R181" sqref="R181:R271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2563,7 +2580,7 @@
     <col min="19" max="1025" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2612,8 +2629,17 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="R1" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2666,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -2719,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:20">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -2772,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -2825,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -2878,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2931,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:20">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2984,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3034,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -3087,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:20">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -3140,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:20">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3193,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -3246,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:20">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -3299,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:20">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -3352,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:20">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -11882,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:18">
       <c r="A177" s="9" t="s">
         <v>376</v>
       </c>
@@ -11935,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:18">
       <c r="A178" s="9" t="s">
         <v>378</v>
       </c>
@@ -11988,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:18">
       <c r="A179" s="9" t="s">
         <v>380</v>
       </c>
@@ -12041,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:18">
       <c r="A180" s="9" t="s">
         <v>382</v>
       </c>
@@ -12094,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>384</v>
       </c>
@@ -12116,17 +12142,20 @@
       <c r="G181">
         <v>82.435720702144096</v>
       </c>
+      <c r="H181">
+        <v>66.317294194942164</v>
+      </c>
       <c r="I181">
         <f t="shared" ref="I181:I212" si="21">AVERAGE(C181:H181)</f>
-        <v>45.518204200558209</v>
+        <v>48.984719199622198</v>
       </c>
       <c r="J181">
         <f t="shared" ref="J181:J212" si="22">_xlfn.STDEV.P(C181:H181)</f>
-        <v>27.886746326384511</v>
+        <v>26.610946652717548</v>
       </c>
       <c r="K181" s="7">
         <f t="shared" ref="K181:K212" si="23">J181/I181</f>
-        <v>0.61265040693416728</v>
+        <v>0.54324995809964327</v>
       </c>
       <c r="L181" t="s">
         <v>386</v>
@@ -12143,8 +12172,11 @@
       <c r="P181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="R181">
+        <v>60.616124137197758</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>389</v>
       </c>
@@ -12166,17 +12198,20 @@
       <c r="G182">
         <v>70.069982811195572</v>
       </c>
+      <c r="H182">
+        <v>65.462117603146098</v>
+      </c>
       <c r="I182">
         <f t="shared" si="21"/>
-        <v>39.590569003173286</v>
+        <v>43.902493769835424</v>
       </c>
       <c r="J182">
         <f t="shared" si="22"/>
-        <v>23.135075229814852</v>
+        <v>23.21615595961352</v>
       </c>
       <c r="K182" s="7">
         <f t="shared" si="23"/>
-        <v>0.58435824016473514</v>
+        <v>0.52881178188481182</v>
       </c>
       <c r="L182" t="s">
         <v>386</v>
@@ -12193,8 +12228,11 @@
       <c r="P182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:16">
+      <c r="R182">
+        <v>52.354378703343663</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>391</v>
       </c>
@@ -12216,17 +12254,20 @@
       <c r="G183">
         <v>69.388412012398391</v>
       </c>
+      <c r="H183">
+        <v>64.119171993029767</v>
+      </c>
       <c r="I183">
         <f t="shared" si="21"/>
-        <v>39.010393394297367</v>
+        <v>43.195189827419426</v>
       </c>
       <c r="J183">
         <f t="shared" si="22"/>
-        <v>22.099804600264203</v>
+        <v>22.238789132389947</v>
       </c>
       <c r="K183" s="7">
         <f t="shared" si="23"/>
-        <v>0.56651068285547734</v>
+        <v>0.51484411160691823</v>
       </c>
       <c r="L183" t="s">
         <v>386</v>
@@ -12243,8 +12284,11 @@
       <c r="P183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:16">
+      <c r="R183">
+        <v>46.98772540794323</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>393</v>
       </c>
@@ -12266,17 +12310,20 @@
       <c r="G184">
         <v>58.622310069384369</v>
       </c>
+      <c r="H184">
+        <v>54.944093685319046</v>
+      </c>
       <c r="I184">
         <f t="shared" si="21"/>
-        <v>34.279581354235702</v>
+        <v>37.723666742749593</v>
       </c>
       <c r="J184">
         <f t="shared" si="22"/>
-        <v>19.822014625184245</v>
+        <v>19.665591964589392</v>
       </c>
       <c r="K184" s="7">
         <f t="shared" si="23"/>
-        <v>0.5782455281570984</v>
+        <v>0.52130648111955014</v>
       </c>
       <c r="L184" t="s">
         <v>386</v>
@@ -12293,8 +12340,11 @@
       <c r="P184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:16">
+      <c r="R184">
+        <v>42.602683618806957</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>395</v>
       </c>
@@ -12316,17 +12366,20 @@
       <c r="G185">
         <v>59.0187448440239</v>
       </c>
+      <c r="H185">
+        <v>52.499576505018581</v>
+      </c>
       <c r="I185">
         <f t="shared" si="21"/>
-        <v>31.77748354575753</v>
+        <v>35.231165705634375</v>
       </c>
       <c r="J185">
         <f t="shared" si="22"/>
-        <v>19.430590928855136</v>
+        <v>19.345873518083401</v>
       </c>
       <c r="K185" s="7">
         <f t="shared" si="23"/>
-        <v>0.61145782361514989</v>
+        <v>0.54911250112253585</v>
       </c>
       <c r="L185" t="s">
         <v>386</v>
@@ -12343,8 +12396,11 @@
       <c r="P185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:16">
+      <c r="R185">
+        <v>37.827473433972322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>397</v>
       </c>
@@ -12366,17 +12422,20 @@
       <c r="G186">
         <v>56.006820467604683</v>
       </c>
+      <c r="H186">
+        <v>50.850177971831563</v>
+      </c>
       <c r="I186">
         <f t="shared" si="21"/>
-        <v>31.402324033657372</v>
+        <v>34.643633023353068</v>
       </c>
       <c r="J186">
         <f t="shared" si="22"/>
-        <v>17.555542518328028</v>
+        <v>17.588670049042843</v>
       </c>
       <c r="K186" s="7">
         <f t="shared" si="23"/>
-        <v>0.55905233318119374</v>
+        <v>0.50770281619097002</v>
       </c>
       <c r="L186" t="s">
         <v>386</v>
@@ -12393,8 +12452,11 @@
       <c r="P186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:16">
+      <c r="R186">
+        <v>37.33000186936124</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>399</v>
       </c>
@@ -12416,17 +12478,20 @@
       <c r="G187">
         <v>55.771221798968618</v>
       </c>
+      <c r="H187">
+        <v>48.889544900363717</v>
+      </c>
       <c r="I187">
         <f t="shared" si="21"/>
-        <v>31.11680309847041</v>
+        <v>34.078926732119292</v>
       </c>
       <c r="J187">
         <f t="shared" si="22"/>
-        <v>17.099017617274093</v>
+        <v>16.956352349536964</v>
       </c>
       <c r="K187" s="7">
         <f t="shared" si="23"/>
-        <v>0.54951074386284304</v>
+        <v>0.49756121965999739</v>
       </c>
       <c r="L187" t="s">
         <v>386</v>
@@ -12443,8 +12508,11 @@
       <c r="P187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:16">
+      <c r="R187">
+        <v>37.981881890903338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>401</v>
       </c>
@@ -12466,17 +12534,20 @@
       <c r="G188">
         <v>58.693251880493527</v>
       </c>
+      <c r="H188">
+        <v>52.588543808432867</v>
+      </c>
       <c r="I188">
         <f t="shared" si="21"/>
-        <v>34.1013801234878</v>
+        <v>37.182574070978639</v>
       </c>
       <c r="J188">
         <f t="shared" si="22"/>
-        <v>17.891928087466344</v>
+        <v>17.726713070471558</v>
       </c>
       <c r="K188" s="7">
         <f t="shared" si="23"/>
-        <v>0.5246687384110601</v>
+        <v>0.47674787217885028</v>
       </c>
       <c r="L188" t="s">
         <v>386</v>
@@ -12493,8 +12564,11 @@
       <c r="P188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="R188">
+        <v>40.766818948382728</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>403</v>
       </c>
@@ -12516,17 +12590,20 @@
       <c r="G189">
         <v>49.184777037298687</v>
       </c>
+      <c r="H189">
+        <v>49.696800589251758</v>
+      </c>
       <c r="I189">
         <f t="shared" si="21"/>
-        <v>28.829802192198464</v>
+        <v>32.307635258374013</v>
       </c>
       <c r="J189">
         <f t="shared" si="22"/>
-        <v>14.678626775223121</v>
+        <v>15.492848377649427</v>
       </c>
       <c r="K189" s="7">
         <f t="shared" si="23"/>
-        <v>0.5091476756366804</v>
+        <v>0.47954139180253808</v>
       </c>
       <c r="L189" t="s">
         <v>386</v>
@@ -12543,8 +12620,11 @@
       <c r="P189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:16">
+      <c r="R189">
+        <v>35.215658261559653</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>405</v>
       </c>
@@ -12566,17 +12646,20 @@
       <c r="G190">
         <v>47.932265423780898</v>
       </c>
+      <c r="H190">
+        <v>43.264292177024558</v>
+      </c>
       <c r="I190">
         <f t="shared" si="21"/>
-        <v>28.024363463980876</v>
+        <v>30.564351582821491</v>
       </c>
       <c r="J190">
         <f t="shared" si="22"/>
-        <v>15.169052682648207</v>
+        <v>14.966891158823016</v>
       </c>
       <c r="K190" s="7">
         <f t="shared" si="23"/>
-        <v>0.54128090017618669</v>
+        <v>0.48968456334715982</v>
       </c>
       <c r="L190" t="s">
         <v>386</v>
@@ -12593,8 +12676,11 @@
       <c r="P190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="R190">
+        <v>31.351889736409952</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>407</v>
       </c>
@@ -12616,17 +12702,20 @@
       <c r="G191">
         <v>46.673721253489838</v>
       </c>
+      <c r="H191">
+        <v>44.60764170873292</v>
+      </c>
       <c r="I191">
         <f t="shared" si="21"/>
-        <v>26.400827619025272</v>
+        <v>29.435296633976549</v>
       </c>
       <c r="J191">
         <f t="shared" si="22"/>
-        <v>14.801669119780657</v>
+        <v>15.120003911696596</v>
       </c>
       <c r="K191" s="7">
         <f t="shared" si="23"/>
-        <v>0.56065170885454008</v>
+        <v>0.51366915372763366</v>
       </c>
       <c r="L191" t="s">
         <v>386</v>
@@ -12643,8 +12732,11 @@
       <c r="P191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="R191">
+        <v>29.511192561959479</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>409</v>
       </c>
@@ -12666,17 +12758,20 @@
       <c r="G192">
         <v>59.049737589294907</v>
       </c>
+      <c r="H192">
+        <v>50.196459154746982</v>
+      </c>
       <c r="I192">
         <f t="shared" si="21"/>
-        <v>33.220532575029864</v>
+        <v>36.04985367164938</v>
       </c>
       <c r="J192">
         <f t="shared" si="22"/>
-        <v>17.931616632983182</v>
+        <v>17.54929301232524</v>
       </c>
       <c r="K192" s="7">
         <f t="shared" si="23"/>
-        <v>0.53977511024195446</v>
+        <v>0.48680622041266419</v>
       </c>
       <c r="L192" t="s">
         <v>386</v>
@@ -12693,8 +12788,11 @@
       <c r="P192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="R192">
+        <v>38.511819634862057</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>411</v>
       </c>
@@ -12716,17 +12814,20 @@
       <c r="G193">
         <v>95.89028937693449</v>
       </c>
+      <c r="H193">
+        <v>84.241149825492982</v>
+      </c>
       <c r="I193">
         <f t="shared" si="21"/>
-        <v>60.839993532021765</v>
+        <v>64.740186247600306</v>
       </c>
       <c r="J193">
         <f t="shared" si="22"/>
-        <v>30.489067981577364</v>
+        <v>29.166937413464638</v>
       </c>
       <c r="K193" s="7">
         <f t="shared" si="23"/>
-        <v>0.50113529294723091</v>
+        <v>0.45052291480773665</v>
       </c>
       <c r="L193" t="s">
         <v>386</v>
@@ -12743,8 +12844,11 @@
       <c r="P193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="R193">
+        <v>71.904698779100457</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>413</v>
       </c>
@@ -12766,17 +12870,20 @@
       <c r="G194">
         <v>53.930017707901527</v>
       </c>
+      <c r="H194">
+        <v>51.123867469480153</v>
+      </c>
       <c r="I194">
         <f t="shared" si="21"/>
-        <v>30.517937565518316</v>
+        <v>33.952259216178625</v>
       </c>
       <c r="J194">
         <f t="shared" si="22"/>
-        <v>17.942719413531123</v>
+        <v>18.090249932718624</v>
       </c>
       <c r="K194" s="7">
         <f t="shared" si="23"/>
-        <v>0.58794010489766146</v>
+        <v>0.5328143207653887</v>
       </c>
       <c r="L194" t="s">
         <v>386</v>
@@ -12793,8 +12900,11 @@
       <c r="P194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:16">
+      <c r="R194">
+        <v>44.298568690003989</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>415</v>
       </c>
@@ -12816,17 +12926,20 @@
       <c r="G195">
         <v>42.160390196351919</v>
       </c>
+      <c r="H195">
+        <v>38.736294671945167</v>
+      </c>
       <c r="I195">
         <f t="shared" si="21"/>
-        <v>24.856356387226253</v>
+        <v>27.169679434679406</v>
       </c>
       <c r="J195">
         <f t="shared" si="22"/>
-        <v>14.82494221746836</v>
+        <v>14.488147249923051</v>
       </c>
       <c r="K195" s="7">
         <f t="shared" si="23"/>
-        <v>0.596424592024555</v>
+        <v>0.53324689695934968</v>
       </c>
       <c r="L195" t="s">
         <v>386</v>
@@ -12843,8 +12956,11 @@
       <c r="P195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:16">
+      <c r="R195">
+        <v>31.869409010829649</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>417</v>
       </c>
@@ -12866,17 +12982,20 @@
       <c r="G196">
         <v>16.363231708484491</v>
       </c>
+      <c r="H196">
+        <v>16.947890566024579</v>
+      </c>
       <c r="I196">
         <f t="shared" si="21"/>
-        <v>15.412854667788366</v>
+        <v>15.668693984161068</v>
       </c>
       <c r="J196">
         <f t="shared" si="22"/>
-        <v>3.2401213008233141</v>
+        <v>3.012627394105964</v>
       </c>
       <c r="K196" s="7">
         <f t="shared" si="23"/>
-        <v>0.21022201082547728</v>
+        <v>0.19227048515666481</v>
       </c>
       <c r="L196" t="s">
         <v>386</v>
@@ -12893,8 +13012,11 @@
       <c r="P196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:16">
+      <c r="R196">
+        <v>19.692282713531618</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>419</v>
       </c>
@@ -12916,17 +13038,20 @@
       <c r="G197">
         <v>18.485373772205001</v>
       </c>
+      <c r="H197">
+        <v>16.512786229012701</v>
+      </c>
       <c r="I197">
         <f t="shared" si="21"/>
-        <v>16.338152910589326</v>
+        <v>16.367258463659891</v>
       </c>
       <c r="J197">
         <f t="shared" si="22"/>
-        <v>2.9031376741599</v>
+        <v>2.6509889906793624</v>
       </c>
       <c r="K197" s="7">
         <f t="shared" si="23"/>
-        <v>0.17769069062135387</v>
+        <v>0.16196903082854924</v>
       </c>
       <c r="L197" t="s">
         <v>386</v>
@@ -12943,8 +13068,11 @@
       <c r="P197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:16">
+      <c r="R197">
+        <v>20.585729341340571</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>421</v>
       </c>
@@ -12966,17 +13094,20 @@
       <c r="G198">
         <v>22.629142911714052</v>
       </c>
+      <c r="H198">
+        <v>9.9330279857812105</v>
+      </c>
       <c r="I198">
         <f t="shared" si="21"/>
-        <v>13.637820685018974</v>
+        <v>13.020355235146013</v>
       </c>
       <c r="J198">
         <f t="shared" si="22"/>
-        <v>5.0193070793385637</v>
+        <v>4.7854836961568061</v>
       </c>
       <c r="K198" s="7">
         <f t="shared" si="23"/>
-        <v>0.36804319364986432</v>
+        <v>0.3675386431269777</v>
       </c>
       <c r="L198" t="s">
         <v>386</v>
@@ -12993,8 +13124,11 @@
       <c r="P198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:16">
+      <c r="R198">
+        <v>11.71290099800253</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>423</v>
       </c>
@@ -13016,17 +13150,20 @@
       <c r="G199">
         <v>23.55526270266202</v>
       </c>
+      <c r="H199">
+        <v>19.88394295544563</v>
+      </c>
       <c r="I199">
         <f t="shared" si="21"/>
-        <v>14.745987746887533</v>
+        <v>15.602313614980551</v>
       </c>
       <c r="J199">
         <f t="shared" si="22"/>
-        <v>5.8828924862140592</v>
+        <v>5.7014755369805608</v>
       </c>
       <c r="K199" s="7">
         <f t="shared" si="23"/>
-        <v>0.39894868944644107</v>
+        <v>0.36542500539832073</v>
       </c>
       <c r="L199" t="s">
         <v>386</v>
@@ -13043,8 +13180,11 @@
       <c r="P199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:16">
+      <c r="R199">
+        <v>9.7768687988655305</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>425</v>
       </c>
@@ -13066,17 +13206,20 @@
       <c r="G200">
         <v>21.981216030215482</v>
       </c>
+      <c r="H200">
+        <v>19.9037641552687</v>
+      </c>
       <c r="I200">
         <f t="shared" si="21"/>
-        <v>11.923728826375861</v>
+        <v>13.253734714524668</v>
       </c>
       <c r="J200">
         <f t="shared" si="22"/>
-        <v>5.1991573063704912</v>
+        <v>5.6009471424816946</v>
       </c>
       <c r="K200" s="7">
         <f t="shared" si="23"/>
-        <v>0.43603451420915457</v>
+        <v>0.42259387735772758</v>
       </c>
       <c r="L200" t="s">
         <v>386</v>
@@ -13093,8 +13236,11 @@
       <c r="P200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:16">
+      <c r="R200">
+        <v>17.005224943999821</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>427</v>
       </c>
@@ -13116,17 +13262,20 @@
       <c r="G201">
         <v>17.864763669351159</v>
       </c>
+      <c r="H201">
+        <v>17.875787164609289</v>
+      </c>
       <c r="I201">
         <f t="shared" si="21"/>
-        <v>15.189190772819751</v>
+        <v>15.636956838118008</v>
       </c>
       <c r="J201">
         <f t="shared" si="22"/>
-        <v>3.1029304966170725</v>
+        <v>3.004322491876267</v>
       </c>
       <c r="K201" s="7">
         <f t="shared" si="23"/>
-        <v>0.20428543844281696</v>
+        <v>0.19212961466726497</v>
       </c>
       <c r="L201" t="s">
         <v>386</v>
@@ -13143,8 +13292,11 @@
       <c r="P201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:16">
+      <c r="R201">
+        <v>12.00497265780519</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>429</v>
       </c>
@@ -13166,17 +13318,20 @@
       <c r="G202">
         <v>14.24612318822493</v>
       </c>
+      <c r="H202">
+        <v>14.24160204385112</v>
+      </c>
       <c r="I202">
         <f t="shared" si="21"/>
-        <v>10.531319237242394</v>
+        <v>11.149699705010514</v>
       </c>
       <c r="J202">
         <f t="shared" si="22"/>
-        <v>3.2346735776990698</v>
+        <v>3.2605571573693775</v>
       </c>
       <c r="K202" s="7">
         <f t="shared" si="23"/>
-        <v>0.30714799398162229</v>
+        <v>0.29243452681547377</v>
       </c>
       <c r="L202" t="s">
         <v>386</v>
@@ -13193,8 +13348,11 @@
       <c r="P202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:16">
+      <c r="R202">
+        <v>22.664823542539139</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>431</v>
       </c>
@@ -13216,17 +13374,20 @@
       <c r="G203">
         <v>15.23753526548191</v>
       </c>
+      <c r="H203">
+        <v>14.69774894273894</v>
+      </c>
       <c r="I203">
         <f t="shared" si="21"/>
-        <v>10.980095206519419</v>
+        <v>11.599704162556007</v>
       </c>
       <c r="J203">
         <f t="shared" si="22"/>
-        <v>3.3634821036913261</v>
+        <v>3.3685436284662007</v>
       </c>
       <c r="K203" s="7">
         <f t="shared" si="23"/>
-        <v>0.30632540432748367</v>
+        <v>0.29039909822354804</v>
       </c>
       <c r="L203" t="s">
         <v>386</v>
@@ -13243,8 +13404,11 @@
       <c r="P203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:16">
+      <c r="R203">
+        <v>9.5576432057042648</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>433</v>
       </c>
@@ -13266,17 +13430,20 @@
       <c r="G204">
         <v>38.774024109444767</v>
       </c>
+      <c r="H204">
+        <v>39.010538639598629</v>
+      </c>
       <c r="I204">
         <f t="shared" si="21"/>
-        <v>26.464540336891911</v>
+        <v>28.555540054009697</v>
       </c>
       <c r="J204">
         <f t="shared" si="22"/>
-        <v>11.94177799911791</v>
+        <v>11.861693972691274</v>
       </c>
       <c r="K204" s="7">
         <f t="shared" si="23"/>
-        <v>0.45123693240463797</v>
+        <v>0.41539028679745404</v>
       </c>
       <c r="L204" t="s">
         <v>386</v>
@@ -13293,8 +13460,11 @@
       <c r="P204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:16">
+      <c r="R204">
+        <v>30.072345844462848</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>435</v>
       </c>
@@ -13316,17 +13486,20 @@
       <c r="G205">
         <v>65.441265300017406</v>
       </c>
+      <c r="H205">
+        <v>55.162844443056443</v>
+      </c>
       <c r="I205">
         <f t="shared" si="21"/>
-        <v>36.314388697796282</v>
+        <v>39.455797988672977</v>
       </c>
       <c r="J205">
         <f t="shared" si="22"/>
-        <v>21.84956809264456</v>
+        <v>21.146598225876062</v>
       </c>
       <c r="K205" s="7">
         <f t="shared" si="23"/>
-        <v>0.60167798154262997</v>
+        <v>0.53595667313449991</v>
       </c>
       <c r="L205" t="s">
         <v>386</v>
@@ -13343,8 +13516,11 @@
       <c r="P205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:16">
+      <c r="R205">
+        <v>48.673487651027841</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>437</v>
       </c>
@@ -13366,17 +13542,20 @@
       <c r="G206">
         <v>37.688324459887028</v>
       </c>
+      <c r="H206">
+        <v>39.825022342042857</v>
+      </c>
       <c r="I206">
         <f t="shared" si="21"/>
-        <v>16.550439842875448</v>
+        <v>20.429536926070018</v>
       </c>
       <c r="J206">
         <f t="shared" si="22"/>
-        <v>11.048280260611975</v>
+        <v>13.302533023266653</v>
       </c>
       <c r="K206" s="7">
         <f t="shared" si="23"/>
-        <v>0.66755206299656045</v>
+        <v>0.65114217083850612</v>
       </c>
       <c r="L206" t="s">
         <v>386</v>
@@ -13393,8 +13572,11 @@
       <c r="P206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:16">
+      <c r="R206">
+        <v>29.603940323779849</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>439</v>
       </c>
@@ -13416,17 +13598,20 @@
       <c r="G207">
         <v>41.324238391765633</v>
       </c>
+      <c r="H207">
+        <v>47.630942041171132</v>
+      </c>
       <c r="I207">
         <f t="shared" si="21"/>
-        <v>28.508790253551592</v>
+        <v>31.695815551488181</v>
       </c>
       <c r="J207">
         <f t="shared" si="22"/>
-        <v>11.52385968589744</v>
+        <v>12.706367286993665</v>
       </c>
       <c r="K207" s="7">
         <f t="shared" si="23"/>
-        <v>0.40422127994230872</v>
+        <v>0.40088469300790952</v>
       </c>
       <c r="L207" t="s">
         <v>386</v>
@@ -13443,8 +13628,11 @@
       <c r="P207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:16">
+      <c r="R207">
+        <v>35.744036043706771</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>441</v>
       </c>
@@ -13466,17 +13654,20 @@
       <c r="G208">
         <v>16.27760045455474</v>
       </c>
+      <c r="H208">
+        <v>14.21775541639358</v>
+      </c>
       <c r="I208">
         <f t="shared" si="21"/>
-        <v>11.439501487424684</v>
+        <v>11.902543808919498</v>
       </c>
       <c r="J208">
         <f t="shared" si="22"/>
-        <v>2.879031904430533</v>
+        <v>2.8247822712114723</v>
       </c>
       <c r="K208" s="7">
         <f t="shared" si="23"/>
-        <v>0.25167459505079137</v>
+        <v>0.23732592936096938</v>
       </c>
       <c r="L208" t="s">
         <v>386</v>
@@ -13493,8 +13684,11 @@
       <c r="P208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:16">
+      <c r="R208">
+        <v>10.394225791104949</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>443</v>
       </c>
@@ -13516,17 +13710,20 @@
       <c r="G209">
         <v>15.764079820638999</v>
       </c>
+      <c r="H209">
+        <v>14.584215669322569</v>
+      </c>
       <c r="I209">
         <f t="shared" si="21"/>
-        <v>12.31611998606194</v>
+        <v>12.694135933272046</v>
       </c>
       <c r="J209">
         <f t="shared" si="22"/>
-        <v>5.3729544314506175</v>
+        <v>4.9771156021431153</v>
       </c>
       <c r="K209" s="7">
         <f t="shared" si="23"/>
-        <v>0.43625382324393958</v>
+        <v>0.39207990432005813</v>
       </c>
       <c r="L209" t="s">
         <v>386</v>
@@ -13543,8 +13740,11 @@
       <c r="P209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:16">
+      <c r="R209">
+        <v>8.2401195415027679</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>445</v>
       </c>
@@ -13566,17 +13766,20 @@
       <c r="G210">
         <v>12.094174851735261</v>
       </c>
+      <c r="H210">
+        <v>6.344072049713513</v>
+      </c>
       <c r="I210">
         <f t="shared" si="21"/>
-        <v>10.862474897839297</v>
+        <v>10.109407756485</v>
       </c>
       <c r="J210">
         <f t="shared" si="22"/>
-        <v>2.7595373495353206</v>
+        <v>3.0300862336196595</v>
       </c>
       <c r="K210" s="7">
         <f t="shared" si="23"/>
-        <v>0.25404315089227342</v>
+        <v>0.29972935176899107</v>
       </c>
       <c r="L210" t="s">
         <v>386</v>
@@ -13593,8 +13796,11 @@
       <c r="P210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:16">
+      <c r="R210">
+        <v>7.3733235618530779</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211" t="s">
         <v>447</v>
       </c>
@@ -13616,17 +13822,20 @@
       <c r="G211">
         <v>14.39662204723767</v>
       </c>
+      <c r="H211">
+        <v>9.6346868003763468</v>
+      </c>
       <c r="I211">
         <f t="shared" si="21"/>
-        <v>11.240493875626715</v>
+        <v>10.972859363084986</v>
       </c>
       <c r="J211">
         <f t="shared" si="22"/>
-        <v>3.5896287704699219</v>
+        <v>3.3310664087753881</v>
       </c>
       <c r="K211" s="7">
         <f t="shared" si="23"/>
-        <v>0.31934795838939789</v>
+        <v>0.30357323451914442</v>
       </c>
       <c r="L211" t="s">
         <v>386</v>
@@ -13643,8 +13852,11 @@
       <c r="P211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:16">
+      <c r="R211">
+        <v>8.8934045093842471</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>449</v>
       </c>
@@ -13666,17 +13878,20 @@
       <c r="G212">
         <v>8.9184271614043453</v>
       </c>
+      <c r="H212">
+        <v>20.224776242252041</v>
+      </c>
       <c r="I212">
         <f t="shared" si="21"/>
-        <v>8.7883747008603752</v>
+        <v>10.694441624425652</v>
       </c>
       <c r="J212">
         <f t="shared" si="22"/>
-        <v>1.7011200433297786</v>
+        <v>4.5361837948209969</v>
       </c>
       <c r="K212" s="7">
         <f t="shared" si="23"/>
-        <v>0.19356480592062605</v>
+        <v>0.42416275240219603</v>
       </c>
       <c r="L212" t="s">
         <v>386</v>
@@ -13693,8 +13908,11 @@
       <c r="P212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:16">
+      <c r="R212">
+        <v>8.833028278434222</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>451</v>
       </c>
@@ -13716,17 +13934,20 @@
       <c r="G213">
         <v>11.15571690391018</v>
       </c>
+      <c r="H213">
+        <v>5.4426031018389738</v>
+      </c>
       <c r="I213">
         <f t="shared" ref="I213:I244" si="24">AVERAGE(C213:H213)</f>
-        <v>6.9503740641076543</v>
+        <v>6.699078903729542</v>
       </c>
       <c r="J213">
         <f t="shared" ref="J213:J244" si="25">_xlfn.STDEV.P(C213:H213)</f>
-        <v>4.1268112485152422</v>
+        <v>3.8089222695587512</v>
       </c>
       <c r="K213" s="7">
         <f t="shared" ref="K213:K244" si="26">J213/I213</f>
-        <v>0.59375383403124449</v>
+        <v>0.56857402701112092</v>
       </c>
       <c r="L213" t="s">
         <v>386</v>
@@ -13743,8 +13964,11 @@
       <c r="P213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="R213">
+        <v>8.9225307456956369</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>453</v>
       </c>
@@ -13766,17 +13990,20 @@
       <c r="G214">
         <v>13.58617957328107</v>
       </c>
+      <c r="H214">
+        <v>5.5812222655178374</v>
+      </c>
       <c r="I214">
         <f t="shared" si="24"/>
-        <v>11.162915101284153</v>
+        <v>10.232632961989767</v>
       </c>
       <c r="J214">
         <f t="shared" si="25"/>
-        <v>4.6978639810221265</v>
+        <v>4.7664168177228898</v>
       </c>
       <c r="K214" s="7">
         <f t="shared" si="26"/>
-        <v>0.42084562485669147</v>
+        <v>0.46580551021699557</v>
       </c>
       <c r="L214" t="s">
         <v>386</v>
@@ -13793,8 +14020,11 @@
       <c r="P214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:16">
+      <c r="R214">
+        <v>12.225007822311129</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>455</v>
       </c>
@@ -13816,17 +14046,20 @@
       <c r="G215">
         <v>7.2857224603766149</v>
       </c>
+      <c r="H215">
+        <v>7.7026190226245141</v>
+      </c>
       <c r="I215">
         <f t="shared" si="24"/>
-        <v>7.1102320872243849</v>
+        <v>7.2089632431244057</v>
       </c>
       <c r="J215">
         <f t="shared" si="25"/>
-        <v>2.7549475328664981</v>
+        <v>2.5245829615534778</v>
       </c>
       <c r="K215" s="7">
         <f t="shared" si="26"/>
-        <v>0.38746239209498778</v>
+        <v>0.35020055955498386</v>
       </c>
       <c r="L215" t="s">
         <v>386</v>
@@ -13843,8 +14076,11 @@
       <c r="P215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:16">
+      <c r="R215">
+        <v>5.663604156394304</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>457</v>
       </c>
@@ -13866,17 +14102,20 @@
       <c r="G216">
         <v>44.985598869119023</v>
       </c>
+      <c r="H216">
+        <v>37.503519389935619</v>
+      </c>
       <c r="I216">
         <f t="shared" si="24"/>
-        <v>27.590070041672057</v>
+        <v>29.242311599715986</v>
       </c>
       <c r="J216">
         <f t="shared" si="25"/>
-        <v>13.53776582905248</v>
+        <v>12.898660028565802</v>
       </c>
       <c r="K216" s="7">
         <f t="shared" si="26"/>
-        <v>0.49067529761994194</v>
+        <v>0.44109577263006389</v>
       </c>
       <c r="L216" t="s">
         <v>386</v>
@@ -13893,8 +14132,11 @@
       <c r="P216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:16">
+      <c r="R216">
+        <v>30.387529423238131</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>459</v>
       </c>
@@ -13916,17 +14158,20 @@
       <c r="G217">
         <v>78.436236136925658</v>
       </c>
+      <c r="H217">
+        <v>67.99383854319403</v>
+      </c>
       <c r="I217">
         <f t="shared" si="24"/>
-        <v>49.137096533078136</v>
+        <v>52.279886868097456</v>
       </c>
       <c r="J217">
         <f t="shared" si="25"/>
-        <v>24.13769130732426</v>
+        <v>23.128102101610452</v>
       </c>
       <c r="K217" s="7">
         <f t="shared" si="26"/>
-        <v>0.49123153402186143</v>
+        <v>0.44239005642768175</v>
       </c>
       <c r="L217" t="s">
         <v>386</v>
@@ -13943,8 +14188,11 @@
       <c r="P217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:16">
+      <c r="R217">
+        <v>63.644095684410892</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>461</v>
       </c>
@@ -13966,17 +14214,20 @@
       <c r="G218">
         <v>39.34682663594613</v>
       </c>
+      <c r="H218">
+        <v>25.535325888100122</v>
+      </c>
       <c r="I218">
         <f t="shared" si="24"/>
-        <v>19.836783343533746</v>
+        <v>20.786540434294807</v>
       </c>
       <c r="J218">
         <f t="shared" si="25"/>
-        <v>11.457533197830385</v>
+        <v>10.6726792234538</v>
       </c>
       <c r="K218" s="7">
         <f t="shared" si="26"/>
-        <v>0.57759027758727977</v>
+        <v>0.51344182343327371</v>
       </c>
       <c r="L218" t="s">
         <v>386</v>
@@ -13993,8 +14244,11 @@
       <c r="P218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:16">
+      <c r="R218">
+        <v>29.699901471340301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>463</v>
       </c>
@@ -14016,17 +14270,20 @@
       <c r="G219">
         <v>22.673730773123321</v>
       </c>
+      <c r="H219">
+        <v>22.391552229287971</v>
+      </c>
       <c r="I219">
         <f t="shared" si="24"/>
-        <v>15.259297541345939</v>
+        <v>16.448006656002942</v>
       </c>
       <c r="J219">
         <f t="shared" si="25"/>
-        <v>6.3004797308820644</v>
+        <v>6.3360227400467632</v>
       </c>
       <c r="K219" s="7">
         <f t="shared" si="26"/>
-        <v>0.41289448048382005</v>
+        <v>0.38521523443902173</v>
       </c>
       <c r="L219" t="s">
         <v>386</v>
@@ -14043,8 +14300,11 @@
       <c r="P219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:16">
+      <c r="R219">
+        <v>24.671657860364402</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>465</v>
       </c>
@@ -14066,17 +14326,20 @@
       <c r="G220">
         <v>10.900127739654851</v>
       </c>
+      <c r="H220">
+        <v>15.718866822038949</v>
+      </c>
       <c r="I220">
         <f t="shared" si="24"/>
-        <v>11.163514128405334</v>
+        <v>11.922739577344268</v>
       </c>
       <c r="J220">
         <f t="shared" si="25"/>
-        <v>2.8196892892618859</v>
+        <v>3.0834487431388387</v>
       </c>
       <c r="K220" s="7">
         <f t="shared" si="26"/>
-        <v>0.25258079640775877</v>
+        <v>0.25861914731393149</v>
       </c>
       <c r="L220" t="s">
         <v>386</v>
@@ -14093,8 +14356,11 @@
       <c r="P220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="R220">
+        <v>24.716442150748058</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>467</v>
       </c>
@@ -14116,17 +14382,20 @@
       <c r="G221">
         <v>18.993616280427439</v>
       </c>
+      <c r="H221">
+        <v>7.9586441958815204</v>
+      </c>
       <c r="I221">
         <f t="shared" si="24"/>
-        <v>9.936572928732307</v>
+        <v>9.6069181399238417</v>
       </c>
       <c r="J221">
         <f t="shared" si="25"/>
-        <v>4.6481032176039321</v>
+        <v>4.3066709107505696</v>
       </c>
       <c r="K221" s="7">
         <f t="shared" si="26"/>
-        <v>0.4677772961504274</v>
+        <v>0.44828849876977411</v>
       </c>
       <c r="L221" t="s">
         <v>386</v>
@@ -14143,8 +14412,11 @@
       <c r="P221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:16">
+      <c r="R221">
+        <v>2.776372216807919</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>469</v>
       </c>
@@ -14166,17 +14438,20 @@
       <c r="G222">
         <v>11.27195014027256</v>
       </c>
+      <c r="H222">
+        <v>14.123033041405019</v>
+      </c>
       <c r="I222">
         <f t="shared" si="24"/>
-        <v>7.5470037428399905</v>
+        <v>8.6430086259341632</v>
       </c>
       <c r="J222">
         <f t="shared" si="25"/>
-        <v>2.3705606955756053</v>
+        <v>3.2694186835487891</v>
       </c>
       <c r="K222" s="7">
         <f t="shared" si="26"/>
-        <v>0.31410620377982568</v>
+        <v>0.3782732177009045</v>
       </c>
       <c r="L222" t="s">
         <v>386</v>
@@ -14193,8 +14468,11 @@
       <c r="P222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:16">
+      <c r="R222">
+        <v>6.1484268921560368</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>471</v>
       </c>
@@ -14216,17 +14494,20 @@
       <c r="G223">
         <v>1.182965299684543</v>
       </c>
+      <c r="H223">
+        <v>7.9030441454716174</v>
+      </c>
       <c r="I223">
         <f t="shared" si="24"/>
-        <v>8.3834254442032368</v>
+        <v>8.3033618944146337</v>
       </c>
       <c r="J223">
         <f t="shared" si="25"/>
-        <v>5.0285907444187101</v>
+        <v>4.5939440124002751</v>
       </c>
       <c r="K223" s="7">
         <f t="shared" si="26"/>
-        <v>0.59982530743393869</v>
+        <v>0.55326313255001591</v>
       </c>
       <c r="L223" t="s">
         <v>386</v>
@@ -14243,8 +14524,11 @@
       <c r="P223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:16">
+      <c r="R223">
+        <v>9.5863060283881012</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>473</v>
       </c>
@@ -14266,17 +14550,20 @@
       <c r="G224">
         <v>7.2176438846190827</v>
       </c>
+      <c r="H224">
+        <v>15.120870520453639</v>
+      </c>
       <c r="I224">
         <f t="shared" si="24"/>
-        <v>9.8125983785721047</v>
+        <v>10.697310402219026</v>
       </c>
       <c r="J224">
         <f t="shared" si="25"/>
-        <v>3.5130467248335324</v>
+        <v>3.7680443070174787</v>
       </c>
       <c r="K224" s="7">
         <f t="shared" si="26"/>
-        <v>0.35801391122916199</v>
+        <v>0.35224221466321515</v>
       </c>
       <c r="L224" t="s">
         <v>386</v>
@@ -14293,8 +14580,11 @@
       <c r="P224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:16">
+      <c r="R224">
+        <v>5.0574712852081953</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>475</v>
       </c>
@@ -14316,17 +14606,20 @@
       <c r="G225">
         <v>9.5819379999116823</v>
       </c>
+      <c r="H225">
+        <v>8.6973232298316585</v>
+      </c>
       <c r="I225">
         <f t="shared" si="24"/>
-        <v>7.0301121336021026</v>
+        <v>7.3079806496403625</v>
       </c>
       <c r="J225">
         <f t="shared" si="25"/>
-        <v>2.218718565080982</v>
+        <v>2.1185642827684901</v>
       </c>
       <c r="K225" s="7">
         <f t="shared" si="26"/>
-        <v>0.31560215867341374</v>
+        <v>0.28989735801677963</v>
       </c>
       <c r="L225" t="s">
         <v>386</v>
@@ -14343,8 +14636,11 @@
       <c r="P225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:16">
+      <c r="R225">
+        <v>8.6159611012787547</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>477</v>
       </c>
@@ -14366,17 +14662,20 @@
       <c r="G226">
         <v>5.7579530075554581</v>
       </c>
+      <c r="H226">
+        <v>12.109805584087059</v>
+      </c>
       <c r="I226">
         <f t="shared" si="24"/>
-        <v>8.7003221236344306</v>
+        <v>9.2685693670432006</v>
       </c>
       <c r="J226">
         <f t="shared" si="25"/>
-        <v>1.6881136180653462</v>
+        <v>1.9973226173529763</v>
       </c>
       <c r="K226" s="7">
         <f t="shared" si="26"/>
-        <v>0.19402886399798744</v>
+        <v>0.21549416509250871</v>
       </c>
       <c r="L226" t="s">
         <v>386</v>
@@ -14393,8 +14692,11 @@
       <c r="P226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:16">
+      <c r="R226">
+        <v>10.408015738755079</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>479</v>
       </c>
@@ -14416,17 +14718,20 @@
       <c r="G227">
         <v>8.1603847784885826</v>
       </c>
+      <c r="H227">
+        <v>13.54997897495338</v>
+      </c>
       <c r="I227">
         <f t="shared" si="24"/>
-        <v>9.4676846217638886</v>
+        <v>10.148067013962136</v>
       </c>
       <c r="J227">
         <f t="shared" si="25"/>
-        <v>2.5416193321717455</v>
+        <v>2.7744894466294197</v>
       </c>
       <c r="K227" s="7">
         <f t="shared" si="26"/>
-        <v>0.26845204859582933</v>
+        <v>0.27340078093809994</v>
       </c>
       <c r="L227" t="s">
         <v>386</v>
@@ -14443,8 +14748,11 @@
       <c r="P227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:16">
+      <c r="R227">
+        <v>9.1035382592763554</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>481</v>
       </c>
@@ -14466,17 +14774,20 @@
       <c r="G228">
         <v>39.123769902857568</v>
       </c>
+      <c r="H228">
+        <v>29.751320853314681</v>
+      </c>
       <c r="I228">
         <f t="shared" si="24"/>
-        <v>21.818934261074485</v>
+        <v>23.140998693114522</v>
       </c>
       <c r="J228">
         <f t="shared" si="25"/>
-        <v>9.0750494941225721</v>
+        <v>8.7960052247012648</v>
       </c>
       <c r="K228" s="7">
         <f t="shared" si="26"/>
-        <v>0.41592542447468128</v>
+        <v>0.38010482353635272</v>
       </c>
       <c r="L228" t="s">
         <v>386</v>
@@ -14493,8 +14804,11 @@
       <c r="P228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:16">
+      <c r="R228">
+        <v>11.630091382536669</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>483</v>
       </c>
@@ -14516,17 +14830,20 @@
       <c r="G229">
         <v>56.360832749467043</v>
       </c>
+      <c r="H229">
+        <v>48.712627515404662</v>
+      </c>
       <c r="I229">
         <f t="shared" si="24"/>
-        <v>33.587531623417874</v>
+        <v>36.108380938749008</v>
       </c>
       <c r="J229">
         <f t="shared" si="25"/>
-        <v>19.690944782806234</v>
+        <v>18.838378249006208</v>
       </c>
       <c r="K229" s="7">
         <f t="shared" si="26"/>
-        <v>0.58625757330369965</v>
+        <v>0.52171761123717864</v>
       </c>
       <c r="L229" t="s">
         <v>386</v>
@@ -14543,8 +14860,11 @@
       <c r="P229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:16">
+      <c r="R229">
+        <v>43.882224957425073</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>485</v>
       </c>
@@ -14566,17 +14886,20 @@
       <c r="G230">
         <v>40.579958887270983</v>
       </c>
+      <c r="H230">
+        <v>35.550511879635508</v>
+      </c>
       <c r="I230">
         <f t="shared" si="24"/>
-        <v>20.811336592387043</v>
+        <v>23.267865806928455</v>
       </c>
       <c r="J230">
         <f t="shared" si="25"/>
-        <v>14.977254412856718</v>
+        <v>14.73446539124083</v>
       </c>
       <c r="K230" s="7">
         <f t="shared" si="26"/>
-        <v>0.71966806871671662</v>
+        <v>0.63325384087668923</v>
       </c>
       <c r="L230" t="s">
         <v>386</v>
@@ -14593,8 +14916,11 @@
       <c r="P230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:16">
+      <c r="R230">
+        <v>25.63279310911545</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>487</v>
       </c>
@@ -14616,17 +14942,20 @@
       <c r="G231">
         <v>7.5273003826764358</v>
       </c>
+      <c r="H231">
+        <v>18.307742840593789</v>
+      </c>
       <c r="I231">
         <f t="shared" si="24"/>
-        <v>8.292179140019174</v>
+        <v>9.9614397567816102</v>
       </c>
       <c r="J231">
         <f t="shared" si="25"/>
-        <v>4.5135485716373926</v>
+        <v>5.5595793267547515</v>
       </c>
       <c r="K231" s="7">
         <f t="shared" si="26"/>
-        <v>0.54431392465394279</v>
+        <v>0.55811001848099984</v>
       </c>
       <c r="L231" t="s">
         <v>386</v>
@@ -14643,8 +14972,11 @@
       <c r="P231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:16">
+      <c r="R231">
+        <v>21.331018794319281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>489</v>
       </c>
@@ -14666,17 +14998,20 @@
       <c r="G232">
         <v>5.7292368786407533</v>
       </c>
+      <c r="H232">
+        <v>16.218502455044309</v>
+      </c>
       <c r="I232">
         <f t="shared" si="24"/>
-        <v>8.9992546337641084</v>
+        <v>10.202462603977475</v>
       </c>
       <c r="J232">
         <f t="shared" si="25"/>
-        <v>4.4841989697891416</v>
+        <v>4.8984944045907106</v>
       </c>
       <c r="K232" s="7">
         <f t="shared" si="26"/>
-        <v>0.4982855972276829</v>
+        <v>0.48012863116802906</v>
       </c>
       <c r="L232" t="s">
         <v>386</v>
@@ -14693,8 +15028,11 @@
       <c r="P232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="R232">
+        <v>8.3489769468045019</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>491</v>
       </c>
@@ -14716,17 +15054,20 @@
       <c r="G233">
         <v>18.474804090843332</v>
       </c>
+      <c r="H233">
+        <v>8.4608974555202074</v>
+      </c>
       <c r="I233">
         <f t="shared" si="24"/>
-        <v>10.278533432771468</v>
+        <v>9.9755941032295912</v>
       </c>
       <c r="J233">
         <f t="shared" si="25"/>
-        <v>5.5636825422208611</v>
+        <v>5.1238979998071192</v>
       </c>
       <c r="K233" s="7">
         <f t="shared" si="26"/>
-        <v>0.54129147690291546</v>
+        <v>0.51364339274272008</v>
       </c>
       <c r="L233" t="s">
         <v>386</v>
@@ -14743,8 +15084,11 @@
       <c r="P233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="R233">
+        <v>9.7565575507955149</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>493</v>
       </c>
@@ -14766,17 +15110,20 @@
       <c r="G234">
         <v>36.493102626849499</v>
       </c>
+      <c r="H234">
+        <v>41.031614522627599</v>
+      </c>
       <c r="I234">
         <f t="shared" si="24"/>
-        <v>26.620343063888225</v>
+        <v>29.022221640344785</v>
       </c>
       <c r="J234">
         <f t="shared" si="25"/>
-        <v>8.4696911795433945</v>
+        <v>9.4140760235706509</v>
       </c>
       <c r="K234" s="7">
         <f t="shared" si="26"/>
-        <v>0.31816611676327111</v>
+        <v>0.32437475463573129</v>
       </c>
       <c r="L234" t="s">
         <v>386</v>
@@ -14793,8 +15140,11 @@
       <c r="P234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="R234">
+        <v>32.969105903915263</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>495</v>
       </c>
@@ -14816,17 +15166,20 @@
       <c r="G235">
         <v>16.028644568881301</v>
       </c>
+      <c r="H235">
+        <v>16.851569935763781</v>
+      </c>
       <c r="I235">
         <f t="shared" si="24"/>
-        <v>8.7629821151029166</v>
+        <v>10.111080085213061</v>
       </c>
       <c r="J235">
         <f t="shared" si="25"/>
-        <v>5.7290063742669242</v>
+        <v>6.0363981298509426</v>
       </c>
       <c r="K235" s="7">
         <f t="shared" si="26"/>
-        <v>0.65377360115719463</v>
+        <v>0.5970082403638427</v>
       </c>
       <c r="L235" t="s">
         <v>386</v>
@@ -14843,8 +15196,11 @@
       <c r="P235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="R235">
+        <v>9.5575777182820865</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236" t="s">
         <v>497</v>
       </c>
@@ -14866,17 +15222,20 @@
       <c r="G236">
         <v>18.019875396504311</v>
       </c>
+      <c r="H236">
+        <v>15.36987940891259</v>
+      </c>
       <c r="I236">
         <f t="shared" si="24"/>
-        <v>9.5756456424052381</v>
+        <v>10.541351270156463</v>
       </c>
       <c r="J236">
         <f t="shared" si="25"/>
-        <v>5.08772219249198</v>
+        <v>5.1218845217359288</v>
       </c>
       <c r="K236" s="7">
         <f t="shared" si="26"/>
-        <v>0.53131897132463557</v>
+        <v>0.48588500567630794</v>
       </c>
       <c r="L236" t="s">
         <v>386</v>
@@ -14893,8 +15252,11 @@
       <c r="P236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="R236">
+        <v>10.08820888967192</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237" t="s">
         <v>499</v>
       </c>
@@ -14916,17 +15278,20 @@
       <c r="G237">
         <v>12.25221564157968</v>
       </c>
+      <c r="H237">
+        <v>9.839391310670063</v>
+      </c>
       <c r="I237">
         <f t="shared" si="24"/>
-        <v>8.8060178402709486</v>
+        <v>8.978246752004134</v>
       </c>
       <c r="J237">
         <f t="shared" si="25"/>
-        <v>3.2789573768453364</v>
+        <v>3.0179377985899047</v>
       </c>
       <c r="K237" s="7">
         <f t="shared" si="26"/>
-        <v>0.37235416011199535</v>
+        <v>0.33613887899842332</v>
       </c>
       <c r="L237" t="s">
         <v>386</v>
@@ -14943,8 +15308,11 @@
       <c r="P237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:16">
+      <c r="R237">
+        <v>10.187416578721811</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>501</v>
       </c>
@@ -14966,17 +15334,20 @@
       <c r="G238">
         <v>22.387061675911809</v>
       </c>
+      <c r="H238">
+        <v>11.075680217396121</v>
+      </c>
       <c r="I238">
         <f t="shared" si="24"/>
-        <v>13.578082243651641</v>
+        <v>13.161015239275722</v>
       </c>
       <c r="J238">
         <f t="shared" si="25"/>
-        <v>4.646202417907813</v>
+        <v>4.3427013698279815</v>
       </c>
       <c r="K238" s="7">
         <f t="shared" si="26"/>
-        <v>0.34218399436195196</v>
+        <v>0.32996704972032004</v>
       </c>
       <c r="L238" t="s">
         <v>386</v>
@@ -14993,8 +15364,11 @@
       <c r="P238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="R238">
+        <v>11.401303796366941</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>503</v>
       </c>
@@ -15016,17 +15390,20 @@
       <c r="G239">
         <v>13.387097218826449</v>
       </c>
+      <c r="H239">
+        <v>14.87402520625306</v>
+      </c>
       <c r="I239">
         <f t="shared" si="24"/>
-        <v>11.480986969857039</v>
+        <v>12.046493342589708</v>
       </c>
       <c r="J239">
         <f t="shared" si="25"/>
-        <v>3.313064289703052</v>
+        <v>3.278106635101171</v>
       </c>
       <c r="K239" s="7">
         <f t="shared" si="26"/>
-        <v>0.28856964112940775</v>
+        <v>0.27212123411147432</v>
       </c>
       <c r="L239" t="s">
         <v>386</v>
@@ -15043,8 +15420,11 @@
       <c r="P239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="R239">
+        <v>10.68140896845156</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>505</v>
       </c>
@@ -15066,17 +15446,20 @@
       <c r="G240">
         <v>43.306649679189377</v>
       </c>
+      <c r="H240">
+        <v>41.524520824390713</v>
+      </c>
       <c r="I240">
         <f t="shared" si="24"/>
-        <v>29.785880454948927</v>
+        <v>31.742320516522557</v>
       </c>
       <c r="J240">
         <f t="shared" si="25"/>
-        <v>12.321452159438429</v>
+        <v>12.068696753879131</v>
       </c>
       <c r="K240" s="7">
         <f t="shared" si="26"/>
-        <v>0.41366754889366442</v>
+        <v>0.38020839552663188</v>
       </c>
       <c r="L240" t="s">
         <v>386</v>
@@ -15093,8 +15476,11 @@
       <c r="P240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="R240">
+        <v>36.160525992599148</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>507</v>
       </c>
@@ -15116,17 +15502,20 @@
       <c r="G241">
         <v>62.440011985040407</v>
       </c>
+      <c r="H241">
+        <v>54.129108749910571</v>
+      </c>
       <c r="I241">
         <f t="shared" si="24"/>
-        <v>34.287310512068544</v>
+        <v>37.594276885042213</v>
       </c>
       <c r="J241">
         <f t="shared" si="25"/>
-        <v>20.708202990675623</v>
+        <v>20.298723906009851</v>
       </c>
       <c r="K241" s="7">
         <f t="shared" si="26"/>
-        <v>0.60396113551649644</v>
+        <v>0.53994186317455639</v>
       </c>
       <c r="L241" t="s">
         <v>386</v>
@@ -15143,8 +15532,11 @@
       <c r="P241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="R241">
+        <v>41.715393995644668</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>509</v>
       </c>
@@ -15166,17 +15558,20 @@
       <c r="G242">
         <v>43.036386643188287</v>
       </c>
+      <c r="H242">
+        <v>15.46976228897856</v>
+      </c>
       <c r="I242">
         <f t="shared" si="24"/>
-        <v>20.357128650222098</v>
+        <v>19.542567590014841</v>
       </c>
       <c r="J242">
         <f t="shared" si="25"/>
-        <v>11.966323183990376</v>
+        <v>11.074518381873373</v>
       </c>
       <c r="K242" s="7">
         <f t="shared" si="26"/>
-        <v>0.58781979470664802</v>
+        <v>0.5666869683762451</v>
       </c>
       <c r="L242" t="s">
         <v>386</v>
@@ -15193,8 +15588,11 @@
       <c r="P242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="R242">
+        <v>32.477527569856917</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>511</v>
       </c>
@@ -15216,17 +15614,20 @@
       <c r="G243">
         <v>28.229946166412109</v>
       </c>
+      <c r="H243">
+        <v>19.372184635131859</v>
+      </c>
       <c r="I243">
         <f t="shared" si="24"/>
-        <v>12.73707531678825</v>
+        <v>13.842926869845519</v>
       </c>
       <c r="J243">
         <f t="shared" si="25"/>
-        <v>8.8637748828299312</v>
+        <v>8.4608880108158928</v>
       </c>
       <c r="K243" s="7">
         <f t="shared" si="26"/>
-        <v>0.69590346781940826</v>
+        <v>0.61120658155368213</v>
       </c>
       <c r="L243" t="s">
         <v>386</v>
@@ -15243,8 +15644,11 @@
       <c r="P243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:16">
+      <c r="R243">
+        <v>14.2855291155558</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>513</v>
       </c>
@@ -15266,17 +15670,20 @@
       <c r="G244">
         <v>2.7800546448087431</v>
       </c>
+      <c r="H244">
+        <v>10.250822628055049</v>
+      </c>
       <c r="I244">
         <f t="shared" si="24"/>
-        <v>7.8385736623891216</v>
+        <v>8.2406151566667756</v>
       </c>
       <c r="J244">
         <f t="shared" si="25"/>
-        <v>3.3454435764112493</v>
+        <v>3.1835275117492641</v>
       </c>
       <c r="K244" s="7">
         <f t="shared" si="26"/>
-        <v>0.42679238857743801</v>
+        <v>0.38632158537020683</v>
       </c>
       <c r="L244" t="s">
         <v>386</v>
@@ -15293,8 +15700,11 @@
       <c r="P244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:16">
+      <c r="R244">
+        <v>9.0273144009971169</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>515</v>
       </c>
@@ -15316,17 +15726,20 @@
       <c r="G245">
         <v>16.985366145569941</v>
       </c>
+      <c r="H245">
+        <v>17.611655366730648</v>
+      </c>
       <c r="I245">
         <f t="shared" ref="I245:I250" si="27">AVERAGE(C245:H245)</f>
-        <v>10.875391595158067</v>
+        <v>11.998102223753499</v>
       </c>
       <c r="J245">
         <f t="shared" ref="J245:J250" si="28">_xlfn.STDEV.P(C245:H245)</f>
-        <v>4.5168348906286111</v>
+        <v>4.8274106553588725</v>
       </c>
       <c r="K245" s="7">
         <f t="shared" ref="K245:K250" si="29">J245/I245</f>
-        <v>0.41532618399135096</v>
+        <v>0.40234785179623683</v>
       </c>
       <c r="L245" t="s">
         <v>386</v>
@@ -15343,8 +15756,11 @@
       <c r="P245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:16">
+      <c r="R245">
+        <v>8.9082148394256837</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>517</v>
       </c>
@@ -15366,17 +15782,20 @@
       <c r="G246">
         <v>14.49447899339251</v>
       </c>
+      <c r="H246">
+        <v>13.41690462426874</v>
+      </c>
       <c r="I246">
         <f t="shared" si="27"/>
-        <v>9.6691712987944936</v>
+        <v>10.293793519706869</v>
       </c>
       <c r="J246">
         <f t="shared" si="28"/>
-        <v>4.7360183741478874</v>
+        <v>4.5433823261064221</v>
       </c>
       <c r="K246" s="7">
         <f t="shared" si="29"/>
-        <v>0.48980602657627459</v>
+        <v>0.44137103754882795</v>
       </c>
       <c r="L246" t="s">
         <v>386</v>
@@ -15393,8 +15812,11 @@
       <c r="P246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:16">
+      <c r="R246">
+        <v>10.29256095264779</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>519</v>
       </c>
@@ -15416,17 +15838,20 @@
       <c r="G247">
         <v>16.279926708154779</v>
       </c>
+      <c r="H247">
+        <v>33.680712756860501</v>
+      </c>
       <c r="I247">
         <f t="shared" si="27"/>
-        <v>17.557352415642193</v>
+        <v>20.24457913917858</v>
       </c>
       <c r="J247">
         <f t="shared" si="28"/>
-        <v>3.0255728042052561</v>
+        <v>6.6131948642893068</v>
       </c>
       <c r="K247" s="7">
         <f t="shared" si="29"/>
-        <v>0.17232511671348086</v>
+        <v>0.3266649713399592</v>
       </c>
       <c r="L247" t="s">
         <v>386</v>
@@ -15443,8 +15868,11 @@
       <c r="P247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:16">
+      <c r="R247">
+        <v>23.352465364651302</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>521</v>
       </c>
@@ -15466,17 +15894,20 @@
       <c r="G248">
         <v>38.370866772570089</v>
       </c>
+      <c r="H248">
+        <v>43.363140379836132</v>
+      </c>
       <c r="I248">
         <f t="shared" si="27"/>
-        <v>28.229844980026286</v>
+        <v>30.752060879994591</v>
       </c>
       <c r="J248">
         <f t="shared" si="28"/>
-        <v>9.8326262060934972</v>
+        <v>10.600706595359354</v>
       </c>
       <c r="K248" s="7">
         <f t="shared" si="29"/>
-        <v>0.34830606448779522</v>
+        <v>0.34471532287631246</v>
       </c>
       <c r="L248" t="s">
         <v>386</v>
@@ -15493,8 +15924,11 @@
       <c r="P248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:16">
+      <c r="R248">
+        <v>35.164548316459381</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>523</v>
       </c>
@@ -15516,17 +15950,20 @@
       <c r="G249">
         <v>16.667857307796869</v>
       </c>
+      <c r="H249">
+        <v>9.1619299943472576</v>
+      </c>
       <c r="I249">
         <f t="shared" si="27"/>
-        <v>12.912125858045068</v>
+        <v>12.287093214095433</v>
       </c>
       <c r="J249">
         <f t="shared" si="28"/>
-        <v>4.4658149676922498</v>
+        <v>4.3096305102332666</v>
       </c>
       <c r="K249" s="7">
         <f t="shared" si="29"/>
-        <v>0.34586210022958891</v>
+        <v>0.35074451175232974</v>
       </c>
       <c r="L249" t="s">
         <v>386</v>
@@ -15543,8 +15980,11 @@
       <c r="P249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:16">
+      <c r="R249">
+        <v>22.902050939290721</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>525</v>
       </c>
@@ -15566,17 +16006,20 @@
       <c r="G250">
         <v>7.3361498003814809</v>
       </c>
+      <c r="H250">
+        <v>12.18067373669621</v>
+      </c>
       <c r="I250">
         <f t="shared" si="27"/>
-        <v>9.851508505690493</v>
+        <v>10.239702710858111</v>
       </c>
       <c r="J250">
         <f t="shared" si="28"/>
-        <v>3.2918767204335215</v>
+        <v>3.1279147457593477</v>
       </c>
       <c r="K250" s="7">
         <f t="shared" si="29"/>
-        <v>0.33414950802022308</v>
+        <v>0.30546929281868002</v>
       </c>
       <c r="L250" t="s">
         <v>386</v>
@@ -15593,8 +16036,11 @@
       <c r="P250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:16">
+      <c r="R250">
+        <v>8.8011930394032554</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>527</v>
       </c>
@@ -15616,6 +16062,9 @@
       <c r="G251">
         <v>350.16025641025652</v>
       </c>
+      <c r="H251">
+        <v>357.43464052287578</v>
+      </c>
       <c r="I251" t="s">
         <v>37</v>
       </c>
@@ -15640,8 +16089,11 @@
       <c r="P251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:16">
+      <c r="R251">
+        <v>18.243423307179519</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>529</v>
       </c>
@@ -15663,17 +16115,20 @@
       <c r="G252">
         <v>43.7433505164271</v>
       </c>
+      <c r="H252">
+        <v>41.329516778434957</v>
+      </c>
       <c r="I252">
         <f t="shared" ref="I252:I265" si="30">AVERAGE(C252:H252)</f>
-        <v>26.715853910948965</v>
+        <v>29.1514643888633</v>
       </c>
       <c r="J252">
         <f t="shared" ref="J252:J265" si="31">_xlfn.STDEV.P(C252:H252)</f>
-        <v>13.372929951155934</v>
+        <v>13.36751179412483</v>
       </c>
       <c r="K252" s="7">
         <f t="shared" ref="K252:K265" si="32">J252/I252</f>
-        <v>0.50056157649803967</v>
+        <v>0.45855369787980893</v>
       </c>
       <c r="L252" t="s">
         <v>386</v>
@@ -15690,8 +16145,11 @@
       <c r="P252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:16">
+      <c r="R252">
+        <v>32.01976502203668</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>531</v>
       </c>
@@ -15713,17 +16171,20 @@
       <c r="G253">
         <v>58.666062961644577</v>
       </c>
+      <c r="H253">
+        <v>49.967245119219122</v>
+      </c>
       <c r="I253">
         <f t="shared" si="30"/>
-        <v>33.597522768724609</v>
+        <v>36.325809827140361</v>
       </c>
       <c r="J253">
         <f t="shared" si="31"/>
-        <v>19.217656092262708</v>
+        <v>18.573718154944888</v>
       </c>
       <c r="K253" s="7">
         <f t="shared" si="32"/>
-        <v>0.57199622199979916</v>
+        <v>0.51130912822947649</v>
       </c>
       <c r="L253" t="s">
         <v>386</v>
@@ -15740,8 +16201,11 @@
       <c r="P253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:16">
+      <c r="R253">
+        <v>42.244563378756972</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" t="s">
         <v>533</v>
       </c>
@@ -15763,17 +16227,20 @@
       <c r="G254">
         <v>42.797708957270842</v>
       </c>
+      <c r="H254">
+        <v>37.171311845659687</v>
+      </c>
       <c r="I254">
         <f t="shared" si="30"/>
-        <v>22.547330733236603</v>
+        <v>24.984660918640447</v>
       </c>
       <c r="J254">
         <f t="shared" si="31"/>
-        <v>14.968020166054798</v>
+        <v>14.710684843776756</v>
       </c>
       <c r="K254" s="7">
         <f t="shared" si="32"/>
-        <v>0.6638488760884993</v>
+        <v>0.58878865283304571</v>
       </c>
       <c r="L254" t="s">
         <v>386</v>
@@ -15790,8 +16257,11 @@
       <c r="P254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:16">
+      <c r="R254">
+        <v>30.254139878501629</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>535</v>
       </c>
@@ -15813,17 +16283,20 @@
       <c r="G255">
         <v>24.884076373449592</v>
       </c>
+      <c r="H255">
+        <v>19.888987808841762</v>
+      </c>
       <c r="I255">
         <f t="shared" si="30"/>
-        <v>13.748027224463101</v>
+        <v>14.771520655192878</v>
       </c>
       <c r="J255">
         <f t="shared" si="31"/>
-        <v>6.3543534968690674</v>
+        <v>6.2358534018778675</v>
       </c>
       <c r="K255" s="7">
         <f t="shared" si="32"/>
-        <v>0.46220111388506674</v>
+        <v>0.42215378818738436</v>
       </c>
       <c r="L255" t="s">
         <v>386</v>
@@ -15840,8 +16313,11 @@
       <c r="P255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:16">
+      <c r="R255">
+        <v>29.458627850955018</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>537</v>
       </c>
@@ -15863,17 +16339,20 @@
       <c r="G256">
         <v>9.3571313148655157</v>
       </c>
+      <c r="H256">
+        <v>33.489583474517659</v>
+      </c>
       <c r="I256">
         <f t="shared" si="30"/>
-        <v>11.654954453970825</v>
+        <v>15.294059290728631</v>
       </c>
       <c r="J256">
         <f t="shared" si="31"/>
-        <v>3.4600986197482841</v>
+        <v>8.7288213473082159</v>
       </c>
       <c r="K256" s="7">
         <f t="shared" si="32"/>
-        <v>0.29687791860648877</v>
+        <v>0.57073280424639716</v>
       </c>
       <c r="L256" t="s">
         <v>386</v>
@@ -15890,8 +16369,11 @@
       <c r="P256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:16">
+      <c r="R256">
+        <v>11.15117097327186</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>539</v>
       </c>
@@ -15913,17 +16395,20 @@
       <c r="G257">
         <v>35.24928018165933</v>
       </c>
+      <c r="H257">
+        <v>15.153656877128491</v>
+      </c>
       <c r="I257">
         <f t="shared" si="30"/>
-        <v>14.192345421401702</v>
+        <v>14.352563997356166</v>
       </c>
       <c r="J257">
         <f t="shared" si="31"/>
-        <v>10.561864181722893</v>
+        <v>9.6482725114242687</v>
       </c>
       <c r="K257" s="7">
         <f t="shared" si="32"/>
-        <v>0.74419441382788398</v>
+        <v>0.67223337329842547</v>
       </c>
       <c r="L257" t="s">
         <v>386</v>
@@ -15940,8 +16425,11 @@
       <c r="P257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:16">
+      <c r="R257">
+        <v>21.800193319875309</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>541</v>
       </c>
@@ -15963,17 +16451,20 @@
       <c r="G258">
         <v>83.558753949881037</v>
       </c>
+      <c r="H258">
+        <v>75.003904578915737</v>
+      </c>
       <c r="I258">
         <f t="shared" si="30"/>
-        <v>59.086817357582689</v>
+        <v>61.739665227804863</v>
       </c>
       <c r="J258">
         <f t="shared" si="31"/>
-        <v>16.817355264782837</v>
+        <v>16.458256515529751</v>
       </c>
       <c r="K258" s="7">
         <f t="shared" si="32"/>
-        <v>0.28462110529675777</v>
+        <v>0.26657508515478096</v>
       </c>
       <c r="L258" t="s">
         <v>386</v>
@@ -15990,8 +16481,11 @@
       <c r="P258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:16">
+      <c r="R258">
+        <v>62.315128718244942</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>543</v>
       </c>
@@ -16013,17 +16507,20 @@
       <c r="G259">
         <v>14.89639133432596</v>
       </c>
+      <c r="H259">
+        <v>18.541705598893842</v>
+      </c>
       <c r="I259">
         <f t="shared" si="30"/>
-        <v>15.946069653935485</v>
+        <v>16.378675644761877</v>
       </c>
       <c r="J259">
         <f t="shared" si="31"/>
-        <v>9.0534657841918182</v>
+        <v>8.3210641529657199</v>
       </c>
       <c r="K259" s="7">
         <f t="shared" si="32"/>
-        <v>0.56775531404739765</v>
+        <v>0.50804255078016081</v>
       </c>
       <c r="L259" t="s">
         <v>386</v>
@@ -16040,8 +16537,11 @@
       <c r="P259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:16">
+      <c r="R259">
+        <v>16.05038853828443</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>545</v>
       </c>
@@ -16063,17 +16563,20 @@
       <c r="G260">
         <v>17.464262845692751</v>
       </c>
+      <c r="H260">
+        <v>28.929509627072271</v>
+      </c>
       <c r="I260">
         <f t="shared" si="30"/>
-        <v>14.108050721218898</v>
+        <v>16.578293872194461</v>
       </c>
       <c r="J260">
         <f t="shared" si="31"/>
-        <v>3.2822181146636584</v>
+        <v>6.2839453571433648</v>
       </c>
       <c r="K260" s="7">
         <f t="shared" si="32"/>
-        <v>0.23264859047657885</v>
+        <v>0.37904656568327327</v>
       </c>
       <c r="L260" t="s">
         <v>386</v>
@@ -16090,8 +16593,11 @@
       <c r="P260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:16">
+      <c r="R260">
+        <v>11.96662773884338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>547</v>
       </c>
@@ -16113,17 +16619,20 @@
       <c r="G261">
         <v>40.292994650791933</v>
       </c>
+      <c r="H261">
+        <v>19.207723163410989</v>
+      </c>
       <c r="I261">
         <f t="shared" si="30"/>
-        <v>24.956677188890261</v>
+        <v>23.998518184643718</v>
       </c>
       <c r="J261">
         <f t="shared" si="31"/>
-        <v>11.857091808594829</v>
+        <v>11.034001926694549</v>
       </c>
       <c r="K261" s="7">
         <f t="shared" si="32"/>
-        <v>0.47510699116119287</v>
+        <v>0.45977846806204209</v>
       </c>
       <c r="L261" t="s">
         <v>386</v>
@@ -16140,8 +16649,11 @@
       <c r="P261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:16">
+      <c r="R261">
+        <v>28.075877432702189</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>549</v>
       </c>
@@ -16163,17 +16675,20 @@
       <c r="G262">
         <v>20.159219863657821</v>
       </c>
+      <c r="H262">
+        <v>10.9946055143972</v>
+      </c>
       <c r="I262">
         <f t="shared" si="30"/>
-        <v>18.131767162175276</v>
+        <v>16.942240220878929</v>
       </c>
       <c r="J262">
         <f t="shared" si="31"/>
-        <v>7.9857464625574686</v>
+        <v>7.7600468549201924</v>
       </c>
       <c r="K262" s="7">
         <f t="shared" si="32"/>
-        <v>0.44042846960976612</v>
+        <v>0.45802956124757488</v>
       </c>
       <c r="L262" t="s">
         <v>386</v>
@@ -16190,8 +16705,11 @@
       <c r="P262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:16">
+      <c r="R262">
+        <v>27.37521847044345</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>551</v>
       </c>
@@ -16213,17 +16731,20 @@
       <c r="G263">
         <v>40.814894287049768</v>
       </c>
+      <c r="H263">
+        <v>39.490772126386041</v>
+      </c>
       <c r="I263">
         <f t="shared" si="30"/>
-        <v>26.185412914276281</v>
+        <v>28.402972782961243</v>
       </c>
       <c r="J263">
         <f t="shared" si="31"/>
-        <v>12.248377671449395</v>
+        <v>12.231386750544418</v>
       </c>
       <c r="K263" s="7">
         <f t="shared" si="32"/>
-        <v>0.46775575819816778</v>
+        <v>0.4306375548788311</v>
       </c>
       <c r="L263" t="s">
         <v>386</v>
@@ -16240,8 +16761,11 @@
       <c r="P263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:16">
+      <c r="R263">
+        <v>24.556019036620839</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" t="s">
         <v>553</v>
       </c>
@@ -16263,17 +16787,20 @@
       <c r="G264">
         <v>51.022474448356967</v>
       </c>
+      <c r="H264">
+        <v>48.517920682377607</v>
+      </c>
       <c r="I264">
         <f t="shared" si="30"/>
-        <v>30.737674891133036</v>
+        <v>33.701049189673796</v>
       </c>
       <c r="J264">
         <f t="shared" si="31"/>
-        <v>14.735746349800802</v>
+        <v>14.995325490664845</v>
       </c>
       <c r="K264" s="7">
         <f t="shared" si="32"/>
-        <v>0.47940341623079807</v>
+        <v>0.44495129532226857</v>
       </c>
       <c r="L264" t="s">
         <v>386</v>
@@ -16290,8 +16817,11 @@
       <c r="P264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:16">
+      <c r="R264">
+        <v>39.355472473674688</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>555</v>
       </c>
@@ -16313,17 +16843,20 @@
       <c r="G265">
         <v>61.012420455950974</v>
       </c>
+      <c r="H265">
+        <v>53.105797652005201</v>
+      </c>
       <c r="I265">
         <f t="shared" si="30"/>
-        <v>35.8082543674061</v>
+        <v>38.691178248172619</v>
       </c>
       <c r="J265">
         <f t="shared" si="31"/>
-        <v>20.576400308515289</v>
+        <v>19.858997756475336</v>
       </c>
       <c r="K265" s="7">
         <f t="shared" si="32"/>
-        <v>0.57462729395836265</v>
+        <v>0.51326939771893032</v>
       </c>
       <c r="L265" t="s">
         <v>386</v>
@@ -16340,8 +16873,11 @@
       <c r="P265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:16">
+      <c r="R265">
+        <v>47.445940242342303</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>557</v>
       </c>
@@ -16363,6 +16899,9 @@
       <c r="G266">
         <v>410.72530864197529</v>
       </c>
+      <c r="H266">
+        <v>401.20192307692321</v>
+      </c>
       <c r="I266" t="s">
         <v>37</v>
       </c>
@@ -16387,8 +16926,11 @@
       <c r="P266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:16">
+      <c r="R266">
+        <v>38.674173290335133</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>559</v>
       </c>
@@ -16410,17 +16952,20 @@
       <c r="G267">
         <v>55.543098876913213</v>
       </c>
+      <c r="H267">
+        <v>51.343166450700593</v>
+      </c>
       <c r="I267">
         <f>AVERAGE(C267:H267)</f>
-        <v>31.533636950459009</v>
+        <v>34.835225200499274</v>
       </c>
       <c r="J267">
         <f>_xlfn.STDEV.P(C267:H267)</f>
-        <v>17.301572795134611</v>
+        <v>17.434337073291264</v>
       </c>
       <c r="K267" s="7">
         <f>J267/I267</f>
-        <v>0.54867038719055106</v>
+        <v>0.50048010233737161</v>
       </c>
       <c r="L267" t="s">
         <v>386</v>
@@ -16437,8 +16982,11 @@
       <c r="P267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:16">
+      <c r="R267">
+        <v>35.905190819583453</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268" t="s">
         <v>561</v>
       </c>
@@ -16460,17 +17008,20 @@
       <c r="G268">
         <v>73.146660111629672</v>
       </c>
+      <c r="H268">
+        <v>70.40888542841671</v>
+      </c>
       <c r="I268">
         <f>AVERAGE(C268:H268)</f>
-        <v>45.285413401953051</v>
+        <v>49.472658739696989</v>
       </c>
       <c r="J268">
         <f>_xlfn.STDEV.P(C268:H268)</f>
-        <v>19.100996747859806</v>
+        <v>19.791543182895509</v>
       </c>
       <c r="K268" s="7">
         <f>J268/I268</f>
-        <v>0.42179137415219059</v>
+        <v>0.40005012237223314</v>
       </c>
       <c r="L268" t="s">
         <v>386</v>
@@ -16487,8 +17038,11 @@
       <c r="P268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:16">
+      <c r="R268">
+        <v>51.316625039898383</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>563</v>
       </c>
@@ -16510,17 +17064,20 @@
       <c r="G269">
         <v>53.53558260249261</v>
       </c>
+      <c r="H269">
+        <v>49.018155753719739</v>
+      </c>
       <c r="I269">
         <f>AVERAGE(C269:H269)</f>
-        <v>29.116731804933284</v>
+        <v>32.433635796397688</v>
       </c>
       <c r="J269">
         <f>_xlfn.STDEV.P(C269:H269)</f>
-        <v>16.920817151594154</v>
+        <v>17.134885604355965</v>
       </c>
       <c r="K269" s="7">
         <f>J269/I269</f>
-        <v>0.58113723974773979</v>
+        <v>0.52830603734716319</v>
       </c>
       <c r="L269" t="s">
         <v>386</v>
@@ -16537,8 +17094,11 @@
       <c r="P269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:16">
+      <c r="R269">
+        <v>34.505611946694373</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>565</v>
       </c>
@@ -16560,17 +17120,20 @@
       <c r="G270">
         <v>58.773355359141512</v>
       </c>
+      <c r="H270">
+        <v>48.436283334740892</v>
+      </c>
       <c r="I270">
         <f>AVERAGE(C270:H270)</f>
-        <v>31.933838532728238</v>
+        <v>34.684245999730344</v>
       </c>
       <c r="J270">
         <f>_xlfn.STDEV.P(C270:H270)</f>
-        <v>17.488569232141153</v>
+        <v>17.108440928253319</v>
       </c>
       <c r="K270" s="7">
         <f>J270/I270</f>
-        <v>0.54765008015611816</v>
+        <v>0.49326258752709606</v>
       </c>
       <c r="L270" t="s">
         <v>386</v>
@@ -16587,8 +17150,11 @@
       <c r="P270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:16">
+      <c r="R270">
+        <v>37.20617317293366</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18">
       <c r="A271" s="4" t="s">
         <v>16</v>
       </c>
@@ -16610,17 +17176,20 @@
       <c r="G271">
         <v>84.532944201257422</v>
       </c>
+      <c r="H271">
+        <v>89.839164896926007</v>
+      </c>
       <c r="I271">
         <f>AVERAGE(C271:H271)</f>
-        <v>62.664750925473257</v>
+        <v>68.099633719763801</v>
       </c>
       <c r="J271">
         <f>_xlfn.STDEV.P(C271:H271)</f>
-        <v>20.79442730604773</v>
+        <v>21.542478259009702</v>
       </c>
       <c r="K271" s="7">
         <f>J271/I271</f>
-        <v>0.33183611199186597</v>
+        <v>0.31633765238237493</v>
       </c>
       <c r="L271" t="s">
         <v>18</v>
@@ -16636,6 +17205,9 @@
       </c>
       <c r="P271">
         <v>1</v>
+      </c>
+      <c r="R271">
+        <v>64.82870094818027</v>
       </c>
     </row>
   </sheetData>
@@ -16674,7 +17246,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -2217,8 +2217,8 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="667">
   <si>
     <t xml:space="preserve">RBS</t>
   </si>
@@ -138,1606 +138,1609 @@
     <t xml:space="preserve">RBS_1by1_6</t>
   </si>
   <si>
+    <t xml:space="preserve">TTCAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTGAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTAAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTCAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTGAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTTAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTACGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAGGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTATGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAACAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAAAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAATAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGCAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGGAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGTAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bps_core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAAGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATGAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGCAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGAAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGTAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGCGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGGGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGTGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGACATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAAATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGATATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGACATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGAGATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGAAATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATCTACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATGTACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATTTACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATACACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATAGACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATAAACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATCCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATGCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATTCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATAAAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATAGAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATATAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATACCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATACGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATACTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATACAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATACAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAGGAGATATACAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_1by1_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTTGACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATACCTGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGAAGCGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTATGCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATCACTTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGAAGCCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATAGAATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATCTGACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATAAGTATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGATAAATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGTCAATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGATCCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACAGACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTTATATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGAACATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACCCGAATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAATGTCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGTACCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACCGTGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGACACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATCCCATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGAGCGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATATGCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACAACATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTACATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGAAGACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTCCGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTACTATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGAGACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RU_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGGATTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bandit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second_Plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTCGGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTCGGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACCGGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCCGGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATCGGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACCGGATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATAAAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGATAATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACACACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATATATATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTCTCTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTGTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATATATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGTGTGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATCTCTCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACACACATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTAAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATAAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATAAGATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTAAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGTCGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGTAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGAAGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGGGGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGGGATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGGATCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGGATTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGGATGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGGATATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATCTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATTTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATTATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATGCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATTCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATCGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATTGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATCCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATCATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACCCCGATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTTTTGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTTTTATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTTTTTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTTTTTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACCCCCTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACCCCCGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACCCCCATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTTTTCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCCCCCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAATTTTTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACCCCCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATCCCCCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGATAATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACCCCCCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTTTTTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaGAAAGAtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prob random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCGGGGGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTGAGGGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCCGGGAtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaAAGGGTtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCTGTAGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCTGACAtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCGTGTGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaGAGGGGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCTAGGAtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaATTGGGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTACTGAtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaAGAGCGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaAGGGGTtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCAAGCCtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCAATTGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTATTTTtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTCCGGCtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTGGGAGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaAAAGTGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCGGGAGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTAAGAGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTAAGGGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaTAGTCTtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaAAGTAGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCCACGCtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaGTAATGtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttaagaCATTGAtatacat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_RP_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bandit2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third_Plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTCTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGCTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCGGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGCTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTCTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGCATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGACGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGCTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTCATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGAAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTCTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCATATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCCTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGCTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTGGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAAACTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGCTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACGAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCATGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATTCTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTTATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGCTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGCGGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCGATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTCTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTCTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTCAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGGTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGCCGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTCGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGCATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTCAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTCGGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGATATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGCTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTACGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGAACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCTGCTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGGATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACGTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCGAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGATGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCAAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTCCGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGTTATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGTTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGGGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGCTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGCAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCAAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACACTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCCTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGCGGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACGCAATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGTGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGACGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCATGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGAGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTCTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTCGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGGCGGTTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAACGCATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGACTATTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCATACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACAGTGGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGTCTAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCTAAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGAGCGGAGTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_1548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGACTCTACTATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_2887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAAGATGGTTATATACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS_BA_3330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Cytometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ttcaagaaggagatatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTGAAGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTAAAGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTCAGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTGAGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTTAGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTACGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAGGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTATGAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAACAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAAAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAATAAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGCAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGGAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGTAGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bps_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAAGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATGAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGCAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGAAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGTAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGCGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGGGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGTGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGACATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAAATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGATATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGACATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGAGATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGAAATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATCTACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATGTACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATTTACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATACACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATAGACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATAAACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATCCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATGCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATTCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATAAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATAGAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATATAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATACCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATACGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATACTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATACAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATACAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAGGAGATATACAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_1by1_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTTGACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uni random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATACCTGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGAAGCGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTATGCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATCACTTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGAAGCCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATAGAATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATCTGACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATAAGTATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGATAAATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGTCAATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGATCCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACAGACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTTATATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGAACATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACCCGAATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAATGTCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGTACCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACCGTGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGACACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATCCCATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGAGCGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATATGCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACAACATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTACATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGAAGACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTCCGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTACTATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGAGACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RU_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGGATTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bandit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second_Plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTCGGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTCGGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACCGGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCCGGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATCGGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACCGGATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATAAAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGATAATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACACACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATATATATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTCTCTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTGTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATATATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGTGTGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATCTCTCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACACACATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTAAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATAAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATAAGATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTAAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGTCGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGTAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGAAGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGGGGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGGGATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGGATCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGGATTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGGATGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGGATATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATCTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATTTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATTATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATGCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATTCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATCGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATTGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATCCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATCATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACCCCGATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTTTTGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTTTTATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTTTTTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTTTTTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACCCCCTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACCCCCGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACCCCCATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTTTTCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCCCCCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAATTTTTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACCCCCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATCCCCCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGATAATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACCCCCCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTTTTTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaGAAAGAtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prob random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCGGGGGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTGAGGGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCCGGGAtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaAAGGGTtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCTGTAGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCTGACAtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCGTGTGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaGAGGGGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCTAGGAtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaATTGGGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTACTGAtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaAGAGCGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaAGGGGTtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCAAGCCtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCAATTGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTATTTTtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTCCGGCtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTGGGAGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaAAAGTGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCGGGAGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTAAGAGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTAAGGGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaTAGTCTtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaAAGTAGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCCACGCtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaGTAATGtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tttaagaCATTGAtatacat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_RP_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bandit2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5,6,7,8,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third_Plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTCTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGCTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCGGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGCTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTCTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGCATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGACGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGCTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTCATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGAAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTCTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCATATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCCTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGCTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTGGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAAACTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGCTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACGAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCATGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATTCTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTTATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGCTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGCGGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCGATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTCTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTCTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTCAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGGTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGCCGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTCGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGCATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTCAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTCGGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGATATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGCTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTACGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGAACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCTGCTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGGATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACGTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCGAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGATGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCAAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTCCGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGTTATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGTTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGGGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGCTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGCAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCAAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACACTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCCTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGCGGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACGCAATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGTGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGACGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCATGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGAGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTCTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTCGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGGCGGTTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAACGCATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGACTATTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCATACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACAGTGGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGTCTAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCTAAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGAGCGGAGTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_1548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGACTCTACTATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_2887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAAGATGGTTATATACAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBS_BA_3330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow Cytometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4,5</t>
   </si>
   <si>
     <t xml:space="preserve">1,2,3</t>
@@ -2215,13 +2218,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1048576"/>
+  <dimension ref="A1:S270"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
@@ -2232,12 +2235,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="18" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2286,17 +2289,17 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -2668,7 +2671,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -11776,13 +11779,13 @@
       <c r="P180" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q180" s="0" t="n">
+        <v>60.6161241371978</v>
+      </c>
       <c r="R180" s="0" t="n">
-        <v>60.6161241371978</v>
+        <v>49.23186745</v>
       </c>
       <c r="S180" s="0" t="n">
-        <v>49.23186745</v>
-      </c>
-      <c r="T180" s="0" t="n">
         <v>35.5486141317798</v>
       </c>
     </row>
@@ -11838,13 +11841,13 @@
       <c r="P181" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q181" s="0" t="n">
+        <v>52.3543787033437</v>
+      </c>
       <c r="R181" s="0" t="n">
-        <v>52.3543787033437</v>
+        <v>40.46500431</v>
       </c>
       <c r="S181" s="0" t="n">
-        <v>40.46500431</v>
-      </c>
-      <c r="T181" s="0" t="n">
         <v>32.24477258677</v>
       </c>
     </row>
@@ -11900,13 +11903,13 @@
       <c r="P182" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q182" s="0" t="n">
+        <v>46.9877254079432</v>
+      </c>
       <c r="R182" s="0" t="n">
-        <v>46.9877254079432</v>
+        <v>36.3324502</v>
       </c>
       <c r="S182" s="0" t="n">
-        <v>36.3324502</v>
-      </c>
-      <c r="T182" s="0" t="n">
         <v>29.5829600829604</v>
       </c>
     </row>
@@ -11962,13 +11965,13 @@
       <c r="P183" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q183" s="0" t="n">
+        <v>42.602683618807</v>
+      </c>
       <c r="R183" s="0" t="n">
-        <v>42.602683618807</v>
+        <v>30.27077484</v>
       </c>
       <c r="S183" s="0" t="n">
-        <v>30.27077484</v>
-      </c>
-      <c r="T183" s="0" t="n">
         <v>28.6075296477647</v>
       </c>
     </row>
@@ -12024,13 +12027,13 @@
       <c r="P184" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q184" s="0" t="n">
+        <v>37.8274734339723</v>
+      </c>
       <c r="R184" s="0" t="n">
-        <v>37.8274734339723</v>
+        <v>28.09334527</v>
       </c>
       <c r="S184" s="0" t="n">
-        <v>28.09334527</v>
-      </c>
-      <c r="T184" s="0" t="n">
         <v>25.4543473109356</v>
       </c>
     </row>
@@ -12086,13 +12089,13 @@
       <c r="P185" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q185" s="0" t="n">
+        <v>37.3300018693612</v>
+      </c>
       <c r="R185" s="0" t="n">
-        <v>37.3300018693612</v>
+        <v>25.85518803</v>
       </c>
       <c r="S185" s="0" t="n">
-        <v>25.85518803</v>
-      </c>
-      <c r="T185" s="0" t="n">
         <v>26.2610453090013</v>
       </c>
     </row>
@@ -12148,13 +12151,13 @@
       <c r="P186" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q186" s="0" t="n">
+        <v>37.9818818909033</v>
+      </c>
       <c r="R186" s="0" t="n">
-        <v>37.9818818909033</v>
+        <v>30.4160051</v>
       </c>
       <c r="S186" s="0" t="n">
-        <v>30.4160051</v>
-      </c>
-      <c r="T186" s="0" t="n">
         <v>27.6438236907039</v>
       </c>
     </row>
@@ -12210,13 +12213,13 @@
       <c r="P187" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q187" s="0" t="n">
+        <v>40.7668189483827</v>
+      </c>
       <c r="R187" s="0" t="n">
-        <v>40.7668189483827</v>
+        <v>31.33595727</v>
       </c>
       <c r="S187" s="0" t="n">
-        <v>31.33595727</v>
-      </c>
-      <c r="T187" s="0" t="n">
         <v>29.8289125704513</v>
       </c>
     </row>
@@ -12272,13 +12275,13 @@
       <c r="P188" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q188" s="0" t="n">
+        <v>35.2156582615597</v>
+      </c>
       <c r="R188" s="0" t="n">
-        <v>35.2156582615597</v>
+        <v>26.29445644</v>
       </c>
       <c r="S188" s="0" t="n">
-        <v>26.29445644</v>
-      </c>
-      <c r="T188" s="0" t="n">
         <v>22.6171591219413</v>
       </c>
     </row>
@@ -12334,13 +12337,13 @@
       <c r="P189" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q189" s="0" t="n">
+        <v>31.35188973641</v>
+      </c>
       <c r="R189" s="0" t="n">
-        <v>31.35188973641</v>
+        <v>26.98020932</v>
       </c>
       <c r="S189" s="0" t="n">
-        <v>26.98020932</v>
-      </c>
-      <c r="T189" s="0" t="n">
         <v>24.2987401455009</v>
       </c>
     </row>
@@ -12396,13 +12399,13 @@
       <c r="P190" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q190" s="0" t="n">
+        <v>29.5111925619595</v>
+      </c>
       <c r="R190" s="0" t="n">
-        <v>29.5111925619595</v>
+        <v>25.47921771</v>
       </c>
       <c r="S190" s="0" t="n">
-        <v>25.47921771</v>
-      </c>
-      <c r="T190" s="0" t="n">
         <v>22.3965242616174</v>
       </c>
     </row>
@@ -12458,13 +12461,13 @@
       <c r="P191" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q191" s="0" t="n">
+        <v>38.5118196348621</v>
+      </c>
       <c r="R191" s="0" t="n">
-        <v>38.5118196348621</v>
+        <v>33.92200522</v>
       </c>
       <c r="S191" s="0" t="n">
-        <v>33.92200522</v>
-      </c>
-      <c r="T191" s="0" t="n">
         <v>26.3264708872846</v>
       </c>
     </row>
@@ -12520,13 +12523,13 @@
       <c r="P192" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q192" s="0" t="n">
+        <v>71.9046987791005</v>
+      </c>
       <c r="R192" s="0" t="n">
-        <v>71.9046987791005</v>
+        <v>63.44219796</v>
       </c>
       <c r="S192" s="0" t="n">
-        <v>63.44219796</v>
-      </c>
-      <c r="T192" s="0" t="n">
         <v>52.8452491707661</v>
       </c>
     </row>
@@ -12582,13 +12585,13 @@
       <c r="P193" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q193" s="0" t="n">
+        <v>44.298568690004</v>
+      </c>
       <c r="R193" s="0" t="n">
-        <v>44.298568690004</v>
+        <v>29.17971406</v>
       </c>
       <c r="S193" s="0" t="n">
-        <v>29.17971406</v>
-      </c>
-      <c r="T193" s="0" t="n">
         <v>27.8276678248991</v>
       </c>
     </row>
@@ -12644,13 +12647,13 @@
       <c r="P194" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q194" s="0" t="n">
+        <v>31.8694090108296</v>
+      </c>
       <c r="R194" s="0" t="n">
-        <v>31.8694090108296</v>
+        <v>17.06557346</v>
       </c>
       <c r="S194" s="0" t="n">
-        <v>17.06557346</v>
-      </c>
-      <c r="T194" s="0" t="n">
         <v>21.0381793542325</v>
       </c>
     </row>
@@ -12706,13 +12709,13 @@
       <c r="P195" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q195" s="0" t="n">
+        <v>19.6922827135316</v>
+      </c>
       <c r="R195" s="0" t="n">
-        <v>19.6922827135316</v>
+        <v>21.23586186</v>
       </c>
       <c r="S195" s="0" t="n">
-        <v>21.23586186</v>
-      </c>
-      <c r="T195" s="0" t="n">
         <v>22.3274319768746</v>
       </c>
     </row>
@@ -12768,13 +12771,13 @@
       <c r="P196" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q196" s="0" t="n">
+        <v>20.5857293413406</v>
+      </c>
       <c r="R196" s="0" t="n">
-        <v>20.5857293413406</v>
+        <v>15.22519842</v>
       </c>
       <c r="S196" s="0" t="n">
-        <v>15.22519842</v>
-      </c>
-      <c r="T196" s="0" t="n">
         <v>11.4197268380385</v>
       </c>
     </row>
@@ -12830,13 +12833,13 @@
       <c r="P197" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q197" s="0" t="n">
+        <v>11.7129009980025</v>
+      </c>
       <c r="R197" s="0" t="n">
-        <v>11.7129009980025</v>
+        <v>19.52487963</v>
       </c>
       <c r="S197" s="0" t="n">
-        <v>19.52487963</v>
-      </c>
-      <c r="T197" s="0" t="n">
         <v>7.08857525281327</v>
       </c>
     </row>
@@ -12892,13 +12895,13 @@
       <c r="P198" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q198" s="0" t="n">
+        <v>9.77686879886553</v>
+      </c>
       <c r="R198" s="0" t="n">
-        <v>9.77686879886553</v>
+        <v>9.829321275</v>
       </c>
       <c r="S198" s="0" t="n">
-        <v>9.829321275</v>
-      </c>
-      <c r="T198" s="0" t="n">
         <v>8.57885481213048</v>
       </c>
     </row>
@@ -12954,13 +12957,13 @@
       <c r="P199" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q199" s="0" t="n">
+        <v>17.0052249439998</v>
+      </c>
       <c r="R199" s="0" t="n">
-        <v>17.0052249439998</v>
+        <v>18.57254483</v>
       </c>
       <c r="S199" s="0" t="n">
-        <v>18.57254483</v>
-      </c>
-      <c r="T199" s="0" t="n">
         <v>4.94675204600107</v>
       </c>
     </row>
@@ -13016,13 +13019,13 @@
       <c r="P200" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q200" s="0" t="n">
+        <v>12.0049726578052</v>
+      </c>
       <c r="R200" s="0" t="n">
-        <v>12.0049726578052</v>
+        <v>13.17935031</v>
       </c>
       <c r="S200" s="0" t="n">
-        <v>13.17935031</v>
-      </c>
-      <c r="T200" s="0" t="n">
         <v>15.9419170332045</v>
       </c>
     </row>
@@ -13078,13 +13081,13 @@
       <c r="P201" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q201" s="0" t="n">
+        <v>22.6648235425391</v>
+      </c>
       <c r="R201" s="0" t="n">
-        <v>22.6648235425391</v>
+        <v>6.62983049</v>
       </c>
       <c r="S201" s="0" t="n">
-        <v>6.62983049</v>
-      </c>
-      <c r="T201" s="0" t="n">
         <v>5.81429372868757</v>
       </c>
     </row>
@@ -13140,13 +13143,13 @@
       <c r="P202" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q202" s="0" t="n">
+        <v>9.55764320570427</v>
+      </c>
       <c r="R202" s="0" t="n">
-        <v>9.55764320570427</v>
+        <v>10.65388075</v>
       </c>
       <c r="S202" s="0" t="n">
-        <v>10.65388075</v>
-      </c>
-      <c r="T202" s="0" t="n">
         <v>4.72577382187856</v>
       </c>
     </row>
@@ -13202,13 +13205,13 @@
       <c r="P203" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q203" s="0" t="n">
+        <v>30.0723458444628</v>
+      </c>
       <c r="R203" s="0" t="n">
-        <v>30.0723458444628</v>
+        <v>24.95549799</v>
       </c>
       <c r="S203" s="0" t="n">
-        <v>24.95549799</v>
-      </c>
-      <c r="T203" s="0" t="n">
         <v>22.13787624525</v>
       </c>
     </row>
@@ -13264,13 +13267,13 @@
       <c r="P204" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q204" s="0" t="n">
+        <v>48.6734876510278</v>
+      </c>
       <c r="R204" s="0" t="n">
-        <v>48.6734876510278</v>
+        <v>34.89124864</v>
       </c>
       <c r="S204" s="0" t="n">
-        <v>34.89124864</v>
-      </c>
-      <c r="T204" s="0" t="n">
         <v>32.2019038707017</v>
       </c>
     </row>
@@ -13326,13 +13329,13 @@
       <c r="P205" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q205" s="0" t="n">
+        <v>29.6039403237798</v>
+      </c>
       <c r="R205" s="0" t="n">
-        <v>29.6039403237798</v>
+        <v>23.36247293</v>
       </c>
       <c r="S205" s="0" t="n">
-        <v>23.36247293</v>
-      </c>
-      <c r="T205" s="0" t="n">
         <v>22.4022895706658</v>
       </c>
     </row>
@@ -13388,13 +13391,13 @@
       <c r="P206" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q206" s="0" t="n">
+        <v>35.7440360437068</v>
+      </c>
       <c r="R206" s="0" t="n">
-        <v>35.7440360437068</v>
+        <v>28.46510977</v>
       </c>
       <c r="S206" s="0" t="n">
-        <v>28.46510977</v>
-      </c>
-      <c r="T206" s="0" t="n">
         <v>26.4613183195051</v>
       </c>
     </row>
@@ -13450,13 +13453,13 @@
       <c r="P207" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q207" s="0" t="n">
+        <v>10.394225791105</v>
+      </c>
       <c r="R207" s="0" t="n">
-        <v>10.394225791105</v>
+        <v>9.452198455</v>
       </c>
       <c r="S207" s="0" t="n">
-        <v>9.452198455</v>
-      </c>
-      <c r="T207" s="0" t="n">
         <v>19.3138076602464</v>
       </c>
     </row>
@@ -13512,13 +13515,13 @@
       <c r="P208" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q208" s="0" t="n">
+        <v>8.24011954150277</v>
+      </c>
       <c r="R208" s="0" t="n">
-        <v>8.24011954150277</v>
+        <v>10.03764888</v>
       </c>
       <c r="S208" s="0" t="n">
-        <v>10.03764888</v>
-      </c>
-      <c r="T208" s="0" t="n">
         <v>6.83199206396172</v>
       </c>
     </row>
@@ -13574,13 +13577,13 @@
       <c r="P209" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q209" s="0" t="n">
+        <v>7.37332356185308</v>
+      </c>
       <c r="R209" s="0" t="n">
-        <v>7.37332356185308</v>
+        <v>9.19040401</v>
       </c>
       <c r="S209" s="0" t="n">
-        <v>9.19040401</v>
-      </c>
-      <c r="T209" s="0" t="n">
         <v>6.78856440826978</v>
       </c>
     </row>
@@ -13636,13 +13639,13 @@
       <c r="P210" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q210" s="0" t="n">
+        <v>8.89340450938425</v>
+      </c>
       <c r="R210" s="0" t="n">
-        <v>8.89340450938425</v>
+        <v>11.99259858</v>
       </c>
       <c r="S210" s="0" t="n">
-        <v>11.99259858</v>
-      </c>
-      <c r="T210" s="0" t="n">
         <v>2.84004027467551</v>
       </c>
     </row>
@@ -13698,13 +13701,13 @@
       <c r="P211" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q211" s="0" t="n">
+        <v>8.83302827843422</v>
+      </c>
       <c r="R211" s="0" t="n">
-        <v>8.83302827843422</v>
+        <v>10.52606965</v>
       </c>
       <c r="S211" s="0" t="n">
-        <v>10.52606965</v>
-      </c>
-      <c r="T211" s="0" t="n">
         <v>9.44194457252988</v>
       </c>
     </row>
@@ -13760,13 +13763,13 @@
       <c r="P212" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q212" s="0" t="n">
+        <v>8.92253074569564</v>
+      </c>
       <c r="R212" s="0" t="n">
-        <v>8.92253074569564</v>
+        <v>9.908326043</v>
       </c>
       <c r="S212" s="0" t="n">
-        <v>9.908326043</v>
-      </c>
-      <c r="T212" s="0" t="n">
         <v>12.2825441262501</v>
       </c>
     </row>
@@ -13822,13 +13825,13 @@
       <c r="P213" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q213" s="0" t="n">
+        <v>12.2250078223111</v>
+      </c>
       <c r="R213" s="0" t="n">
-        <v>12.2250078223111</v>
+        <v>9.190159432</v>
       </c>
       <c r="S213" s="0" t="n">
-        <v>9.190159432</v>
-      </c>
-      <c r="T213" s="0" t="n">
         <v>2.76050588725659</v>
       </c>
     </row>
@@ -13884,13 +13887,13 @@
       <c r="P214" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q214" s="0" t="n">
+        <v>5.6636041563943</v>
+      </c>
       <c r="R214" s="0" t="n">
-        <v>5.6636041563943</v>
+        <v>6.872801765</v>
       </c>
       <c r="S214" s="0" t="n">
-        <v>6.872801765</v>
-      </c>
-      <c r="T214" s="0" t="n">
         <v>8.77598376710639</v>
       </c>
     </row>
@@ -13946,13 +13949,13 @@
       <c r="P215" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q215" s="0" t="n">
+        <v>30.3875294232381</v>
+      </c>
       <c r="R215" s="0" t="n">
-        <v>30.3875294232381</v>
+        <v>11.74171959</v>
       </c>
       <c r="S215" s="0" t="n">
-        <v>11.74171959</v>
-      </c>
-      <c r="T215" s="0" t="n">
         <v>21.3314787743771</v>
       </c>
     </row>
@@ -14008,13 +14011,13 @@
       <c r="P216" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q216" s="0" t="n">
+        <v>63.6440956844109</v>
+      </c>
       <c r="R216" s="0" t="n">
-        <v>63.6440956844109</v>
+        <v>52.86337045</v>
       </c>
       <c r="S216" s="0" t="n">
-        <v>52.86337045</v>
-      </c>
-      <c r="T216" s="0" t="n">
         <v>43.8099237505282</v>
       </c>
     </row>
@@ -14070,13 +14073,13 @@
       <c r="P217" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q217" s="0" t="n">
+        <v>29.6999014713403</v>
+      </c>
       <c r="R217" s="0" t="n">
-        <v>29.6999014713403</v>
+        <v>24.21964655</v>
       </c>
       <c r="S217" s="0" t="n">
-        <v>24.21964655</v>
-      </c>
-      <c r="T217" s="0" t="n">
         <v>22.2179894320702</v>
       </c>
     </row>
@@ -14132,13 +14135,13 @@
       <c r="P218" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q218" s="0" t="n">
+        <v>24.6716578603644</v>
+      </c>
       <c r="R218" s="0" t="n">
-        <v>24.6716578603644</v>
+        <v>22.34858786</v>
       </c>
       <c r="S218" s="0" t="n">
-        <v>22.34858786</v>
-      </c>
-      <c r="T218" s="0" t="n">
         <v>6.2531063729238</v>
       </c>
     </row>
@@ -14194,13 +14197,13 @@
       <c r="P219" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q219" s="0" t="n">
+        <v>24.7164421507481</v>
+      </c>
       <c r="R219" s="0" t="n">
-        <v>24.7164421507481</v>
+        <v>12.07908623</v>
       </c>
       <c r="S219" s="0" t="n">
-        <v>12.07908623</v>
-      </c>
-      <c r="T219" s="0" t="n">
         <v>7.03185032821589</v>
       </c>
     </row>
@@ -14256,13 +14259,13 @@
       <c r="P220" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q220" s="0" t="n">
+        <v>2.77637221680792</v>
+      </c>
       <c r="R220" s="0" t="n">
-        <v>2.77637221680792</v>
+        <v>16.97214905</v>
       </c>
       <c r="S220" s="0" t="n">
-        <v>16.97214905</v>
-      </c>
-      <c r="T220" s="0" t="n">
         <v>7.05213384496152</v>
       </c>
     </row>
@@ -14318,13 +14321,13 @@
       <c r="P221" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q221" s="0" t="n">
+        <v>6.14842689215604</v>
+      </c>
       <c r="R221" s="0" t="n">
-        <v>6.14842689215604</v>
+        <v>8.129659785</v>
       </c>
       <c r="S221" s="0" t="n">
-        <v>8.129659785</v>
-      </c>
-      <c r="T221" s="0" t="n">
         <v>7.50154884759647</v>
       </c>
     </row>
@@ -14380,13 +14383,13 @@
       <c r="P222" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q222" s="0" t="n">
+        <v>9.5863060283881</v>
+      </c>
       <c r="R222" s="0" t="n">
-        <v>9.5863060283881</v>
+        <v>10.74085813</v>
       </c>
       <c r="S222" s="0" t="n">
-        <v>10.74085813</v>
-      </c>
-      <c r="T222" s="0" t="n">
         <v>7.72430737546623</v>
       </c>
     </row>
@@ -14442,13 +14445,13 @@
       <c r="P223" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q223" s="0" t="n">
+        <v>5.0574712852082</v>
+      </c>
       <c r="R223" s="0" t="n">
-        <v>5.0574712852082</v>
+        <v>9.539116524</v>
       </c>
       <c r="S223" s="0" t="n">
-        <v>9.539116524</v>
-      </c>
-      <c r="T223" s="0" t="n">
         <v>6.36164524937945</v>
       </c>
     </row>
@@ -14504,13 +14507,13 @@
       <c r="P224" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q224" s="0" t="n">
+        <v>8.61596110127876</v>
+      </c>
       <c r="R224" s="0" t="n">
-        <v>8.61596110127876</v>
+        <v>10.65560497</v>
       </c>
       <c r="S224" s="0" t="n">
-        <v>10.65560497</v>
-      </c>
-      <c r="T224" s="0" t="n">
         <v>11.402243038994</v>
       </c>
     </row>
@@ -14566,13 +14569,13 @@
       <c r="P225" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q225" s="0" t="n">
+        <v>10.4080157387551</v>
+      </c>
       <c r="R225" s="0" t="n">
-        <v>10.4080157387551</v>
+        <v>7.465744633</v>
       </c>
       <c r="S225" s="0" t="n">
-        <v>7.465744633</v>
-      </c>
-      <c r="T225" s="0" t="n">
         <v>7.81272211501606</v>
       </c>
     </row>
@@ -14628,13 +14631,13 @@
       <c r="P226" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q226" s="0" t="n">
+        <v>9.10353825927636</v>
+      </c>
       <c r="R226" s="0" t="n">
-        <v>9.10353825927636</v>
+        <v>5.058262717</v>
       </c>
       <c r="S226" s="0" t="n">
-        <v>5.058262717</v>
-      </c>
-      <c r="T226" s="0" t="n">
         <v>7.99559784577307</v>
       </c>
     </row>
@@ -14690,13 +14693,13 @@
       <c r="P227" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q227" s="0" t="n">
+        <v>11.6300913825367</v>
+      </c>
       <c r="R227" s="0" t="n">
-        <v>11.6300913825367</v>
+        <v>22.09325966</v>
       </c>
       <c r="S227" s="0" t="n">
-        <v>22.09325966</v>
-      </c>
-      <c r="T227" s="0" t="n">
         <v>18.8688896429513</v>
       </c>
     </row>
@@ -14752,13 +14755,13 @@
       <c r="P228" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q228" s="0" t="n">
+        <v>43.8822249574251</v>
+      </c>
       <c r="R228" s="0" t="n">
-        <v>43.8822249574251</v>
+        <v>34.52183774</v>
       </c>
       <c r="S228" s="0" t="n">
-        <v>34.52183774</v>
-      </c>
-      <c r="T228" s="0" t="n">
         <v>31.4148449860838</v>
       </c>
     </row>
@@ -14814,13 +14817,13 @@
       <c r="P229" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q229" s="0" t="n">
+        <v>25.6327931091154</v>
+      </c>
       <c r="R229" s="0" t="n">
-        <v>25.6327931091154</v>
+        <v>24.22755361</v>
       </c>
       <c r="S229" s="0" t="n">
-        <v>24.22755361</v>
-      </c>
-      <c r="T229" s="0" t="n">
         <v>23.0119095488644</v>
       </c>
     </row>
@@ -14876,13 +14879,13 @@
       <c r="P230" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q230" s="0" t="n">
+        <v>21.3310187943193</v>
+      </c>
       <c r="R230" s="0" t="n">
-        <v>21.3310187943193</v>
+        <v>7.395756592</v>
       </c>
       <c r="S230" s="0" t="n">
-        <v>7.395756592</v>
-      </c>
-      <c r="T230" s="0" t="n">
         <v>15.8894927323071</v>
       </c>
     </row>
@@ -14938,13 +14941,13 @@
       <c r="P231" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q231" s="0" t="n">
+        <v>8.3489769468045</v>
+      </c>
       <c r="R231" s="0" t="n">
-        <v>8.3489769468045</v>
+        <v>10.91795333</v>
       </c>
       <c r="S231" s="0" t="n">
-        <v>10.91795333</v>
-      </c>
-      <c r="T231" s="0" t="n">
         <v>7.56121398785453</v>
       </c>
     </row>
@@ -15000,13 +15003,13 @@
       <c r="P232" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q232" s="0" t="n">
+        <v>9.75655755079552</v>
+      </c>
       <c r="R232" s="0" t="n">
-        <v>9.75655755079552</v>
+        <v>8.030912256</v>
       </c>
       <c r="S232" s="0" t="n">
-        <v>8.030912256</v>
-      </c>
-      <c r="T232" s="0" t="n">
         <v>7.62243249420142</v>
       </c>
     </row>
@@ -15062,13 +15065,13 @@
       <c r="P233" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q233" s="0" t="n">
+        <v>32.9691059039153</v>
+      </c>
       <c r="R233" s="0" t="n">
-        <v>32.9691059039153</v>
+        <v>24.62004821</v>
       </c>
       <c r="S233" s="0" t="n">
-        <v>24.62004821</v>
-      </c>
-      <c r="T233" s="0" t="n">
         <v>24.6154887293708</v>
       </c>
     </row>
@@ -15124,13 +15127,13 @@
       <c r="P234" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q234" s="0" t="n">
+        <v>9.55757771828209</v>
+      </c>
       <c r="R234" s="0" t="n">
-        <v>9.55757771828209</v>
+        <v>10.82230381</v>
       </c>
       <c r="S234" s="0" t="n">
-        <v>10.82230381</v>
-      </c>
-      <c r="T234" s="0" t="n">
         <v>8.68862611043004</v>
       </c>
     </row>
@@ -15186,13 +15189,13 @@
       <c r="P235" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q235" s="0" t="n">
+        <v>10.0882088896719</v>
+      </c>
       <c r="R235" s="0" t="n">
-        <v>10.0882088896719</v>
+        <v>15.61101665</v>
       </c>
       <c r="S235" s="0" t="n">
-        <v>15.61101665</v>
-      </c>
-      <c r="T235" s="0" t="n">
         <v>10.7466503400708</v>
       </c>
     </row>
@@ -15248,13 +15251,13 @@
       <c r="P236" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q236" s="0" t="n">
+        <v>10.1874165787218</v>
+      </c>
       <c r="R236" s="0" t="n">
-        <v>10.1874165787218</v>
+        <v>9.435197281</v>
       </c>
       <c r="S236" s="0" t="n">
-        <v>9.435197281</v>
-      </c>
-      <c r="T236" s="0" t="n">
         <v>5.89243331786278</v>
       </c>
     </row>
@@ -15310,13 +15313,13 @@
       <c r="P237" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q237" s="0" t="n">
+        <v>11.4013037963669</v>
+      </c>
       <c r="R237" s="0" t="n">
-        <v>11.4013037963669</v>
+        <v>9.084739272</v>
       </c>
       <c r="S237" s="0" t="n">
-        <v>9.084739272</v>
-      </c>
-      <c r="T237" s="0" t="n">
         <v>16.342227288979</v>
       </c>
     </row>
@@ -15372,13 +15375,13 @@
       <c r="P238" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q238" s="0" t="n">
+        <v>10.6814089684516</v>
+      </c>
       <c r="R238" s="0" t="n">
-        <v>10.6814089684516</v>
+        <v>12.90242593</v>
       </c>
       <c r="S238" s="0" t="n">
-        <v>12.90242593</v>
-      </c>
-      <c r="T238" s="0" t="n">
         <v>9.42859802171824</v>
       </c>
     </row>
@@ -15434,13 +15437,13 @@
       <c r="P239" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q239" s="0" t="n">
+        <v>36.1605259925991</v>
+      </c>
       <c r="R239" s="0" t="n">
-        <v>36.1605259925991</v>
+        <v>26.7093947</v>
       </c>
       <c r="S239" s="0" t="n">
-        <v>26.7093947</v>
-      </c>
-      <c r="T239" s="0" t="n">
         <v>23.0868905357192</v>
       </c>
     </row>
@@ -15496,13 +15499,13 @@
       <c r="P240" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q240" s="0" t="n">
+        <v>41.7153939956447</v>
+      </c>
       <c r="R240" s="0" t="n">
-        <v>41.7153939956447</v>
+        <v>33.33313486</v>
       </c>
       <c r="S240" s="0" t="n">
-        <v>33.33313486</v>
-      </c>
-      <c r="T240" s="0" t="n">
         <v>30.4845406948653</v>
       </c>
     </row>
@@ -15558,13 +15561,13 @@
       <c r="P241" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q241" s="0" t="n">
+        <v>32.4775275698569</v>
+      </c>
       <c r="R241" s="0" t="n">
-        <v>32.4775275698569</v>
+        <v>22.03358638</v>
       </c>
       <c r="S241" s="0" t="n">
-        <v>22.03358638</v>
-      </c>
-      <c r="T241" s="0" t="n">
         <v>22.3928683901255</v>
       </c>
     </row>
@@ -15620,13 +15623,13 @@
       <c r="P242" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q242" s="0" t="n">
+        <v>14.2855291155558</v>
+      </c>
       <c r="R242" s="0" t="n">
-        <v>14.2855291155558</v>
+        <v>8.537456315</v>
       </c>
       <c r="S242" s="0" t="n">
-        <v>8.537456315</v>
-      </c>
-      <c r="T242" s="0" t="n">
         <v>16.4294109630155</v>
       </c>
     </row>
@@ -15682,13 +15685,13 @@
       <c r="P243" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q243" s="0" t="n">
+        <v>9.02731440099712</v>
+      </c>
       <c r="R243" s="0" t="n">
-        <v>9.02731440099712</v>
+        <v>1.501166144</v>
       </c>
       <c r="S243" s="0" t="n">
-        <v>1.501166144</v>
-      </c>
-      <c r="T243" s="0" t="n">
         <v>12.900200266617</v>
       </c>
     </row>
@@ -15744,13 +15747,13 @@
       <c r="P244" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q244" s="0" t="n">
+        <v>8.90821483942568</v>
+      </c>
       <c r="R244" s="0" t="n">
-        <v>8.90821483942568</v>
+        <v>6.65774473</v>
       </c>
       <c r="S244" s="0" t="n">
-        <v>6.65774473</v>
-      </c>
-      <c r="T244" s="0" t="n">
         <v>16.778547202216</v>
       </c>
     </row>
@@ -15806,13 +15809,13 @@
       <c r="P245" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q245" s="0" t="n">
+        <v>10.2925609526478</v>
+      </c>
       <c r="R245" s="0" t="n">
-        <v>10.2925609526478</v>
+        <v>9.632116755</v>
       </c>
       <c r="S245" s="0" t="n">
-        <v>9.632116755</v>
-      </c>
-      <c r="T245" s="0" t="n">
         <v>7.07548729653097</v>
       </c>
     </row>
@@ -15868,13 +15871,13 @@
       <c r="P246" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q246" s="0" t="n">
+        <v>23.3524653646513</v>
+      </c>
       <c r="R246" s="0" t="n">
-        <v>23.3524653646513</v>
+        <v>23.04385611</v>
       </c>
       <c r="S246" s="0" t="n">
-        <v>23.04385611</v>
-      </c>
-      <c r="T246" s="0" t="n">
         <v>21.1177731341105</v>
       </c>
     </row>
@@ -15930,13 +15933,13 @@
       <c r="P247" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q247" s="0" t="n">
+        <v>35.1645483164594</v>
+      </c>
       <c r="R247" s="0" t="n">
-        <v>35.1645483164594</v>
+        <v>28.36022719</v>
       </c>
       <c r="S247" s="0" t="n">
-        <v>28.36022719</v>
-      </c>
-      <c r="T247" s="0" t="n">
         <v>27.1936565030053</v>
       </c>
     </row>
@@ -15992,13 +15995,13 @@
       <c r="P248" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q248" s="0" t="n">
+        <v>22.9020509392907</v>
+      </c>
       <c r="R248" s="0" t="n">
-        <v>22.9020509392907</v>
+        <v>12.26668063</v>
       </c>
       <c r="S248" s="0" t="n">
-        <v>12.26668063</v>
-      </c>
-      <c r="T248" s="0" t="n">
         <v>14.0697635814971</v>
       </c>
     </row>
@@ -16054,13 +16057,13 @@
       <c r="P249" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q249" s="0" t="n">
+        <v>8.80119303940326</v>
+      </c>
       <c r="R249" s="0" t="n">
-        <v>8.80119303940326</v>
+        <v>9.104858441</v>
       </c>
       <c r="S249" s="0" t="n">
-        <v>9.104858441</v>
-      </c>
-      <c r="T249" s="0" t="n">
         <v>16.2114612756101</v>
       </c>
     </row>
@@ -16113,13 +16116,13 @@
       <c r="P250" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q250" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="R250" s="0" t="s">
         <v>40</v>
       </c>
       <c r="S250" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="T250" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -16175,13 +16178,13 @@
       <c r="P251" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q251" s="0" t="n">
+        <v>32.0197650220367</v>
+      </c>
       <c r="R251" s="0" t="n">
-        <v>32.0197650220367</v>
+        <v>26.19719891</v>
       </c>
       <c r="S251" s="0" t="n">
-        <v>26.19719891</v>
-      </c>
-      <c r="T251" s="0" t="n">
         <v>22.6835172062372</v>
       </c>
     </row>
@@ -16237,13 +16240,13 @@
       <c r="P252" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q252" s="0" t="n">
+        <v>42.244563378757</v>
+      </c>
       <c r="R252" s="0" t="n">
-        <v>42.244563378757</v>
+        <v>31.82030188</v>
       </c>
       <c r="S252" s="0" t="n">
-        <v>31.82030188</v>
-      </c>
-      <c r="T252" s="0" t="n">
         <v>28.9187850057868</v>
       </c>
     </row>
@@ -16299,13 +16302,13 @@
       <c r="P253" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q253" s="0" t="n">
+        <v>30.2541398785016</v>
+      </c>
       <c r="R253" s="0" t="n">
-        <v>30.2541398785016</v>
+        <v>23.30219753</v>
       </c>
       <c r="S253" s="0" t="n">
-        <v>23.30219753</v>
-      </c>
-      <c r="T253" s="0" t="n">
         <v>21.518428308546</v>
       </c>
     </row>
@@ -16361,13 +16364,13 @@
       <c r="P254" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q254" s="0" t="n">
+        <v>29.458627850955</v>
+      </c>
       <c r="R254" s="0" t="n">
-        <v>29.458627850955</v>
+        <v>22.97866642</v>
       </c>
       <c r="S254" s="0" t="n">
-        <v>22.97866642</v>
-      </c>
-      <c r="T254" s="0" t="n">
         <v>20.6373949881599</v>
       </c>
     </row>
@@ -16423,13 +16426,13 @@
       <c r="P255" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q255" s="0" t="n">
+        <v>11.1511709732719</v>
+      </c>
       <c r="R255" s="0" t="n">
-        <v>11.1511709732719</v>
+        <v>9.181680075</v>
       </c>
       <c r="S255" s="0" t="n">
-        <v>9.181680075</v>
-      </c>
-      <c r="T255" s="0" t="n">
         <v>17.0173179154525</v>
       </c>
     </row>
@@ -16485,13 +16488,13 @@
       <c r="P256" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q256" s="0" t="n">
+        <v>21.8001933198753</v>
+      </c>
       <c r="R256" s="0" t="n">
-        <v>21.8001933198753</v>
+        <v>10.26375644</v>
       </c>
       <c r="S256" s="0" t="n">
-        <v>10.26375644</v>
-      </c>
-      <c r="T256" s="0" t="n">
         <v>18.6420271966434</v>
       </c>
     </row>
@@ -16547,13 +16550,13 @@
       <c r="P257" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q257" s="0" t="n">
+        <v>62.3151287182449</v>
+      </c>
       <c r="R257" s="0" t="n">
-        <v>62.3151287182449</v>
+        <v>60.88539116</v>
       </c>
       <c r="S257" s="0" t="n">
-        <v>60.88539116</v>
-      </c>
-      <c r="T257" s="0" t="n">
         <v>53.67577007812</v>
       </c>
     </row>
@@ -16609,13 +16612,13 @@
       <c r="P258" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q258" s="0" t="n">
+        <v>16.0503885382844</v>
+      </c>
       <c r="R258" s="0" t="n">
-        <v>16.0503885382844</v>
+        <v>9.808891305</v>
       </c>
       <c r="S258" s="0" t="n">
-        <v>9.808891305</v>
-      </c>
-      <c r="T258" s="0" t="n">
         <v>17.6008803453656</v>
       </c>
     </row>
@@ -16671,13 +16674,13 @@
       <c r="P259" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q259" s="0" t="n">
+        <v>11.9666277388434</v>
+      </c>
       <c r="R259" s="0" t="n">
-        <v>11.9666277388434</v>
+        <v>19.46515061</v>
       </c>
       <c r="S259" s="0" t="n">
-        <v>19.46515061</v>
-      </c>
-      <c r="T259" s="0" t="n">
         <v>18.2827246217704</v>
       </c>
     </row>
@@ -16733,13 +16736,13 @@
       <c r="P260" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q260" s="0" t="n">
+        <v>28.0758774327022</v>
+      </c>
       <c r="R260" s="0" t="n">
-        <v>28.0758774327022</v>
+        <v>19.58575305</v>
       </c>
       <c r="S260" s="0" t="n">
-        <v>19.58575305</v>
-      </c>
-      <c r="T260" s="0" t="n">
         <v>17.9037719979653</v>
       </c>
     </row>
@@ -16795,13 +16798,13 @@
       <c r="P261" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q261" s="0" t="n">
+        <v>27.3752184704434</v>
+      </c>
       <c r="R261" s="0" t="n">
-        <v>27.3752184704434</v>
+        <v>11.703234</v>
       </c>
       <c r="S261" s="0" t="n">
-        <v>11.703234</v>
-      </c>
-      <c r="T261" s="0" t="n">
         <v>16.8106726016516</v>
       </c>
     </row>
@@ -16857,13 +16860,13 @@
       <c r="P262" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q262" s="0" t="n">
+        <v>24.5560190366208</v>
+      </c>
       <c r="R262" s="0" t="n">
-        <v>24.5560190366208</v>
+        <v>20.47620824</v>
       </c>
       <c r="S262" s="0" t="n">
-        <v>20.47620824</v>
-      </c>
-      <c r="T262" s="0" t="n">
         <v>21.2056913335296</v>
       </c>
     </row>
@@ -16919,13 +16922,13 @@
       <c r="P263" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q263" s="0" t="n">
+        <v>39.3554724736747</v>
+      </c>
       <c r="R263" s="0" t="n">
-        <v>39.3554724736747</v>
+        <v>24.91460523</v>
       </c>
       <c r="S263" s="0" t="n">
-        <v>24.91460523</v>
-      </c>
-      <c r="T263" s="0" t="n">
         <v>25.0327552005599</v>
       </c>
     </row>
@@ -16981,13 +16984,13 @@
       <c r="P264" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q264" s="0" t="n">
+        <v>47.4459402423423</v>
+      </c>
       <c r="R264" s="0" t="n">
-        <v>47.4459402423423</v>
+        <v>29.96064957</v>
       </c>
       <c r="S264" s="0" t="n">
-        <v>29.96064957</v>
-      </c>
-      <c r="T264" s="0" t="n">
         <v>25.3406405280443</v>
       </c>
     </row>
@@ -17040,13 +17043,13 @@
       <c r="P265" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q265" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="R265" s="0" t="s">
         <v>40</v>
       </c>
       <c r="S265" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="T265" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -17102,13 +17105,13 @@
       <c r="P266" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q266" s="0" t="n">
+        <v>35.9051908195835</v>
+      </c>
       <c r="R266" s="0" t="n">
-        <v>35.9051908195835</v>
+        <v>25.52352882</v>
       </c>
       <c r="S266" s="0" t="n">
-        <v>25.52352882</v>
-      </c>
-      <c r="T266" s="0" t="n">
         <v>23.2165696654505</v>
       </c>
     </row>
@@ -17164,13 +17167,13 @@
       <c r="P267" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q267" s="0" t="n">
+        <v>51.3166250398984</v>
+      </c>
       <c r="R267" s="0" t="n">
-        <v>51.3166250398984</v>
+        <v>39.30477557</v>
       </c>
       <c r="S267" s="0" t="n">
-        <v>39.30477557</v>
-      </c>
-      <c r="T267" s="0" t="n">
         <v>45.1954169148416</v>
       </c>
     </row>
@@ -17226,13 +17229,13 @@
       <c r="P268" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q268" s="0" t="n">
+        <v>34.5056119466944</v>
+      </c>
       <c r="R268" s="0" t="n">
-        <v>34.5056119466944</v>
+        <v>25.98060948</v>
       </c>
       <c r="S268" s="0" t="n">
-        <v>25.98060948</v>
-      </c>
-      <c r="T268" s="0" t="n">
         <v>23.6847321988001</v>
       </c>
     </row>
@@ -17288,13 +17291,13 @@
       <c r="P269" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q269" s="0" t="n">
+        <v>37.2061731729337</v>
+      </c>
       <c r="R269" s="0" t="n">
-        <v>37.2061731729337</v>
+        <v>27.73658181</v>
       </c>
       <c r="S269" s="0" t="n">
-        <v>27.73658181</v>
-      </c>
-      <c r="T269" s="0" t="n">
         <v>25.3843870195851</v>
       </c>
     </row>
@@ -17350,22 +17353,16 @@
       <c r="P270" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q270" s="0" t="n">
+        <v>64.8287009481803</v>
+      </c>
       <c r="R270" s="0" t="n">
-        <v>64.8287009481803</v>
+        <v>52.81800806</v>
       </c>
       <c r="S270" s="0" t="n">
-        <v>52.81800806</v>
-      </c>
-      <c r="T270" s="0" t="n">
         <v>58.5657955792465</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="M1:M269 M271:M1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -17710,7 +17707,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>572</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>39</v>
@@ -20481,7 +20478,7 @@
         <v>22</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20523,7 +20520,7 @@
         <v>22</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20565,7 +20562,7 @@
         <v>22</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20607,7 +20604,7 @@
         <v>22</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20649,7 +20646,7 @@
         <v>22</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20691,7 +20688,7 @@
         <v>22</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20732,7 +20729,7 @@
         <v>22</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20774,7 +20771,7 @@
         <v>22</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20816,7 +20813,7 @@
         <v>22</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20858,7 +20855,7 @@
         <v>22</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20900,7 +20897,7 @@
         <v>22</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20942,7 +20939,7 @@
         <v>22</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20984,7 +20981,7 @@
         <v>22</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21026,7 +21023,7 @@
         <v>22</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21068,7 +21065,7 @@
         <v>22</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21110,7 +21107,7 @@
         <v>22</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21152,7 +21149,7 @@
         <v>22</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21194,7 +21191,7 @@
         <v>22</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21236,7 +21233,7 @@
         <v>22</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21278,7 +21275,7 @@
         <v>22</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21320,7 +21317,7 @@
         <v>22</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21362,7 +21359,7 @@
         <v>22</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21404,7 +21401,7 @@
         <v>22</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21446,7 +21443,7 @@
         <v>41</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21488,7 +21485,7 @@
         <v>22</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21530,7 +21527,7 @@
         <v>22</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21572,7 +21569,7 @@
         <v>22</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21614,7 +21611,7 @@
         <v>22</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21656,7 +21653,7 @@
         <v>22</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21698,7 +21695,7 @@
         <v>22</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21740,7 +21737,7 @@
         <v>22</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21782,7 +21779,7 @@
         <v>22</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21824,7 +21821,7 @@
         <v>22</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21866,7 +21863,7 @@
         <v>22</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21908,7 +21905,7 @@
         <v>22</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21950,7 +21947,7 @@
         <v>22</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21992,7 +21989,7 @@
         <v>22</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22034,7 +22031,7 @@
         <v>22</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22076,7 +22073,7 @@
         <v>22</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22118,7 +22115,7 @@
         <v>22</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22160,7 +22157,7 @@
         <v>22</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22202,7 +22199,7 @@
         <v>22</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22244,7 +22241,7 @@
         <v>22</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22286,7 +22283,7 @@
         <v>22</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22328,7 +22325,7 @@
         <v>22</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22370,7 +22367,7 @@
         <v>22</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22412,7 +22409,7 @@
         <v>22</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22454,7 +22451,7 @@
         <v>22</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22496,7 +22493,7 @@
         <v>22</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22538,7 +22535,7 @@
         <v>22</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22580,7 +22577,7 @@
         <v>22</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22622,7 +22619,7 @@
         <v>22</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22664,7 +22661,7 @@
         <v>22</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22706,7 +22703,7 @@
         <v>22</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22748,7 +22745,7 @@
         <v>22</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22790,7 +22787,7 @@
         <v>22</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22832,7 +22829,7 @@
         <v>22</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22874,7 +22871,7 @@
         <v>22</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22916,7 +22913,7 @@
         <v>22</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22958,7 +22955,7 @@
         <v>22</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23000,7 +22997,7 @@
         <v>22</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23042,7 +23039,7 @@
         <v>22</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23084,7 +23081,7 @@
         <v>22</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23126,7 +23123,7 @@
         <v>22</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23168,7 +23165,7 @@
         <v>22</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23210,7 +23207,7 @@
         <v>22</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23252,7 +23249,7 @@
         <v>22</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23294,7 +23291,7 @@
         <v>22</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23336,7 +23333,7 @@
         <v>22</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23378,7 +23375,7 @@
         <v>22</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23420,7 +23417,7 @@
         <v>22</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23462,7 +23459,7 @@
         <v>22</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23504,7 +23501,7 @@
         <v>22</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23546,7 +23543,7 @@
         <v>22</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23588,7 +23585,7 @@
         <v>22</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23630,7 +23627,7 @@
         <v>22</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23672,7 +23669,7 @@
         <v>22</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23714,7 +23711,7 @@
         <v>22</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23756,7 +23753,7 @@
         <v>22</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23798,7 +23795,7 @@
         <v>22</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23840,7 +23837,7 @@
         <v>22</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23882,7 +23879,7 @@
         <v>22</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23924,7 +23921,7 @@
         <v>22</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23966,7 +23963,7 @@
         <v>22</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24008,7 +24005,7 @@
         <v>22</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24050,7 +24047,7 @@
         <v>22</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24092,7 +24089,7 @@
         <v>22</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24134,7 +24131,7 @@
         <v>22</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24211,18 +24208,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="E1" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="J1" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24233,7 +24230,7 @@
         <v>20.1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>209</v>
@@ -24271,7 +24268,7 @@
         <v>47.3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>213</v>
@@ -24329,7 +24326,7 @@
         <v>34.1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>215</v>
@@ -24387,7 +24384,7 @@
         <v>23.5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>217</v>
@@ -24445,7 +24442,7 @@
         <v>64.9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>219</v>
@@ -24503,7 +24500,7 @@
         <v>36.2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>221</v>
@@ -24561,7 +24558,7 @@
         <v>49.1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>223</v>
@@ -24619,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>225</v>
@@ -24677,7 +24674,7 @@
         <v>37.3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>227</v>
@@ -24720,7 +24717,7 @@
         <v>20.7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>229</v>
@@ -24778,7 +24775,7 @@
         <v>17.2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>231</v>
@@ -24836,7 +24833,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>233</v>
@@ -24894,7 +24891,7 @@
         <v>10.1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>235</v>
@@ -24949,7 +24946,7 @@
         <v>4250.1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>237</v>
@@ -25007,7 +25004,7 @@
         <v>13.7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>239</v>
@@ -25065,7 +25062,7 @@
         <v>44.5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>241</v>
@@ -25123,7 +25120,7 @@
         <v>24.8</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>243</v>
@@ -25181,7 +25178,7 @@
         <v>37.3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>245</v>
@@ -25239,7 +25236,7 @@
         <v>32.6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>247</v>
@@ -25297,7 +25294,7 @@
         <v>35.5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>249</v>
@@ -25355,7 +25352,7 @@
         <v>23.8</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>251</v>
@@ -25413,7 +25410,7 @@
         <v>61.9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>253</v>
@@ -25471,7 +25468,7 @@
         <v>43.5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>255</v>
@@ -25529,7 +25526,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>257</v>
@@ -25587,7 +25584,7 @@
         <v>1220.4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>259</v>
@@ -25645,7 +25642,7 @@
         <v>2957.7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>261</v>
@@ -25703,7 +25700,7 @@
         <v>454.1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>263</v>
@@ -25761,7 +25758,7 @@
         <v>454</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>265</v>
@@ -25819,7 +25816,7 @@
         <v>425.2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>267</v>
@@ -25877,7 +25874,7 @@
         <v>331.1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>269</v>
@@ -25935,7 +25932,7 @@
         <v>341.6</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>271</v>
@@ -25993,7 +25990,7 @@
         <v>295.6</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>273</v>
@@ -26051,7 +26048,7 @@
         <v>1060</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>275</v>
@@ -26109,7 +26106,7 @@
         <v>1564.1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>277</v>
@@ -26167,7 +26164,7 @@
         <v>1795.2</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>279</v>
@@ -26225,7 +26222,7 @@
         <v>416.2</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>281</v>
@@ -26283,7 +26280,7 @@
         <v>807.7</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>283</v>
@@ -26341,7 +26338,7 @@
         <v>611.6</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>285</v>
@@ -26399,7 +26396,7 @@
         <v>781.9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>287</v>
@@ -26457,7 +26454,7 @@
         <v>1909.9</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>289</v>
@@ -26515,7 +26512,7 @@
         <v>2477.6</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>291</v>
@@ -26573,7 +26570,7 @@
         <v>3796.5</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>293</v>
@@ -26631,7 +26628,7 @@
         <v>331.1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>295</v>
@@ -26689,7 +26686,7 @@
         <v>319.3</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>297</v>
@@ -26747,7 +26744,7 @@
         <v>3996.5</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>299</v>
@@ -26805,7 +26802,7 @@
         <v>2653.5</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>301</v>
@@ -26863,7 +26860,7 @@
         <v>3093.1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>303</v>
@@ -26921,7 +26918,7 @@
         <v>4431.6</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>305</v>
@@ -26979,7 +26976,7 @@
         <v>3529</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>307</v>
@@ -27037,7 +27034,7 @@
         <v>3120.4</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>309</v>
@@ -27095,7 +27092,7 @@
         <v>1872.5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>311</v>
@@ -27153,7 +27150,7 @@
         <v>3361.9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>313</v>
@@ -27211,7 +27208,7 @@
         <v>3251.9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>315</v>
@@ -27269,7 +27266,7 @@
         <v>3099.2</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>317</v>
@@ -27327,7 +27324,7 @@
         <v>3316</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>319</v>
@@ -27385,7 +27382,7 @@
         <v>3431.9</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>321</v>
@@ -27443,7 +27440,7 @@
         <v>4277.1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>323</v>
@@ -27501,7 +27498,7 @@
         <v>4160.4</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>325</v>
@@ -27559,7 +27556,7 @@
         <v>4323.2</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>327</v>
@@ -27617,7 +27614,7 @@
         <v>280.3</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>329</v>
@@ -27675,7 +27672,7 @@
         <v>4013.2</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>331</v>
@@ -27733,7 +27730,7 @@
         <v>3063.7</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>334</v>
@@ -27791,7 +27788,7 @@
         <v>354.8</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>336</v>
@@ -27849,7 +27846,7 @@
         <v>252.3</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>338</v>
@@ -27907,7 +27904,7 @@
         <v>248.2</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>340</v>
@@ -27965,7 +27962,7 @@
         <v>315</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>342</v>
@@ -28023,7 +28020,7 @@
         <v>234.7</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>344</v>
@@ -28081,7 +28078,7 @@
         <v>302.7</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>346</v>
@@ -28139,7 +28136,7 @@
         <v>249.4</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>348</v>
@@ -28197,7 +28194,7 @@
         <v>250</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>350</v>
@@ -28255,7 +28252,7 @@
         <v>241.9</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>352</v>
@@ -28313,7 +28310,7 @@
         <v>167.4</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>354</v>
@@ -28371,7 +28368,7 @@
         <v>68.4</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>356</v>
@@ -28429,7 +28426,7 @@
         <v>46.1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>358</v>
@@ -28487,7 +28484,7 @@
         <v>43.9</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>360</v>
@@ -28545,7 +28542,7 @@
         <v>51.1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>362</v>
@@ -28603,7 +28600,7 @@
         <v>74.4</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>364</v>
@@ -28661,7 +28658,7 @@
         <v>48.7</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>366</v>
@@ -28719,7 +28716,7 @@
         <v>28.9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>368</v>
@@ -28777,7 +28774,7 @@
         <v>47.4</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>370</v>
@@ -28835,7 +28832,7 @@
         <v>242.4</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>372</v>
@@ -28893,7 +28890,7 @@
         <v>236.7</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>374</v>
@@ -28951,7 +28948,7 @@
         <v>218.3</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>376</v>
@@ -29009,7 +29006,7 @@
         <v>1637.2</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>378</v>
@@ -29067,7 +29064,7 @@
         <v>232.2</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>380</v>
@@ -29125,7 +29122,7 @@
         <v>1475.3</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>382</v>
@@ -29183,7 +29180,7 @@
         <v>322.4</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>384</v>
@@ -29241,7 +29238,7 @@
         <v>656.9</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>386</v>
@@ -29299,7 +29296,7 @@
         <v>277.5</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>679.929338773799</v>
@@ -29345,7 +29342,7 @@
         <v>253.3</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>548.542086239777</v>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangmengyan/git/SynbioML/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85916326-DB2F-4FDE-ABF2-624A34C2A41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Microplate!$L$1:$L$363</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2601,8 +2602,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3077,31 +3078,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="N369" sqref="N369"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="K276" sqref="K276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="1023" width="9.1640625" customWidth="1"/>
+    <col min="3" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="1023" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
         <v>95</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="5" t="s">
         <v>97</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
         <v>103</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="5" t="s">
         <v>105</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="5" t="s">
         <v>107</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
         <v>109</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="5" t="s">
         <v>111</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="5" t="s">
         <v>115</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="5" t="s">
         <v>117</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
         <v>119</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="5" t="s">
         <v>121</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
         <v>123</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="5" t="s">
         <v>125</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="5" t="s">
         <v>129</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
         <v>135</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="5" t="s">
         <v>137</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="5" t="s">
         <v>139</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="5" t="s">
         <v>141</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="5" t="s">
         <v>143</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="5" t="s">
         <v>149</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="5" t="s">
         <v>152</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="5" t="s">
         <v>154</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
         <v>156</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="5" t="s">
         <v>158</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
         <v>160</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="5" t="s">
         <v>164</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="5" t="s">
         <v>166</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="5" t="s">
         <v>168</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="5" t="s">
         <v>170</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="5" t="s">
         <v>172</v>
       </c>
@@ -7026,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="5" t="s">
         <v>174</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="5" t="s">
         <v>176</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="5" t="s">
         <v>178</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="5" t="s">
         <v>180</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="5" t="s">
         <v>184</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="5" t="s">
         <v>186</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="5" t="s">
         <v>188</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="5" t="s">
         <v>190</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="5" t="s">
         <v>192</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="5" t="s">
         <v>194</v>
       </c>
@@ -7609,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="5" t="s">
         <v>196</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="5" t="s">
         <v>198</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="5" t="s">
         <v>200</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="5" t="s">
         <v>202</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="5" t="s">
         <v>204</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="5" t="s">
         <v>206</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="A92" s="9" t="s">
         <v>208</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="A93" s="9" t="s">
         <v>212</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="A94" s="9" t="s">
         <v>214</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" s="9" t="s">
         <v>216</v>
       </c>
@@ -8139,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" s="9" t="s">
         <v>218</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
         <v>220</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" s="9" t="s">
         <v>222</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
         <v>224</v>
       </c>
@@ -8351,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" s="9" t="s">
         <v>226</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
         <v>228</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
         <v>230</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
         <v>232</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" s="9" t="s">
         <v>234</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" s="9" t="s">
         <v>236</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" s="9" t="s">
         <v>238</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" s="9" t="s">
         <v>240</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" s="9" t="s">
         <v>242</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" s="9" t="s">
         <v>244</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="9" t="s">
         <v>246</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="9" t="s">
         <v>248</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="9" t="s">
         <v>250</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="9" t="s">
         <v>252</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="9" t="s">
         <v>254</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="9" t="s">
         <v>256</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="9" t="s">
         <v>258</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="9" t="s">
         <v>260</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" s="9" t="s">
         <v>262</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>264</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="9" t="s">
         <v>266</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="9" t="s">
         <v>268</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="9" t="s">
         <v>270</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="9" t="s">
         <v>272</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="9" t="s">
         <v>274</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="9" t="s">
         <v>276</v>
       </c>
@@ -9726,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="9" t="s">
         <v>278</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16">
       <c r="A127" s="9" t="s">
         <v>280</v>
       </c>
@@ -9832,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16">
       <c r="A128" s="9" t="s">
         <v>282</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="9" t="s">
         <v>284</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="9" t="s">
         <v>286</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="9" t="s">
         <v>288</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="9" t="s">
         <v>290</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="9" t="s">
         <v>292</v>
       </c>
@@ -10150,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="9" t="s">
         <v>294</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="9" t="s">
         <v>296</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="9" t="s">
         <v>298</v>
       </c>
@@ -10309,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="9" t="s">
         <v>300</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="9" t="s">
         <v>302</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="9" t="s">
         <v>304</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="9" t="s">
         <v>306</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="9" t="s">
         <v>308</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="9" t="s">
         <v>310</v>
       </c>
@@ -10627,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="9" t="s">
         <v>312</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="9" t="s">
         <v>314</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16">
       <c r="A145" s="9" t="s">
         <v>316</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16">
       <c r="A146" s="9" t="s">
         <v>318</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16">
       <c r="A147" s="9" t="s">
         <v>320</v>
       </c>
@@ -10892,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16">
       <c r="A148" s="9" t="s">
         <v>322</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16">
       <c r="A149" s="9" t="s">
         <v>324</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16">
       <c r="A150" s="9" t="s">
         <v>326</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16">
       <c r="A151" s="9" t="s">
         <v>328</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16">
       <c r="A152" s="9" t="s">
         <v>330</v>
       </c>
@@ -11157,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16">
       <c r="A153" s="9" t="s">
         <v>333</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16">
       <c r="A154" s="9" t="s">
         <v>335</v>
       </c>
@@ -11263,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16">
       <c r="A155" s="9" t="s">
         <v>337</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16">
       <c r="A156" s="9" t="s">
         <v>339</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16">
       <c r="A157" s="9" t="s">
         <v>341</v>
       </c>
@@ -11422,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16">
       <c r="A158" s="9" t="s">
         <v>343</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16">
       <c r="A159" s="9" t="s">
         <v>345</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16">
       <c r="A160" s="9" t="s">
         <v>347</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16">
       <c r="A161" s="9" t="s">
         <v>349</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16">
       <c r="A162" s="9" t="s">
         <v>351</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16">
       <c r="A163" s="9" t="s">
         <v>353</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16">
       <c r="A164" s="9" t="s">
         <v>355</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16">
       <c r="A165" s="9" t="s">
         <v>357</v>
       </c>
@@ -11846,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
         <v>359</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16">
       <c r="A167" s="9" t="s">
         <v>361</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16">
       <c r="A168" s="9" t="s">
         <v>363</v>
       </c>
@@ -12005,7 +12006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16">
       <c r="A169" s="9" t="s">
         <v>365</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16">
       <c r="A170" s="9" t="s">
         <v>367</v>
       </c>
@@ -12111,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16">
       <c r="A171" s="9" t="s">
         <v>369</v>
       </c>
@@ -12164,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16">
       <c r="A172" s="9" t="s">
         <v>371</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16">
       <c r="A173" s="9" t="s">
         <v>373</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16">
       <c r="A174" s="9" t="s">
         <v>375</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16">
       <c r="A175" s="9" t="s">
         <v>377</v>
       </c>
@@ -12376,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16">
       <c r="A176" s="9" t="s">
         <v>379</v>
       </c>
@@ -12429,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21">
       <c r="A177" s="9" t="s">
         <v>381</v>
       </c>
@@ -12482,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21">
       <c r="A178" s="9" t="s">
         <v>383</v>
       </c>
@@ -12535,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21">
       <c r="A179" s="9" t="s">
         <v>385</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21">
       <c r="A180" t="s">
         <v>387</v>
       </c>
@@ -12653,7 +12654,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21">
       <c r="A181" t="s">
         <v>391</v>
       </c>
@@ -12715,7 +12716,7 @@
         <v>20.685976047947001</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21">
       <c r="A182" t="s">
         <v>393</v>
       </c>
@@ -12777,7 +12778,7 @@
         <v>21.0948992353858</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21">
       <c r="A183" t="s">
         <v>395</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>18.020429279314001</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21">
       <c r="A184" t="s">
         <v>397</v>
       </c>
@@ -12901,7 +12902,7 @@
         <v>14.4964226423445</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21">
       <c r="A185" t="s">
         <v>399</v>
       </c>
@@ -12963,7 +12964,7 @@
         <v>17.0191806862905</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21">
       <c r="A186" t="s">
         <v>401</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>16.533791976457799</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21">
       <c r="A187" t="s">
         <v>403</v>
       </c>
@@ -13087,7 +13088,7 @@
         <v>18.918311846844901</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21">
       <c r="A188" t="s">
         <v>405</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>16.930029799406</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21">
       <c r="A189" t="s">
         <v>407</v>
       </c>
@@ -13211,7 +13212,7 @@
         <v>14.7840716392201</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>11.4167134836056</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21">
       <c r="A191" t="s">
         <v>411</v>
       </c>
@@ -13335,7 +13336,7 @@
         <v>18.2900162352562</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21">
       <c r="A192" t="s">
         <v>413</v>
       </c>
@@ -13397,7 +13398,7 @@
         <v>39.070851487100299</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19">
       <c r="A193" t="s">
         <v>415</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>14.1562343568053</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19">
       <c r="A194" t="s">
         <v>417</v>
       </c>
@@ -13521,7 +13522,7 @@
         <v>14.6108601942449</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19">
       <c r="A195" t="s">
         <v>419</v>
       </c>
@@ -13583,7 +13584,7 @@
         <v>12.9029987343951</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19">
       <c r="A196" t="s">
         <v>421</v>
       </c>
@@ -13645,7 +13646,7 @@
         <v>12.217054281911199</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19">
       <c r="A197" t="s">
         <v>423</v>
       </c>
@@ -13707,7 +13708,7 @@
         <v>9.7547635311864802</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19">
       <c r="A198" t="s">
         <v>425</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>9.7662016778029699</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19">
       <c r="A199" t="s">
         <v>427</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>9.47317562094028</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19">
       <c r="A200" t="s">
         <v>429</v>
       </c>
@@ -13893,7 +13894,7 @@
         <v>13.8454937666171</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19">
       <c r="A201" t="s">
         <v>431</v>
       </c>
@@ -13955,7 +13956,7 @@
         <v>6.9870010209390898</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19">
       <c r="A202" t="s">
         <v>433</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>9.6093377606178798</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19">
       <c r="A203" t="s">
         <v>435</v>
       </c>
@@ -14079,7 +14080,7 @@
         <v>15.1149322351684</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19">
       <c r="A204" t="s">
         <v>437</v>
       </c>
@@ -14141,7 +14142,7 @@
         <v>21.4025715783552</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19">
       <c r="A205" t="s">
         <v>439</v>
       </c>
@@ -14203,7 +14204,7 @@
         <v>9.5606932410429994</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19">
       <c r="A206" t="s">
         <v>441</v>
       </c>
@@ -14265,7 +14266,7 @@
         <v>20.8598775282119</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19">
       <c r="A207" t="s">
         <v>443</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>8.5195151983481008</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19">
       <c r="A208" t="s">
         <v>445</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>6.9307055508742703</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19">
       <c r="A209" t="s">
         <v>447</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>7.539940975335</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19">
       <c r="A210" t="s">
         <v>449</v>
       </c>
@@ -14513,7 +14514,7 @@
         <v>8.8864196454398297</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19">
       <c r="A211" t="s">
         <v>451</v>
       </c>
@@ -14575,7 +14576,7 @@
         <v>10.3183664978778</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19">
       <c r="A212" t="s">
         <v>453</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>1.62455726620178</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19">
       <c r="A213" t="s">
         <v>455</v>
       </c>
@@ -14699,7 +14700,7 @@
         <v>6.0228873246586403</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19">
       <c r="A214" t="s">
         <v>457</v>
       </c>
@@ -14761,7 +14762,7 @@
         <v>3.8693800222713701</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19">
       <c r="A215" t="s">
         <v>459</v>
       </c>
@@ -14823,7 +14824,7 @@
         <v>14.417127178706099</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19">
       <c r="A216" t="s">
         <v>461</v>
       </c>
@@ -14885,7 +14886,7 @@
         <v>36.527916386746199</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19">
       <c r="A217" t="s">
         <v>463</v>
       </c>
@@ -14947,7 +14948,7 @@
         <v>9.7509341179622009</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19">
       <c r="A218" t="s">
         <v>465</v>
       </c>
@@ -15009,7 +15010,7 @@
         <v>10.2767455252883</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19">
       <c r="A219" t="s">
         <v>467</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>11.6414116329218</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19">
       <c r="A220" t="s">
         <v>469</v>
       </c>
@@ -15133,7 +15134,7 @@
         <v>8.6138670477354093</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19">
       <c r="A221" t="s">
         <v>471</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>8.62498670863868</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19">
       <c r="A222" t="s">
         <v>473</v>
       </c>
@@ -15257,7 +15258,7 @@
         <v>5.0711988414820404</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19">
       <c r="A223" t="s">
         <v>475</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>5.7562213389269896</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19">
       <c r="A224" t="s">
         <v>477</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>6.2831098081978096</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19">
       <c r="A225" t="s">
         <v>479</v>
       </c>
@@ -15443,7 +15444,7 @@
         <v>8.7906484027711596</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19">
       <c r="A226" t="s">
         <v>481</v>
       </c>
@@ -15505,7 +15506,7 @@
         <v>9.2798854146546201</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19">
       <c r="A227" t="s">
         <v>483</v>
       </c>
@@ -15567,7 +15568,7 @@
         <v>14.9889620188946</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19">
       <c r="A228" t="s">
         <v>485</v>
       </c>
@@ -15629,7 +15630,7 @@
         <v>20.550516294814699</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19">
       <c r="A229" t="s">
         <v>487</v>
       </c>
@@ -15691,7 +15692,7 @@
         <v>7.4133908722962101</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19">
       <c r="A230" t="s">
         <v>489</v>
       </c>
@@ -15753,7 +15754,7 @@
         <v>11.719856737196</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19">
       <c r="A231" t="s">
         <v>491</v>
       </c>
@@ -15815,7 +15816,7 @@
         <v>5.5868695227171399</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19">
       <c r="A232" t="s">
         <v>493</v>
       </c>
@@ -15877,7 +15878,7 @@
         <v>2.3876633122498201</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19">
       <c r="A233" t="s">
         <v>495</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>18.7720085095436</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19">
       <c r="A234" t="s">
         <v>497</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>5.4345051475567701</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19">
       <c r="A235" t="s">
         <v>499</v>
       </c>
@@ -16063,7 +16064,7 @@
         <v>2.6721539586948899</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19">
       <c r="A236" t="s">
         <v>501</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>4.4561981802670196</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19">
       <c r="A237" t="s">
         <v>503</v>
       </c>
@@ -16187,7 +16188,7 @@
         <v>10.7224249680634</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19">
       <c r="A238" t="s">
         <v>505</v>
       </c>
@@ -16249,7 +16250,7 @@
         <v>5.9608819316044501</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19">
       <c r="A239" t="s">
         <v>507</v>
       </c>
@@ -16311,7 +16312,7 @@
         <v>18.554873543510901</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19">
       <c r="A240" t="s">
         <v>509</v>
       </c>
@@ -16373,7 +16374,7 @@
         <v>20.995324558040998</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19">
       <c r="A241" t="s">
         <v>511</v>
       </c>
@@ -16435,7 +16436,7 @@
         <v>14.948240355634001</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19">
       <c r="A242" t="s">
         <v>513</v>
       </c>
@@ -16497,7 +16498,7 @@
         <v>7.2844914479493896</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19">
       <c r="A243" t="s">
         <v>515</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>11.2313736724574</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19">
       <c r="A244" t="s">
         <v>517</v>
       </c>
@@ -16621,7 +16622,7 @@
         <v>8.6453004892533603</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19">
       <c r="A245" t="s">
         <v>519</v>
       </c>
@@ -16683,7 +16684,7 @@
         <v>7.7179572373801504</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19">
       <c r="A246" t="s">
         <v>521</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>16.8943054374196</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19">
       <c r="A247" t="s">
         <v>523</v>
       </c>
@@ -16807,7 +16808,7 @@
         <v>19.6064384381956</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19">
       <c r="A248" t="s">
         <v>525</v>
       </c>
@@ -16869,7 +16870,7 @@
         <v>11.0403380572768</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19">
       <c r="A249" t="s">
         <v>527</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>10.552226112320501</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19">
       <c r="A250" t="s">
         <v>529</v>
       </c>
@@ -16990,7 +16991,7 @@
         <v>127.34375</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19">
       <c r="A251" t="s">
         <v>531</v>
       </c>
@@ -17052,7 +17053,7 @@
         <v>11.7477528828136</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19">
       <c r="A252" t="s">
         <v>533</v>
       </c>
@@ -17114,7 +17115,7 @@
         <v>21.863791998038199</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19">
       <c r="A253" t="s">
         <v>535</v>
       </c>
@@ -17176,7 +17177,7 @@
         <v>10.279685941739899</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19">
       <c r="A254" t="s">
         <v>537</v>
       </c>
@@ -17238,7 +17239,7 @@
         <v>9.9144267602328</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19">
       <c r="A255" t="s">
         <v>539</v>
       </c>
@@ -17300,7 +17301,7 @@
         <v>9.8045430444282395</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19">
       <c r="A256" t="s">
         <v>541</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>8.3837410779460502</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19">
       <c r="A257" t="s">
         <v>543</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>44.352608938747203</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19">
       <c r="A258" t="s">
         <v>545</v>
       </c>
@@ -17486,7 +17487,7 @@
         <v>12.437009795865499</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19">
       <c r="A259" t="s">
         <v>547</v>
       </c>
@@ -17548,7 +17549,7 @@
         <v>11.905460914811901</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19">
       <c r="A260" t="s">
         <v>549</v>
       </c>
@@ -17610,7 +17611,7 @@
         <v>15.409318555820599</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19">
       <c r="A261" t="s">
         <v>551</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>12.3358385574775</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19">
       <c r="A262" t="s">
         <v>553</v>
       </c>
@@ -17734,7 +17735,7 @@
         <v>16.232630021974899</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19">
       <c r="A263" t="s">
         <v>555</v>
       </c>
@@ -17796,7 +17797,7 @@
         <v>17.318196360051999</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19">
       <c r="A264" t="s">
         <v>557</v>
       </c>
@@ -17858,7 +17859,7 @@
         <v>23.310413209525102</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19">
       <c r="A265" t="s">
         <v>559</v>
       </c>
@@ -17917,7 +17918,7 @@
         <v>149.89795918367301</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19">
       <c r="A266" t="s">
         <v>561</v>
       </c>
@@ -17979,7 +17980,7 @@
         <v>19.025742367750599</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19">
       <c r="A267" t="s">
         <v>563</v>
       </c>
@@ -18041,7 +18042,7 @@
         <v>29.059444761123299</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19">
       <c r="A268" t="s">
         <v>565</v>
       </c>
@@ -18103,7 +18104,7 @@
         <v>13.846183938615001</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19">
       <c r="A269" t="s">
         <v>567</v>
       </c>
@@ -18165,7 +18166,7 @@
         <v>18.383063047906901</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19">
       <c r="A270" s="5" t="s">
         <v>19</v>
       </c>
@@ -18227,7 +18228,7 @@
         <v>47.950148971120903</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19">
       <c r="A271" s="12" t="s">
         <v>757</v>
       </c>
@@ -18240,9 +18241,20 @@
       <c r="D271">
         <v>74.369619903363912</v>
       </c>
+      <c r="E271">
+        <v>70.450757151683831</v>
+      </c>
       <c r="I271" s="14">
         <f t="shared" si="25"/>
-        <v>63.145225768142829</v>
+        <v>65.580402895989835</v>
+      </c>
+      <c r="J271">
+        <f t="shared" ref="J271:J334" si="26">_xlfn.STDEV.P(C271:H271)</f>
+        <v>9.7903791766799095</v>
+      </c>
+      <c r="K271" s="8">
+        <f t="shared" ref="K271:K334" si="27">J271/I271</f>
+        <v>0.14928818281594577</v>
       </c>
       <c r="L271" t="s">
         <v>847</v>
@@ -18260,7 +18272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19">
       <c r="A272" s="12" t="s">
         <v>758</v>
       </c>
@@ -18273,9 +18285,20 @@
       <c r="D272">
         <v>77.734090390484837</v>
       </c>
+      <c r="E272">
+        <v>74.303543033773678</v>
+      </c>
       <c r="I272" s="14">
         <f t="shared" si="25"/>
-        <v>65.063282649024657</v>
+        <v>68.143369443940998</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="26"/>
+        <v>11.225274245015138</v>
+      </c>
+      <c r="K272" s="8">
+        <f t="shared" si="27"/>
+        <v>0.1647302494228694</v>
       </c>
       <c r="L272" t="s">
         <v>847</v>
@@ -18293,7 +18316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16">
       <c r="A273" s="12" t="s">
         <v>759</v>
       </c>
@@ -18306,9 +18329,20 @@
       <c r="D273">
         <v>54.795612056357527</v>
       </c>
+      <c r="E273">
+        <v>54.594405007949113</v>
+      </c>
       <c r="I273" s="14">
         <f t="shared" si="25"/>
-        <v>50.38221756077958</v>
+        <v>51.786280043169427</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="26"/>
+        <v>4.1143833346737733</v>
+      </c>
+      <c r="K273" s="8">
+        <f t="shared" si="27"/>
+        <v>7.9449292964159479E-2</v>
       </c>
       <c r="L273" t="s">
         <v>847</v>
@@ -18326,7 +18360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16">
       <c r="A274" s="12" t="s">
         <v>760</v>
       </c>
@@ -18339,9 +18373,20 @@
       <c r="D274">
         <v>79.045169361597161</v>
       </c>
+      <c r="E274">
+        <v>72.037888175290945</v>
+      </c>
       <c r="I274" s="14">
         <f t="shared" si="25"/>
-        <v>65.231523751321362</v>
+        <v>67.500311892644561</v>
+      </c>
+      <c r="J274">
+        <f t="shared" si="26"/>
+        <v>11.726295349538631</v>
+      </c>
+      <c r="K274" s="8">
+        <f t="shared" si="27"/>
+        <v>0.17372209136142427</v>
       </c>
       <c r="L274" t="s">
         <v>847</v>
@@ -18359,7 +18404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16">
       <c r="A275" s="12" t="s">
         <v>761</v>
       </c>
@@ -18372,9 +18417,20 @@
       <c r="D275">
         <v>62.303977317212137</v>
       </c>
+      <c r="E275">
+        <v>62.157774286345749</v>
+      </c>
       <c r="I275" s="14">
         <f t="shared" si="25"/>
-        <v>56.423132462601572</v>
+        <v>58.334679737182967</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="26"/>
+        <v>5.5103765844013601</v>
+      </c>
+      <c r="K275" s="8">
+        <f t="shared" si="27"/>
+        <v>9.4461418306013331E-2</v>
       </c>
       <c r="L275" t="s">
         <v>847</v>
@@ -18392,7 +18448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16">
       <c r="A276" s="12" t="s">
         <v>762</v>
       </c>
@@ -18405,9 +18461,20 @@
       <c r="D276">
         <v>57.876516017103398</v>
       </c>
+      <c r="E276">
+        <v>56.275467645094992</v>
+      </c>
       <c r="I276" s="14">
         <f t="shared" si="25"/>
-        <v>54.429873386737867</v>
+        <v>55.045071472856911</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="26"/>
+        <v>2.9455900910736141</v>
+      </c>
+      <c r="K276" s="8">
+        <f t="shared" si="27"/>
+        <v>5.3512331118074831E-2</v>
       </c>
       <c r="L276" t="s">
         <v>847</v>
@@ -18425,7 +18492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16">
       <c r="A277" s="12" t="s">
         <v>763</v>
       </c>
@@ -18438,9 +18505,20 @@
       <c r="D277">
         <v>46.012130539592711</v>
       </c>
+      <c r="E277">
+        <v>43.630078372552937</v>
+      </c>
       <c r="I277" s="14">
         <f t="shared" si="25"/>
-        <v>41.717364850364</v>
+        <v>42.354936024426983</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="26"/>
+        <v>3.6207276737661731</v>
+      </c>
+      <c r="K277" s="8">
+        <f t="shared" si="27"/>
+        <v>8.5485376997807838E-2</v>
       </c>
       <c r="L277" t="s">
         <v>847</v>
@@ -18458,7 +18536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16">
       <c r="A278" s="12" t="s">
         <v>764</v>
       </c>
@@ -18471,9 +18549,20 @@
       <c r="D278">
         <v>46.984680531784853</v>
       </c>
+      <c r="E278">
+        <v>46.177300103649742</v>
+      </c>
       <c r="I278" s="14">
         <f t="shared" si="25"/>
-        <v>42.785387233386643</v>
+        <v>43.916024856807674</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="26"/>
+        <v>3.7832163135316139</v>
+      </c>
+      <c r="K278" s="8">
+        <f t="shared" si="27"/>
+        <v>8.6146601971994197E-2</v>
       </c>
       <c r="L278" t="s">
         <v>847</v>
@@ -18491,7 +18580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16">
       <c r="A279" s="12" t="s">
         <v>765</v>
       </c>
@@ -18504,9 +18593,20 @@
       <c r="D279">
         <v>53.994113275009703</v>
       </c>
+      <c r="E279">
+        <v>50.163482013707188</v>
+      </c>
       <c r="I279" s="14">
         <f t="shared" si="25"/>
-        <v>48.583748806125172</v>
+        <v>49.110326541985842</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="26"/>
+        <v>4.4798732141196913</v>
+      </c>
+      <c r="K279" s="8">
+        <f t="shared" si="27"/>
+        <v>9.1220595128597204E-2</v>
       </c>
       <c r="L279" t="s">
         <v>847</v>
@@ -18524,7 +18624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16">
       <c r="A280" s="12" t="s">
         <v>766</v>
       </c>
@@ -18537,9 +18637,20 @@
       <c r="D280">
         <v>28.782956688975421</v>
       </c>
+      <c r="E280">
+        <v>35.468997733769221</v>
+      </c>
       <c r="I280" s="14">
         <f t="shared" si="25"/>
-        <v>31.077929298880264</v>
+        <v>32.541618777176581</v>
+      </c>
+      <c r="J280">
+        <f t="shared" si="26"/>
+        <v>2.7921389586766026</v>
+      </c>
+      <c r="K280" s="8">
+        <f t="shared" si="27"/>
+        <v>8.5802091708937961E-2</v>
       </c>
       <c r="L280" t="s">
         <v>847</v>
@@ -18557,7 +18668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16">
       <c r="A281" s="12" t="s">
         <v>767</v>
       </c>
@@ -18570,9 +18681,20 @@
       <c r="D281">
         <v>68.757568197352896</v>
       </c>
+      <c r="E281">
+        <v>70.365903061486293</v>
+      </c>
       <c r="I281" s="14">
         <f t="shared" si="25"/>
-        <v>61.696328132661542</v>
+        <v>64.586186442269792</v>
+      </c>
+      <c r="J281">
+        <f t="shared" si="26"/>
+        <v>7.0670575866735028</v>
+      </c>
+      <c r="K281" s="8">
+        <f t="shared" si="27"/>
+        <v>0.10942057390229062</v>
       </c>
       <c r="L281" t="s">
         <v>847</v>
@@ -18590,7 +18712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16">
       <c r="A282" s="12" t="s">
         <v>768</v>
       </c>
@@ -18603,9 +18725,20 @@
       <c r="D282">
         <v>50.008356579679663</v>
       </c>
+      <c r="E282">
+        <v>38.618477632947567</v>
+      </c>
       <c r="I282" s="14">
         <f t="shared" si="25"/>
-        <v>44.116437083130137</v>
+        <v>42.28378393306928</v>
+      </c>
+      <c r="J282">
+        <f t="shared" si="26"/>
+        <v>5.4644650887410791</v>
+      </c>
+      <c r="K282" s="8">
+        <f t="shared" si="27"/>
+        <v>0.12923311445803301</v>
       </c>
       <c r="L282" t="s">
         <v>847</v>
@@ -18623,7 +18756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16">
       <c r="A283" s="12" t="s">
         <v>769</v>
       </c>
@@ -18636,9 +18769,20 @@
       <c r="D283">
         <v>83.76999128477469</v>
       </c>
+      <c r="E283">
+        <v>79.583741412890419</v>
+      </c>
       <c r="I283" s="14">
         <f t="shared" si="25"/>
-        <v>71.471446525992363</v>
+        <v>74.175544821625053</v>
+      </c>
+      <c r="J283">
+        <f t="shared" si="26"/>
+        <v>10.745251539202577</v>
+      </c>
+      <c r="K283" s="8">
+        <f t="shared" si="27"/>
+        <v>0.14486245520733834</v>
       </c>
       <c r="L283" t="s">
         <v>847</v>
@@ -18656,7 +18800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16">
       <c r="A284" s="12" t="s">
         <v>770</v>
       </c>
@@ -18669,9 +18813,20 @@
       <c r="D284">
         <v>69.853063331369128</v>
       </c>
+      <c r="E284">
+        <v>69.901823834207235</v>
+      </c>
       <c r="I284" s="14">
         <f t="shared" si="25"/>
-        <v>60.4933755995539</v>
+        <v>63.629525011105009</v>
+      </c>
+      <c r="J284">
+        <f t="shared" si="26"/>
+        <v>8.8359136042181419</v>
+      </c>
+      <c r="K284" s="8">
+        <f t="shared" si="27"/>
+        <v>0.13886499392657803</v>
       </c>
       <c r="L284" t="s">
         <v>847</v>
@@ -18689,7 +18844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16">
       <c r="A285" s="12" t="s">
         <v>771</v>
       </c>
@@ -18702,9 +18857,20 @@
       <c r="D285">
         <v>41.608614392061789</v>
       </c>
+      <c r="E285">
+        <v>46.994036542262648</v>
+      </c>
       <c r="I285" s="14">
         <f t="shared" si="25"/>
-        <v>43.242996178650799</v>
+        <v>44.493342966521418</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="26"/>
+        <v>2.2152960816632752</v>
+      </c>
+      <c r="K285" s="8">
+        <f t="shared" si="27"/>
+        <v>4.978938272474049E-2</v>
       </c>
       <c r="L285" t="s">
         <v>847</v>
@@ -18722,7 +18888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16">
       <c r="A286" s="12" t="s">
         <v>772</v>
       </c>
@@ -18735,9 +18901,20 @@
       <c r="D286">
         <v>63.000404080257482</v>
       </c>
+      <c r="E286">
+        <v>64.011740630241803</v>
+      </c>
       <c r="I286" s="14">
         <f t="shared" si="25"/>
-        <v>61.667123461704577</v>
+        <v>62.448662517883655</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="26"/>
+        <v>1.5513536233042082</v>
+      </c>
+      <c r="K286" s="8">
+        <f t="shared" si="27"/>
+        <v>2.4842063236501524E-2</v>
       </c>
       <c r="L286" t="s">
         <v>847</v>
@@ -18755,7 +18932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16">
       <c r="A287" s="12" t="s">
         <v>773</v>
       </c>
@@ -18768,9 +18945,20 @@
       <c r="D287">
         <v>29.892238185900069</v>
       </c>
+      <c r="E287">
+        <v>13.472394828750931</v>
+      </c>
       <c r="I287" s="14">
         <f t="shared" si="25"/>
-        <v>22.960600531995517</v>
+        <v>19.797865297580653</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="26"/>
+        <v>7.2137037668618351</v>
+      </c>
+      <c r="K287" s="8">
+        <f t="shared" si="27"/>
+        <v>0.36436775674715632</v>
       </c>
       <c r="L287" t="s">
         <v>847</v>
@@ -18788,7 +18976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16">
       <c r="A288" s="12" t="s">
         <v>774</v>
       </c>
@@ -18801,9 +18989,20 @@
       <c r="D288">
         <v>13.187755975037881</v>
       </c>
+      <c r="E288">
+        <v>19.362898559677529</v>
+      </c>
       <c r="I288" s="14">
         <f t="shared" si="25"/>
-        <v>21.921606908801081</v>
+        <v>21.068704125759897</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="26"/>
+        <v>7.2324491750791395</v>
+      </c>
+      <c r="K288" s="8">
+        <f t="shared" si="27"/>
+        <v>0.34327926064689956</v>
       </c>
       <c r="L288" t="s">
         <v>847</v>
@@ -18821,7 +19020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16">
       <c r="A289" s="12" t="s">
         <v>775</v>
       </c>
@@ -18834,9 +19033,20 @@
       <c r="D289">
         <v>67.19928097536895</v>
       </c>
+      <c r="E289">
+        <v>56.549436474791108</v>
+      </c>
       <c r="I289" s="14">
         <f t="shared" si="25"/>
-        <v>63.409914617351532</v>
+        <v>61.123088569831395</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="26"/>
+        <v>4.475713537908339</v>
+      </c>
+      <c r="K289" s="8">
+        <f t="shared" si="27"/>
+        <v>7.3224597163393718E-2</v>
       </c>
       <c r="L289" t="s">
         <v>847</v>
@@ -18854,7 +19064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16">
       <c r="A290" s="12" t="s">
         <v>776</v>
       </c>
@@ -18867,9 +19077,20 @@
       <c r="D290">
         <v>24.69980044973299</v>
       </c>
+      <c r="E290">
+        <v>20.113246113891929</v>
+      </c>
       <c r="I290" s="14">
         <f t="shared" si="25"/>
-        <v>32.02459281448553</v>
+        <v>28.054143914287664</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="26"/>
+        <v>8.203494239001035</v>
+      </c>
+      <c r="K290" s="8">
+        <f t="shared" si="27"/>
+        <v>0.29241648806196813</v>
       </c>
       <c r="L290" t="s">
         <v>847</v>
@@ -18887,7 +19108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16">
       <c r="A291" s="12" t="s">
         <v>777</v>
       </c>
@@ -18900,9 +19121,20 @@
       <c r="D291">
         <v>3.9477827982114122</v>
       </c>
+      <c r="E291">
+        <v>16.542663596905829</v>
+      </c>
       <c r="I291" s="14">
         <f t="shared" si="25"/>
-        <v>15.879993383940842</v>
+        <v>16.100883454929171</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="26"/>
+        <v>9.7476160070921019</v>
+      </c>
+      <c r="K291" s="8">
+        <f t="shared" si="27"/>
+        <v>0.60540876743679173</v>
       </c>
       <c r="L291" t="s">
         <v>847</v>
@@ -18920,7 +19152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16">
       <c r="A292" s="12" t="s">
         <v>778</v>
       </c>
@@ -18933,9 +19165,20 @@
       <c r="D292">
         <v>68.607623483968624</v>
       </c>
+      <c r="E292">
+        <v>55.064030157826579</v>
+      </c>
       <c r="I292" s="14">
         <f t="shared" si="25"/>
-        <v>61.882187281222052</v>
+        <v>59.609468240090223</v>
+      </c>
+      <c r="J292">
+        <f t="shared" si="26"/>
+        <v>6.3627691894323668</v>
+      </c>
+      <c r="K292" s="8">
+        <f t="shared" si="27"/>
+        <v>0.10674091511443982</v>
       </c>
       <c r="L292" t="s">
         <v>847</v>
@@ -18953,7 +19196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16">
       <c r="A293" s="12" t="s">
         <v>779</v>
       </c>
@@ -18966,9 +19209,20 @@
       <c r="D293">
         <v>19.217829407064229</v>
       </c>
+      <c r="E293">
+        <v>12.540205695787121</v>
+      </c>
       <c r="I293" s="14">
         <f t="shared" si="25"/>
-        <v>17.692827399869365</v>
+        <v>15.975286831841951</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="26"/>
+        <v>2.7295259576720374</v>
+      </c>
+      <c r="K293" s="8">
+        <f t="shared" si="27"/>
+        <v>0.17085927698221637</v>
       </c>
       <c r="L293" t="s">
         <v>847</v>
@@ -18986,7 +19240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16">
       <c r="A294" s="12" t="s">
         <v>780</v>
       </c>
@@ -18999,9 +19253,20 @@
       <c r="D294">
         <v>30.903744178094179</v>
       </c>
+      <c r="E294">
+        <v>17.394768992752901</v>
+      </c>
       <c r="I294" s="14">
         <f t="shared" si="25"/>
-        <v>32.43452949834456</v>
+        <v>27.421275996480674</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="26"/>
+        <v>7.1991404912227912</v>
+      </c>
+      <c r="K294" s="8">
+        <f t="shared" si="27"/>
+        <v>0.26253849354591485</v>
       </c>
       <c r="L294" t="s">
         <v>847</v>
@@ -19019,7 +19284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16">
       <c r="A295" s="12" t="s">
         <v>781</v>
       </c>
@@ -19032,9 +19297,20 @@
       <c r="D295">
         <v>60.370323906073708</v>
       </c>
+      <c r="E295">
+        <v>54.008316469934513</v>
+      </c>
       <c r="I295" s="14">
         <f t="shared" si="25"/>
-        <v>50.814254363157971</v>
+        <v>51.87894173208349</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="26"/>
+        <v>7.9464517318397796</v>
+      </c>
+      <c r="K295" s="8">
+        <f t="shared" si="27"/>
+        <v>0.1531729728196336</v>
       </c>
       <c r="L295" t="s">
         <v>847</v>
@@ -19052,7 +19328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16">
       <c r="A296" s="12" t="s">
         <v>782</v>
       </c>
@@ -19065,9 +19341,20 @@
       <c r="D296">
         <v>39.353213710151813</v>
       </c>
+      <c r="E296">
+        <v>38.04015402558155</v>
+      </c>
       <c r="I296" s="14">
         <f t="shared" si="25"/>
-        <v>37.836679341648775</v>
+        <v>37.904504236293036</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="26"/>
+        <v>1.241954679755914</v>
+      </c>
+      <c r="K296" s="8">
+        <f t="shared" si="27"/>
+        <v>3.2765358755616161E-2</v>
       </c>
       <c r="L296" t="s">
         <v>847</v>
@@ -19085,7 +19372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16">
       <c r="A297" s="12" t="s">
         <v>783</v>
       </c>
@@ -19098,9 +19385,20 @@
       <c r="D297">
         <v>10.64054637464973</v>
       </c>
+      <c r="E297">
+        <v>28.360162008830631</v>
+      </c>
       <c r="I297" s="14">
         <f t="shared" si="25"/>
-        <v>20.336090021191332</v>
+        <v>23.010780683737764</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="26"/>
+        <v>8.773652869925666</v>
+      </c>
+      <c r="K297" s="8">
+        <f t="shared" si="27"/>
+        <v>0.38128445055869853</v>
       </c>
       <c r="L297" t="s">
         <v>847</v>
@@ -19118,7 +19416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16">
       <c r="A298" s="12" t="s">
         <v>784</v>
       </c>
@@ -19131,9 +19429,20 @@
       <c r="D298">
         <v>13.94480383539107</v>
       </c>
+      <c r="E298">
+        <v>9.2234944650871515</v>
+      </c>
       <c r="I298" s="14">
         <f t="shared" si="25"/>
-        <v>22.497011106306779</v>
+        <v>18.072505559233569</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="26"/>
+        <v>9.3761753827790724</v>
+      </c>
+      <c r="K298" s="8">
+        <f t="shared" si="27"/>
+        <v>0.51880882548621576</v>
       </c>
       <c r="L298" t="s">
         <v>847</v>
@@ -19151,7 +19460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16">
       <c r="A299" s="12" t="s">
         <v>785</v>
       </c>
@@ -19164,9 +19473,20 @@
       <c r="D299">
         <v>16.158015043325069</v>
       </c>
+      <c r="E299">
+        <v>14.57990433998298</v>
+      </c>
       <c r="I299" s="14">
         <f t="shared" si="25"/>
-        <v>20.83487708063322</v>
+        <v>18.74988616708314</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="26"/>
+        <v>4.8245621455750332</v>
+      </c>
+      <c r="K299" s="8">
+        <f t="shared" si="27"/>
+        <v>0.25731154325858901</v>
       </c>
       <c r="L299" t="s">
         <v>847</v>
@@ -19184,7 +19504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16">
       <c r="A300" s="12" t="s">
         <v>786</v>
       </c>
@@ -19197,9 +19517,20 @@
       <c r="D300">
         <v>18.08525785338249</v>
       </c>
+      <c r="E300">
+        <v>14.31757441413291</v>
+      </c>
       <c r="I300" s="14">
         <f t="shared" si="25"/>
-        <v>21.918453696826013</v>
+        <v>19.384827269261645</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="26"/>
+        <v>4.7575329039009677</v>
+      </c>
+      <c r="K300" s="8">
+        <f t="shared" si="27"/>
+        <v>0.24542560208648065</v>
       </c>
       <c r="L300" t="s">
         <v>847</v>
@@ -19217,7 +19548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16">
       <c r="A301" s="12" t="s">
         <v>787</v>
       </c>
@@ -19230,9 +19561,20 @@
       <c r="D301">
         <v>5.8983742030196176</v>
       </c>
+      <c r="E301">
+        <v>11.770384055606931</v>
+      </c>
       <c r="I301" s="14">
         <f t="shared" si="25"/>
-        <v>12.021591547528754</v>
+        <v>11.937855716888146</v>
+      </c>
+      <c r="J301">
+        <f t="shared" si="26"/>
+        <v>5.0009882834027044</v>
+      </c>
+      <c r="K301" s="8">
+        <f t="shared" si="27"/>
+        <v>0.4189184726305536</v>
       </c>
       <c r="L301" t="s">
         <v>847</v>
@@ -19250,7 +19592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16">
       <c r="A302" s="12" t="s">
         <v>788</v>
       </c>
@@ -19263,9 +19605,20 @@
       <c r="D302">
         <v>0.98276790522347879</v>
       </c>
+      <c r="E302">
+        <v>7.8698508223269634</v>
+      </c>
       <c r="I302" s="14">
         <f t="shared" si="25"/>
-        <v>10.154510799684095</v>
+        <v>9.3929574738983845</v>
+      </c>
+      <c r="J302">
+        <f t="shared" si="26"/>
+        <v>7.5657455295180984</v>
+      </c>
+      <c r="K302" s="8">
+        <f t="shared" si="27"/>
+        <v>0.80547000777360767</v>
       </c>
       <c r="L302" t="s">
         <v>847</v>
@@ -19283,7 +19636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16">
       <c r="A303" s="12" t="s">
         <v>789</v>
       </c>
@@ -19296,9 +19649,20 @@
       <c r="D303">
         <v>13.468429796233989</v>
       </c>
+      <c r="E303">
+        <v>13.36773058774352</v>
+      </c>
       <c r="I303" s="14">
         <f t="shared" si="25"/>
-        <v>13.757769026630566</v>
+        <v>13.627756213668215</v>
+      </c>
+      <c r="J303">
+        <f t="shared" si="26"/>
+        <v>0.29936286214740632</v>
+      </c>
+      <c r="K303" s="8">
+        <f t="shared" si="27"/>
+        <v>2.1967142459384081E-2</v>
       </c>
       <c r="L303" t="s">
         <v>847</v>
@@ -19316,7 +19680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16">
       <c r="A304" s="12" t="s">
         <v>790</v>
       </c>
@@ -19329,9 +19693,20 @@
       <c r="D304">
         <v>4.9188075303959513</v>
       </c>
+      <c r="E304">
+        <v>4.8686115732378719</v>
+      </c>
       <c r="I304" s="14">
         <f t="shared" si="25"/>
-        <v>9.6740854645920198</v>
+        <v>8.0722608341406374</v>
+      </c>
+      <c r="J304">
+        <f t="shared" si="26"/>
+        <v>4.4951970421487388</v>
+      </c>
+      <c r="K304" s="8">
+        <f t="shared" si="27"/>
+        <v>0.55686964711755271</v>
       </c>
       <c r="L304" t="s">
         <v>847</v>
@@ -19349,7 +19724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16">
       <c r="A305" s="12" t="s">
         <v>791</v>
       </c>
@@ -19362,9 +19737,20 @@
       <c r="D305">
         <v>35.590457066686149</v>
       </c>
+      <c r="E305">
+        <v>20.728416737081989</v>
+      </c>
       <c r="I305" s="14">
         <f t="shared" si="25"/>
-        <v>34.058833431854154</v>
+        <v>29.615361200263433</v>
+      </c>
+      <c r="J305">
+        <f t="shared" si="26"/>
+        <v>6.4072462820117195</v>
+      </c>
+      <c r="K305" s="8">
+        <f t="shared" si="27"/>
+        <v>0.2163487468103116</v>
       </c>
       <c r="L305" t="s">
         <v>847</v>
@@ -19382,7 +19768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16">
       <c r="A306" s="12" t="s">
         <v>792</v>
       </c>
@@ -19395,9 +19781,20 @@
       <c r="D306">
         <v>22.508488392177949</v>
       </c>
+      <c r="E306">
+        <v>31.589811937627712</v>
+      </c>
       <c r="I306" s="14">
         <f t="shared" si="25"/>
-        <v>30.988002042497705</v>
+        <v>31.188605340874375</v>
+      </c>
+      <c r="J306">
+        <f t="shared" si="26"/>
+        <v>6.9293038032170591</v>
+      </c>
+      <c r="K306" s="8">
+        <f t="shared" si="27"/>
+        <v>0.22217421162259626</v>
       </c>
       <c r="L306" t="s">
         <v>847</v>
@@ -19415,7 +19812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16">
       <c r="A307" s="12" t="s">
         <v>793</v>
       </c>
@@ -19428,9 +19825,20 @@
       <c r="D307">
         <v>76.025404785256882</v>
       </c>
+      <c r="E307">
+        <v>71.796188212389382</v>
+      </c>
       <c r="I307" s="14">
         <f t="shared" si="25"/>
-        <v>70.266940308536164</v>
+        <v>70.776689609820565</v>
+      </c>
+      <c r="J307">
+        <f t="shared" si="26"/>
+        <v>4.7567107809307556</v>
+      </c>
+      <c r="K307" s="8">
+        <f t="shared" si="27"/>
+        <v>6.7207308043844172E-2</v>
       </c>
       <c r="L307" t="s">
         <v>847</v>
@@ -19448,7 +19856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16">
       <c r="A308" s="12" t="s">
         <v>794</v>
       </c>
@@ -19461,9 +19869,20 @@
       <c r="D308">
         <v>38.748419762054141</v>
       </c>
+      <c r="E308">
+        <v>26.822779322022051</v>
+      </c>
       <c r="I308" s="14">
         <f t="shared" si="25"/>
-        <v>35.491168937176667</v>
+        <v>32.601705732125133</v>
+      </c>
+      <c r="J308">
+        <f t="shared" si="26"/>
+        <v>4.8755632683964354</v>
+      </c>
+      <c r="K308" s="8">
+        <f t="shared" si="27"/>
+        <v>0.14954933059199241</v>
       </c>
       <c r="L308" t="s">
         <v>847</v>
@@ -19481,7 +19900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16">
       <c r="A309" s="12" t="s">
         <v>795</v>
       </c>
@@ -19494,9 +19913,20 @@
       <c r="D309">
         <v>8.2871500203251802</v>
       </c>
+      <c r="E309">
+        <v>18.399902810762509</v>
+      </c>
       <c r="I309" s="14">
         <f t="shared" si="25"/>
-        <v>20.714643952237765</v>
+        <v>19.943063571746013</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="26"/>
+        <v>10.205508782953235</v>
+      </c>
+      <c r="K309" s="8">
+        <f t="shared" si="27"/>
+        <v>0.51173224947303042</v>
       </c>
       <c r="L309" t="s">
         <v>847</v>
@@ -19514,7 +19944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16">
       <c r="A310" s="12" t="s">
         <v>796</v>
       </c>
@@ -19527,9 +19957,20 @@
       <c r="D310">
         <v>7.8812415384083581</v>
       </c>
+      <c r="E310">
+        <v>9.0491950355523691</v>
+      </c>
       <c r="I310" s="14">
         <f t="shared" si="25"/>
-        <v>10.590483867120954</v>
+        <v>10.076720923264759</v>
+      </c>
+      <c r="J310">
+        <f t="shared" si="26"/>
+        <v>2.3283543663751614</v>
+      </c>
+      <c r="K310" s="8">
+        <f t="shared" si="27"/>
+        <v>0.23106270225262895</v>
       </c>
       <c r="L310" t="s">
         <v>847</v>
@@ -19547,7 +19988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16">
       <c r="A311" s="12" t="s">
         <v>797</v>
       </c>
@@ -19560,9 +20001,20 @@
       <c r="D311">
         <v>53.328089027398597</v>
       </c>
+      <c r="E311">
+        <v>49.914210089557763</v>
+      </c>
       <c r="I311" s="14">
         <f t="shared" si="25"/>
-        <v>50.968267211558612</v>
+        <v>50.616914837558333</v>
+      </c>
+      <c r="J311">
+        <f t="shared" si="26"/>
+        <v>1.9898248624206802</v>
+      </c>
+      <c r="K311" s="8">
+        <f t="shared" si="27"/>
+        <v>3.9311460779593133E-2</v>
       </c>
       <c r="L311" t="s">
         <v>847</v>
@@ -19580,7 +20032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16">
       <c r="A312" s="12" t="s">
         <v>798</v>
       </c>
@@ -19593,9 +20045,20 @@
       <c r="D312">
         <v>39.483650353421339</v>
       </c>
+      <c r="E312">
+        <v>36.176170841313471</v>
+      </c>
       <c r="I312" s="14">
         <f t="shared" si="25"/>
-        <v>37.360004550673736</v>
+        <v>36.965393314220314</v>
+      </c>
+      <c r="J312">
+        <f t="shared" si="26"/>
+        <v>1.8215424927486401</v>
+      </c>
+      <c r="K312" s="8">
+        <f t="shared" si="27"/>
+        <v>4.927696771044246E-2</v>
       </c>
       <c r="L312" t="s">
         <v>847</v>
@@ -19613,7 +20076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16">
       <c r="A313" s="12" t="s">
         <v>799</v>
       </c>
@@ -19626,9 +20089,20 @@
       <c r="D313">
         <v>3.4117188007348189</v>
       </c>
+      <c r="E313">
+        <v>14.737488438686009</v>
+      </c>
       <c r="I313" s="14">
         <f t="shared" si="25"/>
-        <v>6.8864813280120245</v>
+        <v>9.5034836982366855</v>
+      </c>
+      <c r="J313">
+        <f t="shared" si="26"/>
+        <v>4.6633377773331963</v>
+      </c>
+      <c r="K313" s="8">
+        <f t="shared" si="27"/>
+        <v>0.49069771942666146</v>
       </c>
       <c r="L313" t="s">
         <v>847</v>
@@ -19646,7 +20120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16">
       <c r="A314" s="12" t="s">
         <v>800</v>
       </c>
@@ -19659,9 +20133,20 @@
       <c r="D314">
         <v>15.231083804252989</v>
       </c>
+      <c r="E314">
+        <v>14.135681748559771</v>
+      </c>
       <c r="I314" s="14">
         <f t="shared" si="25"/>
-        <v>21.335603461537964</v>
+        <v>18.9356295572119</v>
+      </c>
+      <c r="J314">
+        <f t="shared" si="26"/>
+        <v>6.0301898516556962</v>
+      </c>
+      <c r="K314" s="8">
+        <f t="shared" si="27"/>
+        <v>0.31845732054675807</v>
       </c>
       <c r="L314" t="s">
         <v>847</v>
@@ -19679,7 +20164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16">
       <c r="A315" s="12" t="s">
         <v>801</v>
       </c>
@@ -19692,9 +20177,20 @@
       <c r="D315">
         <v>7.4091103739963726</v>
       </c>
+      <c r="E315">
+        <v>12.010141276985591</v>
+      </c>
       <c r="I315" s="14">
         <f t="shared" si="25"/>
-        <v>15.240728232412861</v>
+        <v>14.163865913937103</v>
+      </c>
+      <c r="J315">
+        <f t="shared" si="26"/>
+        <v>6.5733368309216713</v>
+      </c>
+      <c r="K315" s="8">
+        <f t="shared" si="27"/>
+        <v>0.46409199796600542</v>
       </c>
       <c r="L315" t="s">
         <v>847</v>
@@ -19712,7 +20208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16">
       <c r="A316" s="12" t="s">
         <v>802</v>
       </c>
@@ -19725,9 +20221,20 @@
       <c r="D316">
         <v>16.42074054695609</v>
       </c>
+      <c r="E316">
+        <v>17.37710933431849</v>
+      </c>
       <c r="I316" s="14">
         <f t="shared" si="25"/>
-        <v>24.324355696831258</v>
+        <v>22.008606909327</v>
+      </c>
+      <c r="J316">
+        <f t="shared" si="26"/>
+        <v>7.2367216232130405</v>
+      </c>
+      <c r="K316" s="8">
+        <f t="shared" si="27"/>
+        <v>0.32881325260737876</v>
       </c>
       <c r="L316" t="s">
         <v>847</v>
@@ -19745,7 +20252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16">
       <c r="A317" s="12" t="s">
         <v>803</v>
       </c>
@@ -19758,9 +20265,20 @@
       <c r="D317">
         <v>16.840904362096492</v>
       </c>
+      <c r="E317">
+        <v>0.89510842158345916</v>
+      </c>
       <c r="I317" s="14">
         <f t="shared" si="25"/>
-        <v>20.230581226554584</v>
+        <v>13.785423624897541</v>
+      </c>
+      <c r="J317">
+        <f t="shared" si="26"/>
+        <v>9.5257573198857415</v>
+      </c>
+      <c r="K317" s="8">
+        <f t="shared" si="27"/>
+        <v>0.69100214683874395</v>
       </c>
       <c r="L317" t="s">
         <v>847</v>
@@ -19778,7 +20296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16">
       <c r="A318" s="12" t="s">
         <v>804</v>
       </c>
@@ -19791,9 +20309,20 @@
       <c r="D318">
         <v>18.243079068581061</v>
       </c>
+      <c r="E318">
+        <v>16.433822422820739</v>
+      </c>
       <c r="I318" s="14">
         <f t="shared" si="25"/>
-        <v>23.941788031147574</v>
+        <v>21.439132828371964</v>
+      </c>
+      <c r="J318">
+        <f t="shared" si="26"/>
+        <v>5.8460888938375106</v>
+      </c>
+      <c r="K318" s="8">
+        <f t="shared" si="27"/>
+        <v>0.27268308567503979</v>
       </c>
       <c r="L318" t="s">
         <v>847</v>
@@ -19811,7 +20340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16">
       <c r="A319" s="12" t="s">
         <v>805</v>
       </c>
@@ -19824,9 +20353,20 @@
       <c r="D319">
         <v>54.044654073969546</v>
       </c>
+      <c r="E319">
+        <v>51.515873282441767</v>
+      </c>
       <c r="I319" s="14">
         <f t="shared" si="25"/>
-        <v>49.550249726867108</v>
+        <v>50.205457578725323</v>
+      </c>
+      <c r="J319">
+        <f t="shared" si="26"/>
+        <v>3.7848436711585407</v>
+      </c>
+      <c r="K319" s="8">
+        <f t="shared" si="27"/>
+        <v>7.5387096417230487E-2</v>
       </c>
       <c r="L319" t="s">
         <v>847</v>
@@ -19844,7 +20384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16">
       <c r="A320" s="12" t="s">
         <v>806</v>
       </c>
@@ -19857,9 +20397,20 @@
       <c r="D320">
         <v>53.183491976785348</v>
       </c>
+      <c r="E320">
+        <v>45.130380852834307</v>
+      </c>
       <c r="I320" s="14">
         <f t="shared" si="25"/>
-        <v>48.833320804657589</v>
+        <v>47.599007487383155</v>
+      </c>
+      <c r="J320">
+        <f t="shared" si="26"/>
+        <v>3.9576573308304814</v>
+      </c>
+      <c r="K320" s="8">
+        <f t="shared" si="27"/>
+        <v>8.3145795253808996E-2</v>
       </c>
       <c r="L320" t="s">
         <v>847</v>
@@ -19877,7 +20428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16">
       <c r="A321" s="12" t="s">
         <v>807</v>
       </c>
@@ -19890,9 +20441,20 @@
       <c r="D321">
         <v>8.526175511734861</v>
       </c>
+      <c r="E321">
+        <v>15.66542232486397</v>
+      </c>
       <c r="I321" s="14">
         <f t="shared" si="25"/>
-        <v>15.606965935453701</v>
+        <v>15.626451398590456</v>
+      </c>
+      <c r="J321">
+        <f t="shared" si="26"/>
+        <v>5.7815068436322212</v>
+      </c>
+      <c r="K321" s="8">
+        <f t="shared" si="27"/>
+        <v>0.36998207053929899</v>
       </c>
       <c r="L321" t="s">
         <v>847</v>
@@ -19910,7 +20472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16">
       <c r="A322" s="12" t="s">
         <v>808</v>
       </c>
@@ -19923,9 +20485,20 @@
       <c r="D322">
         <v>11.95758413352636</v>
       </c>
+      <c r="E322">
+        <v>15.44641800070068</v>
+      </c>
       <c r="I322" s="14">
         <f t="shared" si="25"/>
-        <v>19.258473894359586</v>
+        <v>17.987788596473283</v>
+      </c>
+      <c r="J322">
+        <f t="shared" si="26"/>
+        <v>6.2261231746372525</v>
+      </c>
+      <c r="K322" s="8">
+        <f t="shared" si="27"/>
+        <v>0.34613055080366895</v>
       </c>
       <c r="L322" t="s">
         <v>847</v>
@@ -19943,7 +20516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16">
       <c r="A323" s="12" t="s">
         <v>809</v>
       </c>
@@ -19956,9 +20529,20 @@
       <c r="D323">
         <v>11.169829100380159</v>
       </c>
+      <c r="E323">
+        <v>13.211065369449701</v>
+      </c>
       <c r="I323" s="14">
-        <f t="shared" ref="I323:I363" si="26">AVERAGE(C323:H323)</f>
-        <v>17.738100854846525</v>
+        <f t="shared" ref="I323:I363" si="28">AVERAGE(C323:H323)</f>
+        <v>16.229089026380915</v>
+      </c>
+      <c r="J323">
+        <f t="shared" si="26"/>
+        <v>5.771975048217497</v>
+      </c>
+      <c r="K323" s="8">
+        <f t="shared" si="27"/>
+        <v>0.35565613318375189</v>
       </c>
       <c r="L323" t="s">
         <v>847</v>
@@ -19976,7 +20560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16">
       <c r="A324" s="12" t="s">
         <v>810</v>
       </c>
@@ -19989,9 +20573,20 @@
       <c r="D324">
         <v>42.714326463366397</v>
       </c>
+      <c r="E324">
+        <v>44.614826534934629</v>
+      </c>
       <c r="I324" s="14">
+        <f t="shared" si="28"/>
+        <v>43.861040377099727</v>
+      </c>
+      <c r="J324">
         <f t="shared" si="26"/>
-        <v>43.484147298182279</v>
+        <v>0.82412349257630435</v>
+      </c>
+      <c r="K324" s="8">
+        <f t="shared" si="27"/>
+        <v>1.8789419619115719E-2</v>
       </c>
       <c r="L324" t="s">
         <v>847</v>
@@ -20009,7 +20604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16">
       <c r="A325" s="12" t="s">
         <v>811</v>
       </c>
@@ -20022,9 +20617,20 @@
       <c r="D325">
         <v>27.728694488124852</v>
       </c>
+      <c r="E325">
+        <v>33.690481289677393</v>
+      </c>
       <c r="I325" s="14">
+        <f t="shared" si="28"/>
+        <v>30.178502570876052</v>
+      </c>
+      <c r="J325">
         <f t="shared" si="26"/>
-        <v>28.422513211475383</v>
+        <v>2.5471396129589343</v>
+      </c>
+      <c r="K325" s="8">
+        <f t="shared" si="27"/>
+        <v>8.4402451943293794E-2</v>
       </c>
       <c r="L325" t="s">
         <v>847</v>
@@ -20042,7 +20648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16">
       <c r="A326" s="12" t="s">
         <v>812</v>
       </c>
@@ -20055,9 +20661,20 @@
       <c r="D326">
         <v>9.7045423515134619</v>
       </c>
+      <c r="E326">
+        <v>11.010069096958089</v>
+      </c>
       <c r="I326" s="14">
+        <f t="shared" si="28"/>
+        <v>13.7928280829816</v>
+      </c>
+      <c r="J326">
         <f t="shared" si="26"/>
-        <v>15.184207575993355</v>
+        <v>4.8877085055674945</v>
+      </c>
+      <c r="K326" s="8">
+        <f t="shared" si="27"/>
+        <v>0.35436594120956499</v>
       </c>
       <c r="L326" t="s">
         <v>847</v>
@@ -20075,7 +20692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16">
       <c r="A327" s="12" t="s">
         <v>813</v>
       </c>
@@ -20088,9 +20705,20 @@
       <c r="D327">
         <v>14.543073661935439</v>
       </c>
+      <c r="E327">
+        <v>5.296649088817075</v>
+      </c>
       <c r="I327" s="14">
+        <f t="shared" si="28"/>
+        <v>14.748186888791663</v>
+      </c>
+      <c r="J327">
         <f t="shared" si="26"/>
-        <v>19.473955788778955</v>
+        <v>7.8022335963101463</v>
+      </c>
+      <c r="K327" s="8">
+        <f t="shared" si="27"/>
+        <v>0.5290300194283335</v>
       </c>
       <c r="L327" t="s">
         <v>847</v>
@@ -20108,7 +20736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16">
       <c r="A328" s="12" t="s">
         <v>814</v>
       </c>
@@ -20121,9 +20749,20 @@
       <c r="D328">
         <v>3.3313547081904891</v>
       </c>
+      <c r="E328">
+        <v>6.0941143249034271</v>
+      </c>
       <c r="I328" s="14">
+        <f t="shared" si="28"/>
+        <v>9.9179594149672212</v>
+      </c>
+      <c r="J328">
         <f t="shared" si="26"/>
-        <v>11.829881959999119</v>
+        <v>7.4472056909213817</v>
+      </c>
+      <c r="K328" s="8">
+        <f t="shared" si="27"/>
+        <v>0.75088083942779416</v>
       </c>
       <c r="L328" t="s">
         <v>847</v>
@@ -20141,7 +20780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16">
       <c r="A329" s="12" t="s">
         <v>815</v>
       </c>
@@ -20154,9 +20793,20 @@
       <c r="D329">
         <v>35.505153628905113</v>
       </c>
+      <c r="E329">
+        <v>39.359695465066828</v>
+      </c>
       <c r="I329" s="14">
+        <f t="shared" si="28"/>
+        <v>38.884381141689438</v>
+      </c>
+      <c r="J329">
         <f t="shared" si="26"/>
-        <v>38.646723980000743</v>
+        <v>2.5870068999249414</v>
+      </c>
+      <c r="K329" s="8">
+        <f t="shared" si="27"/>
+        <v>6.6530746381130185E-2</v>
       </c>
       <c r="L329" t="s">
         <v>847</v>
@@ -20174,7 +20824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16">
       <c r="A330" s="12" t="s">
         <v>816</v>
       </c>
@@ -20187,9 +20837,20 @@
       <c r="D330">
         <v>38.854761553157132</v>
       </c>
+      <c r="E330">
+        <v>34.087198319593178</v>
+      </c>
       <c r="I330" s="14">
+        <f t="shared" si="28"/>
+        <v>38.404461416293238</v>
+      </c>
+      <c r="J330">
         <f t="shared" si="26"/>
-        <v>40.563092964643275</v>
+        <v>3.35633398179883</v>
+      </c>
+      <c r="K330" s="8">
+        <f t="shared" si="27"/>
+        <v>8.7394377059923894E-2</v>
       </c>
       <c r="L330" t="s">
         <v>847</v>
@@ -20207,7 +20868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16">
       <c r="A331" s="12" t="s">
         <v>817</v>
       </c>
@@ -20220,9 +20881,20 @@
       <c r="D331">
         <v>55.570716585286611</v>
       </c>
+      <c r="E331">
+        <v>47.212266565509474</v>
+      </c>
       <c r="I331" s="14">
+        <f t="shared" si="28"/>
+        <v>50.840453415231572</v>
+      </c>
+      <c r="J331">
         <f t="shared" si="26"/>
-        <v>52.654546840092621</v>
+        <v>3.5001762665287828</v>
+      </c>
+      <c r="K331" s="8">
+        <f t="shared" si="27"/>
+        <v>6.8846283449552112E-2</v>
       </c>
       <c r="L331" t="s">
         <v>847</v>
@@ -20240,7 +20912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16">
       <c r="A332" s="12" t="s">
         <v>818</v>
       </c>
@@ -20253,9 +20925,20 @@
       <c r="D332">
         <v>17.110282364240788</v>
       </c>
+      <c r="E332">
+        <v>17.617270925167318</v>
+      </c>
       <c r="I332" s="14">
+        <f t="shared" si="28"/>
+        <v>19.407490763814661</v>
+      </c>
+      <c r="J332">
         <f t="shared" si="26"/>
-        <v>20.302600683138333</v>
+        <v>2.897649800807967</v>
+      </c>
+      <c r="K332" s="8">
+        <f t="shared" si="27"/>
+        <v>0.14930574158564824</v>
       </c>
       <c r="L332" t="s">
         <v>847</v>
@@ -20273,7 +20956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16">
       <c r="A333" s="12" t="s">
         <v>819</v>
       </c>
@@ -20286,9 +20969,20 @@
       <c r="D333">
         <v>7.8816882000697186</v>
       </c>
+      <c r="E333">
+        <v>17.037341129753781</v>
+      </c>
       <c r="I333" s="14">
+        <f t="shared" si="28"/>
+        <v>15.938460542058765</v>
+      </c>
+      <c r="J333">
         <f t="shared" si="26"/>
-        <v>15.389020248211258</v>
+        <v>6.1787640830273292</v>
+      </c>
+      <c r="K333" s="8">
+        <f t="shared" si="27"/>
+        <v>0.38766379392304978</v>
       </c>
       <c r="L333" t="s">
         <v>847</v>
@@ -20306,7 +21000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16">
       <c r="A334" s="12" t="s">
         <v>820</v>
       </c>
@@ -20319,9 +21013,20 @@
       <c r="D334">
         <v>16.935621975617281</v>
       </c>
+      <c r="E334">
+        <v>11.030444264822711</v>
+      </c>
       <c r="I334" s="14">
+        <f t="shared" si="28"/>
+        <v>14.518194162284118</v>
+      </c>
+      <c r="J334">
         <f t="shared" si="26"/>
-        <v>16.262069111014821</v>
+        <v>2.5267862291648489</v>
+      </c>
+      <c r="K334" s="8">
+        <f t="shared" si="27"/>
+        <v>0.17404273568189521</v>
       </c>
       <c r="L334" t="s">
         <v>847</v>
@@ -20339,7 +21044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16">
       <c r="A335" s="12" t="s">
         <v>821</v>
       </c>
@@ -20352,9 +21057,20 @@
       <c r="D335">
         <v>40.282885972977454</v>
       </c>
+      <c r="E335">
+        <v>41.308135140171579</v>
+      </c>
       <c r="I335" s="14">
-        <f t="shared" si="26"/>
-        <v>40.768946281806357</v>
+        <f t="shared" si="28"/>
+        <v>40.948675901261431</v>
+      </c>
+      <c r="J335">
+        <f t="shared" ref="J335:J363" si="29">_xlfn.STDEV.P(C335:H335)</f>
+        <v>0.47128394282516251</v>
+      </c>
+      <c r="K335" s="8">
+        <f t="shared" ref="K335:K363" si="30">J335/I335</f>
+        <v>1.1509137535034302E-2</v>
       </c>
       <c r="L335" t="s">
         <v>847</v>
@@ -20372,7 +21088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16">
       <c r="A336" s="12" t="s">
         <v>822</v>
       </c>
@@ -20385,9 +21101,20 @@
       <c r="D336">
         <v>1.1501377410468321</v>
       </c>
+      <c r="E336">
+        <v>11.87705972021276</v>
+      </c>
       <c r="I336" s="14">
-        <f t="shared" si="26"/>
-        <v>7.8028940817397805</v>
+        <f t="shared" si="28"/>
+        <v>9.1609492945641069</v>
+      </c>
+      <c r="J336">
+        <f t="shared" si="29"/>
+        <v>5.7614875863714348</v>
+      </c>
+      <c r="K336" s="8">
+        <f t="shared" si="30"/>
+        <v>0.62891818316145109</v>
       </c>
       <c r="L336" t="s">
         <v>847</v>
@@ -20405,7 +21132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16">
       <c r="A337" s="12" t="s">
         <v>823</v>
       </c>
@@ -20418,9 +21145,20 @@
       <c r="D337">
         <v>27.340186798196019</v>
       </c>
+      <c r="E337">
+        <v>8.4242715453386996</v>
+      </c>
       <c r="I337" s="14">
-        <f t="shared" si="26"/>
-        <v>17.82076064443298</v>
+        <f t="shared" si="28"/>
+        <v>14.688597611401553</v>
+      </c>
+      <c r="J337">
+        <f t="shared" si="29"/>
+        <v>8.9461652899781097</v>
+      </c>
+      <c r="K337" s="8">
+        <f t="shared" si="30"/>
+        <v>0.60905510019785247</v>
       </c>
       <c r="L337" t="s">
         <v>847</v>
@@ -20438,7 +21176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16">
       <c r="A338" s="12" t="s">
         <v>824</v>
       </c>
@@ -20451,9 +21189,20 @@
       <c r="D338">
         <v>35.764950653081009</v>
       </c>
+      <c r="E338">
+        <v>15.74758015144714</v>
+      </c>
       <c r="I338" s="14">
-        <f t="shared" si="26"/>
-        <v>31.992841035164886</v>
+        <f t="shared" si="28"/>
+        <v>26.577754073925636</v>
+      </c>
+      <c r="J338">
+        <f t="shared" si="29"/>
+        <v>8.2542236203826853</v>
+      </c>
+      <c r="K338" s="8">
+        <f t="shared" si="30"/>
+        <v>0.31056889146553479</v>
       </c>
       <c r="L338" t="s">
         <v>847</v>
@@ -20471,7 +21220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16">
       <c r="A339" s="12" t="s">
         <v>825</v>
       </c>
@@ -20484,9 +21233,20 @@
       <c r="D339">
         <v>10.844658873336529</v>
       </c>
+      <c r="E339">
+        <v>15.475533739345041</v>
+      </c>
       <c r="I339" s="14">
-        <f t="shared" si="26"/>
-        <v>15.868565046870955</v>
+        <f t="shared" si="28"/>
+        <v>15.737554611028983</v>
+      </c>
+      <c r="J339">
+        <f t="shared" si="29"/>
+        <v>4.1061843150201129</v>
+      </c>
+      <c r="K339" s="8">
+        <f t="shared" si="30"/>
+        <v>0.26091628696509633</v>
       </c>
       <c r="L339" t="s">
         <v>847</v>
@@ -20504,7 +21264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16">
       <c r="A340" s="12" t="s">
         <v>826</v>
       </c>
@@ -20517,9 +21277,20 @@
       <c r="D340">
         <v>20.36671147312007</v>
       </c>
+      <c r="E340">
+        <v>15.97840801613591</v>
+      </c>
       <c r="I340" s="14">
-        <f t="shared" si="26"/>
-        <v>22.273990221956481</v>
+        <f t="shared" si="28"/>
+        <v>20.175462820016289</v>
+      </c>
+      <c r="J340">
+        <f t="shared" si="29"/>
+        <v>3.3515333799963205</v>
+      </c>
+      <c r="K340" s="8">
+        <f t="shared" si="30"/>
+        <v>0.16611928112356505</v>
       </c>
       <c r="L340" t="s">
         <v>847</v>
@@ -20537,7 +21308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16">
       <c r="A341" s="12" t="s">
         <v>827</v>
       </c>
@@ -20550,9 +21321,20 @@
       <c r="D341">
         <v>19.442549858150141</v>
       </c>
+      <c r="E341">
+        <v>21.33025345838281</v>
+      </c>
       <c r="I341" s="14">
-        <f t="shared" si="26"/>
-        <v>26.992186832698813</v>
+        <f t="shared" si="28"/>
+        <v>25.104875707926812</v>
+      </c>
+      <c r="J341">
+        <f t="shared" si="29"/>
+        <v>6.7172835924718166</v>
+      </c>
+      <c r="K341" s="8">
+        <f t="shared" si="30"/>
+        <v>0.26756888465099427</v>
       </c>
       <c r="L341" t="s">
         <v>847</v>
@@ -20570,7 +21352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16">
       <c r="A342" s="12" t="s">
         <v>828</v>
       </c>
@@ -20583,9 +21365,20 @@
       <c r="D342">
         <v>26.79512954981719</v>
       </c>
+      <c r="E342">
+        <v>33.777893003108566</v>
+      </c>
       <c r="I342" s="14">
-        <f t="shared" si="26"/>
-        <v>33.062747076736628</v>
+        <f t="shared" si="28"/>
+        <v>33.301129052193943</v>
+      </c>
+      <c r="J342">
+        <f t="shared" si="29"/>
+        <v>5.1285805289193833</v>
+      </c>
+      <c r="K342" s="8">
+        <f t="shared" si="30"/>
+        <v>0.15400620564189257</v>
       </c>
       <c r="L342" t="s">
         <v>847</v>
@@ -20603,7 +21396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16">
       <c r="A343" s="12" t="s">
         <v>829</v>
       </c>
@@ -20616,9 +21409,20 @@
       <c r="D343">
         <v>49.331856965069832</v>
       </c>
+      <c r="E343">
+        <v>50.996543881919187</v>
+      </c>
       <c r="I343" s="14">
-        <f t="shared" si="26"/>
-        <v>45.600344027998915</v>
+        <f t="shared" si="28"/>
+        <v>47.399077312639008</v>
+      </c>
+      <c r="J343">
+        <f t="shared" si="29"/>
+        <v>3.9690899953972698</v>
+      </c>
+      <c r="K343" s="8">
+        <f t="shared" si="30"/>
+        <v>8.3737705888610375E-2</v>
       </c>
       <c r="L343" t="s">
         <v>847</v>
@@ -20636,7 +21440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16">
       <c r="A344" s="12" t="s">
         <v>830</v>
       </c>
@@ -20649,9 +21453,20 @@
       <c r="D344">
         <v>56.82901500434847</v>
       </c>
+      <c r="E344">
+        <v>44.868301593892063</v>
+      </c>
       <c r="I344" s="14">
-        <f t="shared" si="26"/>
-        <v>49.632314926651617</v>
+        <f t="shared" si="28"/>
+        <v>48.04431048239843</v>
+      </c>
+      <c r="J344">
+        <f t="shared" si="29"/>
+        <v>6.290615568883875</v>
+      </c>
+      <c r="K344" s="8">
+        <f t="shared" si="30"/>
+        <v>0.1309336216030931</v>
       </c>
       <c r="L344" t="s">
         <v>847</v>
@@ -20669,7 +21484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16">
       <c r="A345" s="12" t="s">
         <v>831</v>
       </c>
@@ -20682,9 +21497,20 @@
       <c r="D345">
         <v>29.1146323424916</v>
       </c>
+      <c r="E345">
+        <v>19.412400052400351</v>
+      </c>
       <c r="I345" s="14">
-        <f t="shared" si="26"/>
-        <v>25.965353066000329</v>
+        <f t="shared" si="28"/>
+        <v>23.781035394800337</v>
+      </c>
+      <c r="J345">
+        <f t="shared" si="29"/>
+        <v>4.0192612113411261</v>
+      </c>
+      <c r="K345" s="8">
+        <f t="shared" si="30"/>
+        <v>0.16901119503904893</v>
       </c>
       <c r="L345" t="s">
         <v>847</v>
@@ -20702,7 +21528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16">
       <c r="A346" s="12" t="s">
         <v>832</v>
       </c>
@@ -20715,9 +21541,20 @@
       <c r="D346">
         <v>12.02555593879949</v>
       </c>
+      <c r="E346">
+        <v>18.654898623864032</v>
+      </c>
       <c r="I346" s="14">
-        <f t="shared" si="26"/>
-        <v>19.06269869209563</v>
+        <f t="shared" si="28"/>
+        <v>18.92676533601843</v>
+      </c>
+      <c r="J346">
+        <f t="shared" si="29"/>
+        <v>5.749017989312132</v>
+      </c>
+      <c r="K346" s="8">
+        <f t="shared" si="30"/>
+        <v>0.30375068783525883</v>
       </c>
       <c r="L346" t="s">
         <v>847</v>
@@ -20735,7 +21572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16">
       <c r="A347" s="12" t="s">
         <v>833</v>
       </c>
@@ -20748,9 +21585,20 @@
       <c r="D347">
         <v>16.765922603374861</v>
       </c>
+      <c r="E347">
+        <v>34.273200751473247</v>
+      </c>
       <c r="I347" s="14">
-        <f t="shared" si="26"/>
-        <v>25.092498039112382</v>
+        <f t="shared" si="28"/>
+        <v>28.152732276566002</v>
+      </c>
+      <c r="J347">
+        <f t="shared" si="29"/>
+        <v>8.0592373192206193</v>
+      </c>
+      <c r="K347" s="8">
+        <f t="shared" si="30"/>
+        <v>0.28626838915841329</v>
       </c>
       <c r="L347" t="s">
         <v>847</v>
@@ -20768,7 +21616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16">
       <c r="A348" s="12" t="s">
         <v>834</v>
       </c>
@@ -20781,9 +21629,20 @@
       <c r="D348">
         <v>44.090625911574257</v>
       </c>
+      <c r="E348">
+        <v>36.541310433870223</v>
+      </c>
       <c r="I348" s="14">
-        <f t="shared" si="26"/>
-        <v>41.495733167590942</v>
+        <f t="shared" si="28"/>
+        <v>39.844258923017371</v>
+      </c>
+      <c r="J348">
+        <f t="shared" si="29"/>
+        <v>3.1533653868258291</v>
+      </c>
+      <c r="K348" s="8">
+        <f t="shared" si="30"/>
+        <v>7.9142277258021282E-2</v>
       </c>
       <c r="L348" t="s">
         <v>847</v>
@@ -20801,7 +21660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16">
       <c r="A349" s="12" t="s">
         <v>835</v>
       </c>
@@ -20814,9 +21673,20 @@
       <c r="D349">
         <v>18.707839785184191</v>
       </c>
+      <c r="E349">
+        <v>19.689662273439929</v>
+      </c>
       <c r="I349" s="14">
-        <f t="shared" si="26"/>
-        <v>21.358277865250642</v>
+        <f t="shared" si="28"/>
+        <v>20.802072667980404</v>
+      </c>
+      <c r="J349">
+        <f t="shared" si="29"/>
+        <v>2.3025948667648088</v>
+      </c>
+      <c r="K349" s="8">
+        <f t="shared" si="30"/>
+        <v>0.11069064624070267</v>
       </c>
       <c r="L349" t="s">
         <v>847</v>
@@ -20834,7 +21704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16">
       <c r="A350" s="12" t="s">
         <v>836</v>
       </c>
@@ -20847,9 +21717,20 @@
       <c r="D350">
         <v>25.834597969272568</v>
       </c>
+      <c r="E350">
+        <v>11.842480018876969</v>
+      </c>
       <c r="I350" s="14">
-        <f t="shared" si="26"/>
-        <v>28.012041543690991</v>
+        <f t="shared" si="28"/>
+        <v>22.622187702086318</v>
+      </c>
+      <c r="J350">
+        <f t="shared" si="29"/>
+        <v>7.8269974584280133</v>
+      </c>
+      <c r="K350" s="8">
+        <f t="shared" si="30"/>
+        <v>0.34598764547012278</v>
       </c>
       <c r="L350" t="s">
         <v>847</v>
@@ -20867,7 +21748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16">
       <c r="A351" s="12" t="s">
         <v>837</v>
       </c>
@@ -20880,9 +21761,20 @@
       <c r="D351">
         <v>27.574824992564029</v>
       </c>
+      <c r="E351">
+        <v>33.805972872339048</v>
+      </c>
       <c r="I351" s="14">
-        <f t="shared" si="26"/>
-        <v>30.326961509211166</v>
+        <f t="shared" si="28"/>
+        <v>31.486631963587126</v>
+      </c>
+      <c r="J351">
+        <f t="shared" si="29"/>
+        <v>2.7819372260495365</v>
+      </c>
+      <c r="K351" s="8">
+        <f t="shared" si="30"/>
+        <v>8.8352962910314511E-2</v>
       </c>
       <c r="L351" t="s">
         <v>847</v>
@@ -20900,7 +21792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16">
       <c r="A352" s="12" t="s">
         <v>838</v>
       </c>
@@ -20913,9 +21805,20 @@
       <c r="D352">
         <v>13.17045192416089</v>
       </c>
+      <c r="E352">
+        <v>28.448832780609401</v>
+      </c>
       <c r="I352" s="14">
-        <f t="shared" si="26"/>
-        <v>22.531418550795635</v>
+        <f t="shared" si="28"/>
+        <v>24.503889960733556</v>
+      </c>
+      <c r="J352">
+        <f t="shared" si="29"/>
+        <v>8.1363229440182678</v>
+      </c>
+      <c r="K352" s="8">
+        <f t="shared" si="30"/>
+        <v>0.33204209442077892</v>
       </c>
       <c r="L352" t="s">
         <v>847</v>
@@ -20933,7 +21836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16">
       <c r="A353" s="12" t="s">
         <v>839</v>
       </c>
@@ -20946,9 +21849,20 @@
       <c r="D353">
         <v>12.76773256103672</v>
       </c>
+      <c r="E353">
+        <v>23.875062735151779</v>
+      </c>
       <c r="I353" s="14">
-        <f t="shared" si="26"/>
-        <v>20.752729510984302</v>
+        <f t="shared" si="28"/>
+        <v>21.793507252373463</v>
+      </c>
+      <c r="J353">
+        <f t="shared" si="29"/>
+        <v>6.6838028702022356</v>
+      </c>
+      <c r="K353" s="8">
+        <f t="shared" si="30"/>
+        <v>0.30668780351883579</v>
       </c>
       <c r="L353" t="s">
         <v>847</v>
@@ -20966,7 +21880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16">
       <c r="A354" s="12" t="s">
         <v>840</v>
       </c>
@@ -20979,9 +21893,20 @@
       <c r="D354">
         <v>34.280981676933003</v>
       </c>
+      <c r="E354">
+        <v>31.197961606782279</v>
+      </c>
       <c r="I354" s="14">
-        <f t="shared" si="26"/>
-        <v>36.479046039894229</v>
+        <f t="shared" si="28"/>
+        <v>34.718684562190248</v>
+      </c>
+      <c r="J354">
+        <f t="shared" si="29"/>
+        <v>3.0689959856900613</v>
+      </c>
+      <c r="K354" s="8">
+        <f t="shared" si="30"/>
+        <v>8.8396090588993559E-2</v>
       </c>
       <c r="L354" t="s">
         <v>847</v>
@@ -20999,7 +21924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16">
       <c r="A355" s="12" t="s">
         <v>841</v>
       </c>
@@ -21012,9 +21937,20 @@
       <c r="D355">
         <v>68.896353662066957</v>
       </c>
+      <c r="E355">
+        <v>55.759891262719847</v>
+      </c>
       <c r="I355" s="14">
-        <f t="shared" si="26"/>
-        <v>61.010301097475782</v>
+        <f t="shared" si="28"/>
+        <v>59.260164485890471</v>
+      </c>
+      <c r="J355">
+        <f t="shared" si="29"/>
+        <v>6.8982490304486559</v>
+      </c>
+      <c r="K355" s="8">
+        <f t="shared" si="30"/>
+        <v>0.11640617420309544</v>
       </c>
       <c r="L355" t="s">
         <v>847</v>
@@ -21032,7 +21968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16">
       <c r="A356" s="12" t="s">
         <v>842</v>
       </c>
@@ -21045,9 +21981,20 @@
       <c r="D356">
         <v>48.518911804301148</v>
       </c>
+      <c r="E356">
+        <v>43.930156242789472</v>
+      </c>
       <c r="I356" s="14">
-        <f t="shared" si="26"/>
-        <v>42.494363385891617</v>
+        <f t="shared" si="28"/>
+        <v>42.972961004857574</v>
+      </c>
+      <c r="J356">
+        <f t="shared" si="29"/>
+        <v>4.9653701230556013</v>
+      </c>
+      <c r="K356" s="8">
+        <f t="shared" si="30"/>
+        <v>0.11554638095555776</v>
       </c>
       <c r="L356" t="s">
         <v>847</v>
@@ -21065,7 +22012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16">
       <c r="A357" s="12" t="s">
         <v>843</v>
       </c>
@@ -21078,9 +22025,20 @@
       <c r="D357">
         <v>74.809736167608534</v>
       </c>
+      <c r="E357">
+        <v>70.661567934323472</v>
+      </c>
       <c r="I357" s="14">
-        <f t="shared" si="26"/>
-        <v>67.586162125324833</v>
+        <f t="shared" si="28"/>
+        <v>68.611297394991041</v>
+      </c>
+      <c r="J357">
+        <f t="shared" si="29"/>
+        <v>6.0735892138391971</v>
+      </c>
+      <c r="K357" s="8">
+        <f t="shared" si="30"/>
+        <v>8.8521707713438438E-2</v>
       </c>
       <c r="L357" t="s">
         <v>847</v>
@@ -21098,7 +22056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16">
       <c r="A358" s="12" t="s">
         <v>844</v>
       </c>
@@ -21111,9 +22069,20 @@
       <c r="D358">
         <v>45.681627737128473</v>
       </c>
+      <c r="E358">
+        <v>39.110768382489589</v>
+      </c>
       <c r="I358" s="14">
-        <f t="shared" si="26"/>
-        <v>42.58329975533168</v>
+        <f t="shared" si="28"/>
+        <v>41.42578929771765</v>
+      </c>
+      <c r="J358">
+        <f t="shared" si="29"/>
+        <v>3.0132073345238526</v>
+      </c>
+      <c r="K358" s="8">
+        <f t="shared" si="30"/>
+        <v>7.2737475509968494E-2</v>
       </c>
       <c r="L358" t="s">
         <v>847</v>
@@ -21131,7 +22100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16">
       <c r="A359" s="12" t="s">
         <v>845</v>
       </c>
@@ -21144,9 +22113,20 @@
       <c r="D359">
         <v>60.515156958355938</v>
       </c>
+      <c r="E359">
+        <v>50.353316446892308</v>
+      </c>
       <c r="I359" s="14">
-        <f t="shared" si="26"/>
-        <v>50.400658553162955</v>
+        <f t="shared" si="28"/>
+        <v>50.384877851072737</v>
+      </c>
+      <c r="J359">
+        <f t="shared" si="29"/>
+        <v>8.2584835202082481</v>
+      </c>
+      <c r="K359" s="8">
+        <f t="shared" si="30"/>
+        <v>0.16390797938656546</v>
       </c>
       <c r="L359" t="s">
         <v>847</v>
@@ -21164,7 +22144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16">
       <c r="A360" s="12" t="s">
         <v>846</v>
       </c>
@@ -21177,9 +22157,20 @@
       <c r="D360">
         <v>43.125504289937467</v>
       </c>
+      <c r="E360">
+        <v>39.906405526312312</v>
+      </c>
       <c r="I360" s="14">
-        <f t="shared" si="26"/>
-        <v>38.52414238635501</v>
+        <f t="shared" si="28"/>
+        <v>38.984896766340775</v>
+      </c>
+      <c r="J360">
+        <f t="shared" si="29"/>
+        <v>3.8130840679401192</v>
+      </c>
+      <c r="K360" s="8">
+        <f t="shared" si="30"/>
+        <v>9.7809264207986912E-2</v>
       </c>
       <c r="L360" t="s">
         <v>847</v>
@@ -21197,7 +22188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16">
       <c r="A361" s="5" t="s">
         <v>19</v>
       </c>
@@ -21210,9 +22201,20 @@
       <c r="D361">
         <v>79.867262128142926</v>
       </c>
+      <c r="E361">
+        <v>73.733250937657246</v>
+      </c>
       <c r="I361" s="14">
-        <f t="shared" si="26"/>
-        <v>71.961451956668753</v>
+        <f t="shared" si="28"/>
+        <v>72.552051616998256</v>
+      </c>
+      <c r="J361">
+        <f t="shared" si="29"/>
+        <v>6.5088789789398991</v>
+      </c>
+      <c r="K361" s="8">
+        <f t="shared" si="30"/>
+        <v>8.9713231175049646E-2</v>
       </c>
       <c r="L361" t="s">
         <v>21</v>
@@ -21230,7 +22232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16">
       <c r="A362" s="5" t="s">
         <v>19</v>
       </c>
@@ -21243,9 +22245,20 @@
       <c r="D362">
         <v>86.012995264820276</v>
       </c>
+      <c r="E362">
+        <v>71.563921200926572</v>
+      </c>
       <c r="I362" s="14">
-        <f t="shared" si="26"/>
-        <v>74.240053521446512</v>
+        <f t="shared" si="28"/>
+        <v>73.348009414606523</v>
+      </c>
+      <c r="J362">
+        <f t="shared" si="29"/>
+        <v>9.6949947690725971</v>
+      </c>
+      <c r="K362" s="8">
+        <f t="shared" si="30"/>
+        <v>0.13217802155026084</v>
       </c>
       <c r="L362" t="s">
         <v>21</v>
@@ -21263,7 +22276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16">
       <c r="A363" s="5" t="s">
         <v>19</v>
       </c>
@@ -21276,9 +22289,20 @@
       <c r="D363">
         <v>87.762828612496691</v>
       </c>
+      <c r="E363">
+        <v>65.817343897764076</v>
+      </c>
       <c r="I363" s="14">
-        <f t="shared" si="26"/>
-        <v>73.026634616663472</v>
+        <f t="shared" si="28"/>
+        <v>70.623537710363678</v>
+      </c>
+      <c r="J363">
+        <f t="shared" si="29"/>
+        <v>12.502800691739223</v>
+      </c>
+      <c r="K363" s="8">
+        <f t="shared" si="30"/>
+        <v>0.17703447175097398</v>
       </c>
       <c r="L363" t="s">
         <v>21</v>
@@ -21297,7 +22321,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L363"/>
+  <autoFilter ref="L1:L363" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="M1:M269 M364:M1048576">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
@@ -21335,21 +22359,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="C1" s="15" t="s">
         <v>569</v>
       </c>
@@ -21364,7 +22388,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -21405,7 +22429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -21438,7 +22462,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -21471,7 +22495,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -21504,7 +22528,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -21537,7 +22561,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -21570,7 +22594,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -21603,7 +22627,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -21636,7 +22660,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>571</v>
       </c>
@@ -21664,7 +22688,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -21697,7 +22721,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -21730,7 +22754,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -21763,7 +22787,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -21796,7 +22820,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -21829,7 +22853,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -21862,7 +22886,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -21895,7 +22919,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -21928,7 +22952,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -21961,7 +22985,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -21994,7 +23018,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -22027,7 +23051,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -22060,7 +23084,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -22093,7 +23117,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -22126,7 +23150,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -22159,7 +23183,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -22192,7 +23216,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -22225,7 +23249,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -22258,7 +23282,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -22291,7 +23315,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -22324,7 +23348,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
         <v>83</v>
       </c>
@@ -22357,7 +23381,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -22390,7 +23414,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
@@ -22423,7 +23447,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
         <v>89</v>
       </c>
@@ -22456,7 +23480,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
         <v>91</v>
       </c>
@@ -22489,7 +23513,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
         <v>93</v>
       </c>
@@ -22522,7 +23546,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
         <v>95</v>
       </c>
@@ -22555,7 +23579,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
         <v>97</v>
       </c>
@@ -22588,7 +23612,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
@@ -22621,7 +23645,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
         <v>101</v>
       </c>
@@ -22654,7 +23678,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
         <v>103</v>
       </c>
@@ -22687,7 +23711,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
@@ -22720,7 +23744,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
         <v>107</v>
       </c>
@@ -22753,7 +23777,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
@@ -22786,7 +23810,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
         <v>111</v>
       </c>
@@ -22819,7 +23843,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
         <v>113</v>
       </c>
@@ -22852,7 +23876,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -22885,7 +23909,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -22918,7 +23942,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -22951,7 +23975,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -22984,7 +24008,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
         <v>123</v>
       </c>
@@ -23017,7 +24041,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
         <v>125</v>
       </c>
@@ -23050,7 +24074,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -23083,7 +24107,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
@@ -23116,7 +24140,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
         <v>131</v>
       </c>
@@ -23149,7 +24173,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
         <v>133</v>
       </c>
@@ -23182,7 +24206,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
         <v>135</v>
       </c>
@@ -23215,7 +24239,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
         <v>137</v>
       </c>
@@ -23248,7 +24272,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
         <v>139</v>
       </c>
@@ -23281,7 +24305,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
@@ -23314,7 +24338,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
         <v>143</v>
       </c>
@@ -23347,7 +24371,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
         <v>145</v>
       </c>
@@ -23380,7 +24404,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
         <v>147</v>
       </c>
@@ -23413,7 +24437,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
         <v>149</v>
       </c>
@@ -23446,7 +24470,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
         <v>152</v>
       </c>
@@ -23479,7 +24503,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
         <v>154</v>
       </c>
@@ -23512,7 +24536,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
         <v>156</v>
       </c>
@@ -23545,7 +24569,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
         <v>158</v>
       </c>
@@ -23578,7 +24602,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
         <v>160</v>
       </c>
@@ -23611,7 +24635,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
         <v>162</v>
       </c>
@@ -23644,7 +24668,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -23677,7 +24701,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
         <v>166</v>
       </c>
@@ -23710,7 +24734,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
         <v>168</v>
       </c>
@@ -23743,7 +24767,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
         <v>170</v>
       </c>
@@ -23776,7 +24800,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
         <v>172</v>
       </c>
@@ -23809,7 +24833,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
         <v>174</v>
       </c>
@@ -23842,7 +24866,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
         <v>176</v>
       </c>
@@ -23875,7 +24899,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
         <v>178</v>
       </c>
@@ -23908,7 +24932,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
         <v>180</v>
       </c>
@@ -23941,7 +24965,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
         <v>182</v>
       </c>
@@ -23974,7 +24998,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
         <v>184</v>
       </c>
@@ -24007,7 +25031,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
         <v>186</v>
       </c>
@@ -24040,7 +25064,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
         <v>188</v>
       </c>
@@ -24073,7 +25097,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
         <v>190</v>
       </c>
@@ -24106,7 +25130,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
         <v>192</v>
       </c>
@@ -24139,7 +25163,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
         <v>194</v>
       </c>
@@ -24172,7 +25196,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="5" t="s">
         <v>196</v>
       </c>
@@ -24205,7 +25229,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
         <v>198</v>
       </c>
@@ -24238,7 +25262,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="5" t="s">
         <v>200</v>
       </c>
@@ -24271,7 +25295,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
         <v>202</v>
       </c>
@@ -24304,7 +25328,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
         <v>204</v>
       </c>
@@ -24337,7 +25361,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="5" t="s">
         <v>206</v>
       </c>
@@ -24370,7 +25394,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" s="9" t="s">
         <v>208</v>
       </c>
@@ -24412,7 +25436,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" s="9" t="s">
         <v>212</v>
       </c>
@@ -24454,7 +25478,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" s="9" t="s">
         <v>214</v>
       </c>
@@ -24496,7 +25520,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" s="9" t="s">
         <v>216</v>
       </c>
@@ -24538,7 +25562,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="9" t="s">
         <v>218</v>
       </c>
@@ -24580,7 +25604,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" s="9" t="s">
         <v>220</v>
       </c>
@@ -24622,7 +25646,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="9" t="s">
         <v>222</v>
       </c>
@@ -24663,7 +25687,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="9" t="s">
         <v>224</v>
       </c>
@@ -24705,7 +25729,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" s="9" t="s">
         <v>226</v>
       </c>
@@ -24747,7 +25771,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="9" t="s">
         <v>228</v>
       </c>
@@ -24789,7 +25813,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" s="9" t="s">
         <v>230</v>
       </c>
@@ -24831,7 +25855,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="9" t="s">
         <v>232</v>
       </c>
@@ -24873,7 +25897,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" s="9" t="s">
         <v>234</v>
       </c>
@@ -24915,7 +25939,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" s="9" t="s">
         <v>236</v>
       </c>
@@ -24957,7 +25981,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="9" t="s">
         <v>238</v>
       </c>
@@ -24999,7 +26023,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="9" t="s">
         <v>240</v>
       </c>
@@ -25041,7 +26065,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" s="9" t="s">
         <v>242</v>
       </c>
@@ -25083,7 +26107,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="9" t="s">
         <v>244</v>
       </c>
@@ -25125,7 +26149,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="9" t="s">
         <v>246</v>
       </c>
@@ -25167,7 +26191,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="9" t="s">
         <v>248</v>
       </c>
@@ -25209,7 +26233,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113" s="9" t="s">
         <v>250</v>
       </c>
@@ -25251,7 +26275,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" s="9" t="s">
         <v>252</v>
       </c>
@@ -25293,7 +26317,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115" s="9" t="s">
         <v>254</v>
       </c>
@@ -25335,7 +26359,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" s="9" t="s">
         <v>256</v>
       </c>
@@ -25377,7 +26401,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" s="9" t="s">
         <v>258</v>
       </c>
@@ -25419,7 +26443,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118" s="9" t="s">
         <v>260</v>
       </c>
@@ -25461,7 +26485,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119" s="9" t="s">
         <v>262</v>
       </c>
@@ -25503,7 +26527,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120" s="9" t="s">
         <v>264</v>
       </c>
@@ -25545,7 +26569,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" s="9" t="s">
         <v>266</v>
       </c>
@@ -25587,7 +26611,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122" s="9" t="s">
         <v>268</v>
       </c>
@@ -25629,7 +26653,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123" s="9" t="s">
         <v>270</v>
       </c>
@@ -25671,7 +26695,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124" s="9" t="s">
         <v>272</v>
       </c>
@@ -25713,7 +26737,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125" s="9" t="s">
         <v>274</v>
       </c>
@@ -25755,7 +26779,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" s="9" t="s">
         <v>276</v>
       </c>
@@ -25797,7 +26821,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" s="9" t="s">
         <v>278</v>
       </c>
@@ -25839,7 +26863,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" s="9" t="s">
         <v>280</v>
       </c>
@@ -25881,7 +26905,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" s="9" t="s">
         <v>282</v>
       </c>
@@ -25923,7 +26947,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130" s="9" t="s">
         <v>284</v>
       </c>
@@ -25965,7 +26989,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131" s="9" t="s">
         <v>286</v>
       </c>
@@ -26007,7 +27031,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132" s="9" t="s">
         <v>288</v>
       </c>
@@ -26049,7 +27073,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133" s="9" t="s">
         <v>290</v>
       </c>
@@ -26091,7 +27115,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134" s="9" t="s">
         <v>292</v>
       </c>
@@ -26133,7 +27157,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135" s="9" t="s">
         <v>294</v>
       </c>
@@ -26175,7 +27199,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136" s="9" t="s">
         <v>296</v>
       </c>
@@ -26217,7 +27241,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137" s="9" t="s">
         <v>298</v>
       </c>
@@ -26259,7 +27283,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138" s="9" t="s">
         <v>300</v>
       </c>
@@ -26301,7 +27325,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139" s="9" t="s">
         <v>302</v>
       </c>
@@ -26343,7 +27367,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" s="9" t="s">
         <v>304</v>
       </c>
@@ -26385,7 +27409,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141" s="9" t="s">
         <v>306</v>
       </c>
@@ -26427,7 +27451,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" s="9" t="s">
         <v>308</v>
       </c>
@@ -26469,7 +27493,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143" s="9" t="s">
         <v>310</v>
       </c>
@@ -26511,7 +27535,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144" s="9" t="s">
         <v>312</v>
       </c>
@@ -26553,7 +27577,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13">
       <c r="A145" s="9" t="s">
         <v>314</v>
       </c>
@@ -26595,7 +27619,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146" s="9" t="s">
         <v>316</v>
       </c>
@@ -26637,7 +27661,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13">
       <c r="A147" s="9" t="s">
         <v>318</v>
       </c>
@@ -26679,7 +27703,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13">
       <c r="A148" s="9" t="s">
         <v>320</v>
       </c>
@@ -26721,7 +27745,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149" s="9" t="s">
         <v>322</v>
       </c>
@@ -26763,7 +27787,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13">
       <c r="A150" s="9" t="s">
         <v>324</v>
       </c>
@@ -26805,7 +27829,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13">
       <c r="A151" s="9" t="s">
         <v>326</v>
       </c>
@@ -26847,7 +27871,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13">
       <c r="A152" s="9" t="s">
         <v>328</v>
       </c>
@@ -26889,7 +27913,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153" s="9" t="s">
         <v>330</v>
       </c>
@@ -26931,7 +27955,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13">
       <c r="A154" s="9" t="s">
         <v>333</v>
       </c>
@@ -26973,7 +27997,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13">
       <c r="A155" s="9" t="s">
         <v>335</v>
       </c>
@@ -27015,7 +28039,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="A156" s="9" t="s">
         <v>337</v>
       </c>
@@ -27057,7 +28081,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157" s="9" t="s">
         <v>339</v>
       </c>
@@ -27099,7 +28123,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13">
       <c r="A158" s="9" t="s">
         <v>341</v>
       </c>
@@ -27141,7 +28165,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13">
       <c r="A159" s="9" t="s">
         <v>343</v>
       </c>
@@ -27183,7 +28207,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13">
       <c r="A160" s="9" t="s">
         <v>345</v>
       </c>
@@ -27225,7 +28249,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161" s="9" t="s">
         <v>347</v>
       </c>
@@ -27267,7 +28291,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162" s="9" t="s">
         <v>349</v>
       </c>
@@ -27309,7 +28333,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163" s="9" t="s">
         <v>351</v>
       </c>
@@ -27351,7 +28375,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164" s="9" t="s">
         <v>353</v>
       </c>
@@ -27393,7 +28417,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165" s="9" t="s">
         <v>355</v>
       </c>
@@ -27435,7 +28459,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166" s="9" t="s">
         <v>357</v>
       </c>
@@ -27477,7 +28501,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167" s="9" t="s">
         <v>359</v>
       </c>
@@ -27519,7 +28543,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168" s="9" t="s">
         <v>361</v>
       </c>
@@ -27561,7 +28585,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169" s="9" t="s">
         <v>363</v>
       </c>
@@ -27603,7 +28627,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170" s="9" t="s">
         <v>365</v>
       </c>
@@ -27645,7 +28669,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171" s="9" t="s">
         <v>367</v>
       </c>
@@ -27687,7 +28711,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172" s="9" t="s">
         <v>369</v>
       </c>
@@ -27729,7 +28753,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173" s="9" t="s">
         <v>371</v>
       </c>
@@ -27771,7 +28795,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174" s="9" t="s">
         <v>373</v>
       </c>
@@ -27813,7 +28837,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175" s="9" t="s">
         <v>375</v>
       </c>
@@ -27855,7 +28879,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176" s="9" t="s">
         <v>377</v>
       </c>
@@ -27897,7 +28921,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177" s="9" t="s">
         <v>379</v>
       </c>
@@ -27939,7 +28963,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178" s="9" t="s">
         <v>381</v>
       </c>
@@ -27981,7 +29005,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179" s="9" t="s">
         <v>383</v>
       </c>
@@ -28023,7 +29047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180" s="9" t="s">
         <v>385</v>
       </c>
@@ -28065,32 +29089,32 @@
         <v>572</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="F181">
         <v>201.6</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="F182">
         <v>3450.9</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="F183">
         <v>4736.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="F184">
         <v>4272.5</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="F185">
         <v>22529.9</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="F186">
         <v>4821.6000000000004</v>
       </c>
@@ -28113,23 +29137,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.6328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="6" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
         <v>573</v>
       </c>
@@ -28145,7 +29169,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>4451.3999999999996</v>
       </c>
@@ -28183,7 +29207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>3804.5</v>
       </c>
@@ -28241,7 +29265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1269</v>
       </c>
@@ -28299,7 +29323,7 @@
         <v>1.2952704707189187</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>4381.2</v>
       </c>
@@ -28357,7 +29381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4759.7</v>
       </c>
@@ -28415,7 +29439,7 @@
         <v>1.0096774864583054</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>1440.1</v>
       </c>
@@ -28473,7 +29497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>3708.1</v>
       </c>
@@ -28531,7 +29555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>0</v>
       </c>
@@ -28589,7 +29613,7 @@
         <v>1.0011976197507046</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>4732.8</v>
       </c>
@@ -28632,7 +29656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>1232.7</v>
       </c>
@@ -28690,7 +29714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>529.1</v>
       </c>
@@ -28748,7 +29772,7 @@
         <v>1.4135498236063859</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>29.2</v>
       </c>
@@ -28806,7 +29830,7 @@
         <v>1.2067950019292712</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>2837.7</v>
       </c>
@@ -28864,7 +29888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>4250.1000000000004</v>
       </c>
@@ -28919,7 +29943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>4103.3999999999996</v>
       </c>
@@ -28977,7 +30001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>2132.6999999999998</v>
       </c>
@@ -29035,7 +30059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>3313.1</v>
       </c>
@@ -29093,7 +30117,7 @@
         <v>1.0935845448603492</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>2351.1999999999998</v>
       </c>
@@ -29151,7 +30175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>3089.7</v>
       </c>
@@ -29209,7 +30233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>2539.6999999999998</v>
       </c>
@@ -29267,7 +30291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>4188</v>
       </c>
@@ -29325,7 +30349,7 @@
         <v>1.169255754237303</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>1410.8</v>
       </c>
@@ -29383,7 +30407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>51.7</v>
       </c>
@@ -29441,7 +30465,7 @@
         <v>1.2203489699610526</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>19.600000000000001</v>
       </c>
@@ -29499,7 +30523,7 @@
         <v>1.0244512931997685</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>1309.8</v>
       </c>
@@ -29557,7 +30581,7 @@
         <v>2.6234358690585302</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>3779.7</v>
       </c>
@@ -29615,7 +30639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>664.6</v>
       </c>
@@ -29673,7 +30697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>568.4</v>
       </c>
@@ -29731,7 +30755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>579.70000000000005</v>
       </c>
@@ -29789,7 +30813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>424.2</v>
       </c>
@@ -29847,7 +30871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>480.8</v>
       </c>
@@ -29905,7 +30929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>388.5</v>
       </c>
@@ -29963,7 +30987,7 @@
         <v>1.0750927895862123</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>940.1</v>
       </c>
@@ -30021,7 +31045,7 @@
         <v>1.6248406201304648</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>1510.1</v>
       </c>
@@ -30079,7 +31103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>55.6</v>
       </c>
@@ -30137,7 +31161,7 @@
         <v>1.0963380759801249</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>37.5</v>
       </c>
@@ -30195,7 +31219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>1006.5</v>
       </c>
@@ -30253,7 +31277,7 @@
         <v>1.8732830674560639</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>1013.4</v>
       </c>
@@ -30311,7 +31335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>1132.2</v>
       </c>
@@ -30369,7 +31393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>2202.1</v>
       </c>
@@ -30427,7 +31451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>3021.3</v>
       </c>
@@ -30485,7 +31509,7 @@
         <v>1.1725074778240294</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>4670</v>
       </c>
@@ -30543,7 +31567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>377.2</v>
       </c>
@@ -30601,7 +31625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>351.5</v>
       </c>
@@ -30659,7 +31683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>4359</v>
       </c>
@@ -30717,7 +31741,7 @@
         <v>3.561698879196241</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>2306.9</v>
       </c>
@@ -30775,7 +31799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>42.5</v>
       </c>
@@ -30833,7 +31857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>12.2</v>
       </c>
@@ -30891,7 +31915,7 @@
         <v>1.0728920239008903</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>4502.8999999999996</v>
       </c>
@@ -30949,7 +31973,7 @@
         <v>1.3357805467463613</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>3976.6</v>
       </c>
@@ -31007,7 +32031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>2195.1999999999998</v>
       </c>
@@ -31065,7 +32089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>3090.6</v>
       </c>
@@ -31123,7 +32147,7 @@
         <v>1.128735497610172</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>3243.6</v>
       </c>
@@ -31181,7 +32205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>3051.6</v>
       </c>
@@ -31239,7 +32263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>3604</v>
       </c>
@@ -31297,7 +32321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>3888.4</v>
       </c>
@@ -31355,7 +32379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>4137.6000000000004</v>
       </c>
@@ -31413,7 +32437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>3491.1</v>
       </c>
@@ -31471,7 +32495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>21</v>
       </c>
@@ -31529,7 +32553,7 @@
         <v>1.0076352426174098</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>27.2</v>
       </c>
@@ -31587,7 +32611,7 @@
         <v>1.2167403854907388</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>4656.8999999999996</v>
       </c>
@@ -31645,7 +32669,7 @@
         <v>4.0619252548293048</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>3478.8</v>
       </c>
@@ -31703,7 +32727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>492.6</v>
       </c>
@@ -31761,7 +32785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>346</v>
       </c>
@@ -31819,7 +32843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>251.3</v>
       </c>
@@ -31877,7 +32901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>276.89999999999998</v>
       </c>
@@ -31935,7 +32959,7 @@
         <v>1.1197713131684661</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>360.6</v>
       </c>
@@ -31993,7 +33017,7 @@
         <v>1.1149805091358778</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>318</v>
       </c>
@@ -32051,7 +33075,7 @@
         <v>1.091910300828645</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>348</v>
       </c>
@@ -32109,7 +33133,7 @@
         <v>1.0807765929998294</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>233.4</v>
       </c>
@@ -32167,7 +33191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>26.6</v>
       </c>
@@ -32225,7 +33249,7 @@
         <v>1.228595174543162</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>20.9</v>
       </c>
@@ -32283,7 +33307,7 @@
         <v>1.5121885371426311</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>440.5</v>
       </c>
@@ -32341,7 +33365,7 @@
         <v>1.2655931602175603</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>341.5</v>
       </c>
@@ -32399,7 +33423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>320.89999999999998</v>
       </c>
@@ -32457,7 +33481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>378.1</v>
       </c>
@@ -32515,7 +33539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>3130.8</v>
       </c>
@@ -32573,7 +33597,7 @@
         <v>1.9489258823195479</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>274.10000000000002</v>
       </c>
@@ -32631,7 +33655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>283.10000000000002</v>
       </c>
@@ -32689,7 +33713,7 @@
         <v>1.1388860237427094</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81">
         <v>269.5</v>
       </c>
@@ -32747,7 +33771,7 @@
         <v>1.1384317579137457</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82">
         <v>312.8</v>
       </c>
@@ -32805,7 +33829,7 @@
         <v>1.0540497846642338</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83">
         <v>120.1</v>
       </c>
@@ -32863,7 +33887,7 @@
         <v>1.1337178832092052</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84">
         <v>227.6</v>
       </c>
@@ -32921,7 +33945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85">
         <v>35.1</v>
       </c>
@@ -32979,7 +34003,7 @@
         <v>2.2601678787155235</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86">
         <v>308.60000000000002</v>
       </c>
@@ -33037,7 +34061,7 @@
         <v>1.0235278413579181</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87">
         <v>1636.1</v>
       </c>
@@ -33095,7 +34119,7 @@
         <v>1.4558439239343104</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88">
         <v>287.5</v>
       </c>
@@ -33153,7 +34177,7 @@
         <v>1.0998088492925739</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89">
         <v>566.1</v>
       </c>
@@ -33211,7 +34235,7 @@
         <v>1.0994386527211388</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90">
         <v>302.7</v>
       </c>
@@ -33257,7 +34281,7 @@
         <v>1.075595260589862</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91">
         <v>278.39999999999998</v>
       </c>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85916326-DB2F-4FDE-ABF2-624A34C2A41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215DA13-B57C-4960-8B85-87D7FC3A0349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3081,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="K276" sqref="K276"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18244,17 +18244,20 @@
       <c r="E271">
         <v>70.450757151683831</v>
       </c>
+      <c r="F271">
+        <v>83.065130222739668</v>
+      </c>
       <c r="I271" s="14">
         <f t="shared" si="25"/>
-        <v>65.580402895989835</v>
+        <v>69.9515847276773</v>
       </c>
       <c r="J271">
         <f t="shared" ref="J271:J334" si="26">_xlfn.STDEV.P(C271:H271)</f>
-        <v>9.7903791766799095</v>
+        <v>11.367072408250003</v>
       </c>
       <c r="K271" s="8">
         <f t="shared" ref="K271:K334" si="27">J271/I271</f>
-        <v>0.14928818281594577</v>
+        <v>0.16249914069141116</v>
       </c>
       <c r="L271" t="s">
         <v>847</v>
@@ -18288,17 +18291,20 @@
       <c r="E272">
         <v>74.303543033773678</v>
       </c>
+      <c r="F272">
+        <v>82.587079759994396</v>
+      </c>
       <c r="I272" s="14">
         <f t="shared" si="25"/>
-        <v>68.143369443940998</v>
+        <v>71.754297022954347</v>
       </c>
       <c r="J272">
         <f t="shared" si="26"/>
-        <v>11.225274245015138</v>
+        <v>11.559475781776944</v>
       </c>
       <c r="K272" s="8">
         <f t="shared" si="27"/>
-        <v>0.1647302494228694</v>
+        <v>0.16109802842997742</v>
       </c>
       <c r="L272" t="s">
         <v>847</v>
@@ -18332,17 +18338,20 @@
       <c r="E273">
         <v>54.594405007949113</v>
       </c>
+      <c r="F273">
+        <v>56.263396249730341</v>
+      </c>
       <c r="I273" s="14">
         <f t="shared" si="25"/>
-        <v>51.786280043169427</v>
+        <v>52.905559094809654</v>
       </c>
       <c r="J273">
         <f t="shared" si="26"/>
-        <v>4.1143833346737733</v>
+        <v>4.0564109080322366</v>
       </c>
       <c r="K273" s="8">
         <f t="shared" si="27"/>
-        <v>7.9449292964159479E-2</v>
+        <v>7.6672678210675874E-2</v>
       </c>
       <c r="L273" t="s">
         <v>847</v>
@@ -18376,17 +18385,20 @@
       <c r="E274">
         <v>72.037888175290945</v>
       </c>
+      <c r="F274">
+        <v>86.82215934586003</v>
+      </c>
       <c r="I274" s="14">
         <f t="shared" si="25"/>
-        <v>67.500311892644561</v>
+        <v>72.330773755948428</v>
       </c>
       <c r="J274">
         <f t="shared" si="26"/>
-        <v>11.726295349538631</v>
+        <v>13.157871689865249</v>
       </c>
       <c r="K274" s="8">
         <f t="shared" si="27"/>
-        <v>0.17372209136142427</v>
+        <v>0.1819124973591639</v>
       </c>
       <c r="L274" t="s">
         <v>847</v>
@@ -18420,17 +18432,20 @@
       <c r="E275">
         <v>62.157774286345749</v>
       </c>
+      <c r="F275">
+        <v>66.649424052389634</v>
+      </c>
       <c r="I275" s="14">
         <f t="shared" si="25"/>
-        <v>58.334679737182967</v>
+        <v>60.413365815984633</v>
       </c>
       <c r="J275">
         <f t="shared" si="26"/>
-        <v>5.5103765844013601</v>
+        <v>5.9779591014869498</v>
       </c>
       <c r="K275" s="8">
         <f t="shared" si="27"/>
-        <v>9.4461418306013331E-2</v>
+        <v>9.8950936117273167E-2</v>
       </c>
       <c r="L275" t="s">
         <v>847</v>
@@ -18464,17 +18479,20 @@
       <c r="E276">
         <v>56.275467645094992</v>
       </c>
+      <c r="F276">
+        <v>63.862375215489742</v>
+      </c>
       <c r="I276" s="14">
         <f t="shared" si="25"/>
-        <v>55.045071472856911</v>
+        <v>57.249397408515122</v>
       </c>
       <c r="J276">
         <f t="shared" si="26"/>
-        <v>2.9455900910736141</v>
+        <v>4.5917898721870536</v>
       </c>
       <c r="K276" s="8">
         <f t="shared" si="27"/>
-        <v>5.3512331118074831E-2</v>
+        <v>8.020678085782057E-2</v>
       </c>
       <c r="L276" t="s">
         <v>847</v>
@@ -18508,17 +18526,20 @@
       <c r="E277">
         <v>43.630078372552937</v>
       </c>
+      <c r="F277">
+        <v>50.020114144528549</v>
+      </c>
       <c r="I277" s="14">
         <f t="shared" si="25"/>
-        <v>42.354936024426983</v>
+        <v>44.271230554452373</v>
       </c>
       <c r="J277">
         <f t="shared" si="26"/>
-        <v>3.6207276737661731</v>
+        <v>4.5660492598194313</v>
       </c>
       <c r="K277" s="8">
         <f t="shared" si="27"/>
-        <v>8.5485376997807838E-2</v>
+        <v>0.10313806963651753</v>
       </c>
       <c r="L277" t="s">
         <v>847</v>
@@ -18552,17 +18573,20 @@
       <c r="E278">
         <v>46.177300103649742</v>
       </c>
+      <c r="F278">
+        <v>50.46158798194049</v>
+      </c>
       <c r="I278" s="14">
         <f t="shared" si="25"/>
-        <v>43.916024856807674</v>
+        <v>45.552415638090878</v>
       </c>
       <c r="J278">
         <f t="shared" si="26"/>
-        <v>3.7832163135316139</v>
+        <v>4.3321898184907317</v>
       </c>
       <c r="K278" s="8">
         <f t="shared" si="27"/>
-        <v>8.6146601971994197E-2</v>
+        <v>9.5103404678020184E-2</v>
       </c>
       <c r="L278" t="s">
         <v>847</v>
@@ -18596,17 +18620,20 @@
       <c r="E279">
         <v>50.163482013707188</v>
       </c>
+      <c r="F279">
+        <v>58.577819048872428</v>
+      </c>
       <c r="I279" s="14">
         <f t="shared" si="25"/>
-        <v>49.110326541985842</v>
+        <v>51.477199668707485</v>
       </c>
       <c r="J279">
         <f t="shared" si="26"/>
-        <v>4.4798732141196913</v>
+        <v>5.6443080359714886</v>
       </c>
       <c r="K279" s="8">
         <f t="shared" si="27"/>
-        <v>9.1220595128597204E-2</v>
+        <v>0.1096467576382678</v>
       </c>
       <c r="L279" t="s">
         <v>847</v>
@@ -18640,17 +18667,20 @@
       <c r="E280">
         <v>35.468997733769221</v>
       </c>
+      <c r="F280">
+        <v>45.332108400493119</v>
+      </c>
       <c r="I280" s="14">
         <f t="shared" si="25"/>
-        <v>32.541618777176581</v>
+        <v>35.739241183005717</v>
       </c>
       <c r="J280">
         <f t="shared" si="26"/>
-        <v>2.7921389586766026</v>
+        <v>6.0432935659457465</v>
       </c>
       <c r="K280" s="8">
         <f t="shared" si="27"/>
-        <v>8.5802091708937961E-2</v>
+        <v>0.16909406484039674</v>
       </c>
       <c r="L280" t="s">
         <v>847</v>
@@ -18684,17 +18714,20 @@
       <c r="E281">
         <v>70.365903061486293</v>
       </c>
+      <c r="F281">
+        <v>70.601183311142151</v>
+      </c>
       <c r="I281" s="14">
         <f t="shared" si="25"/>
-        <v>64.586186442269792</v>
+        <v>66.089935659487878</v>
       </c>
       <c r="J281">
         <f t="shared" si="26"/>
-        <v>7.0670575866735028</v>
+        <v>6.6514105515199597</v>
       </c>
       <c r="K281" s="8">
         <f t="shared" si="27"/>
-        <v>0.10942057390229062</v>
+        <v>0.10064180703382304</v>
       </c>
       <c r="L281" t="s">
         <v>847</v>
@@ -18728,17 +18761,20 @@
       <c r="E282">
         <v>38.618477632947567</v>
       </c>
+      <c r="F282">
+        <v>52.250425761063603</v>
+      </c>
       <c r="I282" s="14">
         <f t="shared" si="25"/>
-        <v>42.28378393306928</v>
+        <v>44.775444390067861</v>
       </c>
       <c r="J282">
         <f t="shared" si="26"/>
-        <v>5.4644650887410791</v>
+        <v>6.404716974891512</v>
       </c>
       <c r="K282" s="8">
         <f t="shared" si="27"/>
-        <v>0.12923311445803301</v>
+        <v>0.14304083548777047</v>
       </c>
       <c r="L282" t="s">
         <v>847</v>
@@ -18772,17 +18808,20 @@
       <c r="E283">
         <v>79.583741412890419</v>
       </c>
+      <c r="F283">
+        <v>89.136395070589543</v>
+      </c>
       <c r="I283" s="14">
         <f t="shared" si="25"/>
-        <v>74.175544821625053</v>
+        <v>77.915757383866179</v>
       </c>
       <c r="J283">
         <f t="shared" si="26"/>
-        <v>10.745251539202577</v>
+        <v>11.338557801272152</v>
       </c>
       <c r="K283" s="8">
         <f t="shared" si="27"/>
-        <v>0.14486245520733834</v>
+        <v>0.14552329569756578</v>
       </c>
       <c r="L283" t="s">
         <v>847</v>
@@ -18816,17 +18855,20 @@
       <c r="E284">
         <v>69.901823834207235</v>
       </c>
+      <c r="F284">
+        <v>79.347156119293885</v>
+      </c>
       <c r="I284" s="14">
         <f t="shared" si="25"/>
-        <v>63.629525011105009</v>
+        <v>67.558932788152219</v>
       </c>
       <c r="J284">
         <f t="shared" si="26"/>
-        <v>8.8359136042181419</v>
+        <v>10.240886843963464</v>
       </c>
       <c r="K284" s="8">
         <f t="shared" si="27"/>
-        <v>0.13886499392657803</v>
+        <v>0.151584496991335</v>
       </c>
       <c r="L284" t="s">
         <v>847</v>
@@ -18860,17 +18902,20 @@
       <c r="E285">
         <v>46.994036542262648</v>
       </c>
+      <c r="F285">
+        <v>45.750606145881719</v>
+      </c>
       <c r="I285" s="14">
         <f t="shared" si="25"/>
-        <v>44.493342966521418</v>
+        <v>44.807658761361495</v>
       </c>
       <c r="J285">
         <f t="shared" si="26"/>
-        <v>2.2152960816632752</v>
+        <v>1.9942506872839083</v>
       </c>
       <c r="K285" s="8">
         <f t="shared" si="27"/>
-        <v>4.978938272474049E-2</v>
+        <v>4.4506915612461971E-2</v>
       </c>
       <c r="L285" t="s">
         <v>847</v>
@@ -18904,17 +18949,20 @@
       <c r="E286">
         <v>64.011740630241803</v>
       </c>
+      <c r="F286">
+        <v>68.024863647142482</v>
+      </c>
       <c r="I286" s="14">
         <f t="shared" si="25"/>
-        <v>62.448662517883655</v>
+        <v>63.842712800198356</v>
       </c>
       <c r="J286">
         <f t="shared" si="26"/>
-        <v>1.5513536233042082</v>
+        <v>2.7631779018495104</v>
       </c>
       <c r="K286" s="8">
         <f t="shared" si="27"/>
-        <v>2.4842063236501524E-2</v>
+        <v>4.3281022698661471E-2</v>
       </c>
       <c r="L286" t="s">
         <v>847</v>
@@ -18948,17 +18996,20 @@
       <c r="E287">
         <v>13.472394828750931</v>
       </c>
+      <c r="F287">
+        <v>18.989488228185149</v>
+      </c>
       <c r="I287" s="14">
         <f t="shared" si="25"/>
-        <v>19.797865297580653</v>
+        <v>19.595771030231777</v>
       </c>
       <c r="J287">
         <f t="shared" si="26"/>
-        <v>7.2137037668618351</v>
+        <v>6.2570494488787078</v>
       </c>
       <c r="K287" s="8">
         <f t="shared" si="27"/>
-        <v>0.36436775674715632</v>
+        <v>0.31930611146790377</v>
       </c>
       <c r="L287" t="s">
         <v>847</v>
@@ -18992,17 +19043,20 @@
       <c r="E288">
         <v>19.362898559677529</v>
       </c>
+      <c r="F288">
+        <v>13.569693423040951</v>
+      </c>
       <c r="I288" s="14">
         <f t="shared" si="25"/>
-        <v>21.068704125759897</v>
+        <v>19.19395145008016</v>
       </c>
       <c r="J288">
         <f t="shared" si="26"/>
-        <v>7.2324491750791395</v>
+        <v>7.0551636116735308</v>
       </c>
       <c r="K288" s="8">
         <f t="shared" si="27"/>
-        <v>0.34327926064689956</v>
+        <v>0.36757223388954996</v>
       </c>
       <c r="L288" t="s">
         <v>847</v>
@@ -19036,17 +19090,20 @@
       <c r="E289">
         <v>56.549436474791108</v>
       </c>
+      <c r="F289">
+        <v>69.131080256621999</v>
+      </c>
       <c r="I289" s="14">
         <f t="shared" si="25"/>
-        <v>61.123088569831395</v>
+        <v>63.125086491529046</v>
       </c>
       <c r="J289">
         <f t="shared" si="26"/>
-        <v>4.475713537908339</v>
+        <v>5.2007687691827975</v>
       </c>
       <c r="K289" s="8">
         <f t="shared" si="27"/>
-        <v>7.3224597163393718E-2</v>
+        <v>8.2388303260078774E-2</v>
       </c>
       <c r="L289" t="s">
         <v>847</v>
@@ -19080,17 +19137,20 @@
       <c r="E290">
         <v>20.113246113891929</v>
       </c>
+      <c r="F290">
+        <v>26.09679026936282</v>
+      </c>
       <c r="I290" s="14">
         <f t="shared" si="25"/>
-        <v>28.054143914287664</v>
+        <v>27.564805503056455</v>
       </c>
       <c r="J290">
         <f t="shared" si="26"/>
-        <v>8.203494239001035</v>
+        <v>7.1548126837193307</v>
       </c>
       <c r="K290" s="8">
         <f t="shared" si="27"/>
-        <v>0.29241648806196813</v>
+        <v>0.25956332914904795</v>
       </c>
       <c r="L290" t="s">
         <v>847</v>
@@ -19124,17 +19184,20 @@
       <c r="E291">
         <v>16.542663596905829</v>
       </c>
+      <c r="F291">
+        <v>2.6991478265963029</v>
+      </c>
       <c r="I291" s="14">
         <f t="shared" si="25"/>
-        <v>16.100883454929171</v>
+        <v>12.750449547845953</v>
       </c>
       <c r="J291">
         <f t="shared" si="26"/>
-        <v>9.7476160070921019</v>
+        <v>10.243936521839997</v>
       </c>
       <c r="K291" s="8">
         <f t="shared" si="27"/>
-        <v>0.60540876743679173</v>
+        <v>0.8034176742866761</v>
       </c>
       <c r="L291" t="s">
         <v>847</v>
@@ -19168,17 +19231,20 @@
       <c r="E292">
         <v>55.064030157826579</v>
       </c>
+      <c r="F292">
+        <v>64.467007333367704</v>
+      </c>
       <c r="I292" s="14">
         <f t="shared" si="25"/>
-        <v>59.609468240090223</v>
+        <v>60.82385301340959</v>
       </c>
       <c r="J292">
         <f t="shared" si="26"/>
-        <v>6.3627691894323668</v>
+        <v>5.8981196114949768</v>
       </c>
       <c r="K292" s="8">
         <f t="shared" si="27"/>
-        <v>0.10674091511443982</v>
+        <v>9.6970502841946596E-2</v>
       </c>
       <c r="L292" t="s">
         <v>847</v>
@@ -19212,17 +19278,20 @@
       <c r="E293">
         <v>12.540205695787121</v>
       </c>
+      <c r="F293">
+        <v>17.323546065493758</v>
+      </c>
       <c r="I293" s="14">
         <f t="shared" si="25"/>
-        <v>15.975286831841951</v>
+        <v>16.312351640254903</v>
       </c>
       <c r="J293">
         <f t="shared" si="26"/>
-        <v>2.7295259576720374</v>
+        <v>2.4348659142579909</v>
       </c>
       <c r="K293" s="8">
         <f t="shared" si="27"/>
-        <v>0.17085927698221637</v>
+        <v>0.14926516838009646</v>
       </c>
       <c r="L293" t="s">
         <v>847</v>
@@ -19256,17 +19325,20 @@
       <c r="E294">
         <v>17.394768992752901</v>
       </c>
+      <c r="F294">
+        <v>21.104464673896501</v>
+      </c>
       <c r="I294" s="14">
         <f t="shared" si="25"/>
-        <v>27.421275996480674</v>
+        <v>25.842073165834631</v>
       </c>
       <c r="J294">
         <f t="shared" si="26"/>
-        <v>7.1991404912227912</v>
+        <v>6.8082569428770885</v>
       </c>
       <c r="K294" s="8">
         <f t="shared" si="27"/>
-        <v>0.26253849354591485</v>
+        <v>0.2634562985402491</v>
       </c>
       <c r="L294" t="s">
         <v>847</v>
@@ -19300,17 +19372,20 @@
       <c r="E295">
         <v>54.008316469934513</v>
       </c>
+      <c r="F295">
+        <v>60.918689629508371</v>
+      </c>
       <c r="I295" s="14">
         <f t="shared" si="25"/>
-        <v>51.87894173208349</v>
+        <v>54.138878706439712</v>
       </c>
       <c r="J295">
         <f t="shared" si="26"/>
-        <v>7.9464517318397796</v>
+        <v>7.9171659531066449</v>
       </c>
       <c r="K295" s="8">
         <f t="shared" si="27"/>
-        <v>0.1531729728196336</v>
+        <v>0.14623808512984429</v>
       </c>
       <c r="L295" t="s">
         <v>847</v>
@@ -19344,17 +19419,20 @@
       <c r="E296">
         <v>38.04015402558155</v>
       </c>
+      <c r="F296">
+        <v>45.159103384323103</v>
+      </c>
       <c r="I296" s="14">
         <f t="shared" si="25"/>
-        <v>37.904504236293036</v>
+        <v>39.718154023300556</v>
       </c>
       <c r="J296">
         <f t="shared" si="26"/>
-        <v>1.241954679755914</v>
+        <v>3.3203637179777385</v>
       </c>
       <c r="K296" s="8">
         <f t="shared" si="27"/>
-        <v>3.2765358755616161E-2</v>
+        <v>8.3598137920253182E-2</v>
       </c>
       <c r="L296" t="s">
         <v>847</v>
@@ -19388,17 +19466,20 @@
       <c r="E297">
         <v>28.360162008830631</v>
       </c>
+      <c r="F297">
+        <v>16.919184466310401</v>
+      </c>
       <c r="I297" s="14">
         <f t="shared" si="25"/>
-        <v>23.010780683737764</v>
+        <v>21.487881629380922</v>
       </c>
       <c r="J297">
         <f t="shared" si="26"/>
-        <v>8.773652869925666</v>
+        <v>8.0430344460750085</v>
       </c>
       <c r="K297" s="8">
         <f t="shared" si="27"/>
-        <v>0.38128445055869853</v>
+        <v>0.37430560093357756</v>
       </c>
       <c r="L297" t="s">
         <v>847</v>
@@ -19432,17 +19513,20 @@
       <c r="E298">
         <v>9.2234944650871515</v>
       </c>
+      <c r="F298">
+        <v>18.373507206732999</v>
+      </c>
       <c r="I298" s="14">
         <f t="shared" si="25"/>
-        <v>18.072505559233569</v>
+        <v>18.147755971108428</v>
       </c>
       <c r="J298">
         <f t="shared" si="26"/>
-        <v>9.3761753827790724</v>
+        <v>8.1210520549948573</v>
       </c>
       <c r="K298" s="8">
         <f t="shared" si="27"/>
-        <v>0.51880882548621576</v>
+        <v>0.44749621208945761</v>
       </c>
       <c r="L298" t="s">
         <v>847</v>
@@ -19476,17 +19560,20 @@
       <c r="E299">
         <v>14.57990433998298</v>
       </c>
+      <c r="F299">
+        <v>8.0001242060555349</v>
+      </c>
       <c r="I299" s="14">
         <f t="shared" si="25"/>
-        <v>18.74988616708314</v>
+        <v>16.06244567682624</v>
       </c>
       <c r="J299">
         <f t="shared" si="26"/>
-        <v>4.8245621455750332</v>
+        <v>6.2549427725922033</v>
       </c>
       <c r="K299" s="8">
         <f t="shared" si="27"/>
-        <v>0.25731154325858901</v>
+        <v>0.38941409661023119</v>
       </c>
       <c r="L299" t="s">
         <v>847</v>
@@ -19520,17 +19607,20 @@
       <c r="E300">
         <v>14.31757441413291</v>
       </c>
+      <c r="F300">
+        <v>16.456885437463711</v>
+      </c>
       <c r="I300" s="14">
         <f t="shared" si="25"/>
-        <v>19.384827269261645</v>
+        <v>18.652841811312161</v>
       </c>
       <c r="J300">
         <f t="shared" si="26"/>
-        <v>4.7575329039009677</v>
+        <v>4.3108001149118254</v>
       </c>
       <c r="K300" s="8">
         <f t="shared" si="27"/>
-        <v>0.24542560208648065</v>
+        <v>0.23110688218550737</v>
       </c>
       <c r="L300" t="s">
         <v>847</v>
@@ -19564,17 +19654,20 @@
       <c r="E301">
         <v>11.770384055606931</v>
       </c>
+      <c r="F301">
+        <v>14.915221188115281</v>
+      </c>
       <c r="I301" s="14">
         <f t="shared" si="25"/>
-        <v>11.937855716888146</v>
+        <v>12.682197084694931</v>
       </c>
       <c r="J301">
         <f t="shared" si="26"/>
-        <v>5.0009882834027044</v>
+        <v>4.5187990742600794</v>
       </c>
       <c r="K301" s="8">
         <f t="shared" si="27"/>
-        <v>0.4189184726305536</v>
+        <v>0.35631042823908132</v>
       </c>
       <c r="L301" t="s">
         <v>847</v>
@@ -19608,17 +19701,20 @@
       <c r="E302">
         <v>7.8698508223269634</v>
       </c>
+      <c r="F302">
+        <v>5.4030328730850981</v>
+      </c>
       <c r="I302" s="14">
         <f t="shared" si="25"/>
-        <v>9.3929574738983845</v>
+        <v>8.3954763236950622</v>
       </c>
       <c r="J302">
         <f t="shared" si="26"/>
-        <v>7.5657455295180984</v>
+        <v>6.7760818323054632</v>
       </c>
       <c r="K302" s="8">
         <f t="shared" si="27"/>
-        <v>0.80547000777360767</v>
+        <v>0.80711106446467085</v>
       </c>
       <c r="L302" t="s">
         <v>847</v>
@@ -19652,17 +19748,20 @@
       <c r="E303">
         <v>13.36773058774352</v>
       </c>
+      <c r="F303">
+        <v>7.7493783108749836</v>
+      </c>
       <c r="I303" s="14">
         <f t="shared" si="25"/>
-        <v>13.627756213668215</v>
+        <v>12.158161737969907</v>
       </c>
       <c r="J303">
         <f t="shared" si="26"/>
-        <v>0.29936286214740632</v>
+        <v>2.5585811226994122</v>
       </c>
       <c r="K303" s="8">
         <f t="shared" si="27"/>
-        <v>2.1967142459384081E-2</v>
+        <v>0.21044144483692548</v>
       </c>
       <c r="L303" t="s">
         <v>847</v>
@@ -19696,17 +19795,20 @@
       <c r="E304">
         <v>4.8686115732378719</v>
       </c>
+      <c r="F304">
+        <v>8.1291762856273895</v>
+      </c>
       <c r="I304" s="14">
         <f t="shared" si="25"/>
-        <v>8.0722608341406374</v>
+        <v>8.0864896970123255</v>
       </c>
       <c r="J304">
         <f t="shared" si="26"/>
-        <v>4.4951970421487388</v>
+        <v>3.8930328430958472</v>
       </c>
       <c r="K304" s="8">
         <f t="shared" si="27"/>
-        <v>0.55686964711755271</v>
+        <v>0.48142432488774289</v>
       </c>
       <c r="L304" t="s">
         <v>847</v>
@@ -19740,17 +19842,20 @@
       <c r="E305">
         <v>20.728416737081989</v>
       </c>
+      <c r="F305">
+        <v>23.268641247014969</v>
+      </c>
       <c r="I305" s="14">
         <f t="shared" si="25"/>
-        <v>29.615361200263433</v>
+        <v>28.028681211951316</v>
       </c>
       <c r="J305">
         <f t="shared" si="26"/>
-        <v>6.4072462820117195</v>
+        <v>6.1921130355231035</v>
       </c>
       <c r="K305" s="8">
         <f t="shared" si="27"/>
-        <v>0.2163487468103116</v>
+        <v>0.22092059875021203</v>
       </c>
       <c r="L305" t="s">
         <v>847</v>
@@ -19784,17 +19889,20 @@
       <c r="E306">
         <v>31.589811937627712</v>
       </c>
+      <c r="F306">
+        <v>15.088385560283839</v>
+      </c>
       <c r="I306" s="14">
         <f t="shared" si="25"/>
-        <v>31.188605340874375</v>
+        <v>27.163550395726741</v>
       </c>
       <c r="J306">
         <f t="shared" si="26"/>
-        <v>6.9293038032170591</v>
+        <v>9.1986216539398491</v>
       </c>
       <c r="K306" s="8">
         <f t="shared" si="27"/>
-        <v>0.22217421162259626</v>
+        <v>0.33863841507945658</v>
       </c>
       <c r="L306" t="s">
         <v>847</v>
@@ -19828,17 +19936,20 @@
       <c r="E307">
         <v>71.796188212389382</v>
       </c>
+      <c r="F307">
+        <v>89.882574529611091</v>
+      </c>
       <c r="I307" s="14">
         <f t="shared" si="25"/>
-        <v>70.776689609820565</v>
+        <v>75.553160839768196</v>
       </c>
       <c r="J307">
         <f t="shared" si="26"/>
-        <v>4.7567107809307556</v>
+        <v>9.2419562497135654</v>
       </c>
       <c r="K307" s="8">
         <f t="shared" si="27"/>
-        <v>6.7207308043844172E-2</v>
+        <v>0.12232388621455219</v>
       </c>
       <c r="L307" t="s">
         <v>847</v>
@@ -19872,17 +19983,20 @@
       <c r="E308">
         <v>26.822779322022051</v>
       </c>
+      <c r="F308">
+        <v>32.219401258811999</v>
+      </c>
       <c r="I308" s="14">
         <f t="shared" si="25"/>
-        <v>32.601705732125133</v>
+        <v>32.506129613796844</v>
       </c>
       <c r="J308">
         <f t="shared" si="26"/>
-        <v>4.8755632683964354</v>
+        <v>4.2256055508396395</v>
       </c>
       <c r="K308" s="8">
         <f t="shared" si="27"/>
-        <v>0.14954933059199241</v>
+        <v>0.12999411498827382</v>
       </c>
       <c r="L308" t="s">
         <v>847</v>
@@ -19916,17 +20030,20 @@
       <c r="E309">
         <v>18.399902810762509</v>
       </c>
+      <c r="F309">
+        <v>11.21348331748481</v>
+      </c>
       <c r="I309" s="14">
         <f t="shared" si="25"/>
-        <v>19.943063571746013</v>
+        <v>17.760668508180714</v>
       </c>
       <c r="J309">
         <f t="shared" si="26"/>
-        <v>10.205508782953235</v>
+        <v>9.612640208580796</v>
       </c>
       <c r="K309" s="8">
         <f t="shared" si="27"/>
-        <v>0.51173224947303042</v>
+        <v>0.54123189136451322</v>
       </c>
       <c r="L309" t="s">
         <v>847</v>
@@ -19960,17 +20077,20 @@
       <c r="E310">
         <v>9.0491950355523691</v>
       </c>
+      <c r="F310">
+        <v>13.62745948965553</v>
+      </c>
       <c r="I310" s="14">
         <f t="shared" si="25"/>
-        <v>10.076720923264759</v>
+        <v>10.964405564862451</v>
       </c>
       <c r="J310">
         <f t="shared" si="26"/>
-        <v>2.3283543663751614</v>
+        <v>2.5357203336229692</v>
       </c>
       <c r="K310" s="8">
         <f t="shared" si="27"/>
-        <v>0.23106270225262895</v>
+        <v>0.23126838191293955</v>
       </c>
       <c r="L310" t="s">
         <v>847</v>
@@ -20004,17 +20124,20 @@
       <c r="E311">
         <v>49.914210089557763</v>
       </c>
+      <c r="F311">
+        <v>59.514519934187312</v>
+      </c>
       <c r="I311" s="14">
         <f t="shared" si="25"/>
-        <v>50.616914837558333</v>
+        <v>52.841316111715578</v>
       </c>
       <c r="J311">
         <f t="shared" si="26"/>
-        <v>1.9898248624206802</v>
+        <v>4.2205965600549566</v>
       </c>
       <c r="K311" s="8">
         <f t="shared" si="27"/>
-        <v>3.9311460779593133E-2</v>
+        <v>7.9873040087266062E-2</v>
       </c>
       <c r="L311" t="s">
         <v>847</v>
@@ -20048,17 +20171,20 @@
       <c r="E312">
         <v>36.176170841313471</v>
       </c>
+      <c r="F312">
+        <v>42.85580830200518</v>
+      </c>
       <c r="I312" s="14">
         <f t="shared" si="25"/>
-        <v>36.965393314220314</v>
+        <v>38.437997061166534</v>
       </c>
       <c r="J312">
         <f t="shared" si="26"/>
-        <v>1.8215424927486401</v>
+        <v>2.9990328734821832</v>
       </c>
       <c r="K312" s="8">
         <f t="shared" si="27"/>
-        <v>4.927696771044246E-2</v>
+        <v>7.8022610509850723E-2</v>
       </c>
       <c r="L312" t="s">
         <v>847</v>
@@ -20092,17 +20218,20 @@
       <c r="E313">
         <v>14.737488438686009</v>
       </c>
+      <c r="F313">
+        <v>11.87765403184908</v>
+      </c>
       <c r="I313" s="14">
         <f t="shared" si="25"/>
-        <v>9.5034836982366855</v>
+        <v>10.097026281639785</v>
       </c>
       <c r="J313">
         <f t="shared" si="26"/>
-        <v>4.6633377773331963</v>
+        <v>4.1673634127665968</v>
       </c>
       <c r="K313" s="8">
         <f t="shared" si="27"/>
-        <v>0.49069771942666146</v>
+        <v>0.41273175849254157</v>
       </c>
       <c r="L313" t="s">
         <v>847</v>
@@ -20136,17 +20265,20 @@
       <c r="E314">
         <v>14.135681748559771</v>
       </c>
+      <c r="F314">
+        <v>13.525935844677351</v>
+      </c>
       <c r="I314" s="14">
         <f t="shared" si="25"/>
-        <v>18.9356295572119</v>
+        <v>17.583206129078263</v>
       </c>
       <c r="J314">
         <f t="shared" si="26"/>
-        <v>6.0301898516556962</v>
+        <v>5.7235949911006685</v>
       </c>
       <c r="K314" s="8">
         <f t="shared" si="27"/>
-        <v>0.31845732054675807</v>
+        <v>0.32551486623564413</v>
       </c>
       <c r="L314" t="s">
         <v>847</v>
@@ -20180,17 +20312,20 @@
       <c r="E315">
         <v>12.010141276985591</v>
       </c>
+      <c r="F315">
+        <v>12.39404573053123</v>
+      </c>
       <c r="I315" s="14">
         <f t="shared" si="25"/>
-        <v>14.163865913937103</v>
+        <v>13.721410868085636</v>
       </c>
       <c r="J315">
         <f t="shared" si="26"/>
-        <v>6.5733368309216713</v>
+        <v>5.7440288319577393</v>
       </c>
       <c r="K315" s="8">
         <f t="shared" si="27"/>
-        <v>0.46409199796600542</v>
+        <v>0.41861794586427442</v>
       </c>
       <c r="L315" t="s">
         <v>847</v>
@@ -20224,17 +20359,20 @@
       <c r="E316">
         <v>17.37710933431849</v>
       </c>
+      <c r="F316">
+        <v>14.69466976978117</v>
+      </c>
       <c r="I316" s="14">
         <f t="shared" si="25"/>
-        <v>22.008606909327</v>
+        <v>20.180122624440543</v>
       </c>
       <c r="J316">
         <f t="shared" si="26"/>
-        <v>7.2367216232130405</v>
+        <v>7.0219419841764292</v>
       </c>
       <c r="K316" s="8">
         <f t="shared" si="27"/>
-        <v>0.32881325260737876</v>
+        <v>0.34796329610366278</v>
       </c>
       <c r="L316" t="s">
         <v>847</v>
@@ -20268,17 +20406,20 @@
       <c r="E317">
         <v>0.89510842158345916</v>
       </c>
+      <c r="F317">
+        <v>4.7817698602933891</v>
+      </c>
       <c r="I317" s="14">
         <f t="shared" si="25"/>
-        <v>13.785423624897541</v>
+        <v>11.534510183746503</v>
       </c>
       <c r="J317">
         <f t="shared" si="26"/>
-        <v>9.5257573198857415</v>
+        <v>9.1244108492921807</v>
       </c>
       <c r="K317" s="8">
         <f t="shared" si="27"/>
-        <v>0.69100214683874395</v>
+        <v>0.79105317035044631</v>
       </c>
       <c r="L317" t="s">
         <v>847</v>
@@ -20312,17 +20453,20 @@
       <c r="E318">
         <v>16.433822422820739</v>
       </c>
+      <c r="F318">
+        <v>14.988720978901121</v>
+      </c>
       <c r="I318" s="14">
         <f t="shared" si="25"/>
-        <v>21.439132828371964</v>
+        <v>19.82652986600425</v>
       </c>
       <c r="J318">
         <f t="shared" si="26"/>
-        <v>5.8460888938375106</v>
+        <v>5.7822168290975711</v>
       </c>
       <c r="K318" s="8">
         <f t="shared" si="27"/>
-        <v>0.27268308567503979</v>
+        <v>0.29164038629937478</v>
       </c>
       <c r="L318" t="s">
         <v>847</v>
@@ -20356,17 +20500,20 @@
       <c r="E319">
         <v>51.515873282441767</v>
       </c>
+      <c r="F319">
+        <v>61.428485121814177</v>
+      </c>
       <c r="I319" s="14">
         <f t="shared" si="25"/>
-        <v>50.205457578725323</v>
+        <v>53.011214464497542</v>
       </c>
       <c r="J319">
         <f t="shared" si="26"/>
-        <v>3.7848436711585407</v>
+        <v>5.8617912209073051</v>
       </c>
       <c r="K319" s="8">
         <f t="shared" si="27"/>
-        <v>7.5387096417230487E-2</v>
+        <v>0.11057643708262976</v>
       </c>
       <c r="L319" t="s">
         <v>847</v>
@@ -20400,17 +20547,20 @@
       <c r="E320">
         <v>45.130380852834307</v>
       </c>
+      <c r="F320">
+        <v>54.146838096544641</v>
+      </c>
       <c r="I320" s="14">
         <f t="shared" si="25"/>
-        <v>47.599007487383155</v>
+        <v>49.235965139673525</v>
       </c>
       <c r="J320">
         <f t="shared" si="26"/>
-        <v>3.9576573308304814</v>
+        <v>4.448165883528084</v>
       </c>
       <c r="K320" s="8">
         <f t="shared" si="27"/>
-        <v>8.3145795253808996E-2</v>
+        <v>9.0343834449257615E-2</v>
       </c>
       <c r="L320" t="s">
         <v>847</v>
@@ -20444,17 +20594,20 @@
       <c r="E321">
         <v>15.66542232486397</v>
       </c>
+      <c r="F321">
+        <v>6.037470323235544</v>
+      </c>
       <c r="I321" s="14">
         <f t="shared" si="25"/>
-        <v>15.626451398590456</v>
+        <v>13.229206129751729</v>
       </c>
       <c r="J321">
         <f t="shared" si="26"/>
-        <v>5.7815068436322212</v>
+        <v>6.5045922757797543</v>
       </c>
       <c r="K321" s="8">
         <f t="shared" si="27"/>
-        <v>0.36998207053929899</v>
+        <v>0.49168424862254567</v>
       </c>
       <c r="L321" t="s">
         <v>847</v>
@@ -20488,17 +20641,20 @@
       <c r="E322">
         <v>15.44641800070068</v>
       </c>
+      <c r="F322">
+        <v>5.3194443276589816</v>
+      </c>
       <c r="I322" s="14">
         <f t="shared" si="25"/>
-        <v>17.987788596473283</v>
+        <v>14.82070252926971</v>
       </c>
       <c r="J322">
         <f t="shared" si="26"/>
-        <v>6.2261231746372525</v>
+        <v>7.6918632209979751</v>
       </c>
       <c r="K322" s="8">
         <f t="shared" si="27"/>
-        <v>0.34613055080366895</v>
+        <v>0.51899450824326021</v>
       </c>
       <c r="L322" t="s">
         <v>847</v>
@@ -20532,17 +20688,20 @@
       <c r="E323">
         <v>13.211065369449701</v>
       </c>
+      <c r="F323">
+        <v>7.9222173277807597</v>
+      </c>
       <c r="I323" s="14">
         <f t="shared" ref="I323:I363" si="28">AVERAGE(C323:H323)</f>
-        <v>16.229089026380915</v>
+        <v>14.152371101730877</v>
       </c>
       <c r="J323">
         <f t="shared" si="26"/>
-        <v>5.771975048217497</v>
+        <v>6.1583312661485126</v>
       </c>
       <c r="K323" s="8">
         <f t="shared" si="27"/>
-        <v>0.35565613318375189</v>
+        <v>0.43514484052748803</v>
       </c>
       <c r="L323" t="s">
         <v>847</v>
@@ -20576,17 +20735,20 @@
       <c r="E324">
         <v>44.614826534934629</v>
       </c>
+      <c r="F324">
+        <v>50.5976117553884</v>
+      </c>
       <c r="I324" s="14">
         <f t="shared" si="28"/>
-        <v>43.861040377099727</v>
+        <v>45.545183221671891</v>
       </c>
       <c r="J324">
         <f t="shared" si="26"/>
-        <v>0.82412349257630435</v>
+        <v>3.0030644367101109</v>
       </c>
       <c r="K324" s="8">
         <f t="shared" si="27"/>
-        <v>1.8789419619115719E-2</v>
+        <v>6.593593930875119E-2</v>
       </c>
       <c r="L324" t="s">
         <v>847</v>
@@ -20620,17 +20782,20 @@
       <c r="E325">
         <v>33.690481289677393</v>
       </c>
+      <c r="F325">
+        <v>19.80230871036359</v>
+      </c>
       <c r="I325" s="14">
         <f t="shared" si="28"/>
-        <v>30.178502570876052</v>
+        <v>27.584454105747938</v>
       </c>
       <c r="J325">
         <f t="shared" si="26"/>
-        <v>2.5471396129589343</v>
+        <v>5.0053174199274322</v>
       </c>
       <c r="K325" s="8">
         <f t="shared" si="27"/>
-        <v>8.4402451943293794E-2</v>
+        <v>0.18145428583574705</v>
       </c>
       <c r="L325" t="s">
         <v>847</v>
@@ -20664,17 +20829,20 @@
       <c r="E326">
         <v>11.010069096958089</v>
       </c>
+      <c r="F326">
+        <v>13.923157565179469</v>
+      </c>
       <c r="I326" s="14">
         <f t="shared" si="28"/>
-        <v>13.7928280829816</v>
+        <v>13.825410453531067</v>
       </c>
       <c r="J326">
         <f t="shared" si="26"/>
-        <v>4.8877085055674945</v>
+        <v>4.2332559170406325</v>
       </c>
       <c r="K326" s="8">
         <f t="shared" si="27"/>
-        <v>0.35436594120956499</v>
+        <v>0.30619386898270651</v>
       </c>
       <c r="L326" t="s">
         <v>847</v>
@@ -20708,17 +20876,20 @@
       <c r="E327">
         <v>5.296649088817075</v>
       </c>
+      <c r="F327">
+        <v>17.809341736959858</v>
+      </c>
       <c r="I327" s="14">
         <f t="shared" si="28"/>
-        <v>14.748186888791663</v>
+        <v>15.513475600833711</v>
       </c>
       <c r="J327">
         <f t="shared" si="26"/>
-        <v>7.8022335963101463</v>
+        <v>6.8857198067362564</v>
       </c>
       <c r="K327" s="8">
         <f t="shared" si="27"/>
-        <v>0.5290300194283335</v>
+        <v>0.44385410361339084</v>
       </c>
       <c r="L327" t="s">
         <v>847</v>
@@ -20752,17 +20923,20 @@
       <c r="E328">
         <v>6.0941143249034271</v>
       </c>
+      <c r="F328">
+        <v>7.3765270073928493</v>
+      </c>
       <c r="I328" s="14">
         <f t="shared" si="28"/>
-        <v>9.9179594149672212</v>
+        <v>9.2826013130736289</v>
       </c>
       <c r="J328">
         <f t="shared" si="26"/>
-        <v>7.4472056909213817</v>
+        <v>6.5426824930676828</v>
       </c>
       <c r="K328" s="8">
         <f t="shared" si="27"/>
-        <v>0.75088083942779416</v>
+        <v>0.70483286660744116</v>
       </c>
       <c r="L328" t="s">
         <v>847</v>
@@ -20796,17 +20970,20 @@
       <c r="E329">
         <v>39.359695465066828</v>
       </c>
+      <c r="F329">
+        <v>22.82435073904491</v>
+      </c>
       <c r="I329" s="14">
         <f t="shared" si="28"/>
-        <v>38.884381141689438</v>
+        <v>34.86937354102831</v>
       </c>
       <c r="J329">
         <f t="shared" si="26"/>
-        <v>2.5870068999249414</v>
+        <v>7.3061831092092193</v>
       </c>
       <c r="K329" s="8">
         <f t="shared" si="27"/>
-        <v>6.6530746381130185E-2</v>
+        <v>0.20953009381176732</v>
       </c>
       <c r="L329" t="s">
         <v>847</v>
@@ -20840,17 +21017,20 @@
       <c r="E330">
         <v>34.087198319593178</v>
       </c>
+      <c r="F330">
+        <v>43.793319772082327</v>
+      </c>
       <c r="I330" s="14">
         <f t="shared" si="28"/>
-        <v>38.404461416293238</v>
+        <v>39.751676005240512</v>
       </c>
       <c r="J330">
         <f t="shared" si="26"/>
-        <v>3.35633398179883</v>
+        <v>3.7274246865698428</v>
       </c>
       <c r="K330" s="8">
         <f t="shared" si="27"/>
-        <v>8.7394377059923894E-2</v>
+        <v>9.3767736637782317E-2</v>
       </c>
       <c r="L330" t="s">
         <v>847</v>
@@ -20884,17 +21064,20 @@
       <c r="E331">
         <v>47.212266565509474</v>
       </c>
+      <c r="F331">
+        <v>57.717812493380549</v>
+      </c>
       <c r="I331" s="14">
         <f t="shared" si="28"/>
-        <v>50.840453415231572</v>
+        <v>52.559793184768822</v>
       </c>
       <c r="J331">
         <f t="shared" si="26"/>
-        <v>3.5001762665287828</v>
+        <v>4.2493309063799307</v>
       </c>
       <c r="K331" s="8">
         <f t="shared" si="27"/>
-        <v>6.8846283449552112E-2</v>
+        <v>8.0847557589159888E-2</v>
       </c>
       <c r="L331" t="s">
         <v>847</v>
@@ -20928,17 +21111,20 @@
       <c r="E332">
         <v>17.617270925167318</v>
       </c>
+      <c r="F332">
+        <v>42.210383108132163</v>
+      </c>
       <c r="I332" s="14">
         <f t="shared" si="28"/>
-        <v>19.407490763814661</v>
+        <v>25.108213849894035</v>
       </c>
       <c r="J332">
         <f t="shared" si="26"/>
-        <v>2.897649800807967</v>
+        <v>10.187836467502166</v>
       </c>
       <c r="K332" s="8">
         <f t="shared" si="27"/>
-        <v>0.14930574158564824</v>
+        <v>0.40575711710951362</v>
       </c>
       <c r="L332" t="s">
         <v>847</v>
@@ -20972,17 +21158,20 @@
       <c r="E333">
         <v>17.037341129753781</v>
       </c>
+      <c r="F333">
+        <v>13.370286977171739</v>
+      </c>
       <c r="I333" s="14">
         <f t="shared" si="28"/>
-        <v>15.938460542058765</v>
+        <v>15.296417150837009</v>
       </c>
       <c r="J333">
         <f t="shared" si="26"/>
-        <v>6.1787640830273292</v>
+        <v>5.4652999317435444</v>
       </c>
       <c r="K333" s="8">
         <f t="shared" si="27"/>
-        <v>0.38766379392304978</v>
+        <v>0.35729281424862863</v>
       </c>
       <c r="L333" t="s">
         <v>847</v>
@@ -21016,17 +21205,20 @@
       <c r="E334">
         <v>11.030444264822711</v>
       </c>
+      <c r="F334">
+        <v>15.980092200586309</v>
+      </c>
       <c r="I334" s="14">
         <f t="shared" si="28"/>
-        <v>14.518194162284118</v>
+        <v>14.883668671859667</v>
       </c>
       <c r="J334">
         <f t="shared" si="26"/>
-        <v>2.5267862291648489</v>
+        <v>2.2779818562427767</v>
       </c>
       <c r="K334" s="8">
         <f t="shared" si="27"/>
-        <v>0.17404273568189521</v>
+        <v>0.15305244335018847</v>
       </c>
       <c r="L334" t="s">
         <v>847</v>
@@ -21060,17 +21252,20 @@
       <c r="E335">
         <v>41.308135140171579</v>
       </c>
+      <c r="F335">
+        <v>49.398536169383789</v>
+      </c>
       <c r="I335" s="14">
         <f t="shared" si="28"/>
-        <v>40.948675901261431</v>
+        <v>43.061140968292023</v>
       </c>
       <c r="J335">
         <f t="shared" ref="J335:J363" si="29">_xlfn.STDEV.P(C335:H335)</f>
-        <v>0.47128394282516251</v>
+        <v>3.6815903349432131</v>
       </c>
       <c r="K335" s="8">
         <f t="shared" ref="K335:K363" si="30">J335/I335</f>
-        <v>1.1509137535034302E-2</v>
+        <v>8.549681341825438E-2</v>
       </c>
       <c r="L335" t="s">
         <v>847</v>
@@ -21104,17 +21299,20 @@
       <c r="E336">
         <v>11.87705972021276</v>
       </c>
+      <c r="F336">
+        <v>3.7767528180292769</v>
+      </c>
       <c r="I336" s="14">
         <f t="shared" si="28"/>
-        <v>9.1609492945641069</v>
+        <v>7.8149001754303997</v>
       </c>
       <c r="J336">
         <f t="shared" si="29"/>
-        <v>5.7614875863714348</v>
+        <v>5.5074131041075889</v>
       </c>
       <c r="K336" s="8">
         <f t="shared" si="30"/>
-        <v>0.62891818316145109</v>
+        <v>0.70473236771757897</v>
       </c>
       <c r="L336" t="s">
         <v>847</v>
@@ -21148,17 +21346,20 @@
       <c r="E337">
         <v>8.4242715453386996</v>
       </c>
+      <c r="F337">
+        <v>34.335774456700541</v>
+      </c>
       <c r="I337" s="14">
         <f t="shared" si="28"/>
-        <v>14.688597611401553</v>
+        <v>19.600391822726301</v>
       </c>
       <c r="J337">
         <f t="shared" si="29"/>
-        <v>8.9461652899781097</v>
+        <v>11.506631660478083</v>
       </c>
       <c r="K337" s="8">
         <f t="shared" si="30"/>
-        <v>0.60905510019785247</v>
+        <v>0.58706130798550415</v>
       </c>
       <c r="L337" t="s">
         <v>847</v>
@@ -21192,17 +21393,20 @@
       <c r="E338">
         <v>15.74758015144714</v>
       </c>
+      <c r="F338">
+        <v>35.341539352408837</v>
+      </c>
       <c r="I338" s="14">
         <f t="shared" si="28"/>
-        <v>26.577754073925636</v>
+        <v>28.768700393546439</v>
       </c>
       <c r="J338">
         <f t="shared" si="29"/>
-        <v>8.2542236203826853</v>
+        <v>8.0932004181190518</v>
       </c>
       <c r="K338" s="8">
         <f t="shared" si="30"/>
-        <v>0.31056889146553479</v>
+        <v>0.28131963930962156</v>
       </c>
       <c r="L338" t="s">
         <v>847</v>
@@ -21236,17 +21440,20 @@
       <c r="E339">
         <v>15.475533739345041</v>
       </c>
+      <c r="F339">
+        <v>15.991758025073651</v>
+      </c>
       <c r="I339" s="14">
         <f t="shared" si="28"/>
-        <v>15.737554611028983</v>
+        <v>15.80110546454015</v>
       </c>
       <c r="J339">
         <f t="shared" si="29"/>
-        <v>4.1061843150201129</v>
+        <v>3.5577631110901553</v>
       </c>
       <c r="K339" s="8">
         <f t="shared" si="30"/>
-        <v>0.26091628696509633</v>
+        <v>0.22515912694047036</v>
       </c>
       <c r="L339" t="s">
         <v>847</v>
@@ -21280,17 +21487,20 @@
       <c r="E340">
         <v>15.97840801613591</v>
       </c>
+      <c r="F340">
+        <v>15.066307756774091</v>
+      </c>
       <c r="I340" s="14">
         <f t="shared" si="28"/>
-        <v>20.175462820016289</v>
+        <v>18.898174054205739</v>
       </c>
       <c r="J340">
         <f t="shared" si="29"/>
-        <v>3.3515333799963205</v>
+        <v>3.6495180190978278</v>
       </c>
       <c r="K340" s="8">
         <f t="shared" si="30"/>
-        <v>0.16611928112356505</v>
+        <v>0.19311484848376856</v>
       </c>
       <c r="L340" t="s">
         <v>847</v>
@@ -21324,17 +21534,20 @@
       <c r="E341">
         <v>21.33025345838281</v>
       </c>
+      <c r="F341">
+        <v>37.339752398011179</v>
+      </c>
       <c r="I341" s="14">
         <f t="shared" si="28"/>
-        <v>25.104875707926812</v>
+        <v>28.163594880447903</v>
       </c>
       <c r="J341">
         <f t="shared" si="29"/>
-        <v>6.7172835924718166</v>
+        <v>7.868209013194349</v>
       </c>
       <c r="K341" s="8">
         <f t="shared" si="30"/>
-        <v>0.26756888465099427</v>
+        <v>0.27937516665021761</v>
       </c>
       <c r="L341" t="s">
         <v>847</v>
@@ -21368,17 +21581,20 @@
       <c r="E342">
         <v>33.777893003108566</v>
       </c>
+      <c r="F342">
+        <v>41.051381499986931</v>
+      </c>
       <c r="I342" s="14">
         <f t="shared" si="28"/>
-        <v>33.301129052193943</v>
+        <v>35.238692164142194</v>
       </c>
       <c r="J342">
         <f t="shared" si="29"/>
-        <v>5.1285805289193833</v>
+        <v>5.5667949593599886</v>
       </c>
       <c r="K342" s="8">
         <f t="shared" si="30"/>
-        <v>0.15400620564189257</v>
+        <v>0.15797393766572834</v>
       </c>
       <c r="L342" t="s">
         <v>847</v>
@@ -21412,17 +21628,20 @@
       <c r="E343">
         <v>50.996543881919187</v>
       </c>
+      <c r="F343">
+        <v>59.908813495018087</v>
+      </c>
       <c r="I343" s="14">
         <f t="shared" si="28"/>
-        <v>47.399077312639008</v>
+        <v>50.526511358233776</v>
       </c>
       <c r="J343">
         <f t="shared" si="29"/>
-        <v>3.9690899953972698</v>
+        <v>6.4154335529492998</v>
       </c>
       <c r="K343" s="8">
         <f t="shared" si="30"/>
-        <v>8.3737705888610375E-2</v>
+        <v>0.12697163094170055</v>
       </c>
       <c r="L343" t="s">
         <v>847</v>
@@ -21456,17 +21675,20 @@
       <c r="E344">
         <v>44.868301593892063</v>
       </c>
+      <c r="F344">
+        <v>54.955635649626338</v>
+      </c>
       <c r="I344" s="14">
         <f t="shared" si="28"/>
-        <v>48.04431048239843</v>
+        <v>49.772141774205409</v>
       </c>
       <c r="J344">
         <f t="shared" si="29"/>
-        <v>6.290615568883875</v>
+        <v>6.2157128388829932</v>
       </c>
       <c r="K344" s="8">
         <f t="shared" si="30"/>
-        <v>0.1309336216030931</v>
+        <v>0.12488337084389461</v>
       </c>
       <c r="L344" t="s">
         <v>847</v>
@@ -21500,17 +21722,20 @@
       <c r="E345">
         <v>19.412400052400351</v>
       </c>
+      <c r="F345">
+        <v>16.213307937128889</v>
+      </c>
       <c r="I345" s="14">
         <f t="shared" si="28"/>
-        <v>23.781035394800337</v>
+        <v>21.889103530382474</v>
       </c>
       <c r="J345">
         <f t="shared" si="29"/>
-        <v>4.0192612113411261</v>
+        <v>4.780592437401709</v>
       </c>
       <c r="K345" s="8">
         <f t="shared" si="30"/>
-        <v>0.16901119503904893</v>
+        <v>0.21840055855947502</v>
       </c>
       <c r="L345" t="s">
         <v>847</v>
@@ -21544,17 +21769,20 @@
       <c r="E346">
         <v>18.654898623864032</v>
       </c>
+      <c r="F346">
+        <v>16.878535047358341</v>
+      </c>
       <c r="I346" s="14">
         <f t="shared" si="28"/>
-        <v>18.92676533601843</v>
+        <v>18.414707763853407</v>
       </c>
       <c r="J346">
         <f t="shared" si="29"/>
-        <v>5.749017989312132</v>
+        <v>5.0571745819884883</v>
       </c>
       <c r="K346" s="8">
         <f t="shared" si="30"/>
-        <v>0.30375068783525883</v>
+        <v>0.27462692576177156</v>
       </c>
       <c r="L346" t="s">
         <v>847</v>
@@ -21588,17 +21816,20 @@
       <c r="E347">
         <v>34.273200751473247</v>
       </c>
+      <c r="F347">
+        <v>23.087856587034949</v>
+      </c>
       <c r="I347" s="14">
         <f t="shared" si="28"/>
-        <v>28.152732276566002</v>
+        <v>26.88651335418324</v>
       </c>
       <c r="J347">
         <f t="shared" si="29"/>
-        <v>8.0592373192206193</v>
+        <v>7.3159695669022025</v>
       </c>
       <c r="K347" s="8">
         <f t="shared" si="30"/>
-        <v>0.28626838915841329</v>
+        <v>0.27210555234615125</v>
       </c>
       <c r="L347" t="s">
         <v>847</v>
@@ -21632,17 +21863,20 @@
       <c r="E348">
         <v>36.541310433870223</v>
       </c>
+      <c r="F348">
+        <v>28.96326294484966</v>
+      </c>
       <c r="I348" s="14">
         <f t="shared" si="28"/>
-        <v>39.844258923017371</v>
+        <v>37.124009928475445</v>
       </c>
       <c r="J348">
         <f t="shared" si="29"/>
-        <v>3.1533653868258291</v>
+        <v>5.445828561756457</v>
       </c>
       <c r="K348" s="8">
         <f t="shared" si="30"/>
-        <v>7.9142277258021282E-2</v>
+        <v>0.14669289692165802</v>
       </c>
       <c r="L348" t="s">
         <v>847</v>
@@ -21676,17 +21910,20 @@
       <c r="E349">
         <v>19.689662273439929</v>
       </c>
+      <c r="F349">
+        <v>10.355626276117951</v>
+      </c>
       <c r="I349" s="14">
         <f t="shared" si="28"/>
-        <v>20.802072667980404</v>
+        <v>18.190461070014791</v>
       </c>
       <c r="J349">
         <f t="shared" si="29"/>
-        <v>2.3025948667648088</v>
+        <v>4.9434808340100105</v>
       </c>
       <c r="K349" s="8">
         <f t="shared" si="30"/>
-        <v>0.11069064624070267</v>
+        <v>0.27176226127433672</v>
       </c>
       <c r="L349" t="s">
         <v>847</v>
@@ -21720,17 +21957,20 @@
       <c r="E350">
         <v>11.842480018876969</v>
       </c>
+      <c r="F350">
+        <v>15.52656798360014</v>
+      </c>
       <c r="I350" s="14">
         <f t="shared" si="28"/>
-        <v>22.622187702086318</v>
+        <v>20.848282772464774</v>
       </c>
       <c r="J350">
         <f t="shared" si="29"/>
-        <v>7.8269974584280133</v>
+        <v>7.4422196291621097</v>
       </c>
       <c r="K350" s="8">
         <f t="shared" si="30"/>
-        <v>0.34598764547012278</v>
+        <v>0.35697038985826546</v>
       </c>
       <c r="L350" t="s">
         <v>847</v>
@@ -21764,17 +22004,20 @@
       <c r="E351">
         <v>33.805972872339048</v>
       </c>
+      <c r="F351">
+        <v>37.437905613859179</v>
+      </c>
       <c r="I351" s="14">
         <f t="shared" si="28"/>
-        <v>31.486631963587126</v>
+        <v>32.97445037615514</v>
       </c>
       <c r="J351">
         <f t="shared" si="29"/>
-        <v>2.7819372260495365</v>
+        <v>3.5277743597896838</v>
       </c>
       <c r="K351" s="8">
         <f t="shared" si="30"/>
-        <v>8.8352962910314511E-2</v>
+        <v>0.10698508449865561</v>
       </c>
       <c r="L351" t="s">
         <v>847</v>
@@ -21808,17 +22051,20 @@
       <c r="E352">
         <v>28.448832780609401</v>
       </c>
+      <c r="F352">
+        <v>22.177426705704409</v>
+      </c>
       <c r="I352" s="14">
         <f t="shared" si="28"/>
-        <v>24.503889960733556</v>
+        <v>23.922274146976267</v>
       </c>
       <c r="J352">
         <f t="shared" si="29"/>
-        <v>8.1363229440182678</v>
+        <v>7.1179100971743301</v>
       </c>
       <c r="K352" s="8">
         <f t="shared" si="30"/>
-        <v>0.33204209442077892</v>
+        <v>0.29754320402159679</v>
       </c>
       <c r="L352" t="s">
         <v>847</v>
@@ -21852,17 +22098,20 @@
       <c r="E353">
         <v>23.875062735151779</v>
       </c>
+      <c r="F353">
+        <v>28.065890675003839</v>
+      </c>
       <c r="I353" s="14">
         <f t="shared" si="28"/>
-        <v>21.793507252373463</v>
+        <v>23.361603108031058</v>
       </c>
       <c r="J353">
         <f t="shared" si="29"/>
-        <v>6.6838028702022356</v>
+        <v>6.3938790607411535</v>
       </c>
       <c r="K353" s="8">
         <f t="shared" si="30"/>
-        <v>0.30668780351883579</v>
+        <v>0.27369179380258879</v>
       </c>
       <c r="L353" t="s">
         <v>847</v>
@@ -21896,17 +22145,20 @@
       <c r="E354">
         <v>31.197961606782279</v>
       </c>
+      <c r="F354">
+        <v>46.206009721908941</v>
+      </c>
       <c r="I354" s="14">
         <f t="shared" si="28"/>
-        <v>34.718684562190248</v>
+        <v>37.590515852119921</v>
       </c>
       <c r="J354">
         <f t="shared" si="29"/>
-        <v>3.0689959856900613</v>
+        <v>5.6397071859799057</v>
       </c>
       <c r="K354" s="8">
         <f t="shared" si="30"/>
-        <v>8.8396090588993559E-2</v>
+        <v>0.15003005567059421</v>
       </c>
       <c r="L354" t="s">
         <v>847</v>
@@ -21940,17 +22192,20 @@
       <c r="E355">
         <v>55.759891262719847</v>
       </c>
+      <c r="F355">
+        <v>68.983092258026645</v>
+      </c>
       <c r="I355" s="14">
         <f t="shared" si="28"/>
-        <v>59.260164485890471</v>
+        <v>61.690896428924518</v>
       </c>
       <c r="J355">
         <f t="shared" si="29"/>
-        <v>6.8982490304486559</v>
+        <v>7.3085397379518833</v>
       </c>
       <c r="K355" s="8">
         <f t="shared" si="30"/>
-        <v>0.11640617420309544</v>
+        <v>0.1184703118453177</v>
       </c>
       <c r="L355" t="s">
         <v>847</v>
@@ -21984,17 +22239,20 @@
       <c r="E356">
         <v>43.930156242789472</v>
       </c>
+      <c r="F356">
+        <v>54.511250183058699</v>
+      </c>
       <c r="I356" s="14">
         <f t="shared" si="28"/>
-        <v>42.972961004857574</v>
+        <v>45.857533299407855</v>
       </c>
       <c r="J356">
         <f t="shared" si="29"/>
-        <v>4.9653701230556013</v>
+        <v>6.5919228842319919</v>
       </c>
       <c r="K356" s="8">
         <f t="shared" si="30"/>
-        <v>0.11554638095555776</v>
+        <v>0.14374787324893273</v>
       </c>
       <c r="L356" t="s">
         <v>847</v>
@@ -22028,17 +22286,20 @@
       <c r="E357">
         <v>70.661567934323472</v>
       </c>
+      <c r="F357">
+        <v>89.886536340641243</v>
+      </c>
       <c r="I357" s="14">
         <f t="shared" si="28"/>
-        <v>68.611297394991041</v>
+        <v>73.930107131403588</v>
       </c>
       <c r="J357">
         <f t="shared" si="29"/>
-        <v>6.0735892138391971</v>
+        <v>10.608278629934279</v>
       </c>
       <c r="K357" s="8">
         <f t="shared" si="30"/>
-        <v>8.8521707713438438E-2</v>
+        <v>0.14349064327851024</v>
       </c>
       <c r="L357" t="s">
         <v>847</v>
@@ -22072,17 +22333,20 @@
       <c r="E358">
         <v>39.110768382489589</v>
       </c>
+      <c r="F358">
+        <v>48.582384912766017</v>
+      </c>
       <c r="I358" s="14">
         <f t="shared" si="28"/>
-        <v>41.42578929771765</v>
+        <v>43.21493820147974</v>
       </c>
       <c r="J358">
         <f t="shared" si="29"/>
-        <v>3.0132073345238526</v>
+        <v>4.0512621774109538</v>
       </c>
       <c r="K358" s="8">
         <f t="shared" si="30"/>
-        <v>7.2737475509968494E-2</v>
+        <v>9.3746800204199593E-2</v>
       </c>
       <c r="L358" t="s">
         <v>847</v>
@@ -22116,17 +22380,20 @@
       <c r="E359">
         <v>50.353316446892308</v>
       </c>
+      <c r="F359">
+        <v>62.486154121198417</v>
+      </c>
       <c r="I359" s="14">
         <f t="shared" si="28"/>
-        <v>50.384877851072737</v>
+        <v>53.410196918604157</v>
       </c>
       <c r="J359">
         <f t="shared" si="29"/>
-        <v>8.2584835202082481</v>
+        <v>8.8662043130795762</v>
       </c>
       <c r="K359" s="8">
         <f t="shared" si="30"/>
-        <v>0.16390797938656546</v>
+        <v>0.16600208994906826</v>
       </c>
       <c r="L359" t="s">
         <v>847</v>
@@ -22160,17 +22427,20 @@
       <c r="E360">
         <v>39.906405526312312</v>
       </c>
+      <c r="F360">
+        <v>21.184160551327121</v>
+      </c>
       <c r="I360" s="14">
         <f t="shared" si="28"/>
-        <v>38.984896766340775</v>
+        <v>34.534712712587364</v>
       </c>
       <c r="J360">
         <f t="shared" si="29"/>
-        <v>3.8130840679401192</v>
+        <v>8.3855305090809669</v>
       </c>
       <c r="K360" s="8">
         <f t="shared" si="30"/>
-        <v>9.7809264207986912E-2</v>
+        <v>0.24281454369894243</v>
       </c>
       <c r="L360" t="s">
         <v>847</v>
@@ -22204,17 +22474,20 @@
       <c r="E361">
         <v>73.733250937657246</v>
       </c>
+      <c r="F361">
+        <v>82.179403371862776</v>
+      </c>
       <c r="I361" s="14">
         <f t="shared" si="28"/>
-        <v>72.552051616998256</v>
+        <v>74.958889555714393</v>
       </c>
       <c r="J361">
         <f t="shared" si="29"/>
-        <v>6.5088789789398991</v>
+        <v>7.0109012089455547</v>
       </c>
       <c r="K361" s="8">
         <f t="shared" si="30"/>
-        <v>8.9713231175049646E-2</v>
+        <v>9.3529950223376651E-2</v>
       </c>
       <c r="L361" t="s">
         <v>21</v>
@@ -22248,17 +22521,20 @@
       <c r="E362">
         <v>71.563921200926572</v>
       </c>
+      <c r="F362">
+        <v>90.201779023215764</v>
+      </c>
       <c r="I362" s="14">
         <f t="shared" si="28"/>
-        <v>73.348009414606523</v>
+        <v>77.561451816758833</v>
       </c>
       <c r="J362">
         <f t="shared" si="29"/>
-        <v>9.6949947690725971</v>
+        <v>11.124476765584243</v>
       </c>
       <c r="K362" s="8">
         <f t="shared" si="30"/>
-        <v>0.13217802155026084</v>
+        <v>0.14342790787189158</v>
       </c>
       <c r="L362" t="s">
         <v>21</v>
@@ -22292,17 +22568,20 @@
       <c r="E363">
         <v>65.817343897764076</v>
       </c>
+      <c r="F363">
+        <v>84.824484261908083</v>
+      </c>
       <c r="I363" s="14">
         <f t="shared" si="28"/>
-        <v>70.623537710363678</v>
+        <v>74.173774348249779</v>
       </c>
       <c r="J363">
         <f t="shared" si="29"/>
-        <v>12.502800691739223</v>
+        <v>12.452010255696978</v>
       </c>
       <c r="K363" s="8">
         <f t="shared" si="30"/>
-        <v>0.17703447175097398</v>
+        <v>0.16787618487949843</v>
       </c>
       <c r="L363" t="s">
         <v>21</v>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangmengyan/cloudstor/git/SynbioML/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215DA13-B57C-4960-8B85-87D7FC3A0349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D489D64-DBBD-724F-A259-DA5EC7905A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="850">
   <si>
     <t>RBS</t>
   </si>
@@ -2593,17 +2593,14 @@
     <t>Notes: exchange Rep 7-9 with Rep 1-3 (2021/01/22)</t>
   </si>
   <si>
-    <t xml:space="preserve">1,2 </t>
-  </si>
-  <si>
-    <t>1,2</t>
+    <t>1,2,3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3081,28 +3078,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="G274" sqref="G274"/>
+    <sheetView tabSelected="1" topLeftCell="B331" workbookViewId="0">
+      <selection activeCell="N365" sqref="N365"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="1023" width="9.1796875" customWidth="1"/>
+    <col min="3" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="1023" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -3214,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3320,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -3373,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -3426,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -3479,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -3532,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -3635,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -3741,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3847,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -3900,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -3953,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -4112,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
@@ -4165,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -4271,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -4324,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -4377,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -4430,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -4589,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -4695,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -4748,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
@@ -4801,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>95</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>97</v>
       </c>
@@ -5066,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -5119,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
@@ -5172,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>103</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>105</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>107</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>109</v>
       </c>
@@ -5384,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>111</v>
       </c>
@@ -5437,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
@@ -5490,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>115</v>
       </c>
@@ -5543,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>117</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>119</v>
       </c>
@@ -5649,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>121</v>
       </c>
@@ -5702,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>123</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>125</v>
       </c>
@@ -5808,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -5861,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>129</v>
       </c>
@@ -5914,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -5967,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -6020,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>135</v>
       </c>
@@ -6073,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>137</v>
       </c>
@@ -6126,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>139</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>141</v>
       </c>
@@ -6232,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>143</v>
       </c>
@@ -6285,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -6338,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>149</v>
       </c>
@@ -6444,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>152</v>
       </c>
@@ -6497,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>154</v>
       </c>
@@ -6550,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>156</v>
       </c>
@@ -6603,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>158</v>
       </c>
@@ -6656,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>160</v>
       </c>
@@ -6709,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -6762,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>164</v>
       </c>
@@ -6815,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>166</v>
       </c>
@@ -6868,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>168</v>
       </c>
@@ -6921,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>170</v>
       </c>
@@ -6974,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>172</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>174</v>
       </c>
@@ -7080,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>176</v>
       </c>
@@ -7133,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>178</v>
       </c>
@@ -7186,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>180</v>
       </c>
@@ -7239,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
@@ -7292,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>184</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>186</v>
       </c>
@@ -7398,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>188</v>
       </c>
@@ -7451,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>190</v>
       </c>
@@ -7504,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>192</v>
       </c>
@@ -7557,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>194</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>196</v>
       </c>
@@ -7663,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>198</v>
       </c>
@@ -7716,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>200</v>
       </c>
@@ -7769,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>202</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>204</v>
       </c>
@@ -7875,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>206</v>
       </c>
@@ -7928,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>208</v>
       </c>
@@ -7981,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>212</v>
       </c>
@@ -8034,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>214</v>
       </c>
@@ -8087,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>216</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>218</v>
       </c>
@@ -8193,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>220</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>222</v>
       </c>
@@ -8299,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>224</v>
       </c>
@@ -8352,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>226</v>
       </c>
@@ -8405,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>228</v>
       </c>
@@ -8458,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>230</v>
       </c>
@@ -8511,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>232</v>
       </c>
@@ -8564,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>234</v>
       </c>
@@ -8617,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>236</v>
       </c>
@@ -8670,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>238</v>
       </c>
@@ -8723,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>240</v>
       </c>
@@ -8776,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>242</v>
       </c>
@@ -8829,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>244</v>
       </c>
@@ -8882,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>246</v>
       </c>
@@ -8935,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>248</v>
       </c>
@@ -8988,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>250</v>
       </c>
@@ -9041,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>252</v>
       </c>
@@ -9094,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>254</v>
       </c>
@@ -9147,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>256</v>
       </c>
@@ -9197,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>258</v>
       </c>
@@ -9250,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>260</v>
       </c>
@@ -9303,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>262</v>
       </c>
@@ -9356,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>264</v>
       </c>
@@ -9409,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>266</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>268</v>
       </c>
@@ -9515,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>270</v>
       </c>
@@ -9568,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>272</v>
       </c>
@@ -9621,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>274</v>
       </c>
@@ -9674,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>276</v>
       </c>
@@ -9727,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>278</v>
       </c>
@@ -9780,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>280</v>
       </c>
@@ -9833,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>282</v>
       </c>
@@ -9886,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>284</v>
       </c>
@@ -9939,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>286</v>
       </c>
@@ -9992,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>288</v>
       </c>
@@ -10045,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>290</v>
       </c>
@@ -10098,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>292</v>
       </c>
@@ -10151,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>294</v>
       </c>
@@ -10204,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>296</v>
       </c>
@@ -10257,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>298</v>
       </c>
@@ -10310,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>300</v>
       </c>
@@ -10363,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>302</v>
       </c>
@@ -10416,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>304</v>
       </c>
@@ -10469,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>306</v>
       </c>
@@ -10522,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>308</v>
       </c>
@@ -10575,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>310</v>
       </c>
@@ -10628,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>312</v>
       </c>
@@ -10681,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>314</v>
       </c>
@@ -10734,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>316</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>318</v>
       </c>
@@ -10840,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>320</v>
       </c>
@@ -10893,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>322</v>
       </c>
@@ -10946,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>324</v>
       </c>
@@ -10999,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>326</v>
       </c>
@@ -11052,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>328</v>
       </c>
@@ -11105,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>330</v>
       </c>
@@ -11158,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>333</v>
       </c>
@@ -11211,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>335</v>
       </c>
@@ -11264,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>337</v>
       </c>
@@ -11317,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>339</v>
       </c>
@@ -11370,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>341</v>
       </c>
@@ -11423,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>343</v>
       </c>
@@ -11476,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>345</v>
       </c>
@@ -11529,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>347</v>
       </c>
@@ -11582,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>349</v>
       </c>
@@ -11635,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>351</v>
       </c>
@@ -11688,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>353</v>
       </c>
@@ -11741,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>355</v>
       </c>
@@ -11794,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>357</v>
       </c>
@@ -11847,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>359</v>
       </c>
@@ -11900,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>361</v>
       </c>
@@ -11953,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>363</v>
       </c>
@@ -12006,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>365</v>
       </c>
@@ -12059,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>367</v>
       </c>
@@ -12112,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>369</v>
       </c>
@@ -12165,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>371</v>
       </c>
@@ -12218,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>373</v>
       </c>
@@ -12271,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>375</v>
       </c>
@@ -12324,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>377</v>
       </c>
@@ -12377,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>379</v>
       </c>
@@ -12430,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>381</v>
       </c>
@@ -12483,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>383</v>
       </c>
@@ -12536,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>385</v>
       </c>
@@ -12589,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>387</v>
       </c>
@@ -12654,7 +12651,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>391</v>
       </c>
@@ -12716,7 +12713,7 @@
         <v>20.685976047947001</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>393</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>21.0948992353858</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>395</v>
       </c>
@@ -12840,7 +12837,7 @@
         <v>18.020429279314001</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>397</v>
       </c>
@@ -12902,7 +12899,7 @@
         <v>14.4964226423445</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>399</v>
       </c>
@@ -12964,7 +12961,7 @@
         <v>17.0191806862905</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>401</v>
       </c>
@@ -13026,7 +13023,7 @@
         <v>16.533791976457799</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>403</v>
       </c>
@@ -13088,7 +13085,7 @@
         <v>18.918311846844901</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>405</v>
       </c>
@@ -13150,7 +13147,7 @@
         <v>16.930029799406</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>407</v>
       </c>
@@ -13212,7 +13209,7 @@
         <v>14.7840716392201</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -13274,7 +13271,7 @@
         <v>11.4167134836056</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>411</v>
       </c>
@@ -13336,7 +13333,7 @@
         <v>18.2900162352562</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>413</v>
       </c>
@@ -13398,7 +13395,7 @@
         <v>39.070851487100299</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>415</v>
       </c>
@@ -13460,7 +13457,7 @@
         <v>14.1562343568053</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>417</v>
       </c>
@@ -13522,7 +13519,7 @@
         <v>14.6108601942449</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>419</v>
       </c>
@@ -13584,7 +13581,7 @@
         <v>12.9029987343951</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>421</v>
       </c>
@@ -13646,7 +13643,7 @@
         <v>12.217054281911199</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>423</v>
       </c>
@@ -13708,7 +13705,7 @@
         <v>9.7547635311864802</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>425</v>
       </c>
@@ -13770,7 +13767,7 @@
         <v>9.7662016778029699</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>427</v>
       </c>
@@ -13832,7 +13829,7 @@
         <v>9.47317562094028</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>429</v>
       </c>
@@ -13894,7 +13891,7 @@
         <v>13.8454937666171</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>431</v>
       </c>
@@ -13956,7 +13953,7 @@
         <v>6.9870010209390898</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>433</v>
       </c>
@@ -14018,7 +14015,7 @@
         <v>9.6093377606178798</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>435</v>
       </c>
@@ -14080,7 +14077,7 @@
         <v>15.1149322351684</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>437</v>
       </c>
@@ -14142,7 +14139,7 @@
         <v>21.4025715783552</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>439</v>
       </c>
@@ -14204,7 +14201,7 @@
         <v>9.5606932410429994</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>441</v>
       </c>
@@ -14266,7 +14263,7 @@
         <v>20.8598775282119</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>443</v>
       </c>
@@ -14328,7 +14325,7 @@
         <v>8.5195151983481008</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>445</v>
       </c>
@@ -14390,7 +14387,7 @@
         <v>6.9307055508742703</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>447</v>
       </c>
@@ -14452,7 +14449,7 @@
         <v>7.539940975335</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>449</v>
       </c>
@@ -14514,7 +14511,7 @@
         <v>8.8864196454398297</v>
       </c>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>451</v>
       </c>
@@ -14576,7 +14573,7 @@
         <v>10.3183664978778</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>453</v>
       </c>
@@ -14638,7 +14635,7 @@
         <v>1.62455726620178</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>455</v>
       </c>
@@ -14700,7 +14697,7 @@
         <v>6.0228873246586403</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>457</v>
       </c>
@@ -14762,7 +14759,7 @@
         <v>3.8693800222713701</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>459</v>
       </c>
@@ -14824,7 +14821,7 @@
         <v>14.417127178706099</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>461</v>
       </c>
@@ -14886,7 +14883,7 @@
         <v>36.527916386746199</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>463</v>
       </c>
@@ -14948,7 +14945,7 @@
         <v>9.7509341179622009</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>465</v>
       </c>
@@ -15010,7 +15007,7 @@
         <v>10.2767455252883</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>467</v>
       </c>
@@ -15072,7 +15069,7 @@
         <v>11.6414116329218</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>469</v>
       </c>
@@ -15134,7 +15131,7 @@
         <v>8.6138670477354093</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>471</v>
       </c>
@@ -15196,7 +15193,7 @@
         <v>8.62498670863868</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>473</v>
       </c>
@@ -15258,7 +15255,7 @@
         <v>5.0711988414820404</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>475</v>
       </c>
@@ -15320,7 +15317,7 @@
         <v>5.7562213389269896</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>477</v>
       </c>
@@ -15382,7 +15379,7 @@
         <v>6.2831098081978096</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>479</v>
       </c>
@@ -15444,7 +15441,7 @@
         <v>8.7906484027711596</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>481</v>
       </c>
@@ -15506,7 +15503,7 @@
         <v>9.2798854146546201</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>483</v>
       </c>
@@ -15568,7 +15565,7 @@
         <v>14.9889620188946</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>485</v>
       </c>
@@ -15630,7 +15627,7 @@
         <v>20.550516294814699</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>487</v>
       </c>
@@ -15692,7 +15689,7 @@
         <v>7.4133908722962101</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>489</v>
       </c>
@@ -15754,7 +15751,7 @@
         <v>11.719856737196</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>491</v>
       </c>
@@ -15816,7 +15813,7 @@
         <v>5.5868695227171399</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>493</v>
       </c>
@@ -15878,7 +15875,7 @@
         <v>2.3876633122498201</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>495</v>
       </c>
@@ -15940,7 +15937,7 @@
         <v>18.7720085095436</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>497</v>
       </c>
@@ -16002,7 +15999,7 @@
         <v>5.4345051475567701</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>499</v>
       </c>
@@ -16064,7 +16061,7 @@
         <v>2.6721539586948899</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>501</v>
       </c>
@@ -16126,7 +16123,7 @@
         <v>4.4561981802670196</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>503</v>
       </c>
@@ -16188,7 +16185,7 @@
         <v>10.7224249680634</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>505</v>
       </c>
@@ -16250,7 +16247,7 @@
         <v>5.9608819316044501</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>507</v>
       </c>
@@ -16312,7 +16309,7 @@
         <v>18.554873543510901</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>509</v>
       </c>
@@ -16374,7 +16371,7 @@
         <v>20.995324558040998</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>511</v>
       </c>
@@ -16436,7 +16433,7 @@
         <v>14.948240355634001</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>513</v>
       </c>
@@ -16498,7 +16495,7 @@
         <v>7.2844914479493896</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>515</v>
       </c>
@@ -16560,7 +16557,7 @@
         <v>11.2313736724574</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>517</v>
       </c>
@@ -16622,7 +16619,7 @@
         <v>8.6453004892533603</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>519</v>
       </c>
@@ -16684,7 +16681,7 @@
         <v>7.7179572373801504</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>521</v>
       </c>
@@ -16746,7 +16743,7 @@
         <v>16.8943054374196</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>523</v>
       </c>
@@ -16808,7 +16805,7 @@
         <v>19.6064384381956</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>525</v>
       </c>
@@ -16870,7 +16867,7 @@
         <v>11.0403380572768</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>527</v>
       </c>
@@ -16932,7 +16929,7 @@
         <v>10.552226112320501</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>529</v>
       </c>
@@ -16991,7 +16988,7 @@
         <v>127.34375</v>
       </c>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>531</v>
       </c>
@@ -17053,7 +17050,7 @@
         <v>11.7477528828136</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>533</v>
       </c>
@@ -17115,7 +17112,7 @@
         <v>21.863791998038199</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>535</v>
       </c>
@@ -17177,7 +17174,7 @@
         <v>10.279685941739899</v>
       </c>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>537</v>
       </c>
@@ -17239,7 +17236,7 @@
         <v>9.9144267602328</v>
       </c>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>539</v>
       </c>
@@ -17301,7 +17298,7 @@
         <v>9.8045430444282395</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>541</v>
       </c>
@@ -17363,7 +17360,7 @@
         <v>8.3837410779460502</v>
       </c>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>543</v>
       </c>
@@ -17425,7 +17422,7 @@
         <v>44.352608938747203</v>
       </c>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>545</v>
       </c>
@@ -17487,7 +17484,7 @@
         <v>12.437009795865499</v>
       </c>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>547</v>
       </c>
@@ -17549,7 +17546,7 @@
         <v>11.905460914811901</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>549</v>
       </c>
@@ -17611,7 +17608,7 @@
         <v>15.409318555820599</v>
       </c>
     </row>
-    <row r="261" spans="1:19">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>551</v>
       </c>
@@ -17673,7 +17670,7 @@
         <v>12.3358385574775</v>
       </c>
     </row>
-    <row r="262" spans="1:19">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>553</v>
       </c>
@@ -17735,7 +17732,7 @@
         <v>16.232630021974899</v>
       </c>
     </row>
-    <row r="263" spans="1:19">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>555</v>
       </c>
@@ -17797,7 +17794,7 @@
         <v>17.318196360051999</v>
       </c>
     </row>
-    <row r="264" spans="1:19">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>557</v>
       </c>
@@ -17859,7 +17856,7 @@
         <v>23.310413209525102</v>
       </c>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>559</v>
       </c>
@@ -17918,7 +17915,7 @@
         <v>149.89795918367301</v>
       </c>
     </row>
-    <row r="266" spans="1:19">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>561</v>
       </c>
@@ -17980,7 +17977,7 @@
         <v>19.025742367750599</v>
       </c>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>563</v>
       </c>
@@ -18042,7 +18039,7 @@
         <v>29.059444761123299</v>
       </c>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>565</v>
       </c>
@@ -18104,7 +18101,7 @@
         <v>13.846183938615001</v>
       </c>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>567</v>
       </c>
@@ -18166,7 +18163,7 @@
         <v>18.383063047906901</v>
       </c>
     </row>
-    <row r="270" spans="1:19">
+    <row r="270" spans="1:19" ht="16" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>19</v>
       </c>
@@ -18228,7 +18225,7 @@
         <v>47.950148971120903</v>
       </c>
     </row>
-    <row r="271" spans="1:19">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="12" t="s">
         <v>757</v>
       </c>
@@ -18275,7 +18272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:19">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
         <v>758</v>
       </c>
@@ -18313,7 +18310,7 @@
         <v>22</v>
       </c>
       <c r="N272" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O272" t="s">
         <v>666</v>
@@ -18322,7 +18319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="12" t="s">
         <v>759</v>
       </c>
@@ -18360,7 +18357,7 @@
         <v>22</v>
       </c>
       <c r="N273" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O273" t="s">
         <v>666</v>
@@ -18369,7 +18366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="12" t="s">
         <v>760</v>
       </c>
@@ -18407,7 +18404,7 @@
         <v>22</v>
       </c>
       <c r="N274" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O274" t="s">
         <v>666</v>
@@ -18416,7 +18413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="12" t="s">
         <v>761</v>
       </c>
@@ -18454,7 +18451,7 @@
         <v>22</v>
       </c>
       <c r="N275" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O275" t="s">
         <v>666</v>
@@ -18463,7 +18460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="12" t="s">
         <v>762</v>
       </c>
@@ -18501,7 +18498,7 @@
         <v>22</v>
       </c>
       <c r="N276" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O276" t="s">
         <v>666</v>
@@ -18510,7 +18507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="12" t="s">
         <v>763</v>
       </c>
@@ -18548,7 +18545,7 @@
         <v>22</v>
       </c>
       <c r="N277" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O277" t="s">
         <v>666</v>
@@ -18557,7 +18554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="12" t="s">
         <v>764</v>
       </c>
@@ -18595,7 +18592,7 @@
         <v>22</v>
       </c>
       <c r="N278" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O278" t="s">
         <v>666</v>
@@ -18604,7 +18601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
         <v>765</v>
       </c>
@@ -18642,7 +18639,7 @@
         <v>22</v>
       </c>
       <c r="N279" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O279" t="s">
         <v>666</v>
@@ -18651,7 +18648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
         <v>766</v>
       </c>
@@ -18689,7 +18686,7 @@
         <v>22</v>
       </c>
       <c r="N280" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O280" t="s">
         <v>666</v>
@@ -18698,7 +18695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="12" t="s">
         <v>767</v>
       </c>
@@ -18736,7 +18733,7 @@
         <v>22</v>
       </c>
       <c r="N281" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O281" t="s">
         <v>666</v>
@@ -18745,7 +18742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
         <v>768</v>
       </c>
@@ -18783,7 +18780,7 @@
         <v>22</v>
       </c>
       <c r="N282" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O282" t="s">
         <v>666</v>
@@ -18792,7 +18789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="12" t="s">
         <v>769</v>
       </c>
@@ -18830,7 +18827,7 @@
         <v>22</v>
       </c>
       <c r="N283" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O283" t="s">
         <v>666</v>
@@ -18839,7 +18836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="12" t="s">
         <v>770</v>
       </c>
@@ -18877,7 +18874,7 @@
         <v>22</v>
       </c>
       <c r="N284" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O284" t="s">
         <v>666</v>
@@ -18886,7 +18883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
         <v>771</v>
       </c>
@@ -18924,7 +18921,7 @@
         <v>22</v>
       </c>
       <c r="N285" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O285" t="s">
         <v>666</v>
@@ -18933,7 +18930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="12" t="s">
         <v>772</v>
       </c>
@@ -18971,7 +18968,7 @@
         <v>22</v>
       </c>
       <c r="N286" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O286" t="s">
         <v>666</v>
@@ -18980,7 +18977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
         <v>773</v>
       </c>
@@ -19018,7 +19015,7 @@
         <v>22</v>
       </c>
       <c r="N287" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O287" t="s">
         <v>666</v>
@@ -19027,7 +19024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="12" t="s">
         <v>774</v>
       </c>
@@ -19065,7 +19062,7 @@
         <v>22</v>
       </c>
       <c r="N288" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O288" t="s">
         <v>666</v>
@@ -19074,7 +19071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="12" t="s">
         <v>775</v>
       </c>
@@ -19112,7 +19109,7 @@
         <v>22</v>
       </c>
       <c r="N289" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O289" t="s">
         <v>666</v>
@@ -19121,7 +19118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="12" t="s">
         <v>776</v>
       </c>
@@ -19159,7 +19156,7 @@
         <v>22</v>
       </c>
       <c r="N290" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O290" t="s">
         <v>666</v>
@@ -19168,7 +19165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="12" t="s">
         <v>777</v>
       </c>
@@ -19206,7 +19203,7 @@
         <v>22</v>
       </c>
       <c r="N291" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O291" t="s">
         <v>666</v>
@@ -19215,7 +19212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="12" t="s">
         <v>778</v>
       </c>
@@ -19253,7 +19250,7 @@
         <v>22</v>
       </c>
       <c r="N292" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O292" t="s">
         <v>666</v>
@@ -19262,7 +19259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
         <v>779</v>
       </c>
@@ -19300,7 +19297,7 @@
         <v>22</v>
       </c>
       <c r="N293" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O293" t="s">
         <v>666</v>
@@ -19309,7 +19306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="12" t="s">
         <v>780</v>
       </c>
@@ -19347,7 +19344,7 @@
         <v>22</v>
       </c>
       <c r="N294" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O294" t="s">
         <v>666</v>
@@ -19356,7 +19353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
         <v>781</v>
       </c>
@@ -19394,7 +19391,7 @@
         <v>22</v>
       </c>
       <c r="N295" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O295" t="s">
         <v>666</v>
@@ -19403,7 +19400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="s">
         <v>782</v>
       </c>
@@ -19441,7 +19438,7 @@
         <v>22</v>
       </c>
       <c r="N296" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O296" t="s">
         <v>666</v>
@@ -19450,7 +19447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="12" t="s">
         <v>783</v>
       </c>
@@ -19488,7 +19485,7 @@
         <v>22</v>
       </c>
       <c r="N297" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O297" t="s">
         <v>666</v>
@@ -19497,7 +19494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="12" t="s">
         <v>784</v>
       </c>
@@ -19535,7 +19532,7 @@
         <v>22</v>
       </c>
       <c r="N298" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O298" t="s">
         <v>666</v>
@@ -19544,7 +19541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="12" t="s">
         <v>785</v>
       </c>
@@ -19582,7 +19579,7 @@
         <v>22</v>
       </c>
       <c r="N299" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O299" t="s">
         <v>666</v>
@@ -19591,7 +19588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="12" t="s">
         <v>786</v>
       </c>
@@ -19629,7 +19626,7 @@
         <v>22</v>
       </c>
       <c r="N300" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O300" t="s">
         <v>666</v>
@@ -19638,7 +19635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="12" t="s">
         <v>787</v>
       </c>
@@ -19676,7 +19673,7 @@
         <v>22</v>
       </c>
       <c r="N301" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O301" t="s">
         <v>666</v>
@@ -19685,7 +19682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="12" t="s">
         <v>788</v>
       </c>
@@ -19723,7 +19720,7 @@
         <v>22</v>
       </c>
       <c r="N302" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O302" t="s">
         <v>666</v>
@@ -19732,7 +19729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="12" t="s">
         <v>789</v>
       </c>
@@ -19770,7 +19767,7 @@
         <v>22</v>
       </c>
       <c r="N303" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O303" t="s">
         <v>666</v>
@@ -19779,7 +19776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="12" t="s">
         <v>790</v>
       </c>
@@ -19817,7 +19814,7 @@
         <v>22</v>
       </c>
       <c r="N304" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O304" t="s">
         <v>666</v>
@@ -19826,7 +19823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="12" t="s">
         <v>791</v>
       </c>
@@ -19864,7 +19861,7 @@
         <v>22</v>
       </c>
       <c r="N305" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O305" t="s">
         <v>666</v>
@@ -19873,7 +19870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="12" t="s">
         <v>792</v>
       </c>
@@ -19911,7 +19908,7 @@
         <v>22</v>
       </c>
       <c r="N306" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O306" t="s">
         <v>666</v>
@@ -19920,7 +19917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="12" t="s">
         <v>793</v>
       </c>
@@ -19958,7 +19955,7 @@
         <v>22</v>
       </c>
       <c r="N307" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O307" t="s">
         <v>666</v>
@@ -19967,7 +19964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="12" t="s">
         <v>794</v>
       </c>
@@ -20005,7 +20002,7 @@
         <v>22</v>
       </c>
       <c r="N308" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O308" t="s">
         <v>666</v>
@@ -20014,7 +20011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="12" t="s">
         <v>795</v>
       </c>
@@ -20052,7 +20049,7 @@
         <v>22</v>
       </c>
       <c r="N309" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O309" t="s">
         <v>666</v>
@@ -20061,7 +20058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="12" t="s">
         <v>796</v>
       </c>
@@ -20099,7 +20096,7 @@
         <v>22</v>
       </c>
       <c r="N310" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O310" t="s">
         <v>666</v>
@@ -20108,7 +20105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="12" t="s">
         <v>797</v>
       </c>
@@ -20146,7 +20143,7 @@
         <v>22</v>
       </c>
       <c r="N311" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O311" t="s">
         <v>666</v>
@@ -20155,7 +20152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="12" t="s">
         <v>798</v>
       </c>
@@ -20193,7 +20190,7 @@
         <v>22</v>
       </c>
       <c r="N312" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O312" t="s">
         <v>666</v>
@@ -20202,7 +20199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="12" t="s">
         <v>799</v>
       </c>
@@ -20240,7 +20237,7 @@
         <v>22</v>
       </c>
       <c r="N313" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O313" t="s">
         <v>666</v>
@@ -20249,7 +20246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="12" t="s">
         <v>800</v>
       </c>
@@ -20287,7 +20284,7 @@
         <v>22</v>
       </c>
       <c r="N314" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O314" t="s">
         <v>666</v>
@@ -20296,7 +20293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="12" t="s">
         <v>801</v>
       </c>
@@ -20334,7 +20331,7 @@
         <v>22</v>
       </c>
       <c r="N315" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O315" t="s">
         <v>666</v>
@@ -20343,7 +20340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="12" t="s">
         <v>802</v>
       </c>
@@ -20381,7 +20378,7 @@
         <v>22</v>
       </c>
       <c r="N316" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O316" t="s">
         <v>666</v>
@@ -20390,7 +20387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="12" t="s">
         <v>803</v>
       </c>
@@ -20428,7 +20425,7 @@
         <v>22</v>
       </c>
       <c r="N317" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O317" t="s">
         <v>666</v>
@@ -20437,7 +20434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
         <v>804</v>
       </c>
@@ -20475,7 +20472,7 @@
         <v>22</v>
       </c>
       <c r="N318" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O318" t="s">
         <v>666</v>
@@ -20484,7 +20481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
         <v>805</v>
       </c>
@@ -20522,7 +20519,7 @@
         <v>22</v>
       </c>
       <c r="N319" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O319" t="s">
         <v>666</v>
@@ -20531,7 +20528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="12" t="s">
         <v>806</v>
       </c>
@@ -20569,7 +20566,7 @@
         <v>22</v>
       </c>
       <c r="N320" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O320" t="s">
         <v>666</v>
@@ -20578,7 +20575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
         <v>807</v>
       </c>
@@ -20616,7 +20613,7 @@
         <v>22</v>
       </c>
       <c r="N321" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O321" t="s">
         <v>666</v>
@@ -20625,7 +20622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="12" t="s">
         <v>808</v>
       </c>
@@ -20663,7 +20660,7 @@
         <v>22</v>
       </c>
       <c r="N322" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O322" t="s">
         <v>666</v>
@@ -20672,7 +20669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="12" t="s">
         <v>809</v>
       </c>
@@ -20710,7 +20707,7 @@
         <v>22</v>
       </c>
       <c r="N323" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O323" t="s">
         <v>666</v>
@@ -20719,7 +20716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="12" t="s">
         <v>810</v>
       </c>
@@ -20757,7 +20754,7 @@
         <v>22</v>
       </c>
       <c r="N324" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O324" t="s">
         <v>666</v>
@@ -20766,7 +20763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="12" t="s">
         <v>811</v>
       </c>
@@ -20804,7 +20801,7 @@
         <v>22</v>
       </c>
       <c r="N325" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O325" t="s">
         <v>666</v>
@@ -20813,7 +20810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="12" t="s">
         <v>812</v>
       </c>
@@ -20851,7 +20848,7 @@
         <v>22</v>
       </c>
       <c r="N326" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O326" t="s">
         <v>666</v>
@@ -20860,7 +20857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="12" t="s">
         <v>813</v>
       </c>
@@ -20898,7 +20895,7 @@
         <v>22</v>
       </c>
       <c r="N327" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O327" t="s">
         <v>666</v>
@@ -20907,7 +20904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="12" t="s">
         <v>814</v>
       </c>
@@ -20945,7 +20942,7 @@
         <v>22</v>
       </c>
       <c r="N328" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O328" t="s">
         <v>666</v>
@@ -20954,7 +20951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="12" t="s">
         <v>815</v>
       </c>
@@ -20992,7 +20989,7 @@
         <v>22</v>
       </c>
       <c r="N329" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O329" t="s">
         <v>666</v>
@@ -21001,7 +20998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="12" t="s">
         <v>816</v>
       </c>
@@ -21039,7 +21036,7 @@
         <v>22</v>
       </c>
       <c r="N330" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O330" t="s">
         <v>666</v>
@@ -21048,7 +21045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="12" t="s">
         <v>817</v>
       </c>
@@ -21086,7 +21083,7 @@
         <v>22</v>
       </c>
       <c r="N331" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O331" t="s">
         <v>666</v>
@@ -21095,7 +21092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="12" t="s">
         <v>818</v>
       </c>
@@ -21133,7 +21130,7 @@
         <v>22</v>
       </c>
       <c r="N332" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O332" t="s">
         <v>666</v>
@@ -21142,7 +21139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="12" t="s">
         <v>819</v>
       </c>
@@ -21180,7 +21177,7 @@
         <v>22</v>
       </c>
       <c r="N333" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O333" t="s">
         <v>666</v>
@@ -21189,7 +21186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="12" t="s">
         <v>820</v>
       </c>
@@ -21227,7 +21224,7 @@
         <v>22</v>
       </c>
       <c r="N334" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O334" t="s">
         <v>666</v>
@@ -21236,7 +21233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="12" t="s">
         <v>821</v>
       </c>
@@ -21274,7 +21271,7 @@
         <v>22</v>
       </c>
       <c r="N335" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O335" t="s">
         <v>666</v>
@@ -21283,7 +21280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="12" t="s">
         <v>822</v>
       </c>
@@ -21321,7 +21318,7 @@
         <v>22</v>
       </c>
       <c r="N336" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O336" t="s">
         <v>666</v>
@@ -21330,7 +21327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="12" t="s">
         <v>823</v>
       </c>
@@ -21368,7 +21365,7 @@
         <v>22</v>
       </c>
       <c r="N337" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O337" t="s">
         <v>666</v>
@@ -21377,7 +21374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="12" t="s">
         <v>824</v>
       </c>
@@ -21415,7 +21412,7 @@
         <v>22</v>
       </c>
       <c r="N338" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O338" t="s">
         <v>666</v>
@@ -21424,7 +21421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="12" t="s">
         <v>825</v>
       </c>
@@ -21462,7 +21459,7 @@
         <v>22</v>
       </c>
       <c r="N339" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O339" t="s">
         <v>666</v>
@@ -21471,7 +21468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="12" t="s">
         <v>826</v>
       </c>
@@ -21509,7 +21506,7 @@
         <v>22</v>
       </c>
       <c r="N340" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O340" t="s">
         <v>666</v>
@@ -21518,7 +21515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="12" t="s">
         <v>827</v>
       </c>
@@ -21556,7 +21553,7 @@
         <v>22</v>
       </c>
       <c r="N341" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O341" t="s">
         <v>666</v>
@@ -21565,7 +21562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="12" t="s">
         <v>828</v>
       </c>
@@ -21603,7 +21600,7 @@
         <v>22</v>
       </c>
       <c r="N342" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O342" t="s">
         <v>666</v>
@@ -21612,7 +21609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="12" t="s">
         <v>829</v>
       </c>
@@ -21650,7 +21647,7 @@
         <v>22</v>
       </c>
       <c r="N343" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O343" t="s">
         <v>666</v>
@@ -21659,7 +21656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="12" t="s">
         <v>830</v>
       </c>
@@ -21697,7 +21694,7 @@
         <v>22</v>
       </c>
       <c r="N344" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O344" t="s">
         <v>666</v>
@@ -21706,7 +21703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="12" t="s">
         <v>831</v>
       </c>
@@ -21744,7 +21741,7 @@
         <v>22</v>
       </c>
       <c r="N345" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O345" t="s">
         <v>666</v>
@@ -21753,7 +21750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="12" t="s">
         <v>832</v>
       </c>
@@ -21791,7 +21788,7 @@
         <v>22</v>
       </c>
       <c r="N346" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O346" t="s">
         <v>666</v>
@@ -21800,7 +21797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="12" t="s">
         <v>833</v>
       </c>
@@ -21838,7 +21835,7 @@
         <v>22</v>
       </c>
       <c r="N347" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O347" t="s">
         <v>666</v>
@@ -21847,7 +21844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="12" t="s">
         <v>834</v>
       </c>
@@ -21885,7 +21882,7 @@
         <v>22</v>
       </c>
       <c r="N348" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O348" t="s">
         <v>666</v>
@@ -21894,7 +21891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="12" t="s">
         <v>835</v>
       </c>
@@ -21932,7 +21929,7 @@
         <v>22</v>
       </c>
       <c r="N349" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O349" t="s">
         <v>666</v>
@@ -21941,7 +21938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="12" t="s">
         <v>836</v>
       </c>
@@ -21979,7 +21976,7 @@
         <v>22</v>
       </c>
       <c r="N350" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O350" t="s">
         <v>666</v>
@@ -21988,7 +21985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="12" t="s">
         <v>837</v>
       </c>
@@ -22026,7 +22023,7 @@
         <v>22</v>
       </c>
       <c r="N351" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O351" t="s">
         <v>666</v>
@@ -22035,7 +22032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="12" t="s">
         <v>838</v>
       </c>
@@ -22073,7 +22070,7 @@
         <v>22</v>
       </c>
       <c r="N352" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O352" t="s">
         <v>666</v>
@@ -22082,7 +22079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="12" t="s">
         <v>839</v>
       </c>
@@ -22120,7 +22117,7 @@
         <v>22</v>
       </c>
       <c r="N353" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O353" t="s">
         <v>666</v>
@@ -22129,7 +22126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="12" t="s">
         <v>840</v>
       </c>
@@ -22167,7 +22164,7 @@
         <v>22</v>
       </c>
       <c r="N354" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O354" t="s">
         <v>666</v>
@@ -22176,7 +22173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="12" t="s">
         <v>841</v>
       </c>
@@ -22214,7 +22211,7 @@
         <v>22</v>
       </c>
       <c r="N355" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O355" t="s">
         <v>666</v>
@@ -22223,7 +22220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="12" t="s">
         <v>842</v>
       </c>
@@ -22261,7 +22258,7 @@
         <v>22</v>
       </c>
       <c r="N356" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O356" t="s">
         <v>666</v>
@@ -22270,7 +22267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="12" t="s">
         <v>843</v>
       </c>
@@ -22308,7 +22305,7 @@
         <v>22</v>
       </c>
       <c r="N357" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O357" t="s">
         <v>666</v>
@@ -22317,7 +22314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="12" t="s">
         <v>844</v>
       </c>
@@ -22355,7 +22352,7 @@
         <v>22</v>
       </c>
       <c r="N358" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O358" t="s">
         <v>666</v>
@@ -22364,7 +22361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="12" t="s">
         <v>845</v>
       </c>
@@ -22402,7 +22399,7 @@
         <v>22</v>
       </c>
       <c r="N359" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O359" t="s">
         <v>666</v>
@@ -22411,7 +22408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="12" t="s">
         <v>846</v>
       </c>
@@ -22449,7 +22446,7 @@
         <v>22</v>
       </c>
       <c r="N360" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O360" t="s">
         <v>666</v>
@@ -22458,7 +22455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>19</v>
       </c>
@@ -22496,7 +22493,7 @@
         <v>22</v>
       </c>
       <c r="N361" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O361" t="s">
         <v>666</v>
@@ -22505,7 +22502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>19</v>
       </c>
@@ -22543,7 +22540,7 @@
         <v>22</v>
       </c>
       <c r="N362" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O362" t="s">
         <v>666</v>
@@ -22552,7 +22549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>19</v>
       </c>
@@ -22590,7 +22587,7 @@
         <v>22</v>
       </c>
       <c r="N363" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O363" t="s">
         <v>666</v>
@@ -22645,14 +22642,14 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="1025" width="8.6328125" customWidth="1"/>
+    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C1" s="15" t="s">
         <v>569</v>
       </c>
@@ -22667,7 +22664,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -22708,7 +22705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -22741,7 +22738,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -22774,7 +22771,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -22807,7 +22804,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -22840,7 +22837,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -22873,7 +22870,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -22906,7 +22903,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -22939,7 +22936,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>571</v>
       </c>
@@ -22967,7 +22964,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -23000,7 +22997,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -23033,7 +23030,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -23066,7 +23063,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -23099,7 +23096,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -23132,7 +23129,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -23165,7 +23162,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -23198,7 +23195,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -23231,7 +23228,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -23264,7 +23261,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -23297,7 +23294,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -23330,7 +23327,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -23363,7 +23360,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -23396,7 +23393,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -23429,7 +23426,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -23462,7 +23459,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -23495,7 +23492,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -23528,7 +23525,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -23561,7 +23558,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -23594,7 +23591,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -23627,7 +23624,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>83</v>
       </c>
@@ -23660,7 +23657,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -23693,7 +23690,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
@@ -23726,7 +23723,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>89</v>
       </c>
@@ -23759,7 +23756,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>91</v>
       </c>
@@ -23792,7 +23789,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>93</v>
       </c>
@@ -23825,7 +23822,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>95</v>
       </c>
@@ -23858,7 +23855,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>97</v>
       </c>
@@ -23891,7 +23888,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
@@ -23924,7 +23921,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>101</v>
       </c>
@@ -23957,7 +23954,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>103</v>
       </c>
@@ -23990,7 +23987,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
@@ -24023,7 +24020,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>107</v>
       </c>
@@ -24056,7 +24053,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
@@ -24089,7 +24086,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>111</v>
       </c>
@@ -24122,7 +24119,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>113</v>
       </c>
@@ -24155,7 +24152,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -24188,7 +24185,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -24221,7 +24218,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -24254,7 +24251,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -24287,7 +24284,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>123</v>
       </c>
@@ -24320,7 +24317,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>125</v>
       </c>
@@ -24353,7 +24350,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -24386,7 +24383,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
@@ -24419,7 +24416,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>131</v>
       </c>
@@ -24452,7 +24449,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>133</v>
       </c>
@@ -24485,7 +24482,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>135</v>
       </c>
@@ -24518,7 +24515,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>137</v>
       </c>
@@ -24551,7 +24548,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>139</v>
       </c>
@@ -24584,7 +24581,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
@@ -24617,7 +24614,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>143</v>
       </c>
@@ -24650,7 +24647,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>145</v>
       </c>
@@ -24683,7 +24680,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>147</v>
       </c>
@@ -24716,7 +24713,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>149</v>
       </c>
@@ -24749,7 +24746,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>152</v>
       </c>
@@ -24782,7 +24779,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>154</v>
       </c>
@@ -24815,7 +24812,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>156</v>
       </c>
@@ -24848,7 +24845,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>158</v>
       </c>
@@ -24881,7 +24878,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>160</v>
       </c>
@@ -24914,7 +24911,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>162</v>
       </c>
@@ -24947,7 +24944,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -24980,7 +24977,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>166</v>
       </c>
@@ -25013,7 +25010,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>168</v>
       </c>
@@ -25046,7 +25043,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>170</v>
       </c>
@@ -25079,7 +25076,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>172</v>
       </c>
@@ -25112,7 +25109,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>174</v>
       </c>
@@ -25145,7 +25142,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>176</v>
       </c>
@@ -25178,7 +25175,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>178</v>
       </c>
@@ -25211,7 +25208,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>180</v>
       </c>
@@ -25244,7 +25241,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>182</v>
       </c>
@@ -25277,7 +25274,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>184</v>
       </c>
@@ -25310,7 +25307,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>186</v>
       </c>
@@ -25343,7 +25340,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>188</v>
       </c>
@@ -25376,7 +25373,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>190</v>
       </c>
@@ -25409,7 +25406,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>192</v>
       </c>
@@ -25442,7 +25439,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>194</v>
       </c>
@@ -25475,7 +25472,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>196</v>
       </c>
@@ -25508,7 +25505,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>198</v>
       </c>
@@ -25541,7 +25538,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>200</v>
       </c>
@@ -25574,7 +25571,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>202</v>
       </c>
@@ -25607,7 +25604,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>204</v>
       </c>
@@ -25640,7 +25637,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>206</v>
       </c>
@@ -25673,7 +25670,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>208</v>
       </c>
@@ -25715,7 +25712,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>212</v>
       </c>
@@ -25757,7 +25754,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>214</v>
       </c>
@@ -25799,7 +25796,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>216</v>
       </c>
@@ -25841,7 +25838,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>218</v>
       </c>
@@ -25883,7 +25880,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>220</v>
       </c>
@@ -25925,7 +25922,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>222</v>
       </c>
@@ -25966,7 +25963,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>224</v>
       </c>
@@ -26008,7 +26005,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>226</v>
       </c>
@@ -26050,7 +26047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>228</v>
       </c>
@@ -26092,7 +26089,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>230</v>
       </c>
@@ -26134,7 +26131,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>232</v>
       </c>
@@ -26176,7 +26173,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>234</v>
       </c>
@@ -26218,7 +26215,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>236</v>
       </c>
@@ -26260,7 +26257,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>238</v>
       </c>
@@ -26302,7 +26299,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>240</v>
       </c>
@@ -26344,7 +26341,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>242</v>
       </c>
@@ -26386,7 +26383,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>244</v>
       </c>
@@ -26428,7 +26425,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>246</v>
       </c>
@@ -26470,7 +26467,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>248</v>
       </c>
@@ -26512,7 +26509,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>250</v>
       </c>
@@ -26554,7 +26551,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>252</v>
       </c>
@@ -26596,7 +26593,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>254</v>
       </c>
@@ -26638,7 +26635,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>256</v>
       </c>
@@ -26680,7 +26677,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>258</v>
       </c>
@@ -26722,7 +26719,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>260</v>
       </c>
@@ -26764,7 +26761,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>262</v>
       </c>
@@ -26806,7 +26803,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>264</v>
       </c>
@@ -26848,7 +26845,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>266</v>
       </c>
@@ -26890,7 +26887,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>268</v>
       </c>
@@ -26932,7 +26929,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>270</v>
       </c>
@@ -26974,7 +26971,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>272</v>
       </c>
@@ -27016,7 +27013,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>274</v>
       </c>
@@ -27058,7 +27055,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>276</v>
       </c>
@@ -27100,7 +27097,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>278</v>
       </c>
@@ -27142,7 +27139,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>280</v>
       </c>
@@ -27184,7 +27181,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>282</v>
       </c>
@@ -27226,7 +27223,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>284</v>
       </c>
@@ -27268,7 +27265,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>286</v>
       </c>
@@ -27310,7 +27307,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>288</v>
       </c>
@@ -27352,7 +27349,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>290</v>
       </c>
@@ -27394,7 +27391,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>292</v>
       </c>
@@ -27436,7 +27433,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>294</v>
       </c>
@@ -27478,7 +27475,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>296</v>
       </c>
@@ -27520,7 +27517,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>298</v>
       </c>
@@ -27562,7 +27559,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>300</v>
       </c>
@@ -27604,7 +27601,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>302</v>
       </c>
@@ -27646,7 +27643,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>304</v>
       </c>
@@ -27688,7 +27685,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>306</v>
       </c>
@@ -27730,7 +27727,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>308</v>
       </c>
@@ -27772,7 +27769,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>310</v>
       </c>
@@ -27814,7 +27811,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>312</v>
       </c>
@@ -27856,7 +27853,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>314</v>
       </c>
@@ -27898,7 +27895,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>316</v>
       </c>
@@ -27940,7 +27937,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>318</v>
       </c>
@@ -27982,7 +27979,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>320</v>
       </c>
@@ -28024,7 +28021,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>322</v>
       </c>
@@ -28066,7 +28063,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>324</v>
       </c>
@@ -28108,7 +28105,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>326</v>
       </c>
@@ -28150,7 +28147,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>328</v>
       </c>
@@ -28192,7 +28189,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>330</v>
       </c>
@@ -28234,7 +28231,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>333</v>
       </c>
@@ -28276,7 +28273,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>335</v>
       </c>
@@ -28318,7 +28315,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>337</v>
       </c>
@@ -28360,7 +28357,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>339</v>
       </c>
@@ -28402,7 +28399,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>341</v>
       </c>
@@ -28444,7 +28441,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>343</v>
       </c>
@@ -28486,7 +28483,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>345</v>
       </c>
@@ -28528,7 +28525,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>347</v>
       </c>
@@ -28570,7 +28567,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>349</v>
       </c>
@@ -28612,7 +28609,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>351</v>
       </c>
@@ -28654,7 +28651,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>353</v>
       </c>
@@ -28696,7 +28693,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>355</v>
       </c>
@@ -28738,7 +28735,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>357</v>
       </c>
@@ -28780,7 +28777,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>359</v>
       </c>
@@ -28822,7 +28819,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>361</v>
       </c>
@@ -28864,7 +28861,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>363</v>
       </c>
@@ -28906,7 +28903,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>365</v>
       </c>
@@ -28948,7 +28945,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>367</v>
       </c>
@@ -28990,7 +28987,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>369</v>
       </c>
@@ -29032,7 +29029,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>371</v>
       </c>
@@ -29074,7 +29071,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>373</v>
       </c>
@@ -29116,7 +29113,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>375</v>
       </c>
@@ -29158,7 +29155,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>377</v>
       </c>
@@ -29200,7 +29197,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>379</v>
       </c>
@@ -29242,7 +29239,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>381</v>
       </c>
@@ -29284,7 +29281,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>383</v>
       </c>
@@ -29326,7 +29323,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>385</v>
       </c>
@@ -29368,32 +29365,32 @@
         <v>572</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F181">
         <v>201.6</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F182">
         <v>3450.9</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F183">
         <v>4736.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F184">
         <v>4272.5</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F185">
         <v>22529.9</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F186">
         <v>4821.6000000000004</v>
       </c>
@@ -29423,16 +29420,16 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.6328125" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" customWidth="1"/>
-    <col min="6" max="1025" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>573</v>
       </c>
@@ -29448,7 +29445,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4451.3999999999996</v>
       </c>
@@ -29486,7 +29483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3804.5</v>
       </c>
@@ -29544,7 +29541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1269</v>
       </c>
@@ -29602,7 +29599,7 @@
         <v>1.2952704707189187</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4381.2</v>
       </c>
@@ -29660,7 +29657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4759.7</v>
       </c>
@@ -29718,7 +29715,7 @@
         <v>1.0096774864583054</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1440.1</v>
       </c>
@@ -29776,7 +29773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3708.1</v>
       </c>
@@ -29834,7 +29831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -29892,7 +29889,7 @@
         <v>1.0011976197507046</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4732.8</v>
       </c>
@@ -29935,7 +29932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1232.7</v>
       </c>
@@ -29993,7 +29990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>529.1</v>
       </c>
@@ -30051,7 +30048,7 @@
         <v>1.4135498236063859</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>29.2</v>
       </c>
@@ -30109,7 +30106,7 @@
         <v>1.2067950019292712</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2837.7</v>
       </c>
@@ -30167,7 +30164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4250.1000000000004</v>
       </c>
@@ -30222,7 +30219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4103.3999999999996</v>
       </c>
@@ -30280,7 +30277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2132.6999999999998</v>
       </c>
@@ -30338,7 +30335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3313.1</v>
       </c>
@@ -30396,7 +30393,7 @@
         <v>1.0935845448603492</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2351.1999999999998</v>
       </c>
@@ -30454,7 +30451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3089.7</v>
       </c>
@@ -30512,7 +30509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2539.6999999999998</v>
       </c>
@@ -30570,7 +30567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4188</v>
       </c>
@@ -30628,7 +30625,7 @@
         <v>1.169255754237303</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1410.8</v>
       </c>
@@ -30686,7 +30683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>51.7</v>
       </c>
@@ -30744,7 +30741,7 @@
         <v>1.2203489699610526</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>19.600000000000001</v>
       </c>
@@ -30802,7 +30799,7 @@
         <v>1.0244512931997685</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1309.8</v>
       </c>
@@ -30860,7 +30857,7 @@
         <v>2.6234358690585302</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3779.7</v>
       </c>
@@ -30918,7 +30915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>664.6</v>
       </c>
@@ -30976,7 +30973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>568.4</v>
       </c>
@@ -31034,7 +31031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>579.70000000000005</v>
       </c>
@@ -31092,7 +31089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>424.2</v>
       </c>
@@ -31150,7 +31147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>480.8</v>
       </c>
@@ -31208,7 +31205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>388.5</v>
       </c>
@@ -31266,7 +31263,7 @@
         <v>1.0750927895862123</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>940.1</v>
       </c>
@@ -31324,7 +31321,7 @@
         <v>1.6248406201304648</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1510.1</v>
       </c>
@@ -31382,7 +31379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>55.6</v>
       </c>
@@ -31440,7 +31437,7 @@
         <v>1.0963380759801249</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37.5</v>
       </c>
@@ -31498,7 +31495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1006.5</v>
       </c>
@@ -31556,7 +31553,7 @@
         <v>1.8732830674560639</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1013.4</v>
       </c>
@@ -31614,7 +31611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1132.2</v>
       </c>
@@ -31672,7 +31669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2202.1</v>
       </c>
@@ -31730,7 +31727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3021.3</v>
       </c>
@@ -31788,7 +31785,7 @@
         <v>1.1725074778240294</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4670</v>
       </c>
@@ -31846,7 +31843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>377.2</v>
       </c>
@@ -31904,7 +31901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>351.5</v>
       </c>
@@ -31962,7 +31959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4359</v>
       </c>
@@ -32020,7 +32017,7 @@
         <v>3.561698879196241</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2306.9</v>
       </c>
@@ -32078,7 +32075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>42.5</v>
       </c>
@@ -32136,7 +32133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12.2</v>
       </c>
@@ -32194,7 +32191,7 @@
         <v>1.0728920239008903</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4502.8999999999996</v>
       </c>
@@ -32252,7 +32249,7 @@
         <v>1.3357805467463613</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3976.6</v>
       </c>
@@ -32310,7 +32307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2195.1999999999998</v>
       </c>
@@ -32368,7 +32365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3090.6</v>
       </c>
@@ -32426,7 +32423,7 @@
         <v>1.128735497610172</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3243.6</v>
       </c>
@@ -32484,7 +32481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3051.6</v>
       </c>
@@ -32542,7 +32539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3604</v>
       </c>
@@ -32600,7 +32597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3888.4</v>
       </c>
@@ -32658,7 +32655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4137.6000000000004</v>
       </c>
@@ -32716,7 +32713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3491.1</v>
       </c>
@@ -32774,7 +32771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>21</v>
       </c>
@@ -32832,7 +32829,7 @@
         <v>1.0076352426174098</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>27.2</v>
       </c>
@@ -32890,7 +32887,7 @@
         <v>1.2167403854907388</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4656.8999999999996</v>
       </c>
@@ -32948,7 +32945,7 @@
         <v>4.0619252548293048</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3478.8</v>
       </c>
@@ -33006,7 +33003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>492.6</v>
       </c>
@@ -33064,7 +33061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>346</v>
       </c>
@@ -33122,7 +33119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>251.3</v>
       </c>
@@ -33180,7 +33177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>276.89999999999998</v>
       </c>
@@ -33238,7 +33235,7 @@
         <v>1.1197713131684661</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>360.6</v>
       </c>
@@ -33296,7 +33293,7 @@
         <v>1.1149805091358778</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>318</v>
       </c>
@@ -33354,7 +33351,7 @@
         <v>1.091910300828645</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>348</v>
       </c>
@@ -33412,7 +33409,7 @@
         <v>1.0807765929998294</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>233.4</v>
       </c>
@@ -33470,7 +33467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>26.6</v>
       </c>
@@ -33528,7 +33525,7 @@
         <v>1.228595174543162</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>20.9</v>
       </c>
@@ -33586,7 +33583,7 @@
         <v>1.5121885371426311</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>440.5</v>
       </c>
@@ -33644,7 +33641,7 @@
         <v>1.2655931602175603</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>341.5</v>
       </c>
@@ -33702,7 +33699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>320.89999999999998</v>
       </c>
@@ -33760,7 +33757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>378.1</v>
       </c>
@@ -33818,7 +33815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3130.8</v>
       </c>
@@ -33876,7 +33873,7 @@
         <v>1.9489258823195479</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>274.10000000000002</v>
       </c>
@@ -33934,7 +33931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>283.10000000000002</v>
       </c>
@@ -33992,7 +33989,7 @@
         <v>1.1388860237427094</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>269.5</v>
       </c>
@@ -34050,7 +34047,7 @@
         <v>1.1384317579137457</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>312.8</v>
       </c>
@@ -34108,7 +34105,7 @@
         <v>1.0540497846642338</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>120.1</v>
       </c>
@@ -34166,7 +34163,7 @@
         <v>1.1337178832092052</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>227.6</v>
       </c>
@@ -34224,7 +34221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>35.1</v>
       </c>
@@ -34282,7 +34279,7 @@
         <v>2.2601678787155235</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>308.60000000000002</v>
       </c>
@@ -34340,7 +34337,7 @@
         <v>1.0235278413579181</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1636.1</v>
       </c>
@@ -34398,7 +34395,7 @@
         <v>1.4558439239343104</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>287.5</v>
       </c>
@@ -34456,7 +34453,7 @@
         <v>1.0998088492925739</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>566.1</v>
       </c>
@@ -34514,7 +34511,7 @@
         <v>1.0994386527211388</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>302.7</v>
       </c>
@@ -34560,7 +34557,7 @@
         <v>1.075595260589862</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>278.39999999999998</v>
       </c>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangmengyan/cloudstor/git/SynbioML/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D489D64-DBBD-724F-A259-DA5EC7905A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B823F-E79D-4826-A01E-D395AAE96688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate" sheetId="1" r:id="rId1"/>
@@ -2600,7 +2600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3078,28 +3078,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B331" workbookViewId="0">
-      <selection activeCell="N365" sqref="N365"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="H356" sqref="H356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="1023" width="9.1640625" customWidth="1"/>
+    <col min="3" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="1023" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
         <v>95</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="5" t="s">
         <v>97</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
         <v>103</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="5" t="s">
         <v>105</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="5" t="s">
         <v>107</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
         <v>109</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="5" t="s">
         <v>111</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="5" t="s">
         <v>115</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="5" t="s">
         <v>117</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
         <v>119</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="5" t="s">
         <v>121</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
         <v>123</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="5" t="s">
         <v>125</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="5" t="s">
         <v>129</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
         <v>135</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="5" t="s">
         <v>137</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="5" t="s">
         <v>139</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="5" t="s">
         <v>141</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="5" t="s">
         <v>143</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="5" t="s">
         <v>149</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="5" t="s">
         <v>152</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="5" t="s">
         <v>154</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
         <v>156</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="5" t="s">
         <v>158</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
         <v>160</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="5" t="s">
         <v>164</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="5" t="s">
         <v>166</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="5" t="s">
         <v>168</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="5" t="s">
         <v>170</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="5" t="s">
         <v>172</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="5" t="s">
         <v>174</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="5" t="s">
         <v>176</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="5" t="s">
         <v>178</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="5" t="s">
         <v>180</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="5" t="s">
         <v>184</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="5" t="s">
         <v>186</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="5" t="s">
         <v>188</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="5" t="s">
         <v>190</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="5" t="s">
         <v>192</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="5" t="s">
         <v>194</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="5" t="s">
         <v>196</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="5" t="s">
         <v>198</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="5" t="s">
         <v>200</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="5" t="s">
         <v>202</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="5" t="s">
         <v>204</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="5" t="s">
         <v>206</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="A92" s="9" t="s">
         <v>208</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="A93" s="9" t="s">
         <v>212</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="A94" s="9" t="s">
         <v>214</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" s="9" t="s">
         <v>216</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" s="9" t="s">
         <v>218</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
         <v>220</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" s="9" t="s">
         <v>222</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
         <v>224</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" s="9" t="s">
         <v>226</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
         <v>228</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
         <v>230</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
         <v>232</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" s="9" t="s">
         <v>234</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" s="9" t="s">
         <v>236</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" s="9" t="s">
         <v>238</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" s="9" t="s">
         <v>240</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" s="9" t="s">
         <v>242</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" s="9" t="s">
         <v>244</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="9" t="s">
         <v>246</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="9" t="s">
         <v>248</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="9" t="s">
         <v>250</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="9" t="s">
         <v>252</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="9" t="s">
         <v>254</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="9" t="s">
         <v>256</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="9" t="s">
         <v>258</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="9" t="s">
         <v>260</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" s="9" t="s">
         <v>262</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>264</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="9" t="s">
         <v>266</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="9" t="s">
         <v>268</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="9" t="s">
         <v>270</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="9" t="s">
         <v>272</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="9" t="s">
         <v>274</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="9" t="s">
         <v>276</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="9" t="s">
         <v>278</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16">
       <c r="A127" s="9" t="s">
         <v>280</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16">
       <c r="A128" s="9" t="s">
         <v>282</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="9" t="s">
         <v>284</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="9" t="s">
         <v>286</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="9" t="s">
         <v>288</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="9" t="s">
         <v>290</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="9" t="s">
         <v>292</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="9" t="s">
         <v>294</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="9" t="s">
         <v>296</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="9" t="s">
         <v>298</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="9" t="s">
         <v>300</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="9" t="s">
         <v>302</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="9" t="s">
         <v>304</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="9" t="s">
         <v>306</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="9" t="s">
         <v>308</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="9" t="s">
         <v>310</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="9" t="s">
         <v>312</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="9" t="s">
         <v>314</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16">
       <c r="A145" s="9" t="s">
         <v>316</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16">
       <c r="A146" s="9" t="s">
         <v>318</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16">
       <c r="A147" s="9" t="s">
         <v>320</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16">
       <c r="A148" s="9" t="s">
         <v>322</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16">
       <c r="A149" s="9" t="s">
         <v>324</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16">
       <c r="A150" s="9" t="s">
         <v>326</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16">
       <c r="A151" s="9" t="s">
         <v>328</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16">
       <c r="A152" s="9" t="s">
         <v>330</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16">
       <c r="A153" s="9" t="s">
         <v>333</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16">
       <c r="A154" s="9" t="s">
         <v>335</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16">
       <c r="A155" s="9" t="s">
         <v>337</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16">
       <c r="A156" s="9" t="s">
         <v>339</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16">
       <c r="A157" s="9" t="s">
         <v>341</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16">
       <c r="A158" s="9" t="s">
         <v>343</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16">
       <c r="A159" s="9" t="s">
         <v>345</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16">
       <c r="A160" s="9" t="s">
         <v>347</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16">
       <c r="A161" s="9" t="s">
         <v>349</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16">
       <c r="A162" s="9" t="s">
         <v>351</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16">
       <c r="A163" s="9" t="s">
         <v>353</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16">
       <c r="A164" s="9" t="s">
         <v>355</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16">
       <c r="A165" s="9" t="s">
         <v>357</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
         <v>359</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16">
       <c r="A167" s="9" t="s">
         <v>361</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16">
       <c r="A168" s="9" t="s">
         <v>363</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16">
       <c r="A169" s="9" t="s">
         <v>365</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16">
       <c r="A170" s="9" t="s">
         <v>367</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16">
       <c r="A171" s="9" t="s">
         <v>369</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16">
       <c r="A172" s="9" t="s">
         <v>371</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16">
       <c r="A173" s="9" t="s">
         <v>373</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16">
       <c r="A174" s="9" t="s">
         <v>375</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16">
       <c r="A175" s="9" t="s">
         <v>377</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16">
       <c r="A176" s="9" t="s">
         <v>379</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21">
       <c r="A177" s="9" t="s">
         <v>381</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21">
       <c r="A178" s="9" t="s">
         <v>383</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21">
       <c r="A179" s="9" t="s">
         <v>385</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21">
       <c r="A180" t="s">
         <v>387</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21">
       <c r="A181" t="s">
         <v>391</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>20.685976047947001</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21">
       <c r="A182" t="s">
         <v>393</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>21.0948992353858</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21">
       <c r="A183" t="s">
         <v>395</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>18.020429279314001</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21">
       <c r="A184" t="s">
         <v>397</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>14.4964226423445</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21">
       <c r="A185" t="s">
         <v>399</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>17.0191806862905</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21">
       <c r="A186" t="s">
         <v>401</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>16.533791976457799</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21">
       <c r="A187" t="s">
         <v>403</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>18.918311846844901</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21">
       <c r="A188" t="s">
         <v>405</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>16.930029799406</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21">
       <c r="A189" t="s">
         <v>407</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>14.7840716392201</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>11.4167134836056</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21">
       <c r="A191" t="s">
         <v>411</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>18.2900162352562</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21">
       <c r="A192" t="s">
         <v>413</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>39.070851487100299</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19">
       <c r="A193" t="s">
         <v>415</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>14.1562343568053</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19">
       <c r="A194" t="s">
         <v>417</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>14.6108601942449</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19">
       <c r="A195" t="s">
         <v>419</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>12.9029987343951</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19">
       <c r="A196" t="s">
         <v>421</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>12.217054281911199</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19">
       <c r="A197" t="s">
         <v>423</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>9.7547635311864802</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19">
       <c r="A198" t="s">
         <v>425</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>9.7662016778029699</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19">
       <c r="A199" t="s">
         <v>427</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>9.47317562094028</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19">
       <c r="A200" t="s">
         <v>429</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>13.8454937666171</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19">
       <c r="A201" t="s">
         <v>431</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>6.9870010209390898</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19">
       <c r="A202" t="s">
         <v>433</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>9.6093377606178798</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19">
       <c r="A203" t="s">
         <v>435</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>15.1149322351684</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19">
       <c r="A204" t="s">
         <v>437</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>21.4025715783552</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19">
       <c r="A205" t="s">
         <v>439</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>9.5606932410429994</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19">
       <c r="A206" t="s">
         <v>441</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>20.8598775282119</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19">
       <c r="A207" t="s">
         <v>443</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>8.5195151983481008</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19">
       <c r="A208" t="s">
         <v>445</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>6.9307055508742703</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19">
       <c r="A209" t="s">
         <v>447</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>7.539940975335</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19">
       <c r="A210" t="s">
         <v>449</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>8.8864196454398297</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19">
       <c r="A211" t="s">
         <v>451</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>10.3183664978778</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19">
       <c r="A212" t="s">
         <v>453</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>1.62455726620178</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19">
       <c r="A213" t="s">
         <v>455</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>6.0228873246586403</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19">
       <c r="A214" t="s">
         <v>457</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>3.8693800222713701</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19">
       <c r="A215" t="s">
         <v>459</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>14.417127178706099</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19">
       <c r="A216" t="s">
         <v>461</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>36.527916386746199</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19">
       <c r="A217" t="s">
         <v>463</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>9.7509341179622009</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19">
       <c r="A218" t="s">
         <v>465</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>10.2767455252883</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19">
       <c r="A219" t="s">
         <v>467</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>11.6414116329218</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19">
       <c r="A220" t="s">
         <v>469</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>8.6138670477354093</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19">
       <c r="A221" t="s">
         <v>471</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>8.62498670863868</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19">
       <c r="A222" t="s">
         <v>473</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>5.0711988414820404</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19">
       <c r="A223" t="s">
         <v>475</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>5.7562213389269896</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19">
       <c r="A224" t="s">
         <v>477</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>6.2831098081978096</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19">
       <c r="A225" t="s">
         <v>479</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>8.7906484027711596</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19">
       <c r="A226" t="s">
         <v>481</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>9.2798854146546201</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19">
       <c r="A227" t="s">
         <v>483</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>14.9889620188946</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19">
       <c r="A228" t="s">
         <v>485</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>20.550516294814699</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19">
       <c r="A229" t="s">
         <v>487</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>7.4133908722962101</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19">
       <c r="A230" t="s">
         <v>489</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>11.719856737196</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19">
       <c r="A231" t="s">
         <v>491</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>5.5868695227171399</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19">
       <c r="A232" t="s">
         <v>493</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>2.3876633122498201</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19">
       <c r="A233" t="s">
         <v>495</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>18.7720085095436</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19">
       <c r="A234" t="s">
         <v>497</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>5.4345051475567701</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19">
       <c r="A235" t="s">
         <v>499</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>2.6721539586948899</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19">
       <c r="A236" t="s">
         <v>501</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>4.4561981802670196</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19">
       <c r="A237" t="s">
         <v>503</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>10.7224249680634</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19">
       <c r="A238" t="s">
         <v>505</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>5.9608819316044501</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19">
       <c r="A239" t="s">
         <v>507</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>18.554873543510901</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19">
       <c r="A240" t="s">
         <v>509</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>20.995324558040998</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19">
       <c r="A241" t="s">
         <v>511</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>14.948240355634001</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19">
       <c r="A242" t="s">
         <v>513</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>7.2844914479493896</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19">
       <c r="A243" t="s">
         <v>515</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>11.2313736724574</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19">
       <c r="A244" t="s">
         <v>517</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>8.6453004892533603</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19">
       <c r="A245" t="s">
         <v>519</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>7.7179572373801504</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19">
       <c r="A246" t="s">
         <v>521</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>16.8943054374196</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19">
       <c r="A247" t="s">
         <v>523</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>19.6064384381956</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19">
       <c r="A248" t="s">
         <v>525</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>11.0403380572768</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19">
       <c r="A249" t="s">
         <v>527</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>10.552226112320501</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19">
       <c r="A250" t="s">
         <v>529</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>127.34375</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19">
       <c r="A251" t="s">
         <v>531</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>11.7477528828136</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19">
       <c r="A252" t="s">
         <v>533</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>21.863791998038199</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19">
       <c r="A253" t="s">
         <v>535</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>10.279685941739899</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19">
       <c r="A254" t="s">
         <v>537</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>9.9144267602328</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19">
       <c r="A255" t="s">
         <v>539</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>9.8045430444282395</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19">
       <c r="A256" t="s">
         <v>541</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>8.3837410779460502</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19">
       <c r="A257" t="s">
         <v>543</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>44.352608938747203</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19">
       <c r="A258" t="s">
         <v>545</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>12.437009795865499</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19">
       <c r="A259" t="s">
         <v>547</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>11.905460914811901</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19">
       <c r="A260" t="s">
         <v>549</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>15.409318555820599</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19">
       <c r="A261" t="s">
         <v>551</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>12.3358385574775</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19">
       <c r="A262" t="s">
         <v>553</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>16.232630021974899</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19">
       <c r="A263" t="s">
         <v>555</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>17.318196360051999</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19">
       <c r="A264" t="s">
         <v>557</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>23.310413209525102</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19">
       <c r="A265" t="s">
         <v>559</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>149.89795918367301</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19">
       <c r="A266" t="s">
         <v>561</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>19.025742367750599</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19">
       <c r="A267" t="s">
         <v>563</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>29.059444761123299</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19">
       <c r="A268" t="s">
         <v>565</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>13.846183938615001</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19">
       <c r="A269" t="s">
         <v>567</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>18.383063047906901</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19">
       <c r="A270" s="5" t="s">
         <v>19</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>47.950148971120903</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19">
       <c r="A271" s="12" t="s">
         <v>757</v>
       </c>
@@ -18244,17 +18244,20 @@
       <c r="F271">
         <v>83.065130222739668</v>
       </c>
+      <c r="G271">
+        <v>62.19745211087217</v>
+      </c>
       <c r="I271" s="14">
         <f t="shared" si="25"/>
-        <v>69.9515847276773</v>
+        <v>68.400758204316276</v>
       </c>
       <c r="J271">
         <f t="shared" ref="J271:J334" si="26">_xlfn.STDEV.P(C271:H271)</f>
-        <v>11.367072408250003</v>
+        <v>10.629605812529375</v>
       </c>
       <c r="K271" s="8">
         <f t="shared" ref="K271:K334" si="27">J271/I271</f>
-        <v>0.16249914069141116</v>
+        <v>0.15540187114268886</v>
       </c>
       <c r="L271" t="s">
         <v>847</v>
@@ -18272,7 +18275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19">
       <c r="A272" s="12" t="s">
         <v>758</v>
       </c>
@@ -18291,17 +18294,20 @@
       <c r="F272">
         <v>82.587079759994396</v>
       </c>
+      <c r="G272">
+        <v>72.15598806579581</v>
+      </c>
       <c r="I272" s="14">
         <f t="shared" si="25"/>
-        <v>71.754297022954347</v>
+        <v>71.83463523152264</v>
       </c>
       <c r="J272">
         <f t="shared" si="26"/>
-        <v>11.559475781776944</v>
+        <v>10.340357885035454</v>
       </c>
       <c r="K272" s="8">
         <f t="shared" si="27"/>
-        <v>0.16109802842997742</v>
+        <v>0.14394668883204512</v>
       </c>
       <c r="L272" t="s">
         <v>847</v>
@@ -18319,7 +18325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16">
       <c r="A273" s="12" t="s">
         <v>759</v>
       </c>
@@ -18338,17 +18344,20 @@
       <c r="F273">
         <v>56.263396249730341</v>
       </c>
+      <c r="G273">
+        <v>52.163030614147672</v>
+      </c>
       <c r="I273" s="14">
         <f t="shared" si="25"/>
-        <v>52.905559094809654</v>
+        <v>52.757053398677257</v>
       </c>
       <c r="J273">
         <f t="shared" si="26"/>
-        <v>4.0564109080322366</v>
+        <v>3.6403009945576481</v>
       </c>
       <c r="K273" s="8">
         <f t="shared" si="27"/>
-        <v>7.6672678210675874E-2</v>
+        <v>6.9001218984851773E-2</v>
       </c>
       <c r="L273" t="s">
         <v>847</v>
@@ -18366,7 +18375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16">
       <c r="A274" s="12" t="s">
         <v>760</v>
       </c>
@@ -18385,17 +18394,20 @@
       <c r="F274">
         <v>86.82215934586003</v>
       </c>
+      <c r="G274">
+        <v>77.380682018118847</v>
+      </c>
       <c r="I274" s="14">
         <f t="shared" si="25"/>
-        <v>72.330773755948428</v>
+        <v>73.340755408382506</v>
       </c>
       <c r="J274">
         <f t="shared" si="26"/>
-        <v>13.157871689865249</v>
+        <v>11.940850961241448</v>
       </c>
       <c r="K274" s="8">
         <f t="shared" si="27"/>
-        <v>0.1819124973591639</v>
+        <v>0.16281330748164977</v>
       </c>
       <c r="L274" t="s">
         <v>847</v>
@@ -18413,7 +18425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16">
       <c r="A275" s="12" t="s">
         <v>761</v>
       </c>
@@ -18432,17 +18444,20 @@
       <c r="F275">
         <v>66.649424052389634</v>
       </c>
+      <c r="G275">
+        <v>55.405716968783871</v>
+      </c>
       <c r="I275" s="14">
         <f t="shared" si="25"/>
-        <v>60.413365815984633</v>
+        <v>59.411836046544479</v>
       </c>
       <c r="J275">
         <f t="shared" si="26"/>
-        <v>5.9779591014869498</v>
+        <v>5.709732352005644</v>
       </c>
       <c r="K275" s="8">
         <f t="shared" si="27"/>
-        <v>9.8950936117273167E-2</v>
+        <v>9.6104290524408637E-2</v>
       </c>
       <c r="L275" t="s">
         <v>847</v>
@@ -18460,7 +18475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16">
       <c r="A276" s="12" t="s">
         <v>762</v>
       </c>
@@ -18479,17 +18494,20 @@
       <c r="F276">
         <v>63.862375215489742</v>
       </c>
+      <c r="G276">
+        <v>50.706305467875758</v>
+      </c>
       <c r="I276" s="14">
         <f t="shared" si="25"/>
-        <v>57.249397408515122</v>
+        <v>55.940779020387254</v>
       </c>
       <c r="J276">
         <f t="shared" si="26"/>
-        <v>4.5917898721870536</v>
+        <v>4.8700673226600504</v>
       </c>
       <c r="K276" s="8">
         <f t="shared" si="27"/>
-        <v>8.020678085782057E-2</v>
+        <v>8.7057552789623932E-2</v>
       </c>
       <c r="L276" t="s">
         <v>847</v>
@@ -18507,7 +18525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16">
       <c r="A277" s="12" t="s">
         <v>763</v>
       </c>
@@ -18526,17 +18544,20 @@
       <c r="F277">
         <v>50.020114144528549</v>
       </c>
+      <c r="G277">
+        <v>43.409991662158482</v>
+      </c>
       <c r="I277" s="14">
         <f t="shared" si="25"/>
-        <v>44.271230554452373</v>
+        <v>44.098982775993598</v>
       </c>
       <c r="J277">
         <f t="shared" si="26"/>
-        <v>4.5660492598194313</v>
+        <v>4.0985023927300848</v>
       </c>
       <c r="K277" s="8">
         <f t="shared" si="27"/>
-        <v>0.10313806963651753</v>
+        <v>9.2938705945870684E-2</v>
       </c>
       <c r="L277" t="s">
         <v>847</v>
@@ -18554,7 +18575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16">
       <c r="A278" s="12" t="s">
         <v>764</v>
       </c>
@@ -18573,17 +18594,20 @@
       <c r="F278">
         <v>50.46158798194049</v>
       </c>
+      <c r="G278">
+        <v>41.499744663472747</v>
+      </c>
       <c r="I278" s="14">
         <f t="shared" si="25"/>
-        <v>45.552415638090878</v>
+        <v>44.741881443167252</v>
       </c>
       <c r="J278">
         <f t="shared" si="26"/>
-        <v>4.3321898184907317</v>
+        <v>4.2002568520639034</v>
       </c>
       <c r="K278" s="8">
         <f t="shared" si="27"/>
-        <v>9.5103404678020184E-2</v>
+        <v>9.3877519598705758E-2</v>
       </c>
       <c r="L278" t="s">
         <v>847</v>
@@ -18601,7 +18625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16">
       <c r="A279" s="12" t="s">
         <v>765</v>
       </c>
@@ -18620,17 +18644,20 @@
       <c r="F279">
         <v>58.577819048872428</v>
       </c>
+      <c r="G279">
+        <v>49.669876605783408</v>
+      </c>
       <c r="I279" s="14">
         <f t="shared" si="25"/>
-        <v>51.477199668707485</v>
+        <v>51.115735056122666</v>
       </c>
       <c r="J279">
         <f t="shared" si="26"/>
-        <v>5.6443080359714886</v>
+        <v>5.0999212963093532</v>
       </c>
       <c r="K279" s="8">
         <f t="shared" si="27"/>
-        <v>0.1096467576382678</v>
+        <v>9.9772042614859793E-2</v>
       </c>
       <c r="L279" t="s">
         <v>847</v>
@@ -18648,7 +18675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16">
       <c r="A280" s="12" t="s">
         <v>766</v>
       </c>
@@ -18667,17 +18694,20 @@
       <c r="F280">
         <v>45.332108400493119</v>
       </c>
+      <c r="G280">
+        <v>37.008897601832601</v>
+      </c>
       <c r="I280" s="14">
         <f t="shared" si="25"/>
-        <v>35.739241183005717</v>
+        <v>35.993172466771092</v>
       </c>
       <c r="J280">
         <f t="shared" si="26"/>
-        <v>6.0432935659457465</v>
+        <v>5.4290921973070274</v>
       </c>
       <c r="K280" s="8">
         <f t="shared" si="27"/>
-        <v>0.16909406484039674</v>
+        <v>0.15083672333465928</v>
       </c>
       <c r="L280" t="s">
         <v>847</v>
@@ -18695,7 +18725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16">
       <c r="A281" s="12" t="s">
         <v>767</v>
       </c>
@@ -18714,17 +18744,20 @@
       <c r="F281">
         <v>70.601183311142151</v>
       </c>
+      <c r="G281">
+        <v>61.987510355910452</v>
+      </c>
       <c r="I281" s="14">
         <f t="shared" si="25"/>
-        <v>66.089935659487878</v>
+        <v>65.269450598772394</v>
       </c>
       <c r="J281">
         <f t="shared" si="26"/>
-        <v>6.6514105515199597</v>
+        <v>6.171368794629438</v>
       </c>
       <c r="K281" s="8">
         <f t="shared" si="27"/>
-        <v>0.10064180703382304</v>
+        <v>9.4552179281642529E-2</v>
       </c>
       <c r="L281" t="s">
         <v>847</v>
@@ -18742,7 +18775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16">
       <c r="A282" s="12" t="s">
         <v>768</v>
       </c>
@@ -18761,17 +18794,20 @@
       <c r="F282">
         <v>52.250425761063603</v>
       </c>
+      <c r="G282">
+        <v>44.4546095578497</v>
+      </c>
       <c r="I282" s="14">
         <f t="shared" si="25"/>
-        <v>44.775444390067861</v>
+        <v>44.711277423624225</v>
       </c>
       <c r="J282">
         <f t="shared" si="26"/>
-        <v>6.404716974891512</v>
+        <v>5.7299903334212763</v>
       </c>
       <c r="K282" s="8">
         <f t="shared" si="27"/>
-        <v>0.14304083548777047</v>
+        <v>0.12815537071624139</v>
       </c>
       <c r="L282" t="s">
         <v>847</v>
@@ -18789,7 +18825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16">
       <c r="A283" s="12" t="s">
         <v>769</v>
       </c>
@@ -18808,17 +18844,20 @@
       <c r="F283">
         <v>89.136395070589543</v>
       </c>
+      <c r="G283">
+        <v>68.801988876898747</v>
+      </c>
       <c r="I283" s="14">
         <f t="shared" si="25"/>
-        <v>77.915757383866179</v>
+        <v>76.093003682472698</v>
       </c>
       <c r="J283">
         <f t="shared" si="26"/>
-        <v>11.338557801272152</v>
+        <v>10.776828783738129</v>
       </c>
       <c r="K283" s="8">
         <f t="shared" si="27"/>
-        <v>0.14552329569756578</v>
+        <v>0.14162706506775036</v>
       </c>
       <c r="L283" t="s">
         <v>847</v>
@@ -18836,7 +18875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16">
       <c r="A284" s="12" t="s">
         <v>770</v>
       </c>
@@ -18855,17 +18894,20 @@
       <c r="F284">
         <v>79.347156119293885</v>
       </c>
+      <c r="G284">
+        <v>63.20468671910109</v>
+      </c>
       <c r="I284" s="14">
         <f t="shared" si="25"/>
-        <v>67.558932788152219</v>
+        <v>66.688083574342002</v>
       </c>
       <c r="J284">
         <f t="shared" si="26"/>
-        <v>10.240886843963464</v>
+        <v>9.3238470651049763</v>
       </c>
       <c r="K284" s="8">
         <f t="shared" si="27"/>
-        <v>0.151584496991335</v>
+        <v>0.13981279061214907</v>
       </c>
       <c r="L284" t="s">
         <v>847</v>
@@ -18883,7 +18925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16">
       <c r="A285" s="12" t="s">
         <v>771</v>
       </c>
@@ -18902,17 +18944,20 @@
       <c r="F285">
         <v>45.750606145881719</v>
       </c>
+      <c r="G285">
+        <v>48.584636038723559</v>
+      </c>
       <c r="I285" s="14">
         <f t="shared" si="25"/>
-        <v>44.807658761361495</v>
+        <v>45.563054216833905</v>
       </c>
       <c r="J285">
         <f t="shared" si="26"/>
-        <v>1.9942506872839083</v>
+        <v>2.33754525508692</v>
       </c>
       <c r="K285" s="8">
         <f t="shared" si="27"/>
-        <v>4.4506915612461971E-2</v>
+        <v>5.1303524209825278E-2</v>
       </c>
       <c r="L285" t="s">
         <v>847</v>
@@ -18930,7 +18975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16">
       <c r="A286" s="12" t="s">
         <v>772</v>
       </c>
@@ -18949,17 +18994,20 @@
       <c r="F286">
         <v>68.024863647142482</v>
       </c>
+      <c r="G286">
+        <v>63.619010504998151</v>
+      </c>
       <c r="I286" s="14">
         <f t="shared" si="25"/>
-        <v>63.842712800198356</v>
+        <v>63.797972341158314</v>
       </c>
       <c r="J286">
         <f t="shared" si="26"/>
-        <v>2.7631779018495104</v>
+        <v>2.473080776787532</v>
       </c>
       <c r="K286" s="8">
         <f t="shared" si="27"/>
-        <v>4.3281022698661471E-2</v>
+        <v>3.8764253565345068E-2</v>
       </c>
       <c r="L286" t="s">
         <v>847</v>
@@ -18977,7 +19025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16">
       <c r="A287" s="12" t="s">
         <v>773</v>
       </c>
@@ -18996,17 +19044,20 @@
       <c r="F287">
         <v>18.989488228185149</v>
       </c>
+      <c r="G287">
+        <v>27.38161138335504</v>
+      </c>
       <c r="I287" s="14">
         <f t="shared" si="25"/>
-        <v>19.595771030231777</v>
+        <v>21.152939100856429</v>
       </c>
       <c r="J287">
         <f t="shared" si="26"/>
-        <v>6.2570494488787078</v>
+        <v>6.4046564189862929</v>
       </c>
       <c r="K287" s="8">
         <f t="shared" si="27"/>
-        <v>0.31930611146790377</v>
+        <v>0.30277855897230777</v>
       </c>
       <c r="L287" t="s">
         <v>847</v>
@@ -19024,7 +19075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16">
       <c r="A288" s="12" t="s">
         <v>774</v>
       </c>
@@ -19043,17 +19094,20 @@
       <c r="F288">
         <v>13.569693423040951</v>
       </c>
+      <c r="G288">
+        <v>12.033348440016569</v>
+      </c>
       <c r="I288" s="14">
         <f t="shared" si="25"/>
-        <v>19.19395145008016</v>
+        <v>17.76183084806744</v>
       </c>
       <c r="J288">
         <f t="shared" si="26"/>
-        <v>7.0551636116735308</v>
+        <v>6.9299454936401137</v>
       </c>
       <c r="K288" s="8">
         <f t="shared" si="27"/>
-        <v>0.36757223388954996</v>
+        <v>0.39015941278340233</v>
       </c>
       <c r="L288" t="s">
         <v>847</v>
@@ -19071,7 +19125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16">
       <c r="A289" s="12" t="s">
         <v>775</v>
       </c>
@@ -19090,17 +19144,20 @@
       <c r="F289">
         <v>69.131080256621999</v>
       </c>
+      <c r="G289">
+        <v>58.756180363329392</v>
+      </c>
       <c r="I289" s="14">
         <f t="shared" si="25"/>
-        <v>63.125086491529046</v>
+        <v>62.251305265889116</v>
       </c>
       <c r="J289">
         <f t="shared" si="26"/>
-        <v>5.2007687691827975</v>
+        <v>4.9691418930766096</v>
       </c>
       <c r="K289" s="8">
         <f t="shared" si="27"/>
-        <v>8.2388303260078774E-2</v>
+        <v>7.9823898821917122E-2</v>
       </c>
       <c r="L289" t="s">
         <v>847</v>
@@ -19118,7 +19175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16">
       <c r="A290" s="12" t="s">
         <v>776</v>
       </c>
@@ -19137,17 +19194,20 @@
       <c r="F290">
         <v>26.09679026936282</v>
       </c>
+      <c r="G290">
+        <v>35.406952486803128</v>
+      </c>
       <c r="I290" s="14">
         <f t="shared" si="25"/>
-        <v>27.564805503056455</v>
+        <v>29.133234899805792</v>
       </c>
       <c r="J290">
         <f t="shared" si="26"/>
-        <v>7.1548126837193307</v>
+        <v>7.1269178977759085</v>
       </c>
       <c r="K290" s="8">
         <f t="shared" si="27"/>
-        <v>0.25956332914904795</v>
+        <v>0.24463187566662628</v>
       </c>
       <c r="L290" t="s">
         <v>847</v>
@@ -19165,7 +19225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16">
       <c r="A291" s="12" t="s">
         <v>777</v>
       </c>
@@ -19184,17 +19244,20 @@
       <c r="F291">
         <v>2.6991478265963029</v>
       </c>
+      <c r="G291">
+        <v>15.0005568211943</v>
+      </c>
       <c r="I291" s="14">
         <f t="shared" si="25"/>
-        <v>12.750449547845953</v>
+        <v>13.200471002515622</v>
       </c>
       <c r="J291">
         <f t="shared" si="26"/>
-        <v>10.243936521839997</v>
+        <v>9.2065555779260855</v>
       </c>
       <c r="K291" s="8">
         <f t="shared" si="27"/>
-        <v>0.8034176742866761</v>
+        <v>0.69744144554929799</v>
       </c>
       <c r="L291" t="s">
         <v>847</v>
@@ -19212,7 +19275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16">
       <c r="A292" s="12" t="s">
         <v>778</v>
       </c>
@@ -19231,17 +19294,20 @@
       <c r="F292">
         <v>64.467007333367704</v>
       </c>
+      <c r="G292">
+        <v>51.419401583181212</v>
+      </c>
       <c r="I292" s="14">
         <f t="shared" si="25"/>
-        <v>60.82385301340959</v>
+        <v>58.94296272736392</v>
       </c>
       <c r="J292">
         <f t="shared" si="26"/>
-        <v>5.8981196114949768</v>
+        <v>6.4792935597767807</v>
       </c>
       <c r="K292" s="8">
         <f t="shared" si="27"/>
-        <v>9.6970502841946596E-2</v>
+        <v>0.10992480289371011</v>
       </c>
       <c r="L292" t="s">
         <v>847</v>
@@ -19259,7 +19325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16">
       <c r="A293" s="12" t="s">
         <v>779</v>
       </c>
@@ -19278,17 +19344,20 @@
       <c r="F293">
         <v>17.323546065493758</v>
       </c>
+      <c r="G293">
+        <v>8.6542133979630247</v>
+      </c>
       <c r="I293" s="14">
         <f t="shared" si="25"/>
-        <v>16.312351640254903</v>
+        <v>14.780723991796526</v>
       </c>
       <c r="J293">
         <f t="shared" si="26"/>
-        <v>2.4348659142579909</v>
+        <v>3.7585090967590995</v>
       </c>
       <c r="K293" s="8">
         <f t="shared" si="27"/>
-        <v>0.14926516838009646</v>
+        <v>0.2542845058770542</v>
       </c>
       <c r="L293" t="s">
         <v>847</v>
@@ -19306,7 +19375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16">
       <c r="A294" s="12" t="s">
         <v>780</v>
       </c>
@@ -19325,17 +19394,20 @@
       <c r="F294">
         <v>21.104464673896501</v>
       </c>
+      <c r="G294">
+        <v>19.718559537388231</v>
+      </c>
       <c r="I294" s="14">
         <f t="shared" si="25"/>
-        <v>25.842073165834631</v>
+        <v>24.617370440145351</v>
       </c>
       <c r="J294">
         <f t="shared" si="26"/>
-        <v>6.8082569428770885</v>
+        <v>6.5636481582600279</v>
       </c>
       <c r="K294" s="8">
         <f t="shared" si="27"/>
-        <v>0.2634562985402491</v>
+        <v>0.26662669655229326</v>
       </c>
       <c r="L294" t="s">
         <v>847</v>
@@ -19353,7 +19425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16">
       <c r="A295" s="12" t="s">
         <v>781</v>
       </c>
@@ -19372,17 +19444,20 @@
       <c r="F295">
         <v>60.918689629508371</v>
       </c>
+      <c r="G295">
+        <v>57.239792403581077</v>
+      </c>
       <c r="I295" s="14">
         <f t="shared" si="25"/>
-        <v>54.138878706439712</v>
+        <v>54.759061445867985</v>
       </c>
       <c r="J295">
         <f t="shared" si="26"/>
-        <v>7.9171659531066449</v>
+        <v>7.1891390238584183</v>
       </c>
       <c r="K295" s="8">
         <f t="shared" si="27"/>
-        <v>0.14623808512984429</v>
+        <v>0.13128674659563394</v>
       </c>
       <c r="L295" t="s">
         <v>847</v>
@@ -19400,7 +19475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16">
       <c r="A296" s="12" t="s">
         <v>782</v>
       </c>
@@ -19419,17 +19494,20 @@
       <c r="F296">
         <v>45.159103384323103</v>
       </c>
+      <c r="G296">
+        <v>33.063256252230723</v>
+      </c>
       <c r="I296" s="14">
         <f t="shared" si="25"/>
-        <v>39.718154023300556</v>
+        <v>38.387174469086588</v>
       </c>
       <c r="J296">
         <f t="shared" si="26"/>
-        <v>3.3203637179777385</v>
+        <v>3.9882174552890755</v>
       </c>
       <c r="K296" s="8">
         <f t="shared" si="27"/>
-        <v>8.3598137920253182E-2</v>
+        <v>0.10389453015097035</v>
       </c>
       <c r="L296" t="s">
         <v>847</v>
@@ -19447,7 +19525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16">
       <c r="A297" s="12" t="s">
         <v>783</v>
       </c>
@@ -19466,17 +19544,20 @@
       <c r="F297">
         <v>16.919184466310401</v>
       </c>
+      <c r="G297">
+        <v>25.759370994288268</v>
+      </c>
       <c r="I297" s="14">
         <f t="shared" si="25"/>
-        <v>21.487881629380922</v>
+        <v>22.342179502362391</v>
       </c>
       <c r="J297">
         <f t="shared" si="26"/>
-        <v>8.0430344460750085</v>
+        <v>7.3940260956884529</v>
       </c>
       <c r="K297" s="8">
         <f t="shared" si="27"/>
-        <v>0.37430560093357756</v>
+        <v>0.3309447090829537</v>
       </c>
       <c r="L297" t="s">
         <v>847</v>
@@ -19494,7 +19575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16">
       <c r="A298" s="12" t="s">
         <v>784</v>
       </c>
@@ -19513,17 +19594,20 @@
       <c r="F298">
         <v>18.373507206732999</v>
       </c>
+      <c r="G298">
+        <v>8.1750443305149911</v>
+      </c>
       <c r="I298" s="14">
         <f t="shared" si="25"/>
-        <v>18.147755971108428</v>
+        <v>16.153213642989741</v>
       </c>
       <c r="J298">
         <f t="shared" si="26"/>
-        <v>8.1210520549948573</v>
+        <v>8.2869768660578149</v>
       </c>
       <c r="K298" s="8">
         <f t="shared" si="27"/>
-        <v>0.44749621208945761</v>
+        <v>0.51302341745812552</v>
       </c>
       <c r="L298" t="s">
         <v>847</v>
@@ -19541,7 +19625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16">
       <c r="A299" s="12" t="s">
         <v>785</v>
       </c>
@@ -19560,17 +19644,20 @@
       <c r="F299">
         <v>8.0001242060555349</v>
       </c>
+      <c r="G299">
+        <v>12.97749504328255</v>
+      </c>
       <c r="I299" s="14">
         <f t="shared" si="25"/>
-        <v>16.06244567682624</v>
+        <v>15.445455550117501</v>
       </c>
       <c r="J299">
         <f t="shared" si="26"/>
-        <v>6.2549427725922033</v>
+        <v>5.729062273753625</v>
       </c>
       <c r="K299" s="8">
         <f t="shared" si="27"/>
-        <v>0.38941409661023119</v>
+        <v>0.37092219489181988</v>
       </c>
       <c r="L299" t="s">
         <v>847</v>
@@ -19588,7 +19675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16">
       <c r="A300" s="12" t="s">
         <v>786</v>
       </c>
@@ -19607,17 +19694,20 @@
       <c r="F300">
         <v>16.456885437463711</v>
       </c>
+      <c r="G300">
+        <v>10.76514726676157</v>
+      </c>
       <c r="I300" s="14">
         <f t="shared" si="25"/>
-        <v>18.652841811312161</v>
+        <v>17.075302902402044</v>
       </c>
       <c r="J300">
         <f t="shared" si="26"/>
-        <v>4.3108001149118254</v>
+        <v>4.9820592269743598</v>
       </c>
       <c r="K300" s="8">
         <f t="shared" si="27"/>
-        <v>0.23110688218550737</v>
+        <v>0.29176988867784687</v>
       </c>
       <c r="L300" t="s">
         <v>847</v>
@@ -19635,7 +19725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16">
       <c r="A301" s="12" t="s">
         <v>787</v>
       </c>
@@ -19654,17 +19744,20 @@
       <c r="F301">
         <v>14.915221188115281</v>
       </c>
+      <c r="G301">
+        <v>4.9856057360732713</v>
+      </c>
       <c r="I301" s="14">
         <f t="shared" si="25"/>
-        <v>12.682197084694931</v>
+        <v>11.142878814970597</v>
       </c>
       <c r="J301">
         <f t="shared" si="26"/>
-        <v>4.5187990742600794</v>
+        <v>5.0807124501250254</v>
       </c>
       <c r="K301" s="8">
         <f t="shared" si="27"/>
-        <v>0.35631042823908132</v>
+        <v>0.45596048691645324</v>
       </c>
       <c r="L301" t="s">
         <v>847</v>
@@ -19682,7 +19775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16">
       <c r="A302" s="12" t="s">
         <v>788</v>
       </c>
@@ -19701,17 +19794,20 @@
       <c r="F302">
         <v>5.4030328730850981</v>
       </c>
+      <c r="G302">
+        <v>6.8525780369933047</v>
+      </c>
       <c r="I302" s="14">
         <f t="shared" si="25"/>
-        <v>8.3954763236950622</v>
+        <v>8.0868966663547113</v>
       </c>
       <c r="J302">
         <f t="shared" si="26"/>
-        <v>6.7760818323054632</v>
+        <v>6.0920533170826126</v>
       </c>
       <c r="K302" s="8">
         <f t="shared" si="27"/>
-        <v>0.80711106446467085</v>
+        <v>0.7533239966362395</v>
       </c>
       <c r="L302" t="s">
         <v>847</v>
@@ -19729,7 +19825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16">
       <c r="A303" s="12" t="s">
         <v>789</v>
       </c>
@@ -19748,17 +19844,20 @@
       <c r="F303">
         <v>7.7493783108749836</v>
       </c>
+      <c r="G303">
+        <v>11.36180193368167</v>
+      </c>
       <c r="I303" s="14">
         <f t="shared" si="25"/>
-        <v>12.158161737969907</v>
+        <v>11.998889777112259</v>
       </c>
       <c r="J303">
         <f t="shared" si="26"/>
-        <v>2.5585811226994122</v>
+        <v>2.3105281039642849</v>
       </c>
       <c r="K303" s="8">
         <f t="shared" si="27"/>
-        <v>0.21044144483692548</v>
+        <v>0.19256182420906892</v>
       </c>
       <c r="L303" t="s">
         <v>847</v>
@@ -19776,7 +19875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16">
       <c r="A304" s="12" t="s">
         <v>790</v>
       </c>
@@ -19795,17 +19894,20 @@
       <c r="F304">
         <v>8.1291762856273895</v>
       </c>
+      <c r="G304">
+        <v>3.6272786896211828</v>
+      </c>
       <c r="I304" s="14">
         <f t="shared" si="25"/>
-        <v>8.0864896970123255</v>
+        <v>7.1946474955340971</v>
       </c>
       <c r="J304">
         <f t="shared" si="26"/>
-        <v>3.8930328430958472</v>
+        <v>3.9123003237594713</v>
       </c>
       <c r="K304" s="8">
         <f t="shared" si="27"/>
-        <v>0.48142432488774289</v>
+        <v>0.54377929234030398</v>
       </c>
       <c r="L304" t="s">
         <v>847</v>
@@ -19823,7 +19925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16">
       <c r="A305" s="12" t="s">
         <v>791</v>
       </c>
@@ -19842,17 +19944,20 @@
       <c r="F305">
         <v>23.268641247014969</v>
       </c>
+      <c r="G305">
+        <v>20.54788599149623</v>
+      </c>
       <c r="I305" s="14">
         <f t="shared" si="25"/>
-        <v>28.028681211951316</v>
+        <v>26.5325221678603</v>
       </c>
       <c r="J305">
         <f t="shared" si="26"/>
-        <v>6.1921130355231035</v>
+        <v>6.2950598580646897</v>
       </c>
       <c r="K305" s="8">
         <f t="shared" si="27"/>
-        <v>0.22092059875021203</v>
+        <v>0.23725825303144751</v>
       </c>
       <c r="L305" t="s">
         <v>847</v>
@@ -19870,7 +19975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16">
       <c r="A306" s="12" t="s">
         <v>792</v>
       </c>
@@ -19889,17 +19994,20 @@
       <c r="F306">
         <v>15.088385560283839</v>
       </c>
+      <c r="G306">
+        <v>36.671088985114309</v>
+      </c>
       <c r="I306" s="14">
         <f t="shared" si="25"/>
-        <v>27.163550395726741</v>
+        <v>29.065058113604255</v>
       </c>
       <c r="J306">
         <f t="shared" si="26"/>
-        <v>9.1986216539398491</v>
+        <v>9.063919608560953</v>
       </c>
       <c r="K306" s="8">
         <f t="shared" si="27"/>
-        <v>0.33863841507945658</v>
+        <v>0.31184935440808476</v>
       </c>
       <c r="L306" t="s">
         <v>847</v>
@@ -19917,7 +20025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16">
       <c r="A307" s="12" t="s">
         <v>793</v>
       </c>
@@ -19936,17 +20044,20 @@
       <c r="F307">
         <v>89.882574529611091</v>
       </c>
+      <c r="G307">
+        <v>72.62372843365209</v>
+      </c>
       <c r="I307" s="14">
         <f t="shared" si="25"/>
-        <v>75.553160839768196</v>
+        <v>74.967274358544984</v>
       </c>
       <c r="J307">
         <f t="shared" si="26"/>
-        <v>9.2419562497135654</v>
+        <v>8.3488955037666699</v>
       </c>
       <c r="K307" s="8">
         <f t="shared" si="27"/>
-        <v>0.12232388621455219</v>
+        <v>0.11136720089137186</v>
       </c>
       <c r="L307" t="s">
         <v>847</v>
@@ -19964,7 +20075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16">
       <c r="A308" s="12" t="s">
         <v>794</v>
       </c>
@@ -19983,17 +20094,20 @@
       <c r="F308">
         <v>32.219401258811999</v>
       </c>
+      <c r="G308">
+        <v>29.53338568652784</v>
+      </c>
       <c r="I308" s="14">
         <f t="shared" si="25"/>
-        <v>32.506129613796844</v>
+        <v>31.911580828343045</v>
       </c>
       <c r="J308">
         <f t="shared" si="26"/>
-        <v>4.2256055508396395</v>
+        <v>3.9621391760219153</v>
       </c>
       <c r="K308" s="8">
         <f t="shared" si="27"/>
-        <v>0.12999411498827382</v>
+        <v>0.12415991540296385</v>
       </c>
       <c r="L308" t="s">
         <v>847</v>
@@ -20011,7 +20125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16">
       <c r="A309" s="12" t="s">
         <v>795</v>
       </c>
@@ -20030,17 +20144,20 @@
       <c r="F309">
         <v>11.21348331748481</v>
       </c>
+      <c r="G309">
+        <v>10.117727392366721</v>
+      </c>
       <c r="I309" s="14">
         <f t="shared" si="25"/>
-        <v>17.760668508180714</v>
+        <v>16.232080285017915</v>
       </c>
       <c r="J309">
         <f t="shared" si="26"/>
-        <v>9.612640208580796</v>
+        <v>9.1251635189550111</v>
       </c>
       <c r="K309" s="8">
         <f t="shared" si="27"/>
-        <v>0.54123189136451322</v>
+        <v>0.56216845645948821</v>
       </c>
       <c r="L309" t="s">
         <v>847</v>
@@ -20058,7 +20175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16">
       <c r="A310" s="12" t="s">
         <v>796</v>
       </c>
@@ -20077,17 +20194,20 @@
       <c r="F310">
         <v>13.62745948965553</v>
       </c>
+      <c r="G310">
+        <v>1.176075268817204</v>
+      </c>
       <c r="I310" s="14">
         <f t="shared" si="25"/>
-        <v>10.964405564862451</v>
+        <v>9.0067395056534032</v>
       </c>
       <c r="J310">
         <f t="shared" si="26"/>
-        <v>2.5357203336229692</v>
+        <v>4.5247903471647755</v>
       </c>
       <c r="K310" s="8">
         <f t="shared" si="27"/>
-        <v>0.23126838191293955</v>
+        <v>0.50237828509691307</v>
       </c>
       <c r="L310" t="s">
         <v>847</v>
@@ -20105,7 +20225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16">
       <c r="A311" s="12" t="s">
         <v>797</v>
       </c>
@@ -20124,17 +20244,20 @@
       <c r="F311">
         <v>59.514519934187312</v>
       </c>
+      <c r="G311">
+        <v>44.041912458576832</v>
+      </c>
       <c r="I311" s="14">
         <f t="shared" si="25"/>
-        <v>52.841316111715578</v>
+        <v>51.081435381087829</v>
       </c>
       <c r="J311">
         <f t="shared" si="26"/>
-        <v>4.2205965600549566</v>
+        <v>5.1613437206155366</v>
       </c>
       <c r="K311" s="8">
         <f t="shared" si="27"/>
-        <v>7.9873040087266062E-2</v>
+        <v>0.10104147783064159</v>
       </c>
       <c r="L311" t="s">
         <v>847</v>
@@ -20152,7 +20275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16">
       <c r="A312" s="12" t="s">
         <v>798</v>
       </c>
@@ -20171,17 +20294,20 @@
       <c r="F312">
         <v>42.85580830200518</v>
       </c>
+      <c r="G312">
+        <v>31.181522795794571</v>
+      </c>
       <c r="I312" s="14">
         <f t="shared" si="25"/>
-        <v>38.437997061166534</v>
+        <v>36.98670220809214</v>
       </c>
       <c r="J312">
         <f t="shared" si="26"/>
-        <v>2.9990328734821832</v>
+        <v>3.9522633443664472</v>
       </c>
       <c r="K312" s="8">
         <f t="shared" si="27"/>
-        <v>7.8022610509850723E-2</v>
+        <v>0.1068563323686033</v>
       </c>
       <c r="L312" t="s">
         <v>847</v>
@@ -20199,7 +20325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16">
       <c r="A313" s="12" t="s">
         <v>799</v>
       </c>
@@ -20218,17 +20344,20 @@
       <c r="F313">
         <v>11.87765403184908</v>
       </c>
+      <c r="G313">
+        <v>14.44449554469255</v>
+      </c>
       <c r="I313" s="14">
         <f t="shared" si="25"/>
-        <v>10.097026281639785</v>
+        <v>10.966520134250338</v>
       </c>
       <c r="J313">
         <f t="shared" si="26"/>
-        <v>4.1673634127665968</v>
+        <v>4.1131025382504971</v>
       </c>
       <c r="K313" s="8">
         <f t="shared" si="27"/>
-        <v>0.41273175849254157</v>
+        <v>0.37505995410563892</v>
       </c>
       <c r="L313" t="s">
         <v>847</v>
@@ -20246,7 +20375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16">
       <c r="A314" s="12" t="s">
         <v>800</v>
       </c>
@@ -20265,17 +20394,20 @@
       <c r="F314">
         <v>13.525935844677351</v>
       </c>
+      <c r="G314">
+        <v>12.520059692985051</v>
+      </c>
       <c r="I314" s="14">
         <f t="shared" si="25"/>
-        <v>17.583206129078263</v>
+        <v>16.570576841859623</v>
       </c>
       <c r="J314">
         <f t="shared" si="26"/>
-        <v>5.7235949911006685</v>
+        <v>5.5053886321543022</v>
       </c>
       <c r="K314" s="8">
         <f t="shared" si="27"/>
-        <v>0.32551486623564413</v>
+        <v>0.33223880403770323</v>
       </c>
       <c r="L314" t="s">
         <v>847</v>
@@ -20293,7 +20425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16">
       <c r="A315" s="12" t="s">
         <v>801</v>
       </c>
@@ -20312,17 +20444,20 @@
       <c r="F315">
         <v>12.39404573053123</v>
       </c>
+      <c r="G315">
+        <v>8.3751048545770246</v>
+      </c>
       <c r="I315" s="14">
         <f t="shared" si="25"/>
-        <v>13.721410868085636</v>
+        <v>12.652149665383913</v>
       </c>
       <c r="J315">
         <f t="shared" si="26"/>
-        <v>5.7440288319577393</v>
+        <v>5.5649233468487207</v>
       </c>
       <c r="K315" s="8">
         <f t="shared" si="27"/>
-        <v>0.41861794586427442</v>
+        <v>0.43984014527383164</v>
       </c>
       <c r="L315" t="s">
         <v>847</v>
@@ -20340,7 +20475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16">
       <c r="A316" s="12" t="s">
         <v>802</v>
       </c>
@@ -20359,17 +20494,20 @@
       <c r="F316">
         <v>14.69466976978117</v>
       </c>
+      <c r="G316">
+        <v>13.199809591788821</v>
+      </c>
       <c r="I316" s="14">
         <f t="shared" si="25"/>
-        <v>20.180122624440543</v>
+        <v>18.7840600179102</v>
       </c>
       <c r="J316">
         <f t="shared" si="26"/>
-        <v>7.0219419841764292</v>
+        <v>6.8732887753040641</v>
       </c>
       <c r="K316" s="8">
         <f t="shared" si="27"/>
-        <v>0.34796329610366278</v>
+        <v>0.36591071199466624</v>
       </c>
       <c r="L316" t="s">
         <v>847</v>
@@ -20387,7 +20525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16">
       <c r="A317" s="12" t="s">
         <v>803</v>
       </c>
@@ -20406,17 +20544,20 @@
       <c r="F317">
         <v>4.7817698602933891</v>
       </c>
+      <c r="G317">
+        <v>4.6673205198926508</v>
+      </c>
       <c r="I317" s="14">
         <f t="shared" si="25"/>
-        <v>11.534510183746503</v>
+        <v>10.161072250975732</v>
       </c>
       <c r="J317">
         <f t="shared" si="26"/>
-        <v>9.1244108492921807</v>
+        <v>8.6109944662645823</v>
       </c>
       <c r="K317" s="8">
         <f t="shared" si="27"/>
-        <v>0.79105317035044631</v>
+        <v>0.84744938856602448</v>
       </c>
       <c r="L317" t="s">
         <v>847</v>
@@ -20434,7 +20575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16">
       <c r="A318" s="12" t="s">
         <v>804</v>
       </c>
@@ -20453,17 +20594,20 @@
       <c r="F318">
         <v>14.988720978901121</v>
       </c>
+      <c r="G318">
+        <v>26.955816960979011</v>
+      </c>
       <c r="I318" s="14">
         <f t="shared" si="25"/>
-        <v>19.82652986600425</v>
+        <v>21.252387284999202</v>
       </c>
       <c r="J318">
         <f t="shared" si="26"/>
-        <v>5.7822168290975711</v>
+        <v>5.9058871208456987</v>
       </c>
       <c r="K318" s="8">
         <f t="shared" si="27"/>
-        <v>0.29164038629937478</v>
+        <v>0.27789288053367606</v>
       </c>
       <c r="L318" t="s">
         <v>847</v>
@@ -20481,7 +20625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16">
       <c r="A319" s="12" t="s">
         <v>805</v>
       </c>
@@ -20500,17 +20644,20 @@
       <c r="F319">
         <v>61.428485121814177</v>
       </c>
+      <c r="G319">
+        <v>47.294643517110032</v>
+      </c>
       <c r="I319" s="14">
         <f t="shared" si="25"/>
-        <v>53.011214464497542</v>
+        <v>51.867900275020041</v>
       </c>
       <c r="J319">
         <f t="shared" si="26"/>
-        <v>5.8617912209073051</v>
+        <v>5.7198904183075596</v>
       </c>
       <c r="K319" s="8">
         <f t="shared" si="27"/>
-        <v>0.11057643708262976</v>
+        <v>0.11027804071456311</v>
       </c>
       <c r="L319" t="s">
         <v>847</v>
@@ -20528,7 +20675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16">
       <c r="A320" s="12" t="s">
         <v>806</v>
       </c>
@@ -20547,17 +20694,20 @@
       <c r="F320">
         <v>54.146838096544641</v>
       </c>
+      <c r="G320">
+        <v>43.6190708993825</v>
+      </c>
       <c r="I320" s="14">
         <f t="shared" si="25"/>
-        <v>49.235965139673525</v>
+        <v>48.112586291615322</v>
       </c>
       <c r="J320">
         <f t="shared" si="26"/>
-        <v>4.448165883528084</v>
+        <v>4.5691206951627885</v>
       </c>
       <c r="K320" s="8">
         <f t="shared" si="27"/>
-        <v>9.0343834449257615E-2</v>
+        <v>9.4967264230379947E-2</v>
       </c>
       <c r="L320" t="s">
         <v>847</v>
@@ -20575,7 +20725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16">
       <c r="A321" s="12" t="s">
         <v>807</v>
       </c>
@@ -20594,17 +20744,20 @@
       <c r="F321">
         <v>6.037470323235544</v>
       </c>
+      <c r="G321">
+        <v>10.266936047781959</v>
+      </c>
       <c r="I321" s="14">
         <f t="shared" si="25"/>
-        <v>13.229206129751729</v>
+        <v>12.636752113357776</v>
       </c>
       <c r="J321">
         <f t="shared" si="26"/>
-        <v>6.5045922757797543</v>
+        <v>5.9373212466121643</v>
       </c>
       <c r="K321" s="8">
         <f t="shared" si="27"/>
-        <v>0.49168424862254567</v>
+        <v>0.46984551040896599</v>
       </c>
       <c r="L321" t="s">
         <v>847</v>
@@ -20622,7 +20775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16">
       <c r="A322" s="12" t="s">
         <v>808</v>
       </c>
@@ -20641,17 +20794,20 @@
       <c r="F322">
         <v>5.3194443276589816</v>
       </c>
+      <c r="G322">
+        <v>4.3170569944505406</v>
+      </c>
       <c r="I322" s="14">
         <f t="shared" si="25"/>
-        <v>14.82070252926971</v>
+        <v>12.719973422305875</v>
       </c>
       <c r="J322">
         <f t="shared" si="26"/>
-        <v>7.6918632209979751</v>
+        <v>8.0612690670770526</v>
       </c>
       <c r="K322" s="8">
         <f t="shared" si="27"/>
-        <v>0.51899450824326021</v>
+        <v>0.6337488923475838</v>
       </c>
       <c r="L322" t="s">
         <v>847</v>
@@ -20669,7 +20825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16">
       <c r="A323" s="12" t="s">
         <v>809</v>
       </c>
@@ -20688,17 +20844,20 @@
       <c r="F323">
         <v>7.9222173277807597</v>
       </c>
+      <c r="G323">
+        <v>12.92613908916737</v>
+      </c>
       <c r="I323" s="14">
         <f t="shared" ref="I323:I363" si="28">AVERAGE(C323:H323)</f>
-        <v>14.152371101730877</v>
+        <v>13.907124699218176</v>
       </c>
       <c r="J323">
         <f t="shared" si="26"/>
-        <v>6.1583312661485126</v>
+        <v>5.5299745368925111</v>
       </c>
       <c r="K323" s="8">
         <f t="shared" si="27"/>
-        <v>0.43514484052748803</v>
+        <v>0.39763607909573084</v>
       </c>
       <c r="L323" t="s">
         <v>847</v>
@@ -20716,7 +20875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16">
       <c r="A324" s="12" t="s">
         <v>810</v>
       </c>
@@ -20735,17 +20894,20 @@
       <c r="F324">
         <v>50.5976117553884</v>
       </c>
+      <c r="G324">
+        <v>41.44899447655061</v>
+      </c>
       <c r="I324" s="14">
         <f t="shared" si="28"/>
-        <v>45.545183221671891</v>
+        <v>44.725945472647638</v>
       </c>
       <c r="J324">
         <f t="shared" si="26"/>
-        <v>3.0030644367101109</v>
+        <v>3.1463182875436719</v>
       </c>
       <c r="K324" s="8">
         <f t="shared" si="27"/>
-        <v>6.593593930875119E-2</v>
+        <v>7.0346602051550092E-2</v>
       </c>
       <c r="L324" t="s">
         <v>847</v>
@@ -20763,7 +20925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16">
       <c r="A325" s="12" t="s">
         <v>811</v>
       </c>
@@ -20782,17 +20944,20 @@
       <c r="F325">
         <v>19.80230871036359</v>
       </c>
+      <c r="G325">
+        <v>28.4826715436039</v>
+      </c>
       <c r="I325" s="14">
         <f t="shared" si="28"/>
-        <v>27.584454105747938</v>
+        <v>27.764097593319129</v>
       </c>
       <c r="J325">
         <f t="shared" si="26"/>
-        <v>5.0053174199274322</v>
+        <v>4.4912859082773195</v>
       </c>
       <c r="K325" s="8">
         <f t="shared" si="27"/>
-        <v>0.18145428583574705</v>
+        <v>0.16176596027230711</v>
       </c>
       <c r="L325" t="s">
         <v>847</v>
@@ -20810,7 +20975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16">
       <c r="A326" s="12" t="s">
         <v>812</v>
       </c>
@@ -20829,17 +20994,20 @@
       <c r="F326">
         <v>13.923157565179469</v>
       </c>
+      <c r="G326">
+        <v>7.148890220045323</v>
+      </c>
       <c r="I326" s="14">
         <f t="shared" si="28"/>
-        <v>13.825410453531067</v>
+        <v>12.490106406833918</v>
       </c>
       <c r="J326">
         <f t="shared" si="26"/>
-        <v>4.2332559170406325</v>
+        <v>4.6334125777692998</v>
       </c>
       <c r="K326" s="8">
         <f t="shared" si="27"/>
-        <v>0.30619386898270651</v>
+        <v>0.37096662164816657</v>
       </c>
       <c r="L326" t="s">
         <v>847</v>
@@ -20857,7 +21025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16">
       <c r="A327" s="12" t="s">
         <v>813</v>
       </c>
@@ -20876,17 +21044,20 @@
       <c r="F327">
         <v>17.809341736959858</v>
       </c>
+      <c r="G327">
+        <v>9.5249444290180616</v>
+      </c>
       <c r="I327" s="14">
         <f t="shared" si="28"/>
-        <v>15.513475600833711</v>
+        <v>14.315769366470581</v>
       </c>
       <c r="J327">
         <f t="shared" si="26"/>
-        <v>6.8857198067362564</v>
+        <v>6.6082153945549633</v>
       </c>
       <c r="K327" s="8">
         <f t="shared" si="27"/>
-        <v>0.44385410361339084</v>
+        <v>0.46160392958217633</v>
       </c>
       <c r="L327" t="s">
         <v>847</v>
@@ -20904,7 +21075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16">
       <c r="A328" s="12" t="s">
         <v>814</v>
       </c>
@@ -20923,17 +21094,20 @@
       <c r="F328">
         <v>7.3765270073928493</v>
       </c>
+      <c r="G328">
+        <v>7.2122382070877338</v>
+      </c>
       <c r="I328" s="14">
         <f t="shared" si="28"/>
-        <v>9.2826013130736289</v>
+        <v>8.8685286918764508</v>
       </c>
       <c r="J328">
         <f t="shared" si="26"/>
-        <v>6.5426824930676828</v>
+        <v>5.9102605616483501</v>
       </c>
       <c r="K328" s="8">
         <f t="shared" si="27"/>
-        <v>0.70483286660744116</v>
+        <v>0.66643078767531461</v>
       </c>
       <c r="L328" t="s">
         <v>847</v>
@@ -20951,7 +21125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16">
       <c r="A329" s="12" t="s">
         <v>815</v>
       </c>
@@ -20970,17 +21144,20 @@
       <c r="F329">
         <v>22.82435073904491</v>
       </c>
+      <c r="G329">
+        <v>29.28087229318427</v>
+      </c>
       <c r="I329" s="14">
         <f t="shared" si="28"/>
-        <v>34.86937354102831</v>
+        <v>33.751673291459504</v>
       </c>
       <c r="J329">
         <f t="shared" si="26"/>
-        <v>7.3061831092092193</v>
+        <v>6.9066102171600647</v>
       </c>
       <c r="K329" s="8">
         <f t="shared" si="27"/>
-        <v>0.20953009381176732</v>
+        <v>0.20463015737082604</v>
       </c>
       <c r="L329" t="s">
         <v>847</v>
@@ -20998,7 +21175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16">
       <c r="A330" s="12" t="s">
         <v>816</v>
       </c>
@@ -21017,17 +21194,20 @@
       <c r="F330">
         <v>43.793319772082327</v>
       </c>
+      <c r="G330">
+        <v>23.91413085626337</v>
+      </c>
       <c r="I330" s="14">
         <f t="shared" si="28"/>
-        <v>39.751676005240512</v>
+        <v>36.584166975445086</v>
       </c>
       <c r="J330">
         <f t="shared" si="26"/>
-        <v>3.7274246865698428</v>
+        <v>7.158729611501081</v>
       </c>
       <c r="K330" s="8">
         <f t="shared" si="27"/>
-        <v>9.3767736637782317E-2</v>
+        <v>0.19567835496448358</v>
       </c>
       <c r="L330" t="s">
         <v>847</v>
@@ -21045,7 +21225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16">
       <c r="A331" s="12" t="s">
         <v>817</v>
       </c>
@@ -21064,17 +21244,20 @@
       <c r="F331">
         <v>57.717812493380549</v>
       </c>
+      <c r="G331">
+        <v>36.996261161977579</v>
+      </c>
       <c r="I331" s="14">
         <f t="shared" si="28"/>
-        <v>52.559793184768822</v>
+        <v>49.447086780210569</v>
       </c>
       <c r="J331">
         <f t="shared" si="26"/>
-        <v>4.2493309063799307</v>
+        <v>7.2939163119303556</v>
       </c>
       <c r="K331" s="8">
         <f t="shared" si="27"/>
-        <v>8.0847557589159888E-2</v>
+        <v>0.14750952557329394</v>
       </c>
       <c r="L331" t="s">
         <v>847</v>
@@ -21092,7 +21275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16">
       <c r="A332" s="12" t="s">
         <v>818</v>
       </c>
@@ -21111,17 +21294,20 @@
       <c r="F332">
         <v>42.210383108132163</v>
       </c>
+      <c r="G332">
+        <v>27.05470396434789</v>
+      </c>
       <c r="I332" s="14">
         <f t="shared" si="28"/>
-        <v>25.108213849894035</v>
+        <v>25.497511872784806</v>
       </c>
       <c r="J332">
         <f t="shared" si="26"/>
-        <v>10.187836467502166</v>
+        <v>9.1454809230220491</v>
       </c>
       <c r="K332" s="8">
         <f t="shared" si="27"/>
-        <v>0.40575711710951362</v>
+        <v>0.35868130853911401</v>
       </c>
       <c r="L332" t="s">
         <v>847</v>
@@ -21139,7 +21325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16">
       <c r="A333" s="12" t="s">
         <v>819</v>
       </c>
@@ -21158,17 +21344,20 @@
       <c r="F333">
         <v>13.370286977171739</v>
       </c>
+      <c r="G333">
+        <v>4.9844504856025944</v>
+      </c>
       <c r="I333" s="14">
         <f t="shared" si="28"/>
-        <v>15.296417150837009</v>
+        <v>13.234023817790126</v>
       </c>
       <c r="J333">
         <f t="shared" si="26"/>
-        <v>5.4652999317435444</v>
+        <v>6.396050946945131</v>
       </c>
       <c r="K333" s="8">
         <f t="shared" si="27"/>
-        <v>0.35729281424862863</v>
+        <v>0.4833035692702245</v>
       </c>
       <c r="L333" t="s">
         <v>847</v>
@@ -21186,7 +21375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16">
       <c r="A334" s="12" t="s">
         <v>820</v>
       </c>
@@ -21205,17 +21394,20 @@
       <c r="F334">
         <v>15.980092200586309</v>
       </c>
+      <c r="G334">
+        <v>4.9381976431985368</v>
+      </c>
       <c r="I334" s="14">
         <f t="shared" si="28"/>
-        <v>14.883668671859667</v>
+        <v>12.894574466127441</v>
       </c>
       <c r="J334">
         <f t="shared" si="26"/>
-        <v>2.2779818562427767</v>
+        <v>4.469602231407972</v>
       </c>
       <c r="K334" s="8">
         <f t="shared" si="27"/>
-        <v>0.15305244335018847</v>
+        <v>0.34662657873271441</v>
       </c>
       <c r="L334" t="s">
         <v>847</v>
@@ -21233,7 +21425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16">
       <c r="A335" s="12" t="s">
         <v>821</v>
       </c>
@@ -21252,17 +21444,20 @@
       <c r="F335">
         <v>49.398536169383789</v>
       </c>
+      <c r="G335">
+        <v>28.71544134235846</v>
+      </c>
       <c r="I335" s="14">
         <f t="shared" si="28"/>
-        <v>43.061140968292023</v>
+        <v>40.192001043105314</v>
       </c>
       <c r="J335">
         <f t="shared" ref="J335:J363" si="29">_xlfn.STDEV.P(C335:H335)</f>
-        <v>3.6815903349432131</v>
+        <v>6.6159762361029912</v>
       </c>
       <c r="K335" s="8">
         <f t="shared" ref="K335:K363" si="30">J335/I335</f>
-        <v>8.549681341825438E-2</v>
+        <v>0.16460927707997064</v>
       </c>
       <c r="L335" t="s">
         <v>847</v>
@@ -21280,7 +21475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16">
       <c r="A336" s="12" t="s">
         <v>822</v>
       </c>
@@ -21299,17 +21494,20 @@
       <c r="F336">
         <v>3.7767528180292769</v>
       </c>
+      <c r="G336">
+        <v>4.8842494641016909</v>
+      </c>
       <c r="I336" s="14">
         <f t="shared" si="28"/>
-        <v>7.8149001754303997</v>
+        <v>7.2287700331646576</v>
       </c>
       <c r="J336">
         <f t="shared" si="29"/>
-        <v>5.5074131041075889</v>
+        <v>5.0635435669229336</v>
       </c>
       <c r="K336" s="8">
         <f t="shared" si="30"/>
-        <v>0.70473236771757897</v>
+        <v>0.70047097136747383</v>
       </c>
       <c r="L336" t="s">
         <v>847</v>
@@ -21327,7 +21525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16">
       <c r="A337" s="12" t="s">
         <v>823</v>
       </c>
@@ -21346,17 +21544,20 @@
       <c r="F337">
         <v>34.335774456700541</v>
       </c>
+      <c r="G337">
+        <v>19.622528307945959</v>
+      </c>
       <c r="I337" s="14">
         <f t="shared" si="28"/>
-        <v>19.600391822726301</v>
+        <v>19.604819119770234</v>
       </c>
       <c r="J337">
         <f t="shared" si="29"/>
-        <v>11.506631660478083</v>
+        <v>10.291848042978957</v>
       </c>
       <c r="K337" s="8">
         <f t="shared" si="30"/>
-        <v>0.58706130798550415</v>
+        <v>0.52496521289504128</v>
       </c>
       <c r="L337" t="s">
         <v>847</v>
@@ -21374,7 +21575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16">
       <c r="A338" s="12" t="s">
         <v>824</v>
       </c>
@@ -21393,17 +21594,20 @@
       <c r="F338">
         <v>35.341539352408837</v>
       </c>
+      <c r="G338">
+        <v>23.4342149368821</v>
+      </c>
       <c r="I338" s="14">
         <f t="shared" si="28"/>
-        <v>28.768700393546439</v>
+        <v>27.70180330221357</v>
       </c>
       <c r="J338">
         <f t="shared" si="29"/>
-        <v>8.0932004181190518</v>
+        <v>7.5467206136342613</v>
       </c>
       <c r="K338" s="8">
         <f t="shared" si="30"/>
-        <v>0.28131963930962156</v>
+        <v>0.2724270521779073</v>
       </c>
       <c r="L338" t="s">
         <v>847</v>
@@ -21421,7 +21625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16">
       <c r="A339" s="12" t="s">
         <v>825</v>
       </c>
@@ -21440,17 +21644,20 @@
       <c r="F339">
         <v>15.991758025073651</v>
       </c>
+      <c r="G339">
+        <v>27.269774420089551</v>
+      </c>
       <c r="I339" s="14">
         <f t="shared" si="28"/>
-        <v>15.80110546454015</v>
+        <v>18.094839255650029</v>
       </c>
       <c r="J339">
         <f t="shared" si="29"/>
-        <v>3.5577631110901553</v>
+        <v>5.5830996320703772</v>
       </c>
       <c r="K339" s="8">
         <f t="shared" si="30"/>
-        <v>0.22515912694047036</v>
+        <v>0.30854651722463244</v>
       </c>
       <c r="L339" t="s">
         <v>847</v>
@@ -21468,7 +21675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16">
       <c r="A340" s="12" t="s">
         <v>826</v>
       </c>
@@ -21487,17 +21694,20 @@
       <c r="F340">
         <v>15.066307756774091</v>
       </c>
+      <c r="G340">
+        <v>13.74667347840335</v>
+      </c>
       <c r="I340" s="14">
         <f t="shared" si="28"/>
-        <v>18.898174054205739</v>
+        <v>17.867873939045261</v>
       </c>
       <c r="J340">
         <f t="shared" si="29"/>
-        <v>3.6495180190978278</v>
+        <v>3.8602148549756348</v>
       </c>
       <c r="K340" s="8">
         <f t="shared" si="30"/>
-        <v>0.19311484848376856</v>
+        <v>0.21604220335023802</v>
       </c>
       <c r="L340" t="s">
         <v>847</v>
@@ -21515,7 +21725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16">
       <c r="A341" s="12" t="s">
         <v>827</v>
       </c>
@@ -21534,17 +21744,20 @@
       <c r="F341">
         <v>37.339752398011179</v>
       </c>
+      <c r="G341">
+        <v>23.000798974714421</v>
+      </c>
       <c r="I341" s="14">
         <f t="shared" si="28"/>
-        <v>28.163594880447903</v>
+        <v>27.131035699301208</v>
       </c>
       <c r="J341">
         <f t="shared" si="29"/>
-        <v>7.868209013194349</v>
+        <v>7.3342814447314071</v>
       </c>
       <c r="K341" s="8">
         <f t="shared" si="30"/>
-        <v>0.27937516665021761</v>
+        <v>0.27032810416892084</v>
       </c>
       <c r="L341" t="s">
         <v>847</v>
@@ -21562,7 +21775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16">
       <c r="A342" s="12" t="s">
         <v>828</v>
       </c>
@@ -21581,17 +21794,20 @@
       <c r="F342">
         <v>41.051381499986931</v>
       </c>
+      <c r="G342">
+        <v>37.833374112356331</v>
+      </c>
       <c r="I342" s="14">
         <f t="shared" si="28"/>
-        <v>35.238692164142194</v>
+        <v>35.757628553785018</v>
       </c>
       <c r="J342">
         <f t="shared" si="29"/>
-        <v>5.5667949593599886</v>
+        <v>5.0861129363814612</v>
       </c>
       <c r="K342" s="8">
         <f t="shared" si="30"/>
-        <v>0.15797393766572834</v>
+        <v>0.14223854159486998</v>
       </c>
       <c r="L342" t="s">
         <v>847</v>
@@ -21609,7 +21825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16">
       <c r="A343" s="12" t="s">
         <v>829</v>
       </c>
@@ -21628,17 +21844,20 @@
       <c r="F343">
         <v>59.908813495018087</v>
       </c>
+      <c r="G343">
+        <v>38.399983422844819</v>
+      </c>
       <c r="I343" s="14">
         <f t="shared" si="28"/>
-        <v>50.526511358233776</v>
+        <v>48.101205771155989</v>
       </c>
       <c r="J343">
         <f t="shared" si="29"/>
-        <v>6.4154335529492998</v>
+        <v>7.5136315387892889</v>
       </c>
       <c r="K343" s="8">
         <f t="shared" si="30"/>
-        <v>0.12697163094170055</v>
+        <v>0.1562046401609096</v>
       </c>
       <c r="L343" t="s">
         <v>847</v>
@@ -21656,7 +21875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16">
       <c r="A344" s="12" t="s">
         <v>830</v>
       </c>
@@ -21675,17 +21894,20 @@
       <c r="F344">
         <v>54.955635649626338</v>
       </c>
+      <c r="G344">
+        <v>47.751002824715592</v>
+      </c>
       <c r="I344" s="14">
         <f t="shared" si="28"/>
-        <v>49.772141774205409</v>
+        <v>49.367913984307442</v>
       </c>
       <c r="J344">
         <f t="shared" si="29"/>
-        <v>6.2157128388829932</v>
+        <v>5.61797733182211</v>
       </c>
       <c r="K344" s="8">
         <f t="shared" si="30"/>
-        <v>0.12488337084389461</v>
+        <v>0.11379815103404803</v>
       </c>
       <c r="L344" t="s">
         <v>847</v>
@@ -21703,7 +21925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16">
       <c r="A345" s="12" t="s">
         <v>831</v>
       </c>
@@ -21722,17 +21944,20 @@
       <c r="F345">
         <v>16.213307937128889</v>
       </c>
+      <c r="G345">
+        <v>19.698264834671871</v>
+      </c>
       <c r="I345" s="14">
         <f t="shared" si="28"/>
-        <v>21.889103530382474</v>
+        <v>21.450935791240354</v>
       </c>
       <c r="J345">
         <f t="shared" si="29"/>
-        <v>4.780592437401709</v>
+        <v>4.3647697662687248</v>
       </c>
       <c r="K345" s="8">
         <f t="shared" si="30"/>
-        <v>0.21840055855947502</v>
+        <v>0.20347689297783969</v>
       </c>
       <c r="L345" t="s">
         <v>847</v>
@@ -21750,7 +21975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16">
       <c r="A346" s="12" t="s">
         <v>832</v>
       </c>
@@ -21769,17 +21994,20 @@
       <c r="F346">
         <v>16.878535047358341</v>
       </c>
+      <c r="G346">
+        <v>6.717987040039441</v>
+      </c>
       <c r="I346" s="14">
         <f t="shared" si="28"/>
-        <v>18.414707763853407</v>
+        <v>16.075363619090616</v>
       </c>
       <c r="J346">
         <f t="shared" si="29"/>
-        <v>5.0571745819884883</v>
+        <v>6.507698203874563</v>
       </c>
       <c r="K346" s="8">
         <f t="shared" si="30"/>
-        <v>0.27462692576177156</v>
+        <v>0.40482432360946519</v>
       </c>
       <c r="L346" t="s">
         <v>847</v>
@@ -21797,7 +22025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16">
       <c r="A347" s="12" t="s">
         <v>833</v>
       </c>
@@ -21816,17 +22044,20 @@
       <c r="F347">
         <v>23.087856587034949</v>
       </c>
+      <c r="G347">
+        <v>25.765612429380031</v>
+      </c>
       <c r="I347" s="14">
         <f t="shared" si="28"/>
-        <v>26.88651335418324</v>
+        <v>26.662333169222599</v>
       </c>
       <c r="J347">
         <f t="shared" si="29"/>
-        <v>7.3159695669022025</v>
+        <v>6.5589447005129804</v>
       </c>
       <c r="K347" s="8">
         <f t="shared" si="30"/>
-        <v>0.27210555234615125</v>
+        <v>0.24600040284862368</v>
       </c>
       <c r="L347" t="s">
         <v>847</v>
@@ -21844,7 +22075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16">
       <c r="A348" s="12" t="s">
         <v>834</v>
       </c>
@@ -21863,17 +22094,20 @@
       <c r="F348">
         <v>28.96326294484966</v>
       </c>
+      <c r="G348">
+        <v>31.994575253376428</v>
+      </c>
       <c r="I348" s="14">
         <f t="shared" si="28"/>
-        <v>37.124009928475445</v>
+        <v>36.098122993455647</v>
       </c>
       <c r="J348">
         <f t="shared" si="29"/>
-        <v>5.445828561756457</v>
+        <v>5.2853963893932372</v>
       </c>
       <c r="K348" s="8">
         <f t="shared" si="30"/>
-        <v>0.14669289692165802</v>
+        <v>0.14641748520695785</v>
       </c>
       <c r="L348" t="s">
         <v>847</v>
@@ -21891,7 +22125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16">
       <c r="A349" s="12" t="s">
         <v>835</v>
       </c>
@@ -21910,17 +22144,20 @@
       <c r="F349">
         <v>10.355626276117951</v>
       </c>
+      <c r="G349">
+        <v>23.1968393881486</v>
+      </c>
       <c r="I349" s="14">
         <f t="shared" si="28"/>
-        <v>18.190461070014791</v>
+        <v>19.191736733641555</v>
       </c>
       <c r="J349">
         <f t="shared" si="29"/>
-        <v>4.9434808340100105</v>
+        <v>4.8539276903621342</v>
       </c>
       <c r="K349" s="8">
         <f t="shared" si="30"/>
-        <v>0.27176226127433672</v>
+        <v>0.25291758415243332</v>
       </c>
       <c r="L349" t="s">
         <v>847</v>
@@ -21938,7 +22175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16">
       <c r="A350" s="12" t="s">
         <v>836</v>
       </c>
@@ -21957,17 +22194,20 @@
       <c r="F350">
         <v>15.52656798360014</v>
       </c>
+      <c r="G350">
+        <v>11.027437244376349</v>
+      </c>
       <c r="I350" s="14">
         <f t="shared" si="28"/>
-        <v>20.848282772464774</v>
+        <v>18.884113666847089</v>
       </c>
       <c r="J350">
         <f t="shared" si="29"/>
-        <v>7.4422196291621097</v>
+        <v>7.7292397756053965</v>
       </c>
       <c r="K350" s="8">
         <f t="shared" si="30"/>
-        <v>0.35697038985826546</v>
+        <v>0.40929852001340333</v>
       </c>
       <c r="L350" t="s">
         <v>847</v>
@@ -21985,7 +22225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16">
       <c r="A351" s="12" t="s">
         <v>837</v>
       </c>
@@ -22004,17 +22244,20 @@
       <c r="F351">
         <v>37.437905613859179</v>
       </c>
+      <c r="G351">
+        <v>34.845573379679188</v>
+      </c>
       <c r="I351" s="14">
         <f t="shared" si="28"/>
-        <v>32.97445037615514</v>
+        <v>33.348674976859954</v>
       </c>
       <c r="J351">
         <f t="shared" si="29"/>
-        <v>3.5277743597896838</v>
+        <v>3.2428891060229263</v>
       </c>
       <c r="K351" s="8">
         <f t="shared" si="30"/>
-        <v>0.10698508449865561</v>
+        <v>9.7241917655592272E-2</v>
       </c>
       <c r="L351" t="s">
         <v>847</v>
@@ -22032,7 +22275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16">
       <c r="A352" s="12" t="s">
         <v>838</v>
       </c>
@@ -22051,17 +22294,20 @@
       <c r="F352">
         <v>22.177426705704409</v>
       </c>
+      <c r="G352">
+        <v>23.34878390197515</v>
+      </c>
       <c r="I352" s="14">
         <f t="shared" si="28"/>
-        <v>23.922274146976267</v>
+        <v>23.807576097976046</v>
       </c>
       <c r="J352">
         <f t="shared" si="29"/>
-        <v>7.1179100971743301</v>
+        <v>6.370583795143328</v>
       </c>
       <c r="K352" s="8">
         <f t="shared" si="30"/>
-        <v>0.29754320402159679</v>
+        <v>0.26758640900385111</v>
       </c>
       <c r="L352" t="s">
         <v>847</v>
@@ -22079,7 +22325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16">
       <c r="A353" s="12" t="s">
         <v>839</v>
       </c>
@@ -22098,17 +22344,20 @@
       <c r="F353">
         <v>28.065890675003839</v>
       </c>
+      <c r="G353">
+        <v>28.599408807709331</v>
+      </c>
       <c r="I353" s="14">
         <f t="shared" si="28"/>
-        <v>23.361603108031058</v>
+        <v>24.409164247966714</v>
       </c>
       <c r="J353">
         <f t="shared" si="29"/>
-        <v>6.3938790607411535</v>
+        <v>6.0905573572802396</v>
       </c>
       <c r="K353" s="8">
         <f t="shared" si="30"/>
-        <v>0.27369179380258879</v>
+        <v>0.24951929100921935</v>
       </c>
       <c r="L353" t="s">
         <v>847</v>
@@ -22126,7 +22375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16">
       <c r="A354" s="12" t="s">
         <v>840</v>
       </c>
@@ -22145,17 +22394,20 @@
       <c r="F354">
         <v>46.206009721908941</v>
       </c>
+      <c r="G354">
+        <v>39.206846097128818</v>
+      </c>
       <c r="I354" s="14">
         <f t="shared" si="28"/>
-        <v>37.590515852119921</v>
+        <v>37.913781901121702</v>
       </c>
       <c r="J354">
         <f t="shared" si="29"/>
-        <v>5.6397071859799057</v>
+        <v>5.0855718919924398</v>
       </c>
       <c r="K354" s="8">
         <f t="shared" si="30"/>
-        <v>0.15003005567059421</v>
+        <v>0.13413517821185705</v>
       </c>
       <c r="L354" t="s">
         <v>847</v>
@@ -22173,7 +22425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16">
       <c r="A355" s="12" t="s">
         <v>841</v>
       </c>
@@ -22192,17 +22444,20 @@
       <c r="F355">
         <v>68.983092258026645</v>
       </c>
+      <c r="G355">
+        <v>59.35340024152439</v>
+      </c>
       <c r="I355" s="14">
         <f t="shared" si="28"/>
-        <v>61.690896428924518</v>
+        <v>61.223397191444498</v>
       </c>
       <c r="J355">
         <f t="shared" si="29"/>
-        <v>7.3085397379518833</v>
+        <v>6.6034857938178471</v>
       </c>
       <c r="K355" s="8">
         <f t="shared" si="30"/>
-        <v>0.1184703118453177</v>
+        <v>0.10785885946787405</v>
       </c>
       <c r="L355" t="s">
         <v>847</v>
@@ -22220,7 +22475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16">
       <c r="A356" s="12" t="s">
         <v>842</v>
       </c>
@@ -22239,17 +22494,20 @@
       <c r="F356">
         <v>54.511250183058699</v>
       </c>
+      <c r="G356">
+        <v>39.351068115616997</v>
+      </c>
       <c r="I356" s="14">
         <f t="shared" si="28"/>
-        <v>45.857533299407855</v>
+        <v>44.556240262649681</v>
       </c>
       <c r="J356">
         <f t="shared" si="29"/>
-        <v>6.5919228842319919</v>
+        <v>6.4448593560597454</v>
       </c>
       <c r="K356" s="8">
         <f t="shared" si="30"/>
-        <v>0.14374787324893273</v>
+        <v>0.14464549338249036</v>
       </c>
       <c r="L356" t="s">
         <v>847</v>
@@ -22267,7 +22525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16">
       <c r="A357" s="12" t="s">
         <v>843</v>
       </c>
@@ -22286,17 +22544,20 @@
       <c r="F357">
         <v>89.886536340641243</v>
       </c>
+      <c r="G357">
+        <v>80.059424440834917</v>
+      </c>
       <c r="I357" s="14">
         <f t="shared" si="28"/>
-        <v>73.930107131403588</v>
+        <v>75.155970593289851</v>
       </c>
       <c r="J357">
         <f t="shared" si="29"/>
-        <v>10.608278629934279</v>
+        <v>9.7999706785790011</v>
       </c>
       <c r="K357" s="8">
         <f t="shared" si="30"/>
-        <v>0.14349064327851024</v>
+        <v>0.13039510502248736</v>
       </c>
       <c r="L357" t="s">
         <v>847</v>
@@ -22314,7 +22575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16">
       <c r="A358" s="12" t="s">
         <v>844</v>
       </c>
@@ -22333,17 +22594,20 @@
       <c r="F358">
         <v>48.582384912766017</v>
       </c>
+      <c r="G358">
+        <v>38.438325608352912</v>
+      </c>
       <c r="I358" s="14">
         <f t="shared" si="28"/>
-        <v>43.21493820147974</v>
+        <v>42.259615682854374</v>
       </c>
       <c r="J358">
         <f t="shared" si="29"/>
-        <v>4.0512621774109538</v>
+        <v>4.0964307198422487</v>
       </c>
       <c r="K358" s="8">
         <f t="shared" si="30"/>
-        <v>9.3746800204199593E-2</v>
+        <v>9.6934878693283003E-2</v>
       </c>
       <c r="L358" t="s">
         <v>847</v>
@@ -22361,7 +22625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16">
       <c r="A359" s="12" t="s">
         <v>845</v>
       </c>
@@ -22380,17 +22644,20 @@
       <c r="F359">
         <v>62.486154121198417</v>
       </c>
+      <c r="G359">
+        <v>54.725995344261463</v>
+      </c>
       <c r="I359" s="14">
         <f t="shared" si="28"/>
-        <v>53.410196918604157</v>
+        <v>53.673356603735627</v>
       </c>
       <c r="J359">
         <f t="shared" si="29"/>
-        <v>8.8662043130795762</v>
+        <v>7.9476207267666243</v>
       </c>
       <c r="K359" s="8">
         <f t="shared" si="30"/>
-        <v>0.16600208994906826</v>
+        <v>0.14807385320510169</v>
       </c>
       <c r="L359" t="s">
         <v>847</v>
@@ -22408,7 +22675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16">
       <c r="A360" s="12" t="s">
         <v>846</v>
       </c>
@@ -22427,17 +22694,20 @@
       <c r="F360">
         <v>21.184160551327121</v>
       </c>
+      <c r="G360">
+        <v>43.027952158896902</v>
+      </c>
       <c r="I360" s="14">
         <f t="shared" si="28"/>
-        <v>34.534712712587364</v>
+        <v>36.23336060184927</v>
       </c>
       <c r="J360">
         <f t="shared" si="29"/>
-        <v>8.3855305090809669</v>
+        <v>8.23379111599011</v>
       </c>
       <c r="K360" s="8">
         <f t="shared" si="30"/>
-        <v>0.24281454369894243</v>
+        <v>0.22724337404049338</v>
       </c>
       <c r="L360" t="s">
         <v>847</v>
@@ -22455,7 +22725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16">
       <c r="A361" s="5" t="s">
         <v>19</v>
       </c>
@@ -22474,17 +22744,20 @@
       <c r="F361">
         <v>82.179403371862776</v>
       </c>
+      <c r="G361">
+        <v>83.306284728428352</v>
+      </c>
       <c r="I361" s="14">
         <f t="shared" si="28"/>
-        <v>74.958889555714393</v>
+        <v>76.628368590257182</v>
       </c>
       <c r="J361">
         <f t="shared" si="29"/>
-        <v>7.0109012089455547</v>
+        <v>7.1042824828681441</v>
       </c>
       <c r="K361" s="8">
         <f t="shared" si="30"/>
-        <v>9.3529950223376651E-2</v>
+        <v>9.2710866922611337E-2</v>
       </c>
       <c r="L361" t="s">
         <v>21</v>
@@ -22502,7 +22775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16">
       <c r="A362" s="5" t="s">
         <v>19</v>
       </c>
@@ -22521,17 +22794,20 @@
       <c r="F362">
         <v>90.201779023215764</v>
       </c>
+      <c r="G362">
+        <v>90.268871855835172</v>
+      </c>
       <c r="I362" s="14">
         <f t="shared" si="28"/>
-        <v>77.561451816758833</v>
+        <v>80.102935824574104</v>
       </c>
       <c r="J362">
         <f t="shared" si="29"/>
-        <v>11.124476765584243</v>
+        <v>11.173171013384747</v>
       </c>
       <c r="K362" s="8">
         <f t="shared" si="30"/>
-        <v>0.14342790787189158</v>
+        <v>0.13948516241469672</v>
       </c>
       <c r="L362" t="s">
         <v>21</v>
@@ -22549,7 +22825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16">
       <c r="A363" s="5" t="s">
         <v>19</v>
       </c>
@@ -22568,17 +22844,20 @@
       <c r="F363">
         <v>84.824484261908083</v>
       </c>
+      <c r="G363">
+        <v>86.138336611046341</v>
+      </c>
       <c r="I363" s="14">
         <f t="shared" si="28"/>
-        <v>74.173774348249779</v>
+        <v>76.566686800809094</v>
       </c>
       <c r="J363">
         <f t="shared" si="29"/>
-        <v>12.452010255696978</v>
+        <v>12.122135436829609</v>
       </c>
       <c r="K363" s="8">
         <f t="shared" si="30"/>
-        <v>0.16787618487949843</v>
+        <v>0.15832127447757752</v>
       </c>
       <c r="L363" t="s">
         <v>21</v>
@@ -22642,14 +22921,14 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="C1" s="15" t="s">
         <v>569</v>
       </c>
@@ -22664,7 +22943,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -22705,7 +22984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -22738,7 +23017,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -22771,7 +23050,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -22804,7 +23083,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -22837,7 +23116,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -22870,7 +23149,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -22903,7 +23182,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -22936,7 +23215,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>571</v>
       </c>
@@ -22964,7 +23243,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -22997,7 +23276,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -23030,7 +23309,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -23063,7 +23342,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -23096,7 +23375,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -23129,7 +23408,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -23162,7 +23441,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -23195,7 +23474,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -23228,7 +23507,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -23261,7 +23540,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -23294,7 +23573,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -23327,7 +23606,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -23360,7 +23639,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -23393,7 +23672,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -23426,7 +23705,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -23459,7 +23738,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -23492,7 +23771,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -23525,7 +23804,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -23558,7 +23837,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -23591,7 +23870,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -23624,7 +23903,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
         <v>83</v>
       </c>
@@ -23657,7 +23936,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -23690,7 +23969,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
@@ -23723,7 +24002,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
         <v>89</v>
       </c>
@@ -23756,7 +24035,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
         <v>91</v>
       </c>
@@ -23789,7 +24068,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
         <v>93</v>
       </c>
@@ -23822,7 +24101,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
         <v>95</v>
       </c>
@@ -23855,7 +24134,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
         <v>97</v>
       </c>
@@ -23888,7 +24167,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
@@ -23921,7 +24200,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
         <v>101</v>
       </c>
@@ -23954,7 +24233,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
         <v>103</v>
       </c>
@@ -23987,7 +24266,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
@@ -24020,7 +24299,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
         <v>107</v>
       </c>
@@ -24053,7 +24332,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
@@ -24086,7 +24365,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
         <v>111</v>
       </c>
@@ -24119,7 +24398,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
         <v>113</v>
       </c>
@@ -24152,7 +24431,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -24185,7 +24464,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -24218,7 +24497,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -24251,7 +24530,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -24284,7 +24563,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
         <v>123</v>
       </c>
@@ -24317,7 +24596,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
         <v>125</v>
       </c>
@@ -24350,7 +24629,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -24383,7 +24662,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
@@ -24416,7 +24695,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
         <v>131</v>
       </c>
@@ -24449,7 +24728,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
         <v>133</v>
       </c>
@@ -24482,7 +24761,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
         <v>135</v>
       </c>
@@ -24515,7 +24794,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
         <v>137</v>
       </c>
@@ -24548,7 +24827,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
         <v>139</v>
       </c>
@@ -24581,7 +24860,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
@@ -24614,7 +24893,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
         <v>143</v>
       </c>
@@ -24647,7 +24926,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
         <v>145</v>
       </c>
@@ -24680,7 +24959,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
         <v>147</v>
       </c>
@@ -24713,7 +24992,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
         <v>149</v>
       </c>
@@ -24746,7 +25025,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
         <v>152</v>
       </c>
@@ -24779,7 +25058,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
         <v>154</v>
       </c>
@@ -24812,7 +25091,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
         <v>156</v>
       </c>
@@ -24845,7 +25124,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
         <v>158</v>
       </c>
@@ -24878,7 +25157,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
         <v>160</v>
       </c>
@@ -24911,7 +25190,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
         <v>162</v>
       </c>
@@ -24944,7 +25223,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -24977,7 +25256,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
         <v>166</v>
       </c>
@@ -25010,7 +25289,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
         <v>168</v>
       </c>
@@ -25043,7 +25322,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
         <v>170</v>
       </c>
@@ -25076,7 +25355,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
         <v>172</v>
       </c>
@@ -25109,7 +25388,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
         <v>174</v>
       </c>
@@ -25142,7 +25421,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
         <v>176</v>
       </c>
@@ -25175,7 +25454,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
         <v>178</v>
       </c>
@@ -25208,7 +25487,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
         <v>180</v>
       </c>
@@ -25241,7 +25520,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
         <v>182</v>
       </c>
@@ -25274,7 +25553,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
         <v>184</v>
       </c>
@@ -25307,7 +25586,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
         <v>186</v>
       </c>
@@ -25340,7 +25619,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
         <v>188</v>
       </c>
@@ -25373,7 +25652,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
         <v>190</v>
       </c>
@@ -25406,7 +25685,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
         <v>192</v>
       </c>
@@ -25439,7 +25718,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
         <v>194</v>
       </c>
@@ -25472,7 +25751,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="5" t="s">
         <v>196</v>
       </c>
@@ -25505,7 +25784,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
         <v>198</v>
       </c>
@@ -25538,7 +25817,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="5" t="s">
         <v>200</v>
       </c>
@@ -25571,7 +25850,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
         <v>202</v>
       </c>
@@ -25604,7 +25883,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
         <v>204</v>
       </c>
@@ -25637,7 +25916,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="5" t="s">
         <v>206</v>
       </c>
@@ -25670,7 +25949,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" s="9" t="s">
         <v>208</v>
       </c>
@@ -25712,7 +25991,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" s="9" t="s">
         <v>212</v>
       </c>
@@ -25754,7 +26033,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" s="9" t="s">
         <v>214</v>
       </c>
@@ -25796,7 +26075,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" s="9" t="s">
         <v>216</v>
       </c>
@@ -25838,7 +26117,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="9" t="s">
         <v>218</v>
       </c>
@@ -25880,7 +26159,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" s="9" t="s">
         <v>220</v>
       </c>
@@ -25922,7 +26201,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="9" t="s">
         <v>222</v>
       </c>
@@ -25963,7 +26242,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="9" t="s">
         <v>224</v>
       </c>
@@ -26005,7 +26284,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" s="9" t="s">
         <v>226</v>
       </c>
@@ -26047,7 +26326,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="9" t="s">
         <v>228</v>
       </c>
@@ -26089,7 +26368,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" s="9" t="s">
         <v>230</v>
       </c>
@@ -26131,7 +26410,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="9" t="s">
         <v>232</v>
       </c>
@@ -26173,7 +26452,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" s="9" t="s">
         <v>234</v>
       </c>
@@ -26215,7 +26494,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" s="9" t="s">
         <v>236</v>
       </c>
@@ -26257,7 +26536,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="9" t="s">
         <v>238</v>
       </c>
@@ -26299,7 +26578,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="9" t="s">
         <v>240</v>
       </c>
@@ -26341,7 +26620,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" s="9" t="s">
         <v>242</v>
       </c>
@@ -26383,7 +26662,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="9" t="s">
         <v>244</v>
       </c>
@@ -26425,7 +26704,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="9" t="s">
         <v>246</v>
       </c>
@@ -26467,7 +26746,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="9" t="s">
         <v>248</v>
       </c>
@@ -26509,7 +26788,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113" s="9" t="s">
         <v>250</v>
       </c>
@@ -26551,7 +26830,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" s="9" t="s">
         <v>252</v>
       </c>
@@ -26593,7 +26872,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115" s="9" t="s">
         <v>254</v>
       </c>
@@ -26635,7 +26914,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" s="9" t="s">
         <v>256</v>
       </c>
@@ -26677,7 +26956,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" s="9" t="s">
         <v>258</v>
       </c>
@@ -26719,7 +26998,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118" s="9" t="s">
         <v>260</v>
       </c>
@@ -26761,7 +27040,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119" s="9" t="s">
         <v>262</v>
       </c>
@@ -26803,7 +27082,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120" s="9" t="s">
         <v>264</v>
       </c>
@@ -26845,7 +27124,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" s="9" t="s">
         <v>266</v>
       </c>
@@ -26887,7 +27166,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122" s="9" t="s">
         <v>268</v>
       </c>
@@ -26929,7 +27208,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123" s="9" t="s">
         <v>270</v>
       </c>
@@ -26971,7 +27250,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124" s="9" t="s">
         <v>272</v>
       </c>
@@ -27013,7 +27292,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125" s="9" t="s">
         <v>274</v>
       </c>
@@ -27055,7 +27334,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" s="9" t="s">
         <v>276</v>
       </c>
@@ -27097,7 +27376,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" s="9" t="s">
         <v>278</v>
       </c>
@@ -27139,7 +27418,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" s="9" t="s">
         <v>280</v>
       </c>
@@ -27181,7 +27460,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" s="9" t="s">
         <v>282</v>
       </c>
@@ -27223,7 +27502,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130" s="9" t="s">
         <v>284</v>
       </c>
@@ -27265,7 +27544,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131" s="9" t="s">
         <v>286</v>
       </c>
@@ -27307,7 +27586,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132" s="9" t="s">
         <v>288</v>
       </c>
@@ -27349,7 +27628,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133" s="9" t="s">
         <v>290</v>
       </c>
@@ -27391,7 +27670,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134" s="9" t="s">
         <v>292</v>
       </c>
@@ -27433,7 +27712,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135" s="9" t="s">
         <v>294</v>
       </c>
@@ -27475,7 +27754,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136" s="9" t="s">
         <v>296</v>
       </c>
@@ -27517,7 +27796,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137" s="9" t="s">
         <v>298</v>
       </c>
@@ -27559,7 +27838,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138" s="9" t="s">
         <v>300</v>
       </c>
@@ -27601,7 +27880,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139" s="9" t="s">
         <v>302</v>
       </c>
@@ -27643,7 +27922,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" s="9" t="s">
         <v>304</v>
       </c>
@@ -27685,7 +27964,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141" s="9" t="s">
         <v>306</v>
       </c>
@@ -27727,7 +28006,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" s="9" t="s">
         <v>308</v>
       </c>
@@ -27769,7 +28048,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143" s="9" t="s">
         <v>310</v>
       </c>
@@ -27811,7 +28090,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144" s="9" t="s">
         <v>312</v>
       </c>
@@ -27853,7 +28132,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13">
       <c r="A145" s="9" t="s">
         <v>314</v>
       </c>
@@ -27895,7 +28174,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146" s="9" t="s">
         <v>316</v>
       </c>
@@ -27937,7 +28216,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13">
       <c r="A147" s="9" t="s">
         <v>318</v>
       </c>
@@ -27979,7 +28258,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13">
       <c r="A148" s="9" t="s">
         <v>320</v>
       </c>
@@ -28021,7 +28300,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149" s="9" t="s">
         <v>322</v>
       </c>
@@ -28063,7 +28342,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13">
       <c r="A150" s="9" t="s">
         <v>324</v>
       </c>
@@ -28105,7 +28384,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13">
       <c r="A151" s="9" t="s">
         <v>326</v>
       </c>
@@ -28147,7 +28426,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13">
       <c r="A152" s="9" t="s">
         <v>328</v>
       </c>
@@ -28189,7 +28468,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153" s="9" t="s">
         <v>330</v>
       </c>
@@ -28231,7 +28510,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13">
       <c r="A154" s="9" t="s">
         <v>333</v>
       </c>
@@ -28273,7 +28552,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13">
       <c r="A155" s="9" t="s">
         <v>335</v>
       </c>
@@ -28315,7 +28594,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="A156" s="9" t="s">
         <v>337</v>
       </c>
@@ -28357,7 +28636,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157" s="9" t="s">
         <v>339</v>
       </c>
@@ -28399,7 +28678,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13">
       <c r="A158" s="9" t="s">
         <v>341</v>
       </c>
@@ -28441,7 +28720,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13">
       <c r="A159" s="9" t="s">
         <v>343</v>
       </c>
@@ -28483,7 +28762,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13">
       <c r="A160" s="9" t="s">
         <v>345</v>
       </c>
@@ -28525,7 +28804,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161" s="9" t="s">
         <v>347</v>
       </c>
@@ -28567,7 +28846,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162" s="9" t="s">
         <v>349</v>
       </c>
@@ -28609,7 +28888,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163" s="9" t="s">
         <v>351</v>
       </c>
@@ -28651,7 +28930,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164" s="9" t="s">
         <v>353</v>
       </c>
@@ -28693,7 +28972,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165" s="9" t="s">
         <v>355</v>
       </c>
@@ -28735,7 +29014,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166" s="9" t="s">
         <v>357</v>
       </c>
@@ -28777,7 +29056,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167" s="9" t="s">
         <v>359</v>
       </c>
@@ -28819,7 +29098,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168" s="9" t="s">
         <v>361</v>
       </c>
@@ -28861,7 +29140,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169" s="9" t="s">
         <v>363</v>
       </c>
@@ -28903,7 +29182,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170" s="9" t="s">
         <v>365</v>
       </c>
@@ -28945,7 +29224,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171" s="9" t="s">
         <v>367</v>
       </c>
@@ -28987,7 +29266,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172" s="9" t="s">
         <v>369</v>
       </c>
@@ -29029,7 +29308,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173" s="9" t="s">
         <v>371</v>
       </c>
@@ -29071,7 +29350,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174" s="9" t="s">
         <v>373</v>
       </c>
@@ -29113,7 +29392,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175" s="9" t="s">
         <v>375</v>
       </c>
@@ -29155,7 +29434,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176" s="9" t="s">
         <v>377</v>
       </c>
@@ -29197,7 +29476,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177" s="9" t="s">
         <v>379</v>
       </c>
@@ -29239,7 +29518,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178" s="9" t="s">
         <v>381</v>
       </c>
@@ -29281,7 +29560,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179" s="9" t="s">
         <v>383</v>
       </c>
@@ -29323,7 +29602,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180" s="9" t="s">
         <v>385</v>
       </c>
@@ -29365,32 +29644,32 @@
         <v>572</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="F181">
         <v>201.6</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="F182">
         <v>3450.9</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="F183">
         <v>4736.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="F184">
         <v>4272.5</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="F185">
         <v>22529.9</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="F186">
         <v>4821.6000000000004</v>
       </c>
@@ -29420,16 +29699,16 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.6328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="6" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
         <v>573</v>
       </c>
@@ -29445,7 +29724,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>4451.3999999999996</v>
       </c>
@@ -29483,7 +29762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>3804.5</v>
       </c>
@@ -29541,7 +29820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1269</v>
       </c>
@@ -29599,7 +29878,7 @@
         <v>1.2952704707189187</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>4381.2</v>
       </c>
@@ -29657,7 +29936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4759.7</v>
       </c>
@@ -29715,7 +29994,7 @@
         <v>1.0096774864583054</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>1440.1</v>
       </c>
@@ -29773,7 +30052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>3708.1</v>
       </c>
@@ -29831,7 +30110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>0</v>
       </c>
@@ -29889,7 +30168,7 @@
         <v>1.0011976197507046</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>4732.8</v>
       </c>
@@ -29932,7 +30211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>1232.7</v>
       </c>
@@ -29990,7 +30269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>529.1</v>
       </c>
@@ -30048,7 +30327,7 @@
         <v>1.4135498236063859</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>29.2</v>
       </c>
@@ -30106,7 +30385,7 @@
         <v>1.2067950019292712</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>2837.7</v>
       </c>
@@ -30164,7 +30443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>4250.1000000000004</v>
       </c>
@@ -30219,7 +30498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>4103.3999999999996</v>
       </c>
@@ -30277,7 +30556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>2132.6999999999998</v>
       </c>
@@ -30335,7 +30614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>3313.1</v>
       </c>
@@ -30393,7 +30672,7 @@
         <v>1.0935845448603492</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>2351.1999999999998</v>
       </c>
@@ -30451,7 +30730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>3089.7</v>
       </c>
@@ -30509,7 +30788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>2539.6999999999998</v>
       </c>
@@ -30567,7 +30846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>4188</v>
       </c>
@@ -30625,7 +30904,7 @@
         <v>1.169255754237303</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>1410.8</v>
       </c>
@@ -30683,7 +30962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>51.7</v>
       </c>
@@ -30741,7 +31020,7 @@
         <v>1.2203489699610526</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>19.600000000000001</v>
       </c>
@@ -30799,7 +31078,7 @@
         <v>1.0244512931997685</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>1309.8</v>
       </c>
@@ -30857,7 +31136,7 @@
         <v>2.6234358690585302</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>3779.7</v>
       </c>
@@ -30915,7 +31194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>664.6</v>
       </c>
@@ -30973,7 +31252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>568.4</v>
       </c>
@@ -31031,7 +31310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>579.70000000000005</v>
       </c>
@@ -31089,7 +31368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>424.2</v>
       </c>
@@ -31147,7 +31426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>480.8</v>
       </c>
@@ -31205,7 +31484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>388.5</v>
       </c>
@@ -31263,7 +31542,7 @@
         <v>1.0750927895862123</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>940.1</v>
       </c>
@@ -31321,7 +31600,7 @@
         <v>1.6248406201304648</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>1510.1</v>
       </c>
@@ -31379,7 +31658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>55.6</v>
       </c>
@@ -31437,7 +31716,7 @@
         <v>1.0963380759801249</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>37.5</v>
       </c>
@@ -31495,7 +31774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>1006.5</v>
       </c>
@@ -31553,7 +31832,7 @@
         <v>1.8732830674560639</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>1013.4</v>
       </c>
@@ -31611,7 +31890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>1132.2</v>
       </c>
@@ -31669,7 +31948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>2202.1</v>
       </c>
@@ -31727,7 +32006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>3021.3</v>
       </c>
@@ -31785,7 +32064,7 @@
         <v>1.1725074778240294</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>4670</v>
       </c>
@@ -31843,7 +32122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>377.2</v>
       </c>
@@ -31901,7 +32180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>351.5</v>
       </c>
@@ -31959,7 +32238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>4359</v>
       </c>
@@ -32017,7 +32296,7 @@
         <v>3.561698879196241</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>2306.9</v>
       </c>
@@ -32075,7 +32354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>42.5</v>
       </c>
@@ -32133,7 +32412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>12.2</v>
       </c>
@@ -32191,7 +32470,7 @@
         <v>1.0728920239008903</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>4502.8999999999996</v>
       </c>
@@ -32249,7 +32528,7 @@
         <v>1.3357805467463613</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>3976.6</v>
       </c>
@@ -32307,7 +32586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>2195.1999999999998</v>
       </c>
@@ -32365,7 +32644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>3090.6</v>
       </c>
@@ -32423,7 +32702,7 @@
         <v>1.128735497610172</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>3243.6</v>
       </c>
@@ -32481,7 +32760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>3051.6</v>
       </c>
@@ -32539,7 +32818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>3604</v>
       </c>
@@ -32597,7 +32876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>3888.4</v>
       </c>
@@ -32655,7 +32934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>4137.6000000000004</v>
       </c>
@@ -32713,7 +32992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>3491.1</v>
       </c>
@@ -32771,7 +33050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>21</v>
       </c>
@@ -32829,7 +33108,7 @@
         <v>1.0076352426174098</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>27.2</v>
       </c>
@@ -32887,7 +33166,7 @@
         <v>1.2167403854907388</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>4656.8999999999996</v>
       </c>
@@ -32945,7 +33224,7 @@
         <v>4.0619252548293048</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>3478.8</v>
       </c>
@@ -33003,7 +33282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>492.6</v>
       </c>
@@ -33061,7 +33340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>346</v>
       </c>
@@ -33119,7 +33398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>251.3</v>
       </c>
@@ -33177,7 +33456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>276.89999999999998</v>
       </c>
@@ -33235,7 +33514,7 @@
         <v>1.1197713131684661</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>360.6</v>
       </c>
@@ -33293,7 +33572,7 @@
         <v>1.1149805091358778</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>318</v>
       </c>
@@ -33351,7 +33630,7 @@
         <v>1.091910300828645</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>348</v>
       </c>
@@ -33409,7 +33688,7 @@
         <v>1.0807765929998294</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>233.4</v>
       </c>
@@ -33467,7 +33746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>26.6</v>
       </c>
@@ -33525,7 +33804,7 @@
         <v>1.228595174543162</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>20.9</v>
       </c>
@@ -33583,7 +33862,7 @@
         <v>1.5121885371426311</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>440.5</v>
       </c>
@@ -33641,7 +33920,7 @@
         <v>1.2655931602175603</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>341.5</v>
       </c>
@@ -33699,7 +33978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>320.89999999999998</v>
       </c>
@@ -33757,7 +34036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>378.1</v>
       </c>
@@ -33815,7 +34094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>3130.8</v>
       </c>
@@ -33873,7 +34152,7 @@
         <v>1.9489258823195479</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>274.10000000000002</v>
       </c>
@@ -33931,7 +34210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>283.10000000000002</v>
       </c>
@@ -33989,7 +34268,7 @@
         <v>1.1388860237427094</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81">
         <v>269.5</v>
       </c>
@@ -34047,7 +34326,7 @@
         <v>1.1384317579137457</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82">
         <v>312.8</v>
       </c>
@@ -34105,7 +34384,7 @@
         <v>1.0540497846642338</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83">
         <v>120.1</v>
       </c>
@@ -34163,7 +34442,7 @@
         <v>1.1337178832092052</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84">
         <v>227.6</v>
       </c>
@@ -34221,7 +34500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85">
         <v>35.1</v>
       </c>
@@ -34279,7 +34558,7 @@
         <v>2.2601678787155235</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86">
         <v>308.60000000000002</v>
       </c>
@@ -34337,7 +34616,7 @@
         <v>1.0235278413579181</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87">
         <v>1636.1</v>
       </c>
@@ -34395,7 +34674,7 @@
         <v>1.4558439239343104</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88">
         <v>287.5</v>
       </c>
@@ -34453,7 +34732,7 @@
         <v>1.0998088492925739</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89">
         <v>566.1</v>
       </c>
@@ -34511,7 +34790,7 @@
         <v>1.0994386527211388</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90">
         <v>302.7</v>
       </c>
@@ -34557,7 +34836,7 @@
         <v>1.075595260589862</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91">
         <v>278.39999999999998</v>
       </c>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B823F-E79D-4826-A01E-D395AAE96688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68848F7-EC7C-4A7D-B6AC-D49577355A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3078,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="H356" sqref="H356"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18247,17 +18247,20 @@
       <c r="G271">
         <v>62.19745211087217</v>
       </c>
+      <c r="H271">
+        <v>54.246293767506877</v>
+      </c>
       <c r="I271" s="14">
         <f t="shared" si="25"/>
-        <v>68.400758204316276</v>
+        <v>66.041680798181375</v>
       </c>
       <c r="J271">
         <f t="shared" ref="J271:J334" si="26">_xlfn.STDEV.P(C271:H271)</f>
-        <v>10.629605812529375</v>
+        <v>11.044606412882262</v>
       </c>
       <c r="K271" s="8">
         <f t="shared" ref="K271:K334" si="27">J271/I271</f>
-        <v>0.15540187114268886</v>
+        <v>0.16723690674429961</v>
       </c>
       <c r="L271" t="s">
         <v>847</v>
@@ -18297,17 +18300,20 @@
       <c r="G272">
         <v>72.15598806579581</v>
       </c>
+      <c r="H272">
+        <v>60.732381104619762</v>
+      </c>
       <c r="I272" s="14">
         <f t="shared" si="25"/>
-        <v>71.83463523152264</v>
+        <v>69.984259543705491</v>
       </c>
       <c r="J272">
         <f t="shared" si="26"/>
-        <v>10.340357885035454</v>
+        <v>10.30640344264196</v>
       </c>
       <c r="K272" s="8">
         <f t="shared" si="27"/>
-        <v>0.14394668883204512</v>
+        <v>0.14726744999288824</v>
       </c>
       <c r="L272" t="s">
         <v>847</v>
@@ -18347,17 +18353,20 @@
       <c r="G273">
         <v>52.163030614147672</v>
       </c>
+      <c r="H273">
+        <v>42.195739812308751</v>
+      </c>
       <c r="I273" s="14">
         <f t="shared" si="25"/>
-        <v>52.757053398677257</v>
+        <v>50.996834467615848</v>
       </c>
       <c r="J273">
         <f t="shared" si="26"/>
-        <v>3.6403009945576481</v>
+        <v>5.1512146983809473</v>
       </c>
       <c r="K273" s="8">
         <f t="shared" si="27"/>
-        <v>6.9001218984851773E-2</v>
+        <v>0.10101047941813106</v>
       </c>
       <c r="L273" t="s">
         <v>847</v>
@@ -18397,17 +18406,20 @@
       <c r="G274">
         <v>77.380682018118847</v>
       </c>
+      <c r="H274">
+        <v>64.286716218123303</v>
+      </c>
       <c r="I274" s="14">
         <f t="shared" si="25"/>
-        <v>73.340755408382506</v>
+        <v>71.831748876672634</v>
       </c>
       <c r="J274">
         <f t="shared" si="26"/>
-        <v>11.940850961241448</v>
+        <v>11.410759759799816</v>
       </c>
       <c r="K274" s="8">
         <f t="shared" si="27"/>
-        <v>0.16281330748164977</v>
+        <v>0.15885398780128354</v>
       </c>
       <c r="L274" t="s">
         <v>847</v>
@@ -18447,17 +18459,20 @@
       <c r="G275">
         <v>55.405716968783871</v>
       </c>
+      <c r="H275">
+        <v>47.375126820368138</v>
+      </c>
       <c r="I275" s="14">
         <f t="shared" si="25"/>
-        <v>59.411836046544479</v>
+        <v>57.405717842181751</v>
       </c>
       <c r="J275">
         <f t="shared" si="26"/>
-        <v>5.709732352005644</v>
+        <v>6.8767788626407116</v>
       </c>
       <c r="K275" s="8">
         <f t="shared" si="27"/>
-        <v>9.6104290524408637E-2</v>
+        <v>0.11979257678731875</v>
       </c>
       <c r="L275" t="s">
         <v>847</v>
@@ -18497,17 +18512,20 @@
       <c r="G276">
         <v>50.706305467875758</v>
       </c>
+      <c r="H276">
+        <v>50.875409690646443</v>
+      </c>
       <c r="I276" s="14">
         <f t="shared" si="25"/>
-        <v>55.940779020387254</v>
+        <v>55.096550798763786</v>
       </c>
       <c r="J276">
         <f t="shared" si="26"/>
-        <v>4.8700673226600504</v>
+        <v>4.8299312856011358</v>
       </c>
       <c r="K276" s="8">
         <f t="shared" si="27"/>
-        <v>8.7057552789623932E-2</v>
+        <v>8.7663042705560912E-2</v>
       </c>
       <c r="L276" t="s">
         <v>847</v>
@@ -18547,17 +18565,20 @@
       <c r="G277">
         <v>43.409991662158482</v>
       </c>
+      <c r="H277">
+        <v>33.693820339295783</v>
+      </c>
       <c r="I277" s="14">
         <f t="shared" si="25"/>
-        <v>44.098982775993598</v>
+        <v>42.364789036543961</v>
       </c>
       <c r="J277">
         <f t="shared" si="26"/>
-        <v>4.0985023927300848</v>
+        <v>5.3884358753175734</v>
       </c>
       <c r="K277" s="8">
         <f t="shared" si="27"/>
-        <v>9.2938705945870684E-2</v>
+        <v>0.12719137750619972</v>
       </c>
       <c r="L277" t="s">
         <v>847</v>
@@ -18597,17 +18618,20 @@
       <c r="G278">
         <v>41.499744663472747</v>
       </c>
+      <c r="H278">
+        <v>35.968141844793948</v>
+      </c>
       <c r="I278" s="14">
         <f t="shared" si="25"/>
-        <v>44.741881443167252</v>
+        <v>43.279591510105035</v>
       </c>
       <c r="J278">
         <f t="shared" si="26"/>
-        <v>4.2002568520639034</v>
+        <v>5.0391722793629796</v>
       </c>
       <c r="K278" s="8">
         <f t="shared" si="27"/>
-        <v>9.3877519598705758E-2</v>
+        <v>0.11643299078242039</v>
       </c>
       <c r="L278" t="s">
         <v>847</v>
@@ -18647,17 +18671,20 @@
       <c r="G279">
         <v>49.669876605783408</v>
       </c>
+      <c r="H279">
+        <v>46.896930961167207</v>
+      </c>
       <c r="I279" s="14">
         <f t="shared" si="25"/>
-        <v>51.115735056122666</v>
+        <v>50.412601040296757</v>
       </c>
       <c r="J279">
         <f t="shared" si="26"/>
-        <v>5.0999212963093532</v>
+        <v>4.9138903370800566</v>
       </c>
       <c r="K279" s="8">
         <f t="shared" si="27"/>
-        <v>9.9772042614859793E-2</v>
+        <v>9.7473453773039648E-2</v>
       </c>
       <c r="L279" t="s">
         <v>847</v>
@@ -18697,17 +18724,20 @@
       <c r="G280">
         <v>37.008897601832601</v>
       </c>
+      <c r="H280">
+        <v>30.837897325704759</v>
+      </c>
       <c r="I280" s="14">
         <f t="shared" si="25"/>
-        <v>35.993172466771092</v>
+        <v>35.133959943260038</v>
       </c>
       <c r="J280">
         <f t="shared" si="26"/>
-        <v>5.4290921973070274</v>
+        <v>5.3154271582982204</v>
       </c>
       <c r="K280" s="8">
         <f t="shared" si="27"/>
-        <v>0.15083672333465928</v>
+        <v>0.15129029482820683</v>
       </c>
       <c r="L280" t="s">
         <v>847</v>
@@ -18747,17 +18777,20 @@
       <c r="G281">
         <v>61.987510355910452</v>
       </c>
+      <c r="H281">
+        <v>55.844178242554577</v>
+      </c>
       <c r="I281" s="14">
         <f t="shared" si="25"/>
-        <v>65.269450598772394</v>
+        <v>63.698571872736089</v>
       </c>
       <c r="J281">
         <f t="shared" si="26"/>
-        <v>6.171368794629438</v>
+        <v>6.6390105080255148</v>
       </c>
       <c r="K281" s="8">
         <f t="shared" si="27"/>
-        <v>9.4552179281642529E-2</v>
+        <v>0.10422542158856637</v>
       </c>
       <c r="L281" t="s">
         <v>847</v>
@@ -18797,17 +18830,20 @@
       <c r="G282">
         <v>44.4546095578497</v>
       </c>
+      <c r="H282">
+        <v>36.438443174634202</v>
+      </c>
       <c r="I282" s="14">
         <f t="shared" si="25"/>
-        <v>44.711277423624225</v>
+        <v>43.332471715459228</v>
       </c>
       <c r="J282">
         <f t="shared" si="26"/>
-        <v>5.7299903334212763</v>
+        <v>6.071752925522655</v>
       </c>
       <c r="K282" s="8">
         <f t="shared" si="27"/>
-        <v>0.12815537071624139</v>
+        <v>0.14012016128211088</v>
       </c>
       <c r="L282" t="s">
         <v>847</v>
@@ -18847,17 +18883,20 @@
       <c r="G283">
         <v>68.801988876898747</v>
       </c>
+      <c r="H283">
+        <v>58.408486908579142</v>
+      </c>
       <c r="I283" s="14">
         <f t="shared" si="25"/>
-        <v>76.093003682472698</v>
+        <v>73.145584220157104</v>
       </c>
       <c r="J283">
         <f t="shared" si="26"/>
-        <v>10.776828783738129</v>
+        <v>11.841443027035254</v>
       </c>
       <c r="K283" s="8">
         <f t="shared" si="27"/>
-        <v>0.14162706506775036</v>
+        <v>0.1618886929851337</v>
       </c>
       <c r="L283" t="s">
         <v>847</v>
@@ -18897,17 +18936,20 @@
       <c r="G284">
         <v>63.20468671910109</v>
       </c>
+      <c r="H284">
+        <v>60.348771256362838</v>
+      </c>
       <c r="I284" s="14">
         <f t="shared" si="25"/>
-        <v>66.688083574342002</v>
+        <v>65.63153152134548</v>
       </c>
       <c r="J284">
         <f t="shared" si="26"/>
-        <v>9.3238470651049763</v>
+        <v>8.8332674936671918</v>
       </c>
       <c r="K284" s="8">
         <f t="shared" si="27"/>
-        <v>0.13981279061214907</v>
+        <v>0.13458877598786995</v>
       </c>
       <c r="L284" t="s">
         <v>847</v>
@@ -18947,17 +18989,20 @@
       <c r="G285">
         <v>48.584636038723559</v>
       </c>
+      <c r="H285">
+        <v>41.501702327097647</v>
+      </c>
       <c r="I285" s="14">
         <f t="shared" si="25"/>
-        <v>45.563054216833905</v>
+        <v>44.886162235211195</v>
       </c>
       <c r="J285">
         <f t="shared" si="26"/>
-        <v>2.33754525508692</v>
+        <v>2.6161699658549975</v>
       </c>
       <c r="K285" s="8">
         <f t="shared" si="27"/>
-        <v>5.1303524209825278E-2</v>
+        <v>5.8284554427839426E-2</v>
       </c>
       <c r="L285" t="s">
         <v>847</v>
@@ -18997,17 +19042,20 @@
       <c r="G286">
         <v>63.619010504998151</v>
       </c>
+      <c r="H286">
+        <v>47.494272475261631</v>
+      </c>
       <c r="I286" s="14">
         <f t="shared" si="25"/>
-        <v>63.797972341158314</v>
+        <v>61.080689030175535</v>
       </c>
       <c r="J286">
         <f t="shared" si="26"/>
-        <v>2.473080776787532</v>
+        <v>6.4818914472931306</v>
       </c>
       <c r="K286" s="8">
         <f t="shared" si="27"/>
-        <v>3.8764253565345068E-2</v>
+        <v>0.10612014288330798</v>
       </c>
       <c r="L286" t="s">
         <v>847</v>
@@ -19047,17 +19095,20 @@
       <c r="G287">
         <v>27.38161138335504</v>
       </c>
+      <c r="H287">
+        <v>26.695841761804932</v>
+      </c>
       <c r="I287" s="14">
         <f t="shared" si="25"/>
-        <v>21.152939100856429</v>
+        <v>22.076756211014512</v>
       </c>
       <c r="J287">
         <f t="shared" si="26"/>
-        <v>6.4046564189862929</v>
+        <v>6.200823343408211</v>
       </c>
       <c r="K287" s="8">
         <f t="shared" si="27"/>
-        <v>0.30277855897230777</v>
+        <v>0.28087565420115945</v>
       </c>
       <c r="L287" t="s">
         <v>847</v>
@@ -19097,17 +19148,20 @@
       <c r="G288">
         <v>12.033348440016569</v>
       </c>
+      <c r="H288">
+        <v>17.8648564422258</v>
+      </c>
       <c r="I288" s="14">
         <f t="shared" si="25"/>
-        <v>17.76183084806744</v>
+        <v>17.779001780427169</v>
       </c>
       <c r="J288">
         <f t="shared" si="26"/>
-        <v>6.9299454936401137</v>
+        <v>6.3262622976453917</v>
       </c>
       <c r="K288" s="8">
         <f t="shared" si="27"/>
-        <v>0.39015941278340233</v>
+        <v>0.35582775544856227</v>
       </c>
       <c r="L288" t="s">
         <v>847</v>
@@ -19147,17 +19201,20 @@
       <c r="G289">
         <v>58.756180363329392</v>
       </c>
+      <c r="H289">
+        <v>55.633399291479087</v>
+      </c>
       <c r="I289" s="14">
         <f t="shared" si="25"/>
-        <v>62.251305265889116</v>
+        <v>61.148320936820774</v>
       </c>
       <c r="J289">
         <f t="shared" si="26"/>
-        <v>4.9691418930766096</v>
+        <v>5.1633175490304497</v>
       </c>
       <c r="K289" s="8">
         <f t="shared" si="27"/>
-        <v>7.9823898821917122E-2</v>
+        <v>8.4439236759505723E-2</v>
       </c>
       <c r="L289" t="s">
         <v>847</v>
@@ -19197,17 +19254,20 @@
       <c r="G290">
         <v>35.406952486803128</v>
       </c>
+      <c r="H290">
+        <v>29.008031871426621</v>
+      </c>
       <c r="I290" s="14">
         <f t="shared" si="25"/>
-        <v>29.133234899805792</v>
+        <v>29.112367728409264</v>
       </c>
       <c r="J290">
         <f t="shared" si="26"/>
-        <v>7.1269178977759085</v>
+        <v>6.5061234845010469</v>
       </c>
       <c r="K290" s="8">
         <f t="shared" si="27"/>
-        <v>0.24463187566662628</v>
+        <v>0.22348314452458826</v>
       </c>
       <c r="L290" t="s">
         <v>847</v>
@@ -19247,17 +19307,20 @@
       <c r="G291">
         <v>15.0005568211943</v>
       </c>
+      <c r="H291">
+        <v>12.21423970874962</v>
+      </c>
       <c r="I291" s="14">
         <f t="shared" si="25"/>
-        <v>13.200471002515622</v>
+        <v>13.036099120221287</v>
       </c>
       <c r="J291">
         <f t="shared" si="26"/>
-        <v>9.2065555779260855</v>
+        <v>8.4124300048388623</v>
       </c>
       <c r="K291" s="8">
         <f t="shared" si="27"/>
-        <v>0.69744144554929799</v>
+        <v>0.64531804547187743</v>
       </c>
       <c r="L291" t="s">
         <v>847</v>
@@ -19297,17 +19360,20 @@
       <c r="G292">
         <v>51.419401583181212</v>
       </c>
+      <c r="H292">
+        <v>55.157167085543954</v>
+      </c>
       <c r="I292" s="14">
         <f t="shared" si="25"/>
-        <v>58.94296272736392</v>
+        <v>58.311996787060593</v>
       </c>
       <c r="J292">
         <f t="shared" si="26"/>
-        <v>6.4792935597767807</v>
+        <v>6.0807039847853819</v>
       </c>
       <c r="K292" s="8">
         <f t="shared" si="27"/>
-        <v>0.10992480289371011</v>
+        <v>0.10427878172291791</v>
       </c>
       <c r="L292" t="s">
         <v>847</v>
@@ -19347,17 +19413,20 @@
       <c r="G293">
         <v>8.6542133979630247</v>
       </c>
+      <c r="H293">
+        <v>18.434788152817649</v>
+      </c>
       <c r="I293" s="14">
         <f t="shared" si="25"/>
-        <v>14.780723991796526</v>
+        <v>15.389734685300047</v>
       </c>
       <c r="J293">
         <f t="shared" si="26"/>
-        <v>3.7585090967590995</v>
+        <v>3.6914038408206751</v>
       </c>
       <c r="K293" s="8">
         <f t="shared" si="27"/>
-        <v>0.2542845058770542</v>
+        <v>0.23986143467090612</v>
       </c>
       <c r="L293" t="s">
         <v>847</v>
@@ -19397,17 +19466,20 @@
       <c r="G294">
         <v>19.718559537388231</v>
       </c>
+      <c r="H294">
+        <v>29.01686320758915</v>
+      </c>
       <c r="I294" s="14">
         <f t="shared" si="25"/>
-        <v>24.617370440145351</v>
+        <v>25.350619234719318</v>
       </c>
       <c r="J294">
         <f t="shared" si="26"/>
-        <v>6.5636481582600279</v>
+        <v>6.2120447461561366</v>
       </c>
       <c r="K294" s="8">
         <f t="shared" si="27"/>
-        <v>0.26662669655229326</v>
+        <v>0.24504508898340197</v>
       </c>
       <c r="L294" t="s">
         <v>847</v>
@@ -19447,17 +19519,20 @@
       <c r="G295">
         <v>57.239792403581077</v>
       </c>
+      <c r="H295">
+        <v>39.599286208824857</v>
+      </c>
       <c r="I295" s="14">
         <f t="shared" si="25"/>
-        <v>54.759061445867985</v>
+        <v>52.232432239694134</v>
       </c>
       <c r="J295">
         <f t="shared" si="26"/>
-        <v>7.1891390238584183</v>
+        <v>8.6596213724633184</v>
       </c>
       <c r="K295" s="8">
         <f t="shared" si="27"/>
-        <v>0.13128674659563394</v>
+        <v>0.16579012313124533</v>
       </c>
       <c r="L295" t="s">
         <v>847</v>
@@ -19497,17 +19572,20 @@
       <c r="G296">
         <v>33.063256252230723</v>
       </c>
+      <c r="H296">
+        <v>32.04159955728732</v>
+      </c>
       <c r="I296" s="14">
         <f t="shared" si="25"/>
-        <v>38.387174469086588</v>
+        <v>37.329578650453378</v>
       </c>
       <c r="J296">
         <f t="shared" si="26"/>
-        <v>3.9882174552890755</v>
+        <v>4.3413642214760664</v>
       </c>
       <c r="K296" s="8">
         <f t="shared" si="27"/>
-        <v>0.10389453015097035</v>
+        <v>0.11629823797712058</v>
       </c>
       <c r="L296" t="s">
         <v>847</v>
@@ -19547,17 +19625,20 @@
       <c r="G297">
         <v>25.759370994288268</v>
       </c>
+      <c r="H297">
+        <v>16.080530351905431</v>
+      </c>
       <c r="I297" s="14">
         <f t="shared" si="25"/>
-        <v>22.342179502362391</v>
+        <v>21.298571310619565</v>
       </c>
       <c r="J297">
         <f t="shared" si="26"/>
-        <v>7.3940260956884529</v>
+        <v>7.1417977575069971</v>
       </c>
       <c r="K297" s="8">
         <f t="shared" si="27"/>
-        <v>0.3309447090829537</v>
+        <v>0.33531816070433157</v>
       </c>
       <c r="L297" t="s">
         <v>847</v>
@@ -19597,17 +19678,20 @@
       <c r="G298">
         <v>8.1750443305149911</v>
       </c>
+      <c r="H298">
+        <v>14.787458856868779</v>
+      </c>
       <c r="I298" s="14">
         <f t="shared" si="25"/>
-        <v>16.153213642989741</v>
+        <v>15.925587845302914</v>
       </c>
       <c r="J298">
         <f t="shared" si="26"/>
-        <v>8.2869768660578149</v>
+        <v>7.5820438428133592</v>
       </c>
       <c r="K298" s="8">
         <f t="shared" si="27"/>
-        <v>0.51302341745812552</v>
+        <v>0.47609192931924355</v>
       </c>
       <c r="L298" t="s">
         <v>847</v>
@@ -19647,17 +19731,20 @@
       <c r="G299">
         <v>12.97749504328255</v>
       </c>
+      <c r="H299">
+        <v>9.1599908397488097</v>
+      </c>
       <c r="I299" s="14">
         <f t="shared" si="25"/>
-        <v>15.445455550117501</v>
+        <v>14.397878098389386</v>
       </c>
       <c r="J299">
         <f t="shared" si="26"/>
-        <v>5.729062273753625</v>
+        <v>5.7305224922312572</v>
       </c>
       <c r="K299" s="8">
         <f t="shared" si="27"/>
-        <v>0.37092219489181988</v>
+        <v>0.3980115995614868</v>
       </c>
       <c r="L299" t="s">
         <v>847</v>
@@ -19697,17 +19784,20 @@
       <c r="G300">
         <v>10.76514726676157</v>
       </c>
+      <c r="H300">
+        <v>21.501829993425659</v>
+      </c>
       <c r="I300" s="14">
         <f t="shared" si="25"/>
-        <v>17.075302902402044</v>
+        <v>17.813057417572647</v>
       </c>
       <c r="J300">
         <f t="shared" si="26"/>
-        <v>4.9820592269743598</v>
+        <v>4.8379234947278755</v>
       </c>
       <c r="K300" s="8">
         <f t="shared" si="27"/>
-        <v>0.29176988867784687</v>
+        <v>0.27159422334513145</v>
       </c>
       <c r="L300" t="s">
         <v>847</v>
@@ -19747,17 +19837,20 @@
       <c r="G301">
         <v>4.9856057360732713</v>
       </c>
+      <c r="H301">
+        <v>3.449579851023675</v>
+      </c>
       <c r="I301" s="14">
         <f t="shared" si="25"/>
-        <v>11.142878814970597</v>
+        <v>9.8606623209794453</v>
       </c>
       <c r="J301">
         <f t="shared" si="26"/>
-        <v>5.0807124501250254</v>
+        <v>5.4526838823978263</v>
       </c>
       <c r="K301" s="8">
         <f t="shared" si="27"/>
-        <v>0.45596048691645324</v>
+        <v>0.55297339112776955</v>
       </c>
       <c r="L301" t="s">
         <v>847</v>
@@ -19797,17 +19890,20 @@
       <c r="G302">
         <v>6.8525780369933047</v>
       </c>
+      <c r="H302">
+        <v>2.8288919023975239</v>
+      </c>
       <c r="I302" s="14">
         <f t="shared" si="25"/>
-        <v>8.0868966663547113</v>
+        <v>7.2105625390285129</v>
       </c>
       <c r="J302">
         <f t="shared" si="26"/>
-        <v>6.0920533170826126</v>
+        <v>5.8963889114777057</v>
       </c>
       <c r="K302" s="8">
         <f t="shared" si="27"/>
-        <v>0.7533239966362395</v>
+        <v>0.81774325922040092</v>
       </c>
       <c r="L302" t="s">
         <v>847</v>
@@ -19847,17 +19943,20 @@
       <c r="G303">
         <v>11.36180193368167</v>
       </c>
+      <c r="H303">
+        <v>12.29210564394544</v>
+      </c>
       <c r="I303" s="14">
         <f t="shared" si="25"/>
-        <v>11.998889777112259</v>
+        <v>12.047759088251121</v>
       </c>
       <c r="J303">
         <f t="shared" si="26"/>
-        <v>2.3105281039642849</v>
+        <v>2.1120427269659903</v>
       </c>
       <c r="K303" s="8">
         <f t="shared" si="27"/>
-        <v>0.19256182420906892</v>
+        <v>0.17530585659084413</v>
       </c>
       <c r="L303" t="s">
         <v>847</v>
@@ -19897,17 +19996,20 @@
       <c r="G304">
         <v>3.6272786896211828</v>
       </c>
+      <c r="H304">
+        <v>13.432205900553329</v>
+      </c>
       <c r="I304" s="14">
         <f t="shared" si="25"/>
-        <v>7.1946474955340971</v>
+        <v>8.2342405630373019</v>
       </c>
       <c r="J304">
         <f t="shared" si="26"/>
-        <v>3.9123003237594713</v>
+        <v>4.2613198561099992</v>
       </c>
       <c r="K304" s="8">
         <f t="shared" si="27"/>
-        <v>0.54377929234030398</v>
+        <v>0.51751218870610194</v>
       </c>
       <c r="L304" t="s">
         <v>847</v>
@@ -19947,17 +20049,20 @@
       <c r="G305">
         <v>20.54788599149623</v>
       </c>
+      <c r="H305">
+        <v>31.429414643813129</v>
+      </c>
       <c r="I305" s="14">
         <f t="shared" si="25"/>
-        <v>26.5325221678603</v>
+        <v>27.348670913852434</v>
       </c>
       <c r="J305">
         <f t="shared" si="26"/>
-        <v>6.2950598580646897</v>
+        <v>6.029398205882913</v>
       </c>
       <c r="K305" s="8">
         <f t="shared" si="27"/>
-        <v>0.23725825303144751</v>
+        <v>0.22046403003916909</v>
       </c>
       <c r="L305" t="s">
         <v>847</v>
@@ -19997,17 +20102,20 @@
       <c r="G306">
         <v>36.671088985114309</v>
       </c>
+      <c r="H306">
+        <v>19.12769203849529</v>
+      </c>
       <c r="I306" s="14">
         <f t="shared" si="25"/>
-        <v>29.065058113604255</v>
+        <v>27.408830434419428</v>
       </c>
       <c r="J306">
         <f t="shared" si="26"/>
-        <v>9.063919608560953</v>
+        <v>9.065188884879138</v>
       </c>
       <c r="K306" s="8">
         <f t="shared" si="27"/>
-        <v>0.31184935440808476</v>
+        <v>0.33073971932400537</v>
       </c>
       <c r="L306" t="s">
         <v>847</v>
@@ -20047,17 +20155,20 @@
       <c r="G307">
         <v>72.62372843365209</v>
       </c>
+      <c r="H307">
+        <v>51.230136164592857</v>
+      </c>
       <c r="I307" s="14">
         <f t="shared" si="25"/>
-        <v>74.967274358544984</v>
+        <v>71.011084659552964</v>
       </c>
       <c r="J307">
         <f t="shared" si="26"/>
-        <v>8.3488955037666699</v>
+        <v>11.676638990568598</v>
       </c>
       <c r="K307" s="8">
         <f t="shared" si="27"/>
-        <v>0.11136720089137186</v>
+        <v>0.1644340323281876</v>
       </c>
       <c r="L307" t="s">
         <v>847</v>
@@ -20097,17 +20208,20 @@
       <c r="G308">
         <v>29.53338568652784</v>
       </c>
+      <c r="H308">
+        <v>25.968344582501089</v>
+      </c>
       <c r="I308" s="14">
         <f t="shared" si="25"/>
-        <v>31.911580828343045</v>
+        <v>30.921041454036054</v>
       </c>
       <c r="J308">
         <f t="shared" si="26"/>
-        <v>3.9621391760219153</v>
+        <v>4.241221950735695</v>
       </c>
       <c r="K308" s="8">
         <f t="shared" si="27"/>
-        <v>0.12415991540296385</v>
+        <v>0.13716297224465246</v>
       </c>
       <c r="L308" t="s">
         <v>847</v>
@@ -20147,17 +20261,20 @@
       <c r="G309">
         <v>10.117727392366721</v>
       </c>
+      <c r="H309">
+        <v>16.25198962372918</v>
+      </c>
       <c r="I309" s="14">
         <f t="shared" si="25"/>
-        <v>16.232080285017915</v>
+        <v>16.235398508136459</v>
       </c>
       <c r="J309">
         <f t="shared" si="26"/>
-        <v>9.1251635189550111</v>
+        <v>8.3300998048890644</v>
       </c>
       <c r="K309" s="8">
         <f t="shared" si="27"/>
-        <v>0.56216845645948821</v>
+        <v>0.51308255850414697</v>
       </c>
       <c r="L309" t="s">
         <v>847</v>
@@ -20197,17 +20314,20 @@
       <c r="G310">
         <v>1.176075268817204</v>
       </c>
+      <c r="H310">
+        <v>12.23319995980791</v>
+      </c>
       <c r="I310" s="14">
         <f t="shared" si="25"/>
-        <v>9.0067395056534032</v>
+        <v>9.5444829146791541</v>
       </c>
       <c r="J310">
         <f t="shared" si="26"/>
-        <v>4.5247903471647755</v>
+        <v>4.3020087875219568</v>
       </c>
       <c r="K310" s="8">
         <f t="shared" si="27"/>
-        <v>0.50237828509691307</v>
+        <v>0.4507325148967038</v>
       </c>
       <c r="L310" t="s">
         <v>847</v>
@@ -20247,17 +20367,20 @@
       <c r="G311">
         <v>44.041912458576832</v>
       </c>
+      <c r="H311">
+        <v>41.166238864209298</v>
+      </c>
       <c r="I311" s="14">
         <f t="shared" si="25"/>
-        <v>51.081435381087829</v>
+        <v>49.428902628274734</v>
       </c>
       <c r="J311">
         <f t="shared" si="26"/>
-        <v>5.1613437206155366</v>
+        <v>5.987810952054847</v>
       </c>
       <c r="K311" s="8">
         <f t="shared" si="27"/>
-        <v>0.10104147783064159</v>
+        <v>0.12113987229466934</v>
       </c>
       <c r="L311" t="s">
         <v>847</v>
@@ -20297,17 +20420,20 @@
       <c r="G312">
         <v>31.181522795794571</v>
       </c>
+      <c r="H312">
+        <v>29.564540890551459</v>
+      </c>
       <c r="I312" s="14">
         <f t="shared" si="25"/>
-        <v>36.98670220809214</v>
+        <v>35.749675321835362</v>
       </c>
       <c r="J312">
         <f t="shared" si="26"/>
-        <v>3.9522633443664472</v>
+        <v>4.5462254166832015</v>
       </c>
       <c r="K312" s="8">
         <f t="shared" si="27"/>
-        <v>0.1068563323686033</v>
+        <v>0.12716829945323826</v>
       </c>
       <c r="L312" t="s">
         <v>847</v>
@@ -20347,17 +20473,20 @@
       <c r="G313">
         <v>14.44449554469255</v>
       </c>
+      <c r="H313">
+        <v>7.0092007799817733</v>
+      </c>
       <c r="I313" s="14">
         <f t="shared" si="25"/>
-        <v>10.966520134250338</v>
+        <v>10.306966908538911</v>
       </c>
       <c r="J313">
         <f t="shared" si="26"/>
-        <v>4.1131025382504971</v>
+        <v>4.0339884353082427</v>
       </c>
       <c r="K313" s="8">
         <f t="shared" si="27"/>
-        <v>0.37505995410563892</v>
+        <v>0.39138463052270445</v>
       </c>
       <c r="L313" t="s">
         <v>847</v>
@@ -20397,17 +20526,20 @@
       <c r="G314">
         <v>12.520059692985051</v>
       </c>
+      <c r="H314">
+        <v>26.23306350596933</v>
+      </c>
       <c r="I314" s="14">
         <f t="shared" si="25"/>
-        <v>16.570576841859623</v>
+        <v>18.180991285877905</v>
       </c>
       <c r="J314">
         <f t="shared" si="26"/>
-        <v>5.5053886321543022</v>
+        <v>6.1826310526661574</v>
       </c>
       <c r="K314" s="8">
         <f t="shared" si="27"/>
-        <v>0.33223880403770323</v>
+        <v>0.34006017358737306</v>
       </c>
       <c r="L314" t="s">
         <v>847</v>
@@ -20447,17 +20579,20 @@
       <c r="G315">
         <v>8.3751048545770246</v>
       </c>
+      <c r="H315">
+        <v>6.3681148934718124</v>
+      </c>
       <c r="I315" s="14">
         <f t="shared" si="25"/>
-        <v>12.652149665383913</v>
+        <v>11.604810536731897</v>
       </c>
       <c r="J315">
         <f t="shared" si="26"/>
-        <v>5.5649233468487207</v>
+        <v>5.5938870920806165</v>
       </c>
       <c r="K315" s="8">
         <f t="shared" si="27"/>
-        <v>0.43984014527383164</v>
+        <v>0.48203174660841519</v>
       </c>
       <c r="L315" t="s">
         <v>847</v>
@@ -20497,17 +20632,20 @@
       <c r="G316">
         <v>13.199809591788821</v>
       </c>
+      <c r="H316">
+        <v>17.620856231641699</v>
+      </c>
       <c r="I316" s="14">
         <f t="shared" si="25"/>
-        <v>18.7840600179102</v>
+        <v>18.590192720198782</v>
       </c>
       <c r="J316">
         <f t="shared" si="26"/>
-        <v>6.8732887753040641</v>
+        <v>6.289382969434314</v>
       </c>
       <c r="K316" s="8">
         <f t="shared" si="27"/>
-        <v>0.36591071199466624</v>
+        <v>0.33831725491477649</v>
       </c>
       <c r="L316" t="s">
         <v>847</v>
@@ -20547,17 +20685,20 @@
       <c r="G317">
         <v>4.6673205198926508</v>
       </c>
+      <c r="H317">
+        <v>3.1710654947029862</v>
+      </c>
       <c r="I317" s="14">
         <f t="shared" si="25"/>
-        <v>10.161072250975732</v>
+        <v>8.9960711249302747</v>
       </c>
       <c r="J317">
         <f t="shared" si="26"/>
-        <v>8.6109944662645823</v>
+        <v>8.2811327445868574</v>
       </c>
       <c r="K317" s="8">
         <f t="shared" si="27"/>
-        <v>0.84744938856602448</v>
+        <v>0.92052770921717686</v>
       </c>
       <c r="L317" t="s">
         <v>847</v>
@@ -20597,17 +20738,20 @@
       <c r="G318">
         <v>26.955816960979011</v>
       </c>
+      <c r="H318">
+        <v>17.184336229430471</v>
+      </c>
       <c r="I318" s="14">
         <f t="shared" si="25"/>
-        <v>21.252387284999202</v>
+        <v>20.574378775737745</v>
       </c>
       <c r="J318">
         <f t="shared" si="26"/>
-        <v>5.9058871208456987</v>
+        <v>5.6004222992524406</v>
       </c>
       <c r="K318" s="8">
         <f t="shared" si="27"/>
-        <v>0.27789288053367606</v>
+        <v>0.27220371318606795</v>
       </c>
       <c r="L318" t="s">
         <v>847</v>
@@ -20647,17 +20791,20 @@
       <c r="G319">
         <v>47.294643517110032</v>
       </c>
+      <c r="H319">
+        <v>36.807232093289088</v>
+      </c>
       <c r="I319" s="14">
         <f t="shared" si="25"/>
-        <v>51.867900275020041</v>
+        <v>49.357788911398217</v>
       </c>
       <c r="J319">
         <f t="shared" si="26"/>
-        <v>5.7198904183075596</v>
+        <v>7.6660018232097995</v>
       </c>
       <c r="K319" s="8">
         <f t="shared" si="27"/>
-        <v>0.11027804071456311</v>
+        <v>0.15531493594599588</v>
       </c>
       <c r="L319" t="s">
         <v>847</v>
@@ -20697,17 +20844,20 @@
       <c r="G320">
         <v>43.6190708993825</v>
       </c>
+      <c r="H320">
+        <v>43.4169377434376</v>
+      </c>
       <c r="I320" s="14">
         <f t="shared" si="25"/>
-        <v>48.112586291615322</v>
+        <v>47.329978200252363</v>
       </c>
       <c r="J320">
         <f t="shared" si="26"/>
-        <v>4.5691206951627885</v>
+        <v>4.5232470338395077</v>
       </c>
       <c r="K320" s="8">
         <f t="shared" si="27"/>
-        <v>9.4967264230379947E-2</v>
+        <v>9.5568331231882755E-2</v>
       </c>
       <c r="L320" t="s">
         <v>847</v>
@@ -20747,17 +20897,20 @@
       <c r="G321">
         <v>10.266936047781959</v>
       </c>
+      <c r="H321">
+        <v>11.13180276048519</v>
+      </c>
       <c r="I321" s="14">
         <f t="shared" si="25"/>
-        <v>12.636752113357776</v>
+        <v>12.385927221212343</v>
       </c>
       <c r="J321">
         <f t="shared" si="26"/>
-        <v>5.9373212466121643</v>
+        <v>5.4489496193143259</v>
       </c>
       <c r="K321" s="8">
         <f t="shared" si="27"/>
-        <v>0.46984551040896599</v>
+        <v>0.43993069892921421</v>
       </c>
       <c r="L321" t="s">
         <v>847</v>
@@ -20797,17 +20950,20 @@
       <c r="G322">
         <v>4.3170569944505406</v>
       </c>
+      <c r="H322">
+        <v>9.0355702227108967</v>
+      </c>
       <c r="I322" s="14">
         <f t="shared" si="25"/>
-        <v>12.719973422305875</v>
+        <v>12.105906222373379</v>
       </c>
       <c r="J322">
         <f t="shared" si="26"/>
-        <v>8.0612690670770526</v>
+        <v>7.4859050960238456</v>
       </c>
       <c r="K322" s="8">
         <f t="shared" si="27"/>
-        <v>0.6337488923475838</v>
+        <v>0.61836800636939215</v>
       </c>
       <c r="L322" t="s">
         <v>847</v>
@@ -20847,17 +21003,20 @@
       <c r="G323">
         <v>12.92613908916737</v>
       </c>
+      <c r="H323">
+        <v>10.278761217617021</v>
+      </c>
       <c r="I323" s="14">
         <f t="shared" ref="I323:I363" si="28">AVERAGE(C323:H323)</f>
-        <v>13.907124699218176</v>
+        <v>13.30239745228465</v>
       </c>
       <c r="J323">
         <f t="shared" si="26"/>
-        <v>5.5299745368925111</v>
+        <v>5.2261193886878106</v>
       </c>
       <c r="K323" s="8">
         <f t="shared" si="27"/>
-        <v>0.39763607909573084</v>
+        <v>0.39287048875465974</v>
       </c>
       <c r="L323" t="s">
         <v>847</v>
@@ -20897,17 +21056,20 @@
       <c r="G324">
         <v>41.44899447655061</v>
       </c>
+      <c r="H324">
+        <v>38.751218044784373</v>
+      </c>
       <c r="I324" s="14">
         <f t="shared" si="28"/>
-        <v>44.725945472647638</v>
+        <v>43.730157568003762</v>
       </c>
       <c r="J324">
         <f t="shared" si="26"/>
-        <v>3.1463182875436719</v>
+        <v>3.6341986820506031</v>
       </c>
       <c r="K324" s="8">
         <f t="shared" si="27"/>
-        <v>7.0346602051550092E-2</v>
+        <v>8.3105090037673537E-2</v>
       </c>
       <c r="L324" t="s">
         <v>847</v>
@@ -20947,17 +21109,20 @@
       <c r="G325">
         <v>28.4826715436039</v>
       </c>
+      <c r="H325">
+        <v>22.111362155156151</v>
+      </c>
       <c r="I325" s="14">
         <f t="shared" si="28"/>
-        <v>27.764097593319129</v>
+        <v>26.821975020291962</v>
       </c>
       <c r="J325">
         <f t="shared" si="26"/>
-        <v>4.4912859082773195</v>
+        <v>4.6095208324306309</v>
       </c>
       <c r="K325" s="8">
         <f t="shared" si="27"/>
-        <v>0.16176596027230711</v>
+        <v>0.17185613024183838</v>
       </c>
       <c r="L325" t="s">
         <v>847</v>
@@ -20997,17 +21162,20 @@
       <c r="G326">
         <v>7.148890220045323</v>
       </c>
+      <c r="H326">
+        <v>1.619012707722385</v>
+      </c>
       <c r="I326" s="14">
         <f t="shared" si="28"/>
-        <v>12.490106406833918</v>
+        <v>10.678257456981996</v>
       </c>
       <c r="J326">
         <f t="shared" si="26"/>
-        <v>4.6334125777692998</v>
+        <v>5.8569966577239789</v>
       </c>
       <c r="K326" s="8">
         <f t="shared" si="27"/>
-        <v>0.37096662164816657</v>
+        <v>0.54849741929516527</v>
       </c>
       <c r="L326" t="s">
         <v>847</v>
@@ -21047,17 +21215,20 @@
       <c r="G327">
         <v>9.5249444290180616</v>
       </c>
+      <c r="H327">
+        <v>13.872041360968129</v>
+      </c>
       <c r="I327" s="14">
         <f t="shared" si="28"/>
-        <v>14.315769366470581</v>
+        <v>14.24181469888684</v>
       </c>
       <c r="J327">
         <f t="shared" si="26"/>
-        <v>6.6082153945549633</v>
+        <v>6.0347139160290588</v>
       </c>
       <c r="K327" s="8">
         <f t="shared" si="27"/>
-        <v>0.46160392958217633</v>
+        <v>0.42373209058117717</v>
       </c>
       <c r="L327" t="s">
         <v>847</v>
@@ -21097,17 +21268,20 @@
       <c r="G328">
         <v>7.2122382070877338</v>
       </c>
+      <c r="H328">
+        <v>8.2283719808829598</v>
+      </c>
       <c r="I328" s="14">
         <f t="shared" si="28"/>
-        <v>8.8685286918764508</v>
+        <v>8.7618359067108695</v>
       </c>
       <c r="J328">
         <f t="shared" si="26"/>
-        <v>5.9102605616483501</v>
+        <v>5.4005771303486778</v>
       </c>
       <c r="K328" s="8">
         <f t="shared" si="27"/>
-        <v>0.66643078767531461</v>
+        <v>0.61637505973060569</v>
       </c>
       <c r="L328" t="s">
         <v>847</v>
@@ -21147,17 +21321,20 @@
       <c r="G329">
         <v>29.28087229318427</v>
       </c>
+      <c r="H329">
+        <v>36.114593769184467</v>
+      </c>
       <c r="I329" s="14">
         <f t="shared" si="28"/>
-        <v>33.751673291459504</v>
+        <v>34.145493371080327</v>
       </c>
       <c r="J329">
         <f t="shared" si="26"/>
-        <v>6.9066102171600647</v>
+        <v>6.3660447049466589</v>
       </c>
       <c r="K329" s="8">
         <f t="shared" si="27"/>
-        <v>0.20463015737082604</v>
+        <v>0.18643879693764823</v>
       </c>
       <c r="L329" t="s">
         <v>847</v>
@@ -21197,17 +21374,20 @@
       <c r="G330">
         <v>23.91413085626337</v>
       </c>
+      <c r="H330">
+        <v>34.620074210057929</v>
+      </c>
       <c r="I330" s="14">
         <f t="shared" si="28"/>
-        <v>36.584166975445086</v>
+        <v>36.256818181213895</v>
       </c>
       <c r="J330">
         <f t="shared" si="26"/>
-        <v>7.158729611501081</v>
+        <v>6.5758619871649877</v>
       </c>
       <c r="K330" s="8">
         <f t="shared" si="27"/>
-        <v>0.19567835496448358</v>
+        <v>0.18136897601710136</v>
       </c>
       <c r="L330" t="s">
         <v>847</v>
@@ -21247,17 +21427,20 @@
       <c r="G331">
         <v>36.996261161977579</v>
       </c>
+      <c r="H331">
+        <v>34.519781895535189</v>
+      </c>
       <c r="I331" s="14">
         <f t="shared" si="28"/>
-        <v>49.447086780210569</v>
+        <v>46.959202632764679</v>
       </c>
       <c r="J331">
         <f t="shared" si="26"/>
-        <v>7.2939163119303556</v>
+        <v>8.6765306215541074</v>
       </c>
       <c r="K331" s="8">
         <f t="shared" si="27"/>
-        <v>0.14750952557329394</v>
+        <v>0.18476741799487589</v>
       </c>
       <c r="L331" t="s">
         <v>847</v>
@@ -21297,17 +21480,20 @@
       <c r="G332">
         <v>27.05470396434789</v>
       </c>
+      <c r="H332">
+        <v>27.957599684224981</v>
+      </c>
       <c r="I332" s="14">
         <f t="shared" si="28"/>
-        <v>25.497511872784806</v>
+        <v>25.907526508024834</v>
       </c>
       <c r="J332">
         <f t="shared" si="26"/>
-        <v>9.1454809230220491</v>
+        <v>8.3988339131109111</v>
       </c>
       <c r="K332" s="8">
         <f t="shared" si="27"/>
-        <v>0.35868130853911401</v>
+        <v>0.32418509387646016</v>
       </c>
       <c r="L332" t="s">
         <v>847</v>
@@ -21347,17 +21533,20 @@
       <c r="G333">
         <v>4.9844504856025944</v>
       </c>
+      <c r="H333">
+        <v>15.74218106660852</v>
+      </c>
       <c r="I333" s="14">
         <f t="shared" si="28"/>
-        <v>13.234023817790126</v>
+        <v>13.652050025926526</v>
       </c>
       <c r="J333">
         <f t="shared" si="26"/>
-        <v>6.396050946945131</v>
+        <v>5.9131169995225488</v>
       </c>
       <c r="K333" s="8">
         <f t="shared" si="27"/>
-        <v>0.4833035692702245</v>
+        <v>0.43313033487959568</v>
       </c>
       <c r="L333" t="s">
         <v>847</v>
@@ -21397,17 +21586,20 @@
       <c r="G334">
         <v>4.9381976431985368</v>
       </c>
+      <c r="H334">
+        <v>13.025500914525709</v>
+      </c>
       <c r="I334" s="14">
         <f t="shared" si="28"/>
-        <v>12.894574466127441</v>
+        <v>12.916395540860485</v>
       </c>
       <c r="J334">
         <f t="shared" si="26"/>
-        <v>4.469602231407972</v>
+        <v>4.080461683725483</v>
       </c>
       <c r="K334" s="8">
         <f t="shared" si="27"/>
-        <v>0.34662657873271441</v>
+        <v>0.31591334214077843</v>
       </c>
       <c r="L334" t="s">
         <v>847</v>
@@ -21447,17 +21639,20 @@
       <c r="G335">
         <v>28.71544134235846</v>
       </c>
+      <c r="H335">
+        <v>36.63201974073889</v>
+      </c>
       <c r="I335" s="14">
         <f t="shared" si="28"/>
-        <v>40.192001043105314</v>
+        <v>39.598670826044241</v>
       </c>
       <c r="J335">
         <f t="shared" ref="J335:J363" si="29">_xlfn.STDEV.P(C335:H335)</f>
-        <v>6.6159762361029912</v>
+        <v>6.1835390376079564</v>
       </c>
       <c r="K335" s="8">
         <f t="shared" ref="K335:K363" si="30">J335/I335</f>
-        <v>0.16460927707997064</v>
+        <v>0.15615521704685634</v>
       </c>
       <c r="L335" t="s">
         <v>847</v>
@@ -21497,17 +21692,20 @@
       <c r="G336">
         <v>4.8842494641016909</v>
       </c>
+      <c r="H336">
+        <v>13.768808614745661</v>
+      </c>
       <c r="I336" s="14">
         <f t="shared" si="28"/>
-        <v>7.2287700331646576</v>
+        <v>8.3187764634281578</v>
       </c>
       <c r="J336">
         <f t="shared" si="29"/>
-        <v>5.0635435669229336</v>
+        <v>5.2255906813027151</v>
       </c>
       <c r="K336" s="8">
         <f t="shared" si="30"/>
-        <v>0.70047097136747383</v>
+        <v>0.62816818125549867</v>
       </c>
       <c r="L336" t="s">
         <v>847</v>
@@ -21547,17 +21745,20 @@
       <c r="G337">
         <v>19.622528307945959</v>
       </c>
+      <c r="H337">
+        <v>14.044049840868089</v>
+      </c>
       <c r="I337" s="14">
         <f t="shared" si="28"/>
-        <v>19.604819119770234</v>
+        <v>18.678024239953206</v>
       </c>
       <c r="J337">
         <f t="shared" si="29"/>
-        <v>10.291848042978957</v>
+        <v>9.6209765891730985</v>
       </c>
       <c r="K337" s="8">
         <f t="shared" si="30"/>
-        <v>0.52496521289504128</v>
+        <v>0.51509605435640027</v>
       </c>
       <c r="L337" t="s">
         <v>847</v>
@@ -21597,17 +21798,20 @@
       <c r="G338">
         <v>23.4342149368821</v>
       </c>
+      <c r="H338">
+        <v>28.26618475995955</v>
+      </c>
       <c r="I338" s="14">
         <f t="shared" si="28"/>
-        <v>27.70180330221357</v>
+        <v>27.795866878504565</v>
       </c>
       <c r="J338">
         <f t="shared" si="29"/>
-        <v>7.5467206136342613</v>
+        <v>6.8923919262812294</v>
       </c>
       <c r="K338" s="8">
         <f t="shared" si="30"/>
-        <v>0.2724270521779073</v>
+        <v>0.24796463288616974</v>
       </c>
       <c r="L338" t="s">
         <v>847</v>
@@ -21647,17 +21851,20 @@
       <c r="G339">
         <v>27.269774420089551</v>
       </c>
+      <c r="H339">
+        <v>21.55041799781808</v>
+      </c>
       <c r="I339" s="14">
         <f t="shared" si="28"/>
-        <v>18.094839255650029</v>
+        <v>18.670769046011372</v>
       </c>
       <c r="J339">
         <f t="shared" si="29"/>
-        <v>5.5830996320703772</v>
+        <v>5.2568346180772343</v>
       </c>
       <c r="K339" s="8">
         <f t="shared" si="30"/>
-        <v>0.30854651722463244</v>
+        <v>0.28155426298309066</v>
       </c>
       <c r="L339" t="s">
         <v>847</v>
@@ -21697,17 +21904,20 @@
       <c r="G340">
         <v>13.74667347840335</v>
       </c>
+      <c r="H340">
+        <v>14.913812040568409</v>
+      </c>
       <c r="I340" s="14">
         <f t="shared" si="28"/>
-        <v>17.867873939045261</v>
+        <v>17.375530289299121</v>
       </c>
       <c r="J340">
         <f t="shared" si="29"/>
-        <v>3.8602148549756348</v>
+        <v>3.6918460088017646</v>
       </c>
       <c r="K340" s="8">
         <f t="shared" si="30"/>
-        <v>0.21604220335023802</v>
+        <v>0.21247386107550464</v>
       </c>
       <c r="L340" t="s">
         <v>847</v>
@@ -21747,17 +21957,20 @@
       <c r="G341">
         <v>23.000798974714421</v>
       </c>
+      <c r="H341">
+        <v>29.545217999646312</v>
+      </c>
       <c r="I341" s="14">
         <f t="shared" si="28"/>
-        <v>27.131035699301208</v>
+        <v>27.533399416025389</v>
       </c>
       <c r="J341">
         <f t="shared" si="29"/>
-        <v>7.3342814447314071</v>
+        <v>6.7554338420852185</v>
       </c>
       <c r="K341" s="8">
         <f t="shared" si="30"/>
-        <v>0.27032810416892084</v>
+        <v>0.24535415115335604</v>
       </c>
       <c r="L341" t="s">
         <v>847</v>
@@ -21797,17 +22010,20 @@
       <c r="G342">
         <v>37.833374112356331</v>
       </c>
+      <c r="H342">
+        <v>30.88372040674377</v>
+      </c>
       <c r="I342" s="14">
         <f t="shared" si="28"/>
-        <v>35.757628553785018</v>
+        <v>34.945310529278146</v>
       </c>
       <c r="J342">
         <f t="shared" si="29"/>
-        <v>5.0861129363814612</v>
+        <v>4.9856216796620245</v>
       </c>
       <c r="K342" s="8">
         <f t="shared" si="30"/>
-        <v>0.14223854159486998</v>
+        <v>0.14266926246040748</v>
       </c>
       <c r="L342" t="s">
         <v>847</v>
@@ -21847,17 +22063,20 @@
       <c r="G343">
         <v>38.399983422844819</v>
       </c>
+      <c r="H343">
+        <v>32.615218825373638</v>
+      </c>
       <c r="I343" s="14">
         <f t="shared" si="28"/>
-        <v>48.101205771155989</v>
+        <v>45.520207946858932</v>
       </c>
       <c r="J343">
         <f t="shared" si="29"/>
-        <v>7.5136315387892889</v>
+        <v>8.9640001075991851</v>
       </c>
       <c r="K343" s="8">
         <f t="shared" si="30"/>
-        <v>0.1562046401609096</v>
+        <v>0.19692353158983614</v>
       </c>
       <c r="L343" t="s">
         <v>847</v>
@@ -21897,17 +22116,20 @@
       <c r="G344">
         <v>47.751002824715592</v>
       </c>
+      <c r="H344">
+        <v>35.955594396001167</v>
+      </c>
       <c r="I344" s="14">
         <f t="shared" si="28"/>
-        <v>49.367913984307442</v>
+        <v>47.132527386256392</v>
       </c>
       <c r="J344">
         <f t="shared" si="29"/>
-        <v>5.61797733182211</v>
+        <v>7.1614354216028095</v>
       </c>
       <c r="K344" s="8">
         <f t="shared" si="30"/>
-        <v>0.11379815103404803</v>
+        <v>0.15194252926252047</v>
       </c>
       <c r="L344" t="s">
         <v>847</v>
@@ -21947,17 +22169,20 @@
       <c r="G345">
         <v>19.698264834671871</v>
       </c>
+      <c r="H345">
+        <v>21.771920703870869</v>
+      </c>
       <c r="I345" s="14">
         <f t="shared" si="28"/>
-        <v>21.450935791240354</v>
+        <v>21.504433276678771</v>
       </c>
       <c r="J345">
         <f t="shared" si="29"/>
-        <v>4.3647697662687248</v>
+        <v>3.9862667370008249</v>
       </c>
       <c r="K345" s="8">
         <f t="shared" si="30"/>
-        <v>0.20347689297783969</v>
+        <v>0.18536953221287028</v>
       </c>
       <c r="L345" t="s">
         <v>847</v>
@@ -21997,17 +22222,20 @@
       <c r="G346">
         <v>6.717987040039441</v>
       </c>
+      <c r="H346">
+        <v>13.33831785154373</v>
+      </c>
       <c r="I346" s="14">
         <f t="shared" si="28"/>
-        <v>16.075363619090616</v>
+        <v>15.619189324499468</v>
       </c>
       <c r="J346">
         <f t="shared" si="29"/>
-        <v>6.507698203874563</v>
+        <v>6.0276243133168768</v>
       </c>
       <c r="K346" s="8">
         <f t="shared" si="30"/>
-        <v>0.40482432360946519</v>
+        <v>0.38591147005704396</v>
       </c>
       <c r="L346" t="s">
         <v>847</v>
@@ -22047,17 +22275,20 @@
       <c r="G347">
         <v>25.765612429380031</v>
       </c>
+      <c r="H347">
+        <v>26.248885912629969</v>
+      </c>
       <c r="I347" s="14">
         <f t="shared" si="28"/>
-        <v>26.662333169222599</v>
+        <v>26.593425293123826</v>
       </c>
       <c r="J347">
         <f t="shared" si="29"/>
-        <v>6.5589447005129804</v>
+        <v>5.9894522117857463</v>
       </c>
       <c r="K347" s="8">
         <f t="shared" si="30"/>
-        <v>0.24600040284862368</v>
+        <v>0.22522304463481127</v>
       </c>
       <c r="L347" t="s">
         <v>847</v>
@@ -22097,17 +22328,20 @@
       <c r="G348">
         <v>31.994575253376428</v>
       </c>
+      <c r="H348">
+        <v>31.16822375973932</v>
+      </c>
       <c r="I348" s="14">
         <f t="shared" si="28"/>
-        <v>36.098122993455647</v>
+        <v>35.276473121169595</v>
       </c>
       <c r="J348">
         <f t="shared" si="29"/>
-        <v>5.2853963893932372</v>
+        <v>5.1628533832866301</v>
       </c>
       <c r="K348" s="8">
         <f t="shared" si="30"/>
-        <v>0.14641748520695785</v>
+        <v>0.14635401236265808</v>
       </c>
       <c r="L348" t="s">
         <v>847</v>
@@ -22147,17 +22381,20 @@
       <c r="G349">
         <v>23.1968393881486</v>
       </c>
+      <c r="H349">
+        <v>11.836563721133549</v>
+      </c>
       <c r="I349" s="14">
         <f t="shared" si="28"/>
-        <v>19.191736733641555</v>
+        <v>17.965874564890218</v>
       </c>
       <c r="J349">
         <f t="shared" si="29"/>
-        <v>4.8539276903621342</v>
+        <v>5.2103296731843667</v>
       </c>
       <c r="K349" s="8">
         <f t="shared" si="30"/>
-        <v>0.25291758415243332</v>
+        <v>0.29001258215208991</v>
       </c>
       <c r="L349" t="s">
         <v>847</v>
@@ -22197,17 +22434,20 @@
       <c r="G350">
         <v>11.027437244376349</v>
       </c>
+      <c r="H350">
+        <v>15.003155009247889</v>
+      </c>
       <c r="I350" s="14">
         <f t="shared" si="28"/>
-        <v>18.884113666847089</v>
+        <v>18.237287223913889</v>
       </c>
       <c r="J350">
         <f t="shared" si="29"/>
-        <v>7.7292397756053965</v>
+        <v>7.2025142712149659</v>
       </c>
       <c r="K350" s="8">
         <f t="shared" si="30"/>
-        <v>0.40929852001340333</v>
+        <v>0.39493342308995233</v>
       </c>
       <c r="L350" t="s">
         <v>847</v>
@@ -22247,17 +22487,20 @@
       <c r="G351">
         <v>34.845573379679188</v>
       </c>
+      <c r="H351">
+        <v>29.781825043519731</v>
+      </c>
       <c r="I351" s="14">
         <f t="shared" si="28"/>
-        <v>33.348674976859954</v>
+        <v>32.754199987969912</v>
       </c>
       <c r="J351">
         <f t="shared" si="29"/>
-        <v>3.2428891060229263</v>
+        <v>3.2450902437961346</v>
       </c>
       <c r="K351" s="8">
         <f t="shared" si="30"/>
-        <v>9.7241917655592272E-2</v>
+        <v>9.9074019362036136E-2</v>
       </c>
       <c r="L351" t="s">
         <v>847</v>
@@ -22297,17 +22540,20 @@
       <c r="G352">
         <v>23.34878390197515</v>
       </c>
+      <c r="H352">
+        <v>15.96125883110159</v>
+      </c>
       <c r="I352" s="14">
         <f t="shared" si="28"/>
-        <v>23.807576097976046</v>
+        <v>22.499856553496969</v>
       </c>
       <c r="J352">
         <f t="shared" si="29"/>
-        <v>6.370583795143328</v>
+        <v>6.5092959381832092</v>
       </c>
       <c r="K352" s="8">
         <f t="shared" si="30"/>
-        <v>0.26758640900385111</v>
+        <v>0.28930388612506608</v>
       </c>
       <c r="L352" t="s">
         <v>847</v>
@@ -22347,17 +22593,20 @@
       <c r="G353">
         <v>28.599408807709331</v>
       </c>
+      <c r="H353">
+        <v>19.608143343378469</v>
+      </c>
       <c r="I353" s="14">
         <f t="shared" si="28"/>
-        <v>24.409164247966714</v>
+        <v>23.608994097202004</v>
       </c>
       <c r="J353">
         <f t="shared" si="29"/>
-        <v>6.0905573572802396</v>
+        <v>5.8406993405020611</v>
       </c>
       <c r="K353" s="8">
         <f t="shared" si="30"/>
-        <v>0.24951929100921935</v>
+        <v>0.24739297728886575</v>
       </c>
       <c r="L353" t="s">
         <v>847</v>
@@ -22397,17 +22646,20 @@
       <c r="G354">
         <v>39.206846097128818</v>
       </c>
+      <c r="H354">
+        <v>31.493805222512421</v>
+      </c>
       <c r="I354" s="14">
         <f t="shared" si="28"/>
-        <v>37.913781901121702</v>
+        <v>36.843785788020149</v>
       </c>
       <c r="J354">
         <f t="shared" si="29"/>
-        <v>5.0855718919924398</v>
+        <v>5.2227380718784548</v>
       </c>
       <c r="K354" s="8">
         <f t="shared" si="30"/>
-        <v>0.13413517821185705</v>
+        <v>0.14175356739742639</v>
       </c>
       <c r="L354" t="s">
         <v>847</v>
@@ -22447,17 +22699,20 @@
       <c r="G355">
         <v>59.35340024152439</v>
       </c>
+      <c r="H355">
+        <v>36.948155026893772</v>
+      </c>
       <c r="I355" s="14">
         <f t="shared" si="28"/>
-        <v>61.223397191444498</v>
+        <v>57.177523497352716</v>
       </c>
       <c r="J355">
         <f t="shared" si="29"/>
-        <v>6.6034857938178471</v>
+        <v>10.871238365538121</v>
       </c>
       <c r="K355" s="8">
         <f t="shared" si="30"/>
-        <v>0.10785885946787405</v>
+        <v>0.19013132609777078</v>
       </c>
       <c r="L355" t="s">
         <v>847</v>
@@ -22497,17 +22752,20 @@
       <c r="G356">
         <v>39.351068115616997</v>
       </c>
+      <c r="H356">
+        <v>29.736394265911631</v>
+      </c>
       <c r="I356" s="14">
         <f t="shared" si="28"/>
-        <v>44.556240262649681</v>
+        <v>42.086265929860005</v>
       </c>
       <c r="J356">
         <f t="shared" si="29"/>
-        <v>6.4448593560597454</v>
+        <v>8.0695338231332414</v>
       </c>
       <c r="K356" s="8">
         <f t="shared" si="30"/>
-        <v>0.14464549338249036</v>
+        <v>0.19173793742076667</v>
       </c>
       <c r="L356" t="s">
         <v>847</v>
@@ -22547,17 +22805,20 @@
       <c r="G357">
         <v>80.059424440834917</v>
       </c>
+      <c r="H357">
+        <v>62.315161088050239</v>
+      </c>
       <c r="I357" s="14">
         <f t="shared" si="28"/>
-        <v>75.155970593289851</v>
+        <v>73.015835675749912</v>
       </c>
       <c r="J357">
         <f t="shared" si="29"/>
-        <v>9.7999706785790011</v>
+        <v>10.145626729969679</v>
       </c>
       <c r="K357" s="8">
         <f t="shared" si="30"/>
-        <v>0.13039510502248736</v>
+        <v>0.1389510458392145</v>
       </c>
       <c r="L357" t="s">
         <v>847</v>
@@ -22597,17 +22858,20 @@
       <c r="G358">
         <v>38.438325608352912</v>
       </c>
+      <c r="H358">
+        <v>27.701636479631141</v>
+      </c>
       <c r="I358" s="14">
         <f t="shared" si="28"/>
-        <v>42.259615682854374</v>
+        <v>39.833285815650498</v>
       </c>
       <c r="J358">
         <f t="shared" si="29"/>
-        <v>4.0964307198422487</v>
+        <v>6.5893350947687264</v>
       </c>
       <c r="K358" s="8">
         <f t="shared" si="30"/>
-        <v>9.6934878693283003E-2</v>
+        <v>0.16542283569736987</v>
       </c>
       <c r="L358" t="s">
         <v>847</v>
@@ -22647,17 +22911,20 @@
       <c r="G359">
         <v>54.725995344261463</v>
       </c>
+      <c r="H359">
+        <v>40.821224361760571</v>
+      </c>
       <c r="I359" s="14">
         <f t="shared" si="28"/>
-        <v>53.673356603735627</v>
+        <v>51.531334563406453</v>
       </c>
       <c r="J359">
         <f t="shared" si="29"/>
-        <v>7.9476207267666243</v>
+        <v>8.6935908261999675</v>
       </c>
       <c r="K359" s="8">
         <f t="shared" si="30"/>
-        <v>0.14807385320510169</v>
+        <v>0.16870494233955818</v>
       </c>
       <c r="L359" t="s">
         <v>847</v>
@@ -22697,17 +22964,20 @@
       <c r="G360">
         <v>43.027952158896902</v>
       </c>
+      <c r="H360">
+        <v>29.560367552040471</v>
+      </c>
       <c r="I360" s="14">
         <f t="shared" si="28"/>
-        <v>36.23336060184927</v>
+        <v>35.121195093547804</v>
       </c>
       <c r="J360">
         <f t="shared" si="29"/>
-        <v>8.23379111599011</v>
+        <v>7.9171116812935862</v>
       </c>
       <c r="K360" s="8">
         <f t="shared" si="30"/>
-        <v>0.22724337404049338</v>
+        <v>0.2254226161782307</v>
       </c>
       <c r="L360" t="s">
         <v>847</v>
@@ -22747,17 +23017,20 @@
       <c r="G361">
         <v>83.306284728428352</v>
       </c>
+      <c r="H361">
+        <v>51.757053674874371</v>
+      </c>
       <c r="I361" s="14">
         <f t="shared" si="28"/>
-        <v>76.628368590257182</v>
+        <v>72.483149437693385</v>
       </c>
       <c r="J361">
         <f t="shared" si="29"/>
-        <v>7.1042824828681441</v>
+        <v>11.312525526051342</v>
       </c>
       <c r="K361" s="8">
         <f t="shared" si="30"/>
-        <v>9.2710866922611337E-2</v>
+        <v>0.15607110913103472</v>
       </c>
       <c r="L361" t="s">
         <v>21</v>
@@ -22797,17 +23070,20 @@
       <c r="G362">
         <v>90.268871855835172</v>
       </c>
+      <c r="H362">
+        <v>63.41490320943327</v>
+      </c>
       <c r="I362" s="14">
         <f t="shared" si="28"/>
-        <v>80.102935824574104</v>
+        <v>77.321597055383961</v>
       </c>
       <c r="J362">
         <f t="shared" si="29"/>
-        <v>11.173171013384747</v>
+        <v>11.946227528259822</v>
       </c>
       <c r="K362" s="8">
         <f t="shared" si="30"/>
-        <v>0.13948516241469672</v>
+        <v>0.15450052744905116</v>
       </c>
       <c r="L362" t="s">
         <v>21</v>
@@ -22847,17 +23123,20 @@
       <c r="G363">
         <v>86.138336611046341</v>
       </c>
+      <c r="H363">
+        <v>61.102778362665262</v>
+      </c>
       <c r="I363" s="14">
         <f t="shared" si="28"/>
-        <v>76.566686800809094</v>
+        <v>73.98936872778512</v>
       </c>
       <c r="J363">
         <f t="shared" si="29"/>
-        <v>12.122135436829609</v>
+        <v>12.476697554710276</v>
       </c>
       <c r="K363" s="8">
         <f t="shared" si="30"/>
-        <v>0.15832127447757752</v>
+        <v>0.16862824712849481</v>
       </c>
       <c r="L363" t="s">
         <v>21</v>

--- a/data/Results_Masterfile.xlsx
+++ b/data/Results_Masterfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0716A-A898-42AE-8B1E-F245648106CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25035B1-B6FB-4EA4-B2C2-D87A7D7FC61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Microplate!$L$1:$L$363</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3901,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H368" sqref="H368"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H364" sqref="H364:H456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24000,17 +24000,20 @@
       <c r="G364">
         <v>101.13930397320649</v>
       </c>
+      <c r="H364">
+        <v>120.6918074097939</v>
+      </c>
       <c r="I364" s="1">
         <f t="shared" si="42"/>
-        <v>102.31403650886438</v>
+        <v>105.37699832568596</v>
       </c>
       <c r="J364">
         <f t="shared" si="43"/>
-        <v>3.4026550225473366</v>
+        <v>7.520442792277847</v>
       </c>
       <c r="K364" s="10">
         <f t="shared" si="44"/>
-        <v>3.3256971757267481E-2</v>
+        <v>7.1367024225102799E-2</v>
       </c>
       <c r="L364" t="s">
         <v>755</v>
@@ -24050,17 +24053,20 @@
       <c r="G365">
         <v>63.347086266471273</v>
       </c>
+      <c r="H365">
+        <v>74.069999554422338</v>
+      </c>
       <c r="I365" s="1">
         <f t="shared" si="42"/>
-        <v>61.668532622866522</v>
+        <v>63.73544377812582</v>
       </c>
       <c r="J365">
         <f t="shared" si="43"/>
-        <v>6.3806832695459716</v>
+        <v>7.4356040624750941</v>
       </c>
       <c r="K365" s="10">
         <f t="shared" si="44"/>
-        <v>0.10346740871178167</v>
+        <v>0.11666356459931035</v>
       </c>
       <c r="L365" t="s">
         <v>755</v>
@@ -24100,17 +24106,20 @@
       <c r="G366">
         <v>74.372984689989281</v>
       </c>
+      <c r="H366">
+        <v>78.611326583270284</v>
+      </c>
       <c r="I366" s="1">
         <f t="shared" si="42"/>
-        <v>68.972375834687725</v>
+        <v>70.578867626118154</v>
       </c>
       <c r="J366">
         <f t="shared" si="43"/>
-        <v>3.7561318955623006</v>
+        <v>4.9660029259338652</v>
       </c>
       <c r="K366" s="10">
         <f t="shared" si="44"/>
-        <v>5.4458496609787063E-2</v>
+        <v>7.0361045635367561E-2</v>
       </c>
       <c r="L366" t="s">
         <v>755</v>
@@ -24150,17 +24159,20 @@
       <c r="G367">
         <v>43.262691602174037</v>
       </c>
+      <c r="H367">
+        <v>52.712891335340011</v>
+      </c>
       <c r="I367" s="1">
         <f t="shared" si="42"/>
-        <v>46.253606641947925</v>
+        <v>47.330154090846605</v>
       </c>
       <c r="J367">
         <f t="shared" si="43"/>
-        <v>2.7222000200616119</v>
+        <v>3.4597807502312663</v>
       </c>
       <c r="K367" s="10">
         <f t="shared" si="44"/>
-        <v>5.885378930846049E-2</v>
+        <v>7.3098869350614881E-2</v>
       </c>
       <c r="L367" t="s">
         <v>755</v>
@@ -24200,17 +24212,20 @@
       <c r="G368">
         <v>85.126629119370165</v>
       </c>
+      <c r="H368">
+        <v>98.986595991902675</v>
+      </c>
       <c r="I368" s="1">
         <f t="shared" si="42"/>
-        <v>89.200329266298382</v>
+        <v>90.831373720565765</v>
       </c>
       <c r="J368">
         <f t="shared" si="43"/>
-        <v>4.5352589345748235</v>
+        <v>5.5174276671303897</v>
       </c>
       <c r="K368" s="10">
         <f t="shared" si="44"/>
-        <v>5.0843522348838821E-2</v>
+        <v>6.0743633406935366E-2</v>
       </c>
       <c r="L368" t="s">
         <v>755</v>
@@ -24250,17 +24265,20 @@
       <c r="G369">
         <v>70.270230392106086</v>
       </c>
+      <c r="H369">
+        <v>81.689905126624836</v>
+      </c>
       <c r="I369" s="1">
         <f t="shared" si="42"/>
-        <v>75.792480144881964</v>
+        <v>76.775384308505764</v>
       </c>
       <c r="J369">
         <f t="shared" si="43"/>
-        <v>6.9001128310101905</v>
+        <v>6.6713417347315804</v>
       </c>
       <c r="K369" s="10">
         <f t="shared" si="44"/>
-        <v>9.1039543999882344E-2</v>
+        <v>8.6894279915606734E-2</v>
       </c>
       <c r="L369" t="s">
         <v>755</v>
@@ -24300,17 +24318,20 @@
       <c r="G370">
         <v>42.865791431202901</v>
       </c>
+      <c r="H370">
+        <v>46.891721133213217</v>
+      </c>
       <c r="I370" s="1">
         <f t="shared" si="42"/>
-        <v>45.456109903270217</v>
+        <v>45.695378441594045</v>
       </c>
       <c r="J370">
         <f t="shared" si="43"/>
-        <v>4.6350159248902498</v>
+        <v>4.2648631498732517</v>
       </c>
       <c r="K370" s="10">
         <f t="shared" si="44"/>
-        <v>0.10196684086591395</v>
+        <v>9.3332483400360156E-2</v>
       </c>
       <c r="L370" t="s">
         <v>755</v>
@@ -24350,17 +24371,20 @@
       <c r="G371">
         <v>46.292634353244722</v>
       </c>
+      <c r="H371">
+        <v>53.195031471752053</v>
+      </c>
       <c r="I371" s="1">
         <f t="shared" si="42"/>
-        <v>48.289162539379632</v>
+        <v>49.106807361441703</v>
       </c>
       <c r="J371">
         <f t="shared" si="43"/>
-        <v>4.377130531390554</v>
+        <v>4.394175123492162</v>
       </c>
       <c r="K371" s="10">
         <f t="shared" si="44"/>
-        <v>9.0644159086855566E-2</v>
+        <v>8.9481995666092426E-2</v>
       </c>
       <c r="L371" t="s">
         <v>755</v>
@@ -24400,17 +24424,20 @@
       <c r="G372">
         <v>48.586565787788139</v>
       </c>
+      <c r="H372">
+        <v>50.338237293340079</v>
+      </c>
       <c r="I372" s="1">
         <f t="shared" si="42"/>
-        <v>48.573331195695054</v>
+        <v>48.867482211969225</v>
       </c>
       <c r="J372">
         <f t="shared" si="43"/>
-        <v>2.9919528865687921</v>
+        <v>2.8093491235661228</v>
       </c>
       <c r="K372" s="10">
         <f t="shared" si="44"/>
-        <v>6.159661717485751E-2</v>
+        <v>5.7489131758010285E-2</v>
       </c>
       <c r="L372" t="s">
         <v>755</v>
@@ -24450,17 +24477,20 @@
       <c r="G373">
         <v>61.786596843429173</v>
       </c>
+      <c r="H373">
+        <v>52.832983975273002</v>
+      </c>
       <c r="I373" s="1">
         <f t="shared" si="42"/>
-        <v>58.443378295064647</v>
+        <v>57.508312575099374</v>
       </c>
       <c r="J373">
         <f t="shared" si="43"/>
-        <v>3.3923537196002531</v>
+        <v>3.7365482247223332</v>
       </c>
       <c r="K373" s="10">
         <f t="shared" si="44"/>
-        <v>5.8045133915311777E-2</v>
+        <v>6.49740543133277E-2</v>
       </c>
       <c r="L373" t="s">
         <v>755</v>
@@ -24500,17 +24530,20 @@
       <c r="G374">
         <v>37.658984280693687</v>
       </c>
+      <c r="H374">
+        <v>34.530121678835783</v>
+      </c>
       <c r="I374" s="1">
         <f t="shared" si="42"/>
-        <v>34.032090238161729</v>
+        <v>34.115095478274071</v>
       </c>
       <c r="J374">
         <f t="shared" si="43"/>
-        <v>8.4373491191066421</v>
+        <v>7.7044467342462868</v>
       </c>
       <c r="K374" s="10">
         <f t="shared" si="44"/>
-        <v>0.24792332942410511</v>
+        <v>0.22583688030868337</v>
       </c>
       <c r="L374" t="s">
         <v>755</v>
@@ -24550,17 +24583,20 @@
       <c r="G375">
         <v>57.492888409539987</v>
       </c>
+      <c r="H375">
+        <v>57.121670329996313</v>
+      </c>
       <c r="I375" s="1">
         <f t="shared" si="42"/>
-        <v>61.418309575974945</v>
+        <v>60.70220303497851</v>
       </c>
       <c r="J375">
         <f t="shared" si="43"/>
-        <v>2.8254613940058757</v>
+        <v>3.0359078210321395</v>
       </c>
       <c r="K375" s="10">
         <f t="shared" si="44"/>
-        <v>4.6003568211377702E-2</v>
+        <v>5.0013140697426656E-2</v>
       </c>
       <c r="L375" t="s">
         <v>755</v>
@@ -24600,17 +24636,20 @@
       <c r="G376">
         <v>57.791824067068923</v>
       </c>
+      <c r="H376">
+        <v>60.108527191249053</v>
+      </c>
       <c r="I376" s="1">
         <f t="shared" si="42"/>
-        <v>62.717331321051496</v>
+        <v>62.282530632751083</v>
       </c>
       <c r="J376">
         <f t="shared" si="43"/>
-        <v>5.4770778943640464</v>
+        <v>5.0935164745823638</v>
       </c>
       <c r="K376" s="10">
         <f t="shared" si="44"/>
-        <v>8.7329575079123756E-2</v>
+        <v>8.1780820766842011E-2</v>
       </c>
       <c r="L376" t="s">
         <v>755</v>
@@ -24650,17 +24689,20 @@
       <c r="G377">
         <v>55.188967361899209</v>
       </c>
+      <c r="H377">
+        <v>55.257429179997423</v>
+      </c>
       <c r="I377" s="1">
         <f t="shared" si="42"/>
-        <v>53.65796966431477</v>
+        <v>53.924546250261876</v>
       </c>
       <c r="J377">
         <f t="shared" si="43"/>
-        <v>2.6114243548601657</v>
+        <v>2.4572877355274128</v>
       </c>
       <c r="K377" s="10">
         <f t="shared" si="44"/>
-        <v>4.8667968079994149E-2</v>
+        <v>4.5569001621696158E-2</v>
       </c>
       <c r="L377" t="s">
         <v>755</v>
@@ -24700,17 +24742,20 @@
       <c r="G378">
         <v>60.240716716892408</v>
       </c>
+      <c r="H378">
+        <v>69.73117229520156</v>
+      </c>
       <c r="I378" s="1">
         <f t="shared" si="42"/>
-        <v>60.590221332337009</v>
+        <v>62.113713159481108</v>
       </c>
       <c r="J378">
         <f t="shared" si="43"/>
-        <v>3.2150207977698351</v>
+        <v>4.4965285512216386</v>
       </c>
       <c r="K378" s="10">
         <f t="shared" si="44"/>
-        <v>5.3061710736052023E-2</v>
+        <v>7.2391881317359033E-2</v>
       </c>
       <c r="L378" t="s">
         <v>755</v>
@@ -24750,17 +24795,20 @@
       <c r="G379">
         <v>44.672296260783739</v>
       </c>
+      <c r="H379">
+        <v>37.476025835442357</v>
+      </c>
       <c r="I379" s="1">
         <f t="shared" si="42"/>
-        <v>45.788340032977636</v>
+        <v>44.402954333388415</v>
       </c>
       <c r="J379">
         <f t="shared" si="43"/>
-        <v>1.1637726434699562</v>
+        <v>3.2749208623322494</v>
       </c>
       <c r="K379" s="10">
         <f t="shared" si="44"/>
-        <v>2.5416353653174257E-2</v>
+        <v>7.375457132296491E-2</v>
       </c>
       <c r="L379" t="s">
         <v>755</v>
@@ -24800,17 +24848,20 @@
       <c r="G380">
         <v>60.331177021018767</v>
       </c>
+      <c r="H380">
+        <v>68.364318749681345</v>
+      </c>
       <c r="I380" s="1">
         <f t="shared" si="42"/>
-        <v>63.538449009189229</v>
+        <v>64.34276063260458</v>
       </c>
       <c r="J380">
         <f t="shared" si="43"/>
-        <v>2.62115955829031</v>
+        <v>2.9933232027551626</v>
       </c>
       <c r="K380" s="10">
         <f t="shared" si="44"/>
-        <v>4.1253124669618953E-2</v>
+        <v>4.6521522752916322E-2</v>
       </c>
       <c r="L380" t="s">
         <v>755</v>
@@ -24850,17 +24901,20 @@
       <c r="G381">
         <v>30.836770600840481</v>
       </c>
+      <c r="H381">
+        <v>10.767209344720291</v>
+      </c>
       <c r="I381" s="1">
         <f t="shared" si="42"/>
-        <v>20.127447338283002</v>
+        <v>18.567407672689217</v>
       </c>
       <c r="J381">
         <f t="shared" si="43"/>
-        <v>10.015003132454378</v>
+        <v>9.7853048961366422</v>
       </c>
       <c r="K381" s="10">
         <f t="shared" si="44"/>
-        <v>0.49757939812891949</v>
+        <v>0.5270151368804078</v>
       </c>
       <c r="L381" t="s">
         <v>755</v>
@@ -24900,17 +24954,20 @@
       <c r="G382">
         <v>45.885147859558437</v>
       </c>
+      <c r="H382">
+        <v>49.729308301140591</v>
+      </c>
       <c r="I382" s="1">
         <f t="shared" si="42"/>
-        <v>47.771680906137902</v>
+        <v>48.097952138638355</v>
       </c>
       <c r="J382">
         <f t="shared" si="43"/>
-        <v>2.3148951308941945</v>
+        <v>2.2355940616127477</v>
       </c>
       <c r="K382" s="10">
         <f t="shared" si="44"/>
-        <v>4.8457477044664077E-2</v>
+        <v>4.6480025909810742E-2</v>
       </c>
       <c r="L382" t="s">
         <v>755</v>
@@ -24950,17 +25007,20 @@
       <c r="G383">
         <v>70.338541253403648</v>
       </c>
+      <c r="H383">
+        <v>74.241344574141152</v>
+      </c>
       <c r="I383" s="1">
         <f t="shared" si="42"/>
-        <v>72.382866423339749</v>
+        <v>72.692612781806645</v>
       </c>
       <c r="J383">
         <f t="shared" si="43"/>
-        <v>5.6101798433321957</v>
+        <v>5.1679924143739386</v>
       </c>
       <c r="K383" s="10">
         <f t="shared" si="44"/>
-        <v>7.7507014028988519E-2</v>
+        <v>7.1093777161183189E-2</v>
       </c>
       <c r="L383" t="s">
         <v>755</v>
@@ -25000,17 +25060,20 @@
       <c r="G384">
         <v>40.942247231158618</v>
       </c>
+      <c r="H384">
+        <v>44.702434421807887</v>
+      </c>
       <c r="I384" s="1">
         <f t="shared" si="42"/>
-        <v>42.982518811111348</v>
+        <v>43.269171412894103</v>
       </c>
       <c r="J384">
         <f t="shared" si="43"/>
-        <v>1.6875020186727852</v>
+        <v>1.6685026589924044</v>
       </c>
       <c r="K384" s="10">
         <f t="shared" si="44"/>
-        <v>3.9260193803173568E-2</v>
+        <v>3.856100323879081E-2</v>
       </c>
       <c r="L384" t="s">
         <v>755</v>
@@ -25050,17 +25113,20 @@
       <c r="G385">
         <v>11.371566441044701</v>
       </c>
+      <c r="H385">
+        <v>9.5262334215032247</v>
+      </c>
       <c r="I385" s="1">
         <f t="shared" si="42"/>
-        <v>8.5139294907491294</v>
+        <v>8.6826468125414777</v>
       </c>
       <c r="J385">
         <f t="shared" si="43"/>
-        <v>3.8351575108074321</v>
+        <v>3.5212718276142057</v>
       </c>
       <c r="K385" s="10">
         <f t="shared" si="44"/>
-        <v>0.45045680904153007</v>
+        <v>0.40555281167580998</v>
       </c>
       <c r="L385" t="s">
         <v>755</v>
@@ -25100,17 +25166,20 @@
       <c r="G386">
         <v>42.663705749243071</v>
       </c>
+      <c r="H386">
+        <v>45.580796668487203</v>
+      </c>
       <c r="I386" s="1">
         <f t="shared" si="42"/>
-        <v>43.400381228483155</v>
+        <v>43.763783801817162</v>
       </c>
       <c r="J386">
         <f t="shared" si="43"/>
-        <v>1.799606265909621</v>
+        <v>1.8327918808327743</v>
       </c>
       <c r="K386" s="10">
         <f t="shared" si="44"/>
-        <v>4.1465217930587224E-2</v>
+        <v>4.1879191459598453E-2</v>
       </c>
       <c r="L386" t="s">
         <v>755</v>
@@ -25150,17 +25219,20 @@
       <c r="G387">
         <v>48.345296633384912</v>
       </c>
+      <c r="H387">
+        <v>52.020993709698132</v>
+      </c>
       <c r="I387" s="1">
         <f t="shared" si="42"/>
-        <v>48.854225724814661</v>
+        <v>49.382020388961905</v>
       </c>
       <c r="J387">
         <f t="shared" si="43"/>
-        <v>4.5589548298509532</v>
+        <v>4.3258402252852521</v>
       </c>
       <c r="K387" s="10">
         <f t="shared" si="44"/>
-        <v>9.3317512706691225E-2</v>
+        <v>8.7599498586983363E-2</v>
       </c>
       <c r="L387" t="s">
         <v>755</v>
@@ -25200,17 +25272,20 @@
       <c r="G388">
         <v>50.884382379155042</v>
       </c>
+      <c r="H388">
+        <v>52.681928165303283</v>
+      </c>
       <c r="I388" s="1">
         <f t="shared" si="42"/>
-        <v>52.241640568357219</v>
+        <v>52.315021834514901</v>
       </c>
       <c r="J388">
         <f t="shared" si="43"/>
-        <v>4.5286438947720358</v>
+        <v>4.1373224420101966</v>
       </c>
       <c r="K388" s="10">
         <f t="shared" si="44"/>
-        <v>8.6686479320005061E-2</v>
+        <v>7.9084788592797509E-2</v>
       </c>
       <c r="L388" t="s">
         <v>755</v>
@@ -25250,17 +25325,20 @@
       <c r="G389">
         <v>55.368283655818033</v>
       </c>
+      <c r="H389">
+        <v>61.781376439365637</v>
+      </c>
       <c r="I389" s="1">
         <f t="shared" si="42"/>
-        <v>56.040166155295722</v>
+        <v>56.997034535974045</v>
       </c>
       <c r="J389">
         <f t="shared" si="43"/>
-        <v>3.3142953567412032</v>
+        <v>3.7056416785049957</v>
       </c>
       <c r="K389" s="10">
         <f t="shared" si="44"/>
-        <v>5.9141426304068989E-2</v>
+        <v>6.5014639948788144E-2</v>
       </c>
       <c r="L389" t="s">
         <v>755</v>
@@ -25300,17 +25378,20 @@
       <c r="G390">
         <v>65.719450292938603</v>
       </c>
+      <c r="H390">
+        <v>59.591432273083527</v>
+      </c>
       <c r="I390" s="1">
         <f t="shared" si="42"/>
-        <v>65.609836927970719</v>
+        <v>64.606769485489522</v>
       </c>
       <c r="J390">
         <f t="shared" si="43"/>
-        <v>2.8834088344212212</v>
+        <v>3.4581922386574795</v>
       </c>
       <c r="K390" s="10">
         <f t="shared" si="44"/>
-        <v>4.3947812849874181E-2</v>
+        <v>5.3526778481536343E-2</v>
       </c>
       <c r="L390" t="s">
         <v>755</v>
@@ -25350,17 +25431,20 @@
       <c r="G391">
         <v>11.05057097886449</v>
       </c>
+      <c r="H391">
+        <v>17.078030945155199</v>
+      </c>
       <c r="I391" s="1">
         <f t="shared" si="42"/>
-        <v>11.49550543772399</v>
+        <v>12.425926355629192</v>
       </c>
       <c r="J391">
         <f t="shared" si="43"/>
-        <v>4.3773732048249521</v>
+        <v>4.5051354660702509</v>
       </c>
       <c r="K391" s="10">
         <f t="shared" si="44"/>
-        <v>0.38078997296282729</v>
+        <v>0.36255932452306339</v>
       </c>
       <c r="L391" t="s">
         <v>755</v>
@@ -25400,17 +25484,20 @@
       <c r="G392">
         <v>51.2850048251739</v>
       </c>
+      <c r="H392">
+        <v>54.884699746481978</v>
+      </c>
       <c r="I392" s="1">
         <f t="shared" si="42"/>
-        <v>53.836695742074404</v>
+        <v>54.011363076142338</v>
       </c>
       <c r="J392">
         <f t="shared" si="43"/>
-        <v>2.6295700028599613</v>
+        <v>2.4320242709663558</v>
       </c>
       <c r="K392" s="10">
         <f t="shared" si="44"/>
-        <v>4.8843450858461625E-2</v>
+        <v>4.5028011374899347E-2</v>
       </c>
       <c r="L392" t="s">
         <v>755</v>
@@ -25450,17 +25537,20 @@
       <c r="G393">
         <v>16.2984289005914</v>
       </c>
+      <c r="H393">
+        <v>12.064753148722829</v>
+      </c>
       <c r="I393" s="1">
         <f t="shared" si="42"/>
-        <v>12.153693068170464</v>
+        <v>12.138869748262524</v>
       </c>
       <c r="J393">
         <f t="shared" si="43"/>
-        <v>2.3602974401009718</v>
+        <v>2.154901852100954</v>
       </c>
       <c r="K393" s="10">
         <f t="shared" si="44"/>
-        <v>0.1942041342382094</v>
+        <v>0.17752079862372624</v>
       </c>
       <c r="L393" t="s">
         <v>755</v>
@@ -25500,17 +25590,20 @@
       <c r="G394">
         <v>33.786465171271409</v>
       </c>
+      <c r="H394">
+        <v>40.065938939720851</v>
+      </c>
       <c r="I394" s="1">
         <f t="shared" ref="I394:I425" si="45">AVERAGE(C394:H394)</f>
-        <v>37.405570962160539</v>
+        <v>37.84896562508726</v>
       </c>
       <c r="J394">
         <f t="shared" ref="J394:J425" si="46">_xlfn.STDEV.P(C394:H394)</f>
-        <v>3.4065176732680138</v>
+        <v>3.2639387786536269</v>
       </c>
       <c r="K394" s="10">
         <f t="shared" ref="K394:K425" si="47">J394/I394</f>
-        <v>9.1069794836551102E-2</v>
+        <v>8.6235877909704481E-2</v>
       </c>
       <c r="L394" t="s">
         <v>755</v>
@@ -25550,17 +25643,20 @@
       <c r="G395">
         <v>4.0358196432219744</v>
       </c>
+      <c r="H395">
+        <v>14.40178647962952</v>
+      </c>
       <c r="I395" s="1">
         <f t="shared" si="45"/>
-        <v>5.1825768292838177</v>
+        <v>6.7191117710081016</v>
       </c>
       <c r="J395">
         <f t="shared" si="46"/>
-        <v>2.0547940197124799</v>
+        <v>3.914483387187897</v>
       </c>
       <c r="K395" s="10">
         <f t="shared" si="47"/>
-        <v>0.39648114970568271</v>
+        <v>0.58258941368980799</v>
       </c>
       <c r="L395" t="s">
         <v>755</v>
@@ -25600,17 +25696,20 @@
       <c r="G396">
         <v>10.204995486870001</v>
       </c>
+      <c r="H396">
+        <v>14.552269951839801</v>
+      </c>
       <c r="I396" s="1">
         <f t="shared" si="45"/>
-        <v>9.7888824735395641</v>
+        <v>10.582780386589604</v>
       </c>
       <c r="J396">
         <f t="shared" si="46"/>
-        <v>2.8419489237343769</v>
+        <v>3.143553862428397</v>
       </c>
       <c r="K396" s="10">
         <f t="shared" si="47"/>
-        <v>0.29032414388634048</v>
+        <v>0.29704423106160999</v>
       </c>
       <c r="L396" t="s">
         <v>755</v>
@@ -25650,17 +25749,20 @@
       <c r="G397">
         <v>15.258897660739519</v>
       </c>
+      <c r="H397">
+        <v>19.67689885313218</v>
+      </c>
       <c r="I397" s="1">
         <f t="shared" si="45"/>
-        <v>20.850319556883878</v>
+        <v>20.654749439591928</v>
       </c>
       <c r="J397">
         <f t="shared" si="46"/>
-        <v>7.3412453187680162</v>
+        <v>6.7158623704752669</v>
       </c>
       <c r="K397" s="10">
         <f t="shared" si="47"/>
-        <v>0.35209270048545865</v>
+        <v>0.32514857612370779</v>
       </c>
       <c r="L397" t="s">
         <v>755</v>
@@ -25700,17 +25802,20 @@
       <c r="G398">
         <v>16.579407854771219</v>
       </c>
+      <c r="H398">
+        <v>12.424315041499771</v>
+      </c>
       <c r="I398" s="1">
         <f t="shared" si="45"/>
-        <v>11.791941904888535</v>
+        <v>11.897337427657076</v>
       </c>
       <c r="J398">
         <f t="shared" si="46"/>
-        <v>4.4081894805183675</v>
+        <v>4.0310031623107072</v>
       </c>
       <c r="K398" s="10">
         <f t="shared" si="47"/>
-        <v>0.37383066470933707</v>
+        <v>0.33881557002326074</v>
       </c>
       <c r="L398" t="s">
         <v>755</v>
@@ -25750,17 +25855,20 @@
       <c r="G399">
         <v>39.008302640655103</v>
       </c>
+      <c r="H399">
+        <v>49.241810504658517</v>
+      </c>
       <c r="I399" s="1">
         <f t="shared" si="45"/>
-        <v>45.222716226365165</v>
+        <v>45.89256527274739</v>
       </c>
       <c r="J399">
         <f t="shared" si="46"/>
-        <v>3.7478469764063993</v>
+        <v>3.7348073832744535</v>
       </c>
       <c r="K399" s="10">
         <f t="shared" si="47"/>
-        <v>8.2875317741780793E-2</v>
+        <v>8.1381534483371154E-2</v>
       </c>
       <c r="L399" t="s">
         <v>755</v>
@@ -25800,17 +25908,20 @@
       <c r="G400">
         <v>71.909924408382949</v>
       </c>
+      <c r="H400">
+        <v>79.167920389744722</v>
+      </c>
       <c r="I400" s="1">
         <f t="shared" si="45"/>
-        <v>70.376876666665453</v>
+        <v>71.842050620511998</v>
       </c>
       <c r="J400">
         <f t="shared" si="46"/>
-        <v>5.9492340611454351</v>
+        <v>6.342567448365247</v>
       </c>
       <c r="K400" s="10">
         <f t="shared" si="47"/>
-        <v>8.4533931355372793E-2</v>
+        <v>8.8284888774518747E-2</v>
       </c>
       <c r="L400" t="s">
         <v>755</v>
@@ -25850,17 +25961,20 @@
       <c r="G401">
         <v>37.378409934435567</v>
       </c>
+      <c r="H401">
+        <v>30.660243388375239</v>
+      </c>
       <c r="I401" s="1">
         <f t="shared" si="45"/>
-        <v>33.553497904290666</v>
+        <v>33.071288818304765</v>
       </c>
       <c r="J401">
         <f t="shared" si="46"/>
-        <v>4.0133970725819221</v>
+        <v>3.819086897616256</v>
       </c>
       <c r="K401" s="10">
         <f t="shared" si="47"/>
-        <v>0.11961188320901432</v>
+        <v>0.11548043738478114</v>
       </c>
       <c r="L401" t="s">
         <v>755</v>
@@ -25900,17 +26014,20 @@
       <c r="G402">
         <v>52.243640363036803</v>
       </c>
+      <c r="H402">
+        <v>46.627605259773581</v>
+      </c>
       <c r="I402" s="1">
         <f t="shared" si="45"/>
-        <v>51.31341429528004</v>
+        <v>50.532446122695632</v>
       </c>
       <c r="J402">
         <f t="shared" si="46"/>
-        <v>2.3064275838024795</v>
+        <v>2.7354274374802841</v>
       </c>
       <c r="K402" s="10">
         <f t="shared" si="47"/>
-        <v>4.4947848734646204E-2</v>
+        <v>5.4132100212178763E-2</v>
       </c>
       <c r="L402" t="s">
         <v>755</v>
@@ -25950,17 +26067,20 @@
       <c r="G403">
         <v>38.786465031148559</v>
       </c>
+      <c r="H403">
+        <v>37.397291652262993</v>
+      </c>
       <c r="I403" s="1">
         <f t="shared" si="45"/>
-        <v>37.965149756600397</v>
+        <v>37.870506739210832</v>
       </c>
       <c r="J403">
         <f t="shared" si="46"/>
-        <v>2.0403362686452868</v>
+        <v>1.8745479218540892</v>
       </c>
       <c r="K403" s="10">
         <f t="shared" si="47"/>
-        <v>5.3742347435112275E-2</v>
+        <v>4.9498886686752376E-2</v>
       </c>
       <c r="L403" t="s">
         <v>755</v>
@@ -26000,17 +26120,20 @@
       <c r="G404">
         <v>7.1311622389893516</v>
       </c>
+      <c r="H404">
+        <v>19.265871266327661</v>
+      </c>
       <c r="I404" s="1">
         <f t="shared" si="45"/>
-        <v>25.569752670711157</v>
+        <v>24.519105769980573</v>
       </c>
       <c r="J404">
         <f t="shared" si="46"/>
-        <v>10.278731023442713</v>
+        <v>9.6727910877355807</v>
       </c>
       <c r="K404" s="10">
         <f t="shared" si="47"/>
-        <v>0.40198789389216399</v>
+        <v>0.39450015748854306</v>
       </c>
       <c r="L404" t="s">
         <v>755</v>
@@ -26050,17 +26173,20 @@
       <c r="G405">
         <v>12.878025001608711</v>
       </c>
+      <c r="H405">
+        <v>28.23783785546312</v>
+      </c>
       <c r="I405" s="1">
         <f t="shared" si="45"/>
-        <v>14.212396079376457</v>
+        <v>16.549969708724234</v>
       </c>
       <c r="J405">
         <f t="shared" si="46"/>
-        <v>3.6485797805178719</v>
+        <v>6.1979591567531847</v>
       </c>
       <c r="K405" s="10">
         <f t="shared" si="47"/>
-        <v>0.25671813254714376</v>
+        <v>0.3744997281466903</v>
       </c>
       <c r="L405" t="s">
         <v>755</v>
@@ -26100,17 +26226,20 @@
       <c r="G406">
         <v>10.9547399890725</v>
       </c>
+      <c r="H406">
+        <v>18.269370567657749</v>
+      </c>
       <c r="I406" s="1">
         <f t="shared" si="45"/>
-        <v>14.280251973841104</v>
+        <v>14.945105072810543</v>
       </c>
       <c r="J406">
         <f t="shared" si="46"/>
-        <v>4.2974671259864667</v>
+        <v>4.1952752748568249</v>
       </c>
       <c r="K406" s="10">
         <f t="shared" si="47"/>
-        <v>0.30093776593428928</v>
+        <v>0.28071233052012734</v>
       </c>
       <c r="L406" t="s">
         <v>755</v>
@@ -26150,17 +26279,20 @@
       <c r="G407">
         <v>7.1109106564658786</v>
       </c>
+      <c r="H407">
+        <v>2.8988874774730462</v>
+      </c>
       <c r="I407" s="1">
         <f t="shared" si="45"/>
-        <v>11.974231236894624</v>
+        <v>10.461673943657695</v>
       </c>
       <c r="J407">
         <f t="shared" si="46"/>
-        <v>3.8097365152387712</v>
+        <v>4.8512085871709187</v>
       </c>
       <c r="K407" s="10">
         <f t="shared" si="47"/>
-        <v>0.31816126145120122</v>
+        <v>0.46371246258462534</v>
       </c>
       <c r="L407" t="s">
         <v>755</v>
@@ -26200,17 +26332,20 @@
       <c r="G408">
         <v>57.415773847073822</v>
       </c>
+      <c r="H408">
+        <v>59.638148240511057</v>
+      </c>
       <c r="I408" s="1">
         <f t="shared" si="45"/>
-        <v>58.668219762553619</v>
+        <v>58.829874508879861</v>
       </c>
       <c r="J408">
         <f t="shared" si="46"/>
-        <v>2.2749515854682301</v>
+        <v>2.1079607559367299</v>
       </c>
       <c r="K408" s="10">
         <f t="shared" si="47"/>
-        <v>3.8776557302668858E-2</v>
+        <v>3.583146783049064E-2</v>
       </c>
       <c r="L408" t="s">
         <v>755</v>
@@ -26250,17 +26385,20 @@
       <c r="G409">
         <v>17.43177591482392</v>
       </c>
+      <c r="H409">
+        <v>12.54632059900956</v>
+      </c>
       <c r="I409" s="1">
         <f t="shared" si="45"/>
-        <v>13.716613797134642</v>
+        <v>13.521564930780462</v>
       </c>
       <c r="J409">
         <f t="shared" si="46"/>
-        <v>2.8235099540689479</v>
+        <v>2.6141398875989066</v>
       </c>
       <c r="K409" s="10">
         <f t="shared" si="47"/>
-        <v>0.20584599055043529</v>
+        <v>0.19333116403176706</v>
       </c>
       <c r="L409" t="s">
         <v>755</v>
@@ -26300,17 +26438,20 @@
       <c r="G410">
         <v>6.5771661870789098</v>
       </c>
+      <c r="H410">
+        <v>14.91351924697774</v>
+      </c>
       <c r="I410" s="1">
         <f t="shared" si="45"/>
-        <v>10.000091817756616</v>
+        <v>10.818996389293469</v>
       </c>
       <c r="J410">
         <f t="shared" si="46"/>
-        <v>4.3448618405739845</v>
+        <v>4.3685860219468911</v>
       </c>
       <c r="K410" s="10">
         <f t="shared" si="47"/>
-        <v>0.4344821947393574</v>
+        <v>0.40378847212390834</v>
       </c>
       <c r="L410" t="s">
         <v>755</v>
@@ -26350,17 +26491,20 @@
       <c r="G411">
         <v>22.02650094316903</v>
       </c>
+      <c r="H411">
+        <v>34.443336981783638</v>
+      </c>
       <c r="I411" s="1">
         <f t="shared" si="45"/>
-        <v>26.271310358538294</v>
+        <v>27.63331479574585</v>
       </c>
       <c r="J411">
         <f t="shared" si="46"/>
-        <v>7.1954441183784184</v>
+        <v>7.240209054448683</v>
       </c>
       <c r="K411" s="10">
         <f t="shared" si="47"/>
-        <v>0.27388980679602326</v>
+        <v>0.2620101536122374</v>
       </c>
       <c r="L411" t="s">
         <v>755</v>
@@ -26400,17 +26544,20 @@
       <c r="G412">
         <v>57.595236062111198</v>
       </c>
+      <c r="H412">
+        <v>55.437517787406897</v>
+      </c>
       <c r="I412" s="1">
         <f t="shared" si="45"/>
-        <v>52.45433783996684</v>
+        <v>52.951534497873517</v>
       </c>
       <c r="J412">
         <f t="shared" si="46"/>
-        <v>5.126561405177843</v>
+        <v>4.8101333090380161</v>
       </c>
       <c r="K412" s="10">
         <f t="shared" si="47"/>
-        <v>9.7733793167277996E-2</v>
+        <v>9.0840300562605725E-2</v>
       </c>
       <c r="L412" t="s">
         <v>755</v>
@@ -26450,17 +26597,20 @@
       <c r="G413">
         <v>65.21516648653936</v>
       </c>
+      <c r="H413">
+        <v>64.222916947331498</v>
+      </c>
       <c r="I413" s="1">
         <f t="shared" si="45"/>
-        <v>61.988576921397581</v>
+        <v>62.3609669257199</v>
       </c>
       <c r="J413">
         <f t="shared" si="46"/>
-        <v>5.0585367309455389</v>
+        <v>4.6922666653264224</v>
       </c>
       <c r="K413" s="10">
         <f t="shared" si="47"/>
-        <v>8.1604337156502837E-2</v>
+        <v>7.5243648337196697E-2</v>
       </c>
       <c r="L413" t="s">
         <v>755</v>
@@ -26500,17 +26650,20 @@
       <c r="G414">
         <v>14.348476129754649</v>
       </c>
+      <c r="H414">
+        <v>18.459238607115491</v>
+      </c>
       <c r="I414" s="1">
         <f t="shared" si="45"/>
-        <v>14.029822758085285</v>
+        <v>14.768058732923654</v>
       </c>
       <c r="J414">
         <f t="shared" si="46"/>
-        <v>5.0619461235477408</v>
+        <v>4.9069043775899184</v>
       </c>
       <c r="K414" s="10">
         <f t="shared" si="47"/>
-        <v>0.36079900728828368</v>
+        <v>0.33226468463661718</v>
       </c>
       <c r="L414" t="s">
         <v>755</v>
@@ -26550,17 +26703,20 @@
       <c r="G415">
         <v>9.1097993835229847</v>
       </c>
+      <c r="H415">
+        <v>16.186451589261669</v>
+      </c>
       <c r="I415" s="1">
         <f t="shared" si="45"/>
-        <v>11.875778062911008</v>
+        <v>12.594223650636119</v>
       </c>
       <c r="J415">
         <f t="shared" si="46"/>
-        <v>1.962411973731891</v>
+        <v>2.4062496977967456</v>
       </c>
       <c r="K415" s="10">
         <f t="shared" si="47"/>
-        <v>0.16524491812967257</v>
+        <v>0.19105978776827651</v>
       </c>
       <c r="L415" t="s">
         <v>755</v>
@@ -26600,17 +26756,20 @@
       <c r="G416">
         <v>14.37272158978136</v>
       </c>
+      <c r="H416">
+        <v>9.1822226583546573</v>
+      </c>
       <c r="I416" s="1">
         <f t="shared" si="45"/>
-        <v>10.114803053340051</v>
+        <v>9.9593729875091537</v>
       </c>
       <c r="J416">
         <f t="shared" si="46"/>
-        <v>3.7485721816154176</v>
+        <v>3.4395668856420141</v>
       </c>
       <c r="K416" s="10">
         <f t="shared" si="47"/>
-        <v>0.37060258730174545</v>
+        <v>0.3453597821826585</v>
       </c>
       <c r="L416" t="s">
         <v>755</v>
@@ -26650,17 +26809,20 @@
       <c r="G417">
         <v>17.594089197052721</v>
       </c>
+      <c r="H417">
+        <v>15.868521840111701</v>
+      </c>
       <c r="I417" s="1">
         <f t="shared" si="45"/>
-        <v>17.551477005623845</v>
+        <v>17.270984478038489</v>
       </c>
       <c r="J417">
         <f t="shared" si="46"/>
-        <v>7.3876147251244335</v>
+        <v>6.7730413943234442</v>
       </c>
       <c r="K417" s="10">
         <f t="shared" si="47"/>
-        <v>0.42091128414761297</v>
+        <v>0.39216301786015362</v>
       </c>
       <c r="L417" t="s">
         <v>755</v>
@@ -26700,17 +26862,20 @@
       <c r="G418">
         <v>13.7626075720072</v>
       </c>
+      <c r="H418">
+        <v>9.5384311084947342</v>
+      </c>
       <c r="I418" s="1">
         <f t="shared" si="45"/>
-        <v>9.4550151992005471</v>
+        <v>9.4689178507495786</v>
       </c>
       <c r="J418">
         <f t="shared" si="46"/>
-        <v>3.6421973035942083</v>
+        <v>3.325001365993391</v>
       </c>
       <c r="K418" s="10">
         <f t="shared" si="47"/>
-        <v>0.38521326797043842</v>
+        <v>0.35114903502200912</v>
       </c>
       <c r="L418" t="s">
         <v>755</v>
@@ -26750,17 +26915,20 @@
       <c r="G419">
         <v>14.12607864395633</v>
       </c>
+      <c r="H419">
+        <v>13.60990855159921</v>
+      </c>
       <c r="I419" s="1">
         <f t="shared" si="45"/>
-        <v>21.287664088592923</v>
+        <v>20.008038165760635</v>
       </c>
       <c r="J419">
         <f t="shared" si="46"/>
-        <v>8.4357309769896176</v>
+        <v>8.2151390803021158</v>
       </c>
       <c r="K419" s="10">
         <f t="shared" si="47"/>
-        <v>0.39627320977457253</v>
+        <v>0.4105919337139472</v>
       </c>
       <c r="L419" t="s">
         <v>755</v>
@@ -26800,17 +26968,20 @@
       <c r="G420">
         <v>7.3979494499382641</v>
       </c>
+      <c r="H420">
+        <v>12.96908642165212</v>
+      </c>
       <c r="I420" s="1">
         <f t="shared" si="45"/>
-        <v>8.2600114544494438</v>
+        <v>9.0448572823165563</v>
       </c>
       <c r="J420">
         <f t="shared" si="46"/>
-        <v>1.7624209503352608</v>
+        <v>2.3808306406418898</v>
       </c>
       <c r="K420" s="10">
         <f t="shared" si="47"/>
-        <v>0.21336785790846483</v>
+        <v>0.26322478800153215</v>
       </c>
       <c r="L420" t="s">
         <v>755</v>
@@ -26850,17 +27021,20 @@
       <c r="G421">
         <v>38.080610121813841</v>
       </c>
+      <c r="H421">
+        <v>37.470972959654681</v>
+      </c>
       <c r="I421" s="1">
         <f t="shared" si="45"/>
-        <v>30.183966408807372</v>
+        <v>31.398467500615258</v>
       </c>
       <c r="J421">
         <f t="shared" si="46"/>
-        <v>7.8419508640738034</v>
+        <v>7.6564934732205687</v>
       </c>
       <c r="K421" s="10">
         <f t="shared" si="47"/>
-        <v>0.25980518126291058</v>
+        <v>0.24384927299622311</v>
       </c>
       <c r="L421" t="s">
         <v>755</v>
@@ -26900,17 +27074,20 @@
       <c r="G422">
         <v>6.4686342546618194</v>
       </c>
+      <c r="H422">
+        <v>16.047020431902531</v>
+      </c>
       <c r="I422" s="1">
         <f t="shared" si="45"/>
-        <v>17.041997338196182</v>
+        <v>16.876167853813907</v>
       </c>
       <c r="J422">
         <f t="shared" si="46"/>
-        <v>6.8352023691779928</v>
+        <v>6.2506658268645978</v>
       </c>
       <c r="K422" s="10">
         <f t="shared" si="47"/>
-        <v>0.40107988714786807</v>
+        <v>0.37038419391236305</v>
       </c>
       <c r="L422" t="s">
         <v>755</v>
@@ -26950,17 +27127,20 @@
       <c r="G423">
         <v>37.075570765004258</v>
       </c>
+      <c r="H423">
+        <v>23.51970890209228</v>
+      </c>
       <c r="I423" s="1">
         <f t="shared" si="45"/>
-        <v>23.951019271654324</v>
+        <v>23.879134210060652</v>
       </c>
       <c r="J423">
         <f t="shared" si="46"/>
-        <v>7.4862125163296014</v>
+        <v>6.835835879888907</v>
       </c>
       <c r="K423" s="10">
         <f t="shared" si="47"/>
-        <v>0.31256342084737171</v>
+        <v>0.28626816281340983</v>
       </c>
       <c r="L423" t="s">
         <v>755</v>
@@ -27000,17 +27180,20 @@
       <c r="G424">
         <v>51.168249535159148</v>
       </c>
+      <c r="H424">
+        <v>49.454576897244188</v>
+      </c>
       <c r="I424" s="1">
         <f t="shared" si="45"/>
-        <v>49.187293502140619</v>
+        <v>49.231840734657879</v>
       </c>
       <c r="J424">
         <f t="shared" si="46"/>
-        <v>4.2537223702883997</v>
+        <v>3.8843769061718723</v>
       </c>
       <c r="K424" s="10">
         <f t="shared" si="47"/>
-        <v>8.6480106292152026E-2</v>
+        <v>7.8899688660988385E-2</v>
       </c>
       <c r="L424" t="s">
         <v>755</v>
@@ -27050,17 +27233,20 @@
       <c r="G425">
         <v>43.174721238156643</v>
       </c>
+      <c r="H425">
+        <v>43.16861448315462</v>
+      </c>
       <c r="I425" s="1">
         <f t="shared" si="45"/>
-        <v>41.897089388194999</v>
+        <v>42.10901023735493</v>
       </c>
       <c r="J425">
         <f t="shared" si="46"/>
-        <v>4.1254774280879429</v>
+        <v>3.7957242048910675</v>
       </c>
       <c r="K425" s="10">
         <f t="shared" si="47"/>
-        <v>9.8466921887188308E-2</v>
+        <v>9.0140427986689614E-2</v>
       </c>
       <c r="L425" t="s">
         <v>755</v>
@@ -27100,17 +27286,20 @@
       <c r="G426">
         <v>14.518603903067961</v>
       </c>
+      <c r="H426">
+        <v>26.109849914075841</v>
+      </c>
       <c r="I426" s="1">
         <f t="shared" ref="I426:I456" si="48">AVERAGE(C426:H426)</f>
-        <v>12.897302391301741</v>
+        <v>15.099393645097424</v>
       </c>
       <c r="J426">
         <f t="shared" ref="J426:J456" si="49">_xlfn.STDEV.P(C426:H426)</f>
-        <v>2.4449048084275007</v>
+        <v>5.4062305770389116</v>
       </c>
       <c r="K426" s="10">
         <f t="shared" ref="K426:K456" si="50">J426/I426</f>
-        <v>0.18956714623333984</v>
+        <v>0.35804289258954741</v>
       </c>
       <c r="L426" t="s">
         <v>755</v>
@@ -27150,17 +27339,20 @@
       <c r="G427">
         <v>5.5865050042412259</v>
       </c>
+      <c r="H427">
+        <v>15.23971771962564</v>
+      </c>
       <c r="I427" s="1">
         <f t="shared" si="48"/>
-        <v>9.3334682650322822</v>
+        <v>10.317843174131175</v>
       </c>
       <c r="J427">
         <f t="shared" si="49"/>
-        <v>4.9380215369802052</v>
+        <v>5.0164745646769608</v>
       </c>
       <c r="K427" s="10">
         <f t="shared" si="50"/>
-        <v>0.52906608741366157</v>
+        <v>0.48619410859570256</v>
       </c>
       <c r="L427" t="s">
         <v>755</v>
@@ -27200,17 +27392,20 @@
       <c r="G428">
         <v>15.56905094483459</v>
       </c>
+      <c r="H428">
+        <v>13.49728724122199</v>
+      </c>
       <c r="I428" s="1">
         <f t="shared" si="48"/>
-        <v>14.789547575537835</v>
+        <v>14.574170853151861</v>
       </c>
       <c r="J428">
         <f t="shared" si="49"/>
-        <v>6.2884223936190384</v>
+        <v>5.7606842038543027</v>
       </c>
       <c r="K428" s="10">
         <f t="shared" si="50"/>
-        <v>0.42519369585180528</v>
+        <v>0.39526668528168635</v>
       </c>
       <c r="L428" t="s">
         <v>755</v>
@@ -27250,17 +27445,20 @@
       <c r="G429">
         <v>6.5515684206570874</v>
       </c>
+      <c r="H429">
+        <v>9.5703359053012793</v>
+      </c>
       <c r="I429" s="1">
         <f t="shared" si="48"/>
-        <v>8.6679809170851652</v>
+        <v>8.8183734151211848</v>
       </c>
       <c r="J429">
         <f t="shared" si="49"/>
-        <v>3.6970396564529668</v>
+        <v>3.3916330435080684</v>
       </c>
       <c r="K429" s="10">
         <f t="shared" si="50"/>
-        <v>0.42651681998582353</v>
+        <v>0.38460982358632173</v>
       </c>
       <c r="L429" t="s">
         <v>755</v>
@@ -27300,17 +27498,20 @@
       <c r="G430">
         <v>6.1917267146093984</v>
       </c>
+      <c r="H430">
+        <v>13.150755673673199</v>
+      </c>
       <c r="I430" s="1">
         <f t="shared" si="48"/>
-        <v>3.2808605316965016</v>
+        <v>4.9258430553592847</v>
       </c>
       <c r="J430">
         <f t="shared" si="49"/>
-        <v>2.3935327844153744</v>
+        <v>4.2783178361951917</v>
       </c>
       <c r="K430" s="10">
         <f t="shared" si="50"/>
-        <v>0.72954420381219365</v>
+        <v>0.86854530039084576</v>
       </c>
       <c r="L430" t="s">
         <v>755</v>
@@ -27350,17 +27551,20 @@
       <c r="G431">
         <v>37.487400250486147</v>
       </c>
+      <c r="H431">
+        <v>33.13887813629087</v>
+      </c>
       <c r="I431" s="1">
         <f t="shared" si="48"/>
-        <v>40.335160617163936</v>
+        <v>39.135780203685094</v>
       </c>
       <c r="J431">
         <f t="shared" si="49"/>
-        <v>2.3536173032201715</v>
+        <v>3.4363976617282281</v>
       </c>
       <c r="K431" s="10">
         <f t="shared" si="50"/>
-        <v>5.8351504424619297E-2</v>
+        <v>8.7807056454304463E-2</v>
       </c>
       <c r="L431" t="s">
         <v>755</v>
@@ -27400,17 +27604,20 @@
       <c r="G432">
         <v>10.73172759400577</v>
       </c>
+      <c r="H432">
+        <v>14.59753433716763</v>
+      </c>
       <c r="I432" s="1">
         <f t="shared" si="48"/>
-        <v>10.191951658395427</v>
+        <v>10.926215438190795</v>
       </c>
       <c r="J432">
         <f t="shared" si="49"/>
-        <v>1.6952378147790377</v>
+        <v>2.2562304548688181</v>
       </c>
       <c r="K432" s="10">
         <f t="shared" si="50"/>
-        <v>0.16633102977707098</v>
+        <v>0.20649697671002665</v>
       </c>
       <c r="L432" t="s">
         <v>755</v>
@@ -27450,17 +27657,20 @@
       <c r="G433">
         <v>12.55631425234025</v>
       </c>
+      <c r="H433">
+        <v>34.721740096824753</v>
+      </c>
       <c r="I433" s="1">
         <f t="shared" si="48"/>
-        <v>29.466260906058768</v>
+        <v>30.342174104519767</v>
       </c>
       <c r="J433">
         <f t="shared" si="49"/>
-        <v>9.0895015006825961</v>
+        <v>8.5255684619042604</v>
       </c>
       <c r="K433" s="10">
         <f t="shared" si="50"/>
-        <v>0.30847149319897726</v>
+        <v>0.28098080356853178</v>
       </c>
       <c r="L433" t="s">
         <v>755</v>
@@ -27500,17 +27710,20 @@
       <c r="G434">
         <v>33.285507642614803</v>
       </c>
+      <c r="H434">
+        <v>32.470278164507548</v>
+      </c>
       <c r="I434" s="1">
         <f t="shared" si="48"/>
-        <v>34.816254704484528</v>
+        <v>34.425258614488364</v>
       </c>
       <c r="J434">
         <f t="shared" si="49"/>
-        <v>3.7342786771779832</v>
+        <v>3.5192452899710527</v>
       </c>
       <c r="K434" s="10">
         <f t="shared" si="50"/>
-        <v>0.10725676006434395</v>
+        <v>0.10222857958400138</v>
       </c>
       <c r="L434" t="s">
         <v>755</v>
@@ -27550,17 +27763,20 @@
       <c r="G435">
         <v>37.872038792384991</v>
       </c>
+      <c r="H435">
+        <v>18.01319821538819</v>
+      </c>
       <c r="I435" s="1">
         <f t="shared" si="48"/>
-        <v>34.713037277939534</v>
+        <v>31.929730767514311</v>
       </c>
       <c r="J435">
         <f t="shared" si="49"/>
-        <v>7.334060164958017</v>
+        <v>9.1409886996737875</v>
       </c>
       <c r="K435" s="10">
         <f t="shared" si="50"/>
-        <v>0.21127682104668155</v>
+        <v>0.28628455298388983</v>
       </c>
       <c r="L435" t="s">
         <v>755</v>
@@ -27600,17 +27816,20 @@
       <c r="G436">
         <v>43.175302214105081</v>
       </c>
+      <c r="H436">
+        <v>45.28625246489284</v>
+      </c>
       <c r="I436" s="1">
         <f t="shared" si="48"/>
-        <v>40.861269577956435</v>
+        <v>41.598766725779171</v>
       </c>
       <c r="J436">
         <f t="shared" si="49"/>
-        <v>4.8309936503009068</v>
+        <v>4.7083181628836313</v>
       </c>
       <c r="K436" s="10">
         <f t="shared" si="50"/>
-        <v>0.11822916175142779</v>
+        <v>0.11318408052625847</v>
       </c>
       <c r="L436" t="s">
         <v>755</v>
@@ -27650,17 +27869,20 @@
       <c r="G437">
         <v>34.32390833764709</v>
       </c>
+      <c r="H437">
+        <v>38.082384829610461</v>
+      </c>
       <c r="I437" s="1">
         <f t="shared" si="48"/>
-        <v>26.095151147337397</v>
+        <v>28.093023427716236</v>
       </c>
       <c r="J437">
         <f t="shared" si="49"/>
-        <v>8.1283301376528048</v>
+        <v>8.6611543071594497</v>
       </c>
       <c r="K437" s="10">
         <f t="shared" si="50"/>
-        <v>0.31148814167654953</v>
+        <v>0.30830267626568308</v>
       </c>
       <c r="L437" t="s">
         <v>755</v>
@@ -27700,17 +27922,20 @@
       <c r="G438">
         <v>33.453642178232961</v>
       </c>
+      <c r="H438">
+        <v>36.646374587733902</v>
+      </c>
       <c r="I438" s="1">
         <f t="shared" si="48"/>
-        <v>33.296500397643385</v>
+        <v>33.854812762658469</v>
       </c>
       <c r="J438">
         <f t="shared" si="49"/>
-        <v>4.1979821513059576</v>
+        <v>4.0304394223061975</v>
       </c>
       <c r="K438" s="10">
         <f t="shared" si="50"/>
-        <v>0.12607878008714324</v>
+        <v>0.1190507078140374</v>
       </c>
       <c r="L438" t="s">
         <v>755</v>
@@ -27750,17 +27975,20 @@
       <c r="G439">
         <v>51.585144163729552</v>
       </c>
+      <c r="H439">
+        <v>50.646279081693699</v>
+      </c>
       <c r="I439" s="1">
         <f t="shared" si="48"/>
-        <v>53.01612995309695</v>
+        <v>52.621154807863071</v>
       </c>
       <c r="J439">
         <f t="shared" si="49"/>
-        <v>4.4080670381504925</v>
+        <v>4.119778230777313</v>
       </c>
       <c r="K439" s="10">
         <f t="shared" si="50"/>
-        <v>8.3145771712312508E-2</v>
+        <v>7.8291292652545572E-2</v>
       </c>
       <c r="L439" t="s">
         <v>755</v>
@@ -27800,17 +28028,20 @@
       <c r="G440">
         <v>15.42475337341793</v>
       </c>
+      <c r="H440">
+        <v>13.043129128646539</v>
+      </c>
       <c r="I440" s="1">
         <f t="shared" si="48"/>
-        <v>18.448716125586309</v>
+        <v>17.547784959429681</v>
       </c>
       <c r="J440">
         <f t="shared" si="49"/>
-        <v>5.1962263053178512</v>
+        <v>5.1535448651867526</v>
       </c>
       <c r="K440" s="10">
         <f t="shared" si="50"/>
-        <v>0.28165788177049705</v>
+        <v>0.29368634714305547</v>
       </c>
       <c r="L440" t="s">
         <v>755</v>
@@ -27850,17 +28081,20 @@
       <c r="G441">
         <v>31.218794647709629</v>
       </c>
+      <c r="H441">
+        <v>23.99068523442066</v>
+      </c>
       <c r="I441" s="1">
         <f t="shared" si="48"/>
-        <v>31.555030949905483</v>
+        <v>30.294306663991346</v>
       </c>
       <c r="J441">
         <f t="shared" si="49"/>
-        <v>2.6425308266749239</v>
+        <v>3.7102923874551883</v>
       </c>
       <c r="K441" s="10">
         <f t="shared" si="50"/>
-        <v>8.3743566307065823E-2</v>
+        <v>0.12247490687302459</v>
       </c>
       <c r="L441" t="s">
         <v>755</v>
@@ -27900,17 +28134,20 @@
       <c r="G442">
         <v>13.314998464547079</v>
       </c>
+      <c r="H442">
+        <v>32.402094267657191</v>
+      </c>
       <c r="I442" s="1">
         <f t="shared" si="48"/>
-        <v>18.156357637312937</v>
+        <v>20.530647075703644</v>
       </c>
       <c r="J442">
         <f t="shared" si="49"/>
-        <v>6.8667748557685657</v>
+        <v>8.2146261298236301</v>
       </c>
       <c r="K442" s="10">
         <f t="shared" si="50"/>
-        <v>0.37820222496921574</v>
+        <v>0.40011530564689185</v>
       </c>
       <c r="L442" t="s">
         <v>755</v>
@@ -27950,17 +28187,20 @@
       <c r="G443">
         <v>16.782900365338591</v>
       </c>
+      <c r="H443">
+        <v>31.906154485356961</v>
+      </c>
       <c r="I443" s="1">
         <f t="shared" si="48"/>
-        <v>13.202830270658193</v>
+        <v>16.320050973107989</v>
       </c>
       <c r="J443">
         <f t="shared" si="49"/>
-        <v>2.8300396881613796</v>
+        <v>7.4336797798520857</v>
       </c>
       <c r="K443" s="10">
         <f t="shared" si="50"/>
-        <v>0.21435098612536319</v>
+        <v>0.45549366188262685</v>
       </c>
       <c r="L443" t="s">
         <v>755</v>
@@ -28000,17 +28240,20 @@
       <c r="G444">
         <v>20.511404517985749</v>
       </c>
+      <c r="H444">
+        <v>19.54855879147398</v>
+      </c>
       <c r="I444" s="1">
         <f t="shared" si="48"/>
-        <v>28.386465217082236</v>
+        <v>26.913480812814196</v>
       </c>
       <c r="J444">
         <f t="shared" si="49"/>
-        <v>7.4661483209304613</v>
+        <v>7.569757211068799</v>
       </c>
       <c r="K444" s="10">
         <f t="shared" si="50"/>
-        <v>0.26301789475491044</v>
+        <v>0.28126266028973274</v>
       </c>
       <c r="L444" t="s">
         <v>755</v>
@@ -28050,17 +28293,20 @@
       <c r="G445">
         <v>18.333507510757141</v>
       </c>
+      <c r="H445">
+        <v>16.021034193423549</v>
+      </c>
       <c r="I445" s="1">
         <f t="shared" si="48"/>
-        <v>22.94654957850263</v>
+        <v>21.792297014322784</v>
       </c>
       <c r="J445">
         <f t="shared" si="49"/>
-        <v>8.9167060494212418</v>
+        <v>8.539195935180306</v>
       </c>
       <c r="K445" s="10">
         <f t="shared" si="50"/>
-        <v>0.38858591872020781</v>
+        <v>0.39184469308434988</v>
       </c>
       <c r="L445" t="s">
         <v>755</v>
@@ -28100,17 +28346,20 @@
       <c r="G446">
         <v>21.49036697591287</v>
       </c>
+      <c r="H446">
+        <v>30.76525329184765</v>
+      </c>
       <c r="I446" s="1">
         <f t="shared" si="48"/>
-        <v>22.695470940663153</v>
+        <v>24.04043466586057</v>
       </c>
       <c r="J446">
         <f t="shared" si="49"/>
-        <v>4.6337303213585823</v>
+        <v>5.1901365768525602</v>
       </c>
       <c r="K446" s="10">
         <f t="shared" si="50"/>
-        <v>0.20416982460832719</v>
+        <v>0.21589196073159977</v>
       </c>
       <c r="L446" t="s">
         <v>755</v>
@@ -28150,17 +28399,20 @@
       <c r="G447">
         <v>38.326428546047772</v>
       </c>
+      <c r="H447">
+        <v>43.90536478967676</v>
+      </c>
       <c r="I447" s="1">
         <f t="shared" si="48"/>
-        <v>39.674588982710027</v>
+        <v>40.379718283871149</v>
       </c>
       <c r="J447">
         <f t="shared" si="49"/>
-        <v>5.0660348252902327</v>
+        <v>4.8860304985394656</v>
       </c>
       <c r="K447" s="10">
         <f t="shared" si="50"/>
-        <v>0.12768966119593536</v>
+        <v>0.12100209476922207</v>
       </c>
       <c r="L447" t="s">
         <v>755</v>
@@ -28200,17 +28452,20 @@
       <c r="G448">
         <v>60.649718665570923</v>
       </c>
+      <c r="H448">
+        <v>61.348384000013823</v>
+      </c>
       <c r="I448" s="1">
         <f t="shared" si="48"/>
-        <v>59.24794204264542</v>
+        <v>59.598015702206823</v>
       </c>
       <c r="J448">
         <f t="shared" si="49"/>
-        <v>8.4257481972784145</v>
+        <v>7.7313507922102884</v>
       </c>
       <c r="K448" s="10">
         <f t="shared" si="50"/>
-        <v>0.14221166013181924</v>
+        <v>0.12972496988559987</v>
       </c>
       <c r="L448" t="s">
         <v>755</v>
@@ -28250,17 +28505,20 @@
       <c r="G449">
         <v>43.323497892013457</v>
       </c>
+      <c r="H449">
+        <v>45.094889411882953</v>
+      </c>
       <c r="I449" s="1">
         <f t="shared" si="48"/>
-        <v>42.510824321785499</v>
+        <v>42.941501836801741</v>
       </c>
       <c r="J449">
         <f t="shared" si="49"/>
-        <v>5.7789055541786327</v>
+        <v>5.362574640953687</v>
       </c>
       <c r="K449" s="10">
         <f t="shared" si="50"/>
-        <v>0.1359396258805812</v>
+        <v>0.12488092897481874</v>
       </c>
       <c r="L449" t="s">
         <v>755</v>
@@ -28300,17 +28558,20 @@
       <c r="G450">
         <v>39.618298254574157</v>
       </c>
+      <c r="H450">
+        <v>40.841156983430253</v>
+      </c>
       <c r="I450" s="1">
         <f t="shared" si="48"/>
-        <v>39.431073102354127</v>
+        <v>39.666087082533487</v>
       </c>
       <c r="J450">
         <f t="shared" si="49"/>
-        <v>4.8099631380812538</v>
+        <v>4.4222104969289582</v>
       </c>
       <c r="K450" s="10">
         <f t="shared" si="50"/>
-        <v>0.12198407904333924</v>
+        <v>0.11148592720344802</v>
       </c>
       <c r="L450" t="s">
         <v>755</v>
@@ -28350,17 +28611,20 @@
       <c r="G451">
         <v>41.423976489951208</v>
       </c>
+      <c r="H451">
+        <v>43.986371629607582</v>
+      </c>
       <c r="I451" s="1">
         <f t="shared" si="48"/>
-        <v>42.508314198269929</v>
+        <v>42.754657103492868</v>
       </c>
       <c r="J451">
         <f t="shared" si="49"/>
-        <v>4.0081657375952391</v>
+        <v>3.700169088676271</v>
       </c>
       <c r="K451" s="10">
         <f t="shared" si="50"/>
-        <v>9.4291336017234245E-2</v>
+        <v>8.6544234929064212E-2</v>
       </c>
       <c r="L451" t="s">
         <v>755</v>
@@ -28400,17 +28664,20 @@
       <c r="G452">
         <v>38.082260073484832</v>
       </c>
+      <c r="H452">
+        <v>46.790299484658227</v>
+      </c>
       <c r="I452" s="1">
         <f t="shared" si="48"/>
-        <v>40.528955944485816</v>
+        <v>41.572513201181216</v>
       </c>
       <c r="J452">
         <f t="shared" si="49"/>
-        <v>3.241697367028912</v>
+        <v>3.7685842066807145</v>
       </c>
       <c r="K452" s="10">
         <f t="shared" si="50"/>
-        <v>7.9984724291175882E-2</v>
+        <v>9.0650863190384082E-2</v>
       </c>
       <c r="L452" t="s">
         <v>755</v>
@@ -28450,17 +28717,20 @@
       <c r="G453">
         <v>38.594423165847687</v>
       </c>
+      <c r="H453">
+        <v>37.144043995045777</v>
+      </c>
       <c r="I453" s="1">
         <f t="shared" si="48"/>
-        <v>41.318952292560517</v>
+        <v>40.623134242974722</v>
       </c>
       <c r="J453">
         <f t="shared" si="49"/>
-        <v>4.082850936779348</v>
+        <v>4.0388373245213591</v>
       </c>
       <c r="K453" s="10">
         <f t="shared" si="50"/>
-        <v>9.881303155681577E-2</v>
+        <v>9.9422100233928334E-2</v>
       </c>
       <c r="L453" t="s">
         <v>755</v>
@@ -28500,17 +28770,20 @@
       <c r="G454">
         <v>78.935463673017551</v>
       </c>
+      <c r="H454">
+        <v>85.62811786783692</v>
+      </c>
       <c r="I454" s="1">
         <f t="shared" si="48"/>
-        <v>76.595963643114061</v>
+        <v>78.101322680567861</v>
       </c>
       <c r="J454">
         <f t="shared" si="49"/>
-        <v>2.4510212723956579</v>
+        <v>4.0418787161829446</v>
       </c>
       <c r="K454" s="10">
         <f t="shared" si="50"/>
-        <v>3.1999352913892137E-2</v>
+        <v>5.1751731948434611E-2</v>
       </c>
       <c r="L454" s="11" t="s">
         <v>21</v>
@@ -28550,17 +28823,20 @@
       <c r="G455">
         <v>77.583976478112632</v>
       </c>
+      <c r="H455">
+        <v>89.121264819789815</v>
+      </c>
       <c r="I455" s="1">
         <f t="shared" si="48"/>
-        <v>80.223534513332964</v>
+        <v>81.706489564409111</v>
       </c>
       <c r="J455">
         <f t="shared" si="49"/>
-        <v>4.592347228466295</v>
+        <v>5.3451369773433219</v>
       </c>
       <c r="K455" s="10">
         <f t="shared" si="50"/>
-        <v>5.7244389147464672E-2</v>
+        <v>6.5418756892373378E-2</v>
       </c>
       <c r="L455" s="11" t="s">
         <v>21</v>
@@ -28600,17 +28876,20 @@
       <c r="G456">
         <v>73.623656942667907</v>
       </c>
+      <c r="H456">
+        <v>77.931814187103072</v>
+      </c>
       <c r="I456" s="1">
         <f t="shared" si="48"/>
-        <v>75.894565301610399</v>
+        <v>76.234106782525842</v>
       </c>
       <c r="J456">
         <f t="shared" si="49"/>
-        <v>5.5206711293045156</v>
+        <v>5.0965298832890475</v>
       </c>
       <c r="K456" s="10">
         <f t="shared" si="50"/>
-        <v>7.2741323537001315E-2</v>
+        <v>6.6853670861888537E-2</v>
       </c>
       <c r="L456" s="11" t="s">
         <v>21</v>
